--- a/testy/scenariusze_testowe.xlsx
+++ b/testy/scenariusze_testowe.xlsx
@@ -8,14 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Studia WSB - Tester oprogramowania\App_zaliczenie\App_zaliczenie\testy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED7BA0D7-B316-4C9A-B1FF-6D52A6708DA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642BB2ED-0E79-4889-9003-525B469A12CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenariusze testowe" sheetId="1" r:id="rId1"/>
     <sheet name="Przypadki testowe" sheetId="2" r:id="rId2"/>
+    <sheet name="Dane do bazy danych" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Przypadki testowe'!$A$1:$J$1</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="155">
   <si>
     <t>Scenariusze testowe:</t>
   </si>
@@ -73,24 +77,12 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Uruchomienie i zamknięcie aplikacji</t>
-  </si>
-  <si>
     <t>Przypadki testowe:</t>
   </si>
   <si>
-    <t>Sprawdzenie poprawności uruchamiania się i zamykania aplikacji</t>
-  </si>
-  <si>
-    <t>Dodawanie wydatków do bazy danych</t>
-  </si>
-  <si>
     <t>Sprawdzenie poprawności funkcjonalności dodawania wydatków do bazy danych aplikacji</t>
   </si>
   <si>
-    <t>1. Cofnąć zmiany wprowadzone podczas modyfikacji (podmienic plik wydatki.db na oryginalny z folderu "dane_wejsciowe"</t>
-  </si>
-  <si>
     <t>1.Skopiować baze danych "wydatki.db" z folderu "dane_wejsciowe" do folderu "gui"                                                                     2. Uruchomić aplikacje używając pliku app_gui.py</t>
   </si>
   <si>
@@ -103,9 +95,6 @@
     <t>Warunek wstępny</t>
   </si>
   <si>
-    <t>Uruchomić aplikację - wyświetla się menu aplikacji</t>
-  </si>
-  <si>
     <t>Kliknięcie przycisku "Dodaj wydatek"</t>
   </si>
   <si>
@@ -167,13 +156,355 @@
   </si>
   <si>
     <t xml:space="preserve">Pojawienie się okienka o nazwie "Dodano dane" z informacją jak na poniższym screenie </t>
+  </si>
+  <si>
+    <t>Pozostawienie pola o nazwie "Nazwa sklepu:" pustego</t>
+  </si>
+  <si>
+    <t>Pole "Nazwa sklepu" pozostaje puste</t>
+  </si>
+  <si>
+    <t>Wybranie z menu rozwijanego o nazwie "Wybierz kategorie:" kategorii wydatku o nazwie "dom i rachunki"</t>
+  </si>
+  <si>
+    <t>W polu entry o nazwie "Wybierz kategorie:" pojawia się wybrana kategoria "dom i rachunki"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pojawienie się okienka o nazwie "Błąd" z informacją jak na poniższym screenie </t>
+  </si>
+  <si>
+    <t>Krok 8.</t>
+  </si>
+  <si>
+    <t>Zamknięcie okienka dialogowego. Okno aplikacji o nazwie "Dodaj Wydatek" pozostaje otwarte umożliwiając poprawienie danych lub cofnięcie się przyciskiem "Powrót"</t>
+  </si>
+  <si>
+    <t>Kliknięcie "Powrót" w okienku aplikacji</t>
+  </si>
+  <si>
+    <t>Dodawanie paragonu bez podania nazwy wydatku</t>
+  </si>
+  <si>
+    <t>Dodawanie paragonu bez podania kwoty</t>
+  </si>
+  <si>
+    <t>Wprowadzenie nazwy paragonu "H&amp;M" w polu entry o nazwie "Nazwa sklepu:"</t>
+  </si>
+  <si>
+    <t>W polu entry pojawia się wpisana nazwa "H&amp;M"</t>
+  </si>
+  <si>
+    <t>Pozostawienie pola o nazwie "Kwota paragonu:" pustego</t>
+  </si>
+  <si>
+    <t>Wybranie daty z widgetu kalendarza w polu data - 21 stycznia 2024</t>
+  </si>
+  <si>
+    <t>W polu wybierania daty pojawia się data w formacie  "2024-01-21"</t>
+  </si>
+  <si>
+    <t>Pole "Kwota paragonu:" pozostaje puste</t>
+  </si>
+  <si>
+    <t>Wybranie z menu rozwijanego o nazwie "Wybierz kategorie:" kategorii wydatku o nazwie "odzież i obuwie"</t>
+  </si>
+  <si>
+    <t>W polu entry o nazwie "Wybierz kategorie:" pojawia się wybrana kategoria "odzież i obuwie"</t>
+  </si>
+  <si>
+    <t>Okno aplikacji o nazwie "Dodaj Wydatek" zostaje zamknięte, następuje powrót do menu głównego. Paragon nie zostaje dodany.</t>
+  </si>
+  <si>
+    <t>Dodawanie paragonu z wpisaniem ciągu znaków zamiast kwoty liczbowej</t>
+  </si>
+  <si>
+    <t>Wprowadzenie ciągu znaków "qwerty" w polu entry o nazwie "Kwota paragonu:"</t>
+  </si>
+  <si>
+    <t>W polu entry pojawia się wpisany ciąg znaków "qwerty"</t>
+  </si>
+  <si>
+    <t>Dodawanie paragonu z kwotą paragonu podaną w wersji ujemnej</t>
+  </si>
+  <si>
+    <t>W polu entry pojawia się wpisana kwota "-10.5"</t>
+  </si>
+  <si>
+    <t>Użytkownikowi powinien zostać wyświetlony messagebox o treści: "Kwota paragonu nie może być liczbą ujemną!"</t>
+  </si>
+  <si>
+    <t>Wprowadzenie kwoty paragonu            "-10.5" w polu entry o nazwie "Kwota paragonu:"</t>
+  </si>
+  <si>
+    <t>Użytkownikowi powinien zostać wyświetlony messagebox o treści "Brak nazwy!"</t>
+  </si>
+  <si>
+    <t>Użytkownikowi powinien zostać wyświetlony messagebox o treści "Niepoprawne dane!"</t>
+  </si>
+  <si>
+    <t>Wprowadzenie kwoty paragonu            "0" w polu entry o nazwie "Kwota paragonu:"</t>
+  </si>
+  <si>
+    <t>W polu entry pojawia się wpisana kwota "0"</t>
+  </si>
+  <si>
+    <t>Dodawanie paragonu z kwotą paragonu równą "0" (0 ; -0; -0,0 ; -0.0 ; 0.0)</t>
+  </si>
+  <si>
+    <t>Wprowadzenie kwoty paragonu            "25" w polu entry o nazwie "Kwota paragonu:"</t>
+  </si>
+  <si>
+    <t>W polu entry pojawia się wpisana kwota "25"</t>
+  </si>
+  <si>
+    <t>Dodawanie paragonu z wartością "x" zamiast poprawnej daty</t>
+  </si>
+  <si>
+    <t>Po wpisaniu przez użytkownika niepoprawnej wartości w polu daty w oknie widgetu kalendarza wartość powinna zostać podmieniona na wartość domyślną (data dzisiejsza)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zaznaczenie  daty z widgetu kalendarza w polu data i ręczne wpisanie wartości "x" polu wybierania daty </t>
+  </si>
+  <si>
+    <t>W polu wybierania daty wartość "x" zastaje automatycznie podmieniona na datę w formacie  "rrrr-mm-dd" z dnia dzisiejszego</t>
+  </si>
+  <si>
+    <t>Użytkownikowi po wpisaniu wszystkich danych oraz kwoty równej "0" powinien zostać wyświetlony messagebox o treści: "Kwota paragonu nie może być zerem!"</t>
+  </si>
+  <si>
+    <t>Dodawanie paragonu bez podania kategorii wydatku</t>
+  </si>
+  <si>
+    <t>Użytkownikowi po wpisaniu wszystkich danych bez podania kategorii wydatku powinien zostać wyświetlony messagebox o treści: "Nieprawidłowa kategoria!"</t>
+  </si>
+  <si>
+    <t>Wprowadzenie kwoty paragonu "10.5" w polu entry o nazwie "Kwota paragonu:"</t>
+  </si>
+  <si>
+    <t>W polu entry pojawia się wpisana kwota "10.5"</t>
+  </si>
+  <si>
+    <t>Pole entry o nazwie "Wybierz kategorie:" pozostaje puste</t>
+  </si>
+  <si>
+    <t>Pozostawienie pola o nazwie "Wybierz kategorie:" pustego</t>
+  </si>
+  <si>
+    <t>Dodawanie paragonu z błędnie wpisaną nazwą kategorii</t>
+  </si>
+  <si>
+    <t>Użytkownikowi po wpisaniu wszystkich danych z błędnie podaną nazwą kategorii wydatku powinien zostać wyświetlony messagebox o treści: "Nieprawidłowa kategoria!"</t>
+  </si>
+  <si>
+    <t>Wprowadzenie ciągu znaków "qwerty" w polu entry o nazwie "Wybierz kategorie:"</t>
+  </si>
+  <si>
+    <t>nazwa</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>kwota</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>kategoria</t>
+  </si>
+  <si>
+    <t>Lidl</t>
+  </si>
+  <si>
+    <t>Rossmann</t>
+  </si>
+  <si>
+    <t>H&amp;M</t>
+  </si>
+  <si>
+    <t>PGE</t>
+  </si>
+  <si>
+    <t>Uber</t>
+  </si>
+  <si>
+    <t>26.88</t>
+  </si>
+  <si>
+    <t>15.37</t>
+  </si>
+  <si>
+    <t>dom i rachunki</t>
+  </si>
+  <si>
+    <t>odzież i obuwie</t>
+  </si>
+  <si>
+    <t>zdrowie i uroda</t>
+  </si>
+  <si>
+    <t>wydatki podstawowe</t>
+  </si>
+  <si>
+    <t>rozrywka i podróże</t>
+  </si>
+  <si>
+    <t>Dodawanie wydatków do bazy danych aplikacji</t>
+  </si>
+  <si>
+    <t>Wyświetlanie wyników z bazy danych aplikacji</t>
+  </si>
+  <si>
+    <t>Sprawdzenie poprawności funkcjonalności wyświetlania wydatków z bazy danych aplikacji sortując po dacie, miesiącu i wyświetlenie wszystkich wydatków</t>
+  </si>
+  <si>
+    <t>1. Cofnąć zmiany wprowadzone podczas modyfikacji (podmienic plik wydatki.db na oryginalny plik umieszczony w folderze "dane_wejsciowe"</t>
+  </si>
+  <si>
+    <t>Wyświetlanie wszystkich wydatków z bazy danych aplikacji</t>
+  </si>
+  <si>
+    <t>Użytkownikowi po wybraniu opcji "Pokaż wszystkie" w oknie o nazwie pokaż wydatki powinny wyświetlić się wszystkie wydatki dodane do bazy danych</t>
+  </si>
+  <si>
+    <t>Kliknięcie przycisku "Pokaż wydatki"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uruchamia się okno aplikacji o nazwie "Pokaż wydatki" </t>
+  </si>
+  <si>
+    <t>Kliknięcie przycisku "Pokaż wszystkie"</t>
+  </si>
+  <si>
+    <t>Uruchomienie aplikacji - wyświetla się menu aplikacji</t>
+  </si>
+  <si>
+    <t>W dolnej sekcji okna o nazwie "Wydatki" pojawia się tabela z danymi z bazy danych(patrz zakładke "Dane do bazy danych" i screen ponizej)</t>
+  </si>
+  <si>
+    <t>Wybranie daty z widgetu kalendarza w polu "data początkowa" - 01 grudnia 2023</t>
+  </si>
+  <si>
+    <t>W polu wybierania daty pojawia się data w formacie  "2023-12-01"</t>
+  </si>
+  <si>
+    <t>Wybranie daty z widgetu kalendarza w polu "data początkowa" - 24 grudnia 2023</t>
+  </si>
+  <si>
+    <t>Kliknięcie przycisku "Pokaż wg daty"</t>
+  </si>
+  <si>
+    <t>W polu wybierania daty pojawia się data w formacie  "2023-12-24"</t>
+  </si>
+  <si>
+    <t>Przypadek testowy 2.1.</t>
+  </si>
+  <si>
+    <t>Przypadek testowy 2.2.</t>
+  </si>
+  <si>
+    <t>Okno aplikacji o nazwie "Pokaż wydatki" zostaje zamknięte, następuje powrót do menu głównego.</t>
+  </si>
+  <si>
+    <t>Wyświetlanie wydatków z bazy danych aplikacji z wybranego zakresu dat</t>
+  </si>
+  <si>
+    <t>Użytkownikowi po wybraniu daty początkowej ("2023-12-01"), daty końcowej ("2023-12-24") i kliknięciu w przycisk "Pokaż wg daty" w oknie o nazwie pokaż wydatki powinny wyświetlić się  wydatki dodane do bazy danych mieszczące się w wybranym zakresie</t>
+  </si>
+  <si>
+    <t>Wyświetlanie wydatków z bazy danych aplikacji z wybranego zakresu dat na przełomie roku 2023/2024</t>
+  </si>
+  <si>
+    <t>Przypadek testowy 2.3.</t>
+  </si>
+  <si>
+    <t>W polu wybierania daty pojawia się data w formacie  "2023-12-23"</t>
+  </si>
+  <si>
+    <t>Wybranie daty z widgetu kalendarza w polu "data początkowa" - 23 grudnia 2023</t>
+  </si>
+  <si>
+    <t>Użytkownikowi po wybraniu daty początkowej ("2023-12-23"), daty końcowej ("2024-01-13") i kliknięciu w przycisk "Pokaż wg daty" w oknie o nazwie pokaż wydatki powinny wyświetlić się  wydatki dodane do bazy danych mieszczące się w wybranym zakresie</t>
+  </si>
+  <si>
+    <t>W polu wybierania daty pojawia się data w formacie  "2024-01-13"</t>
+  </si>
+  <si>
+    <t>Wybranie daty z widgetu kalendarza w polu "data początkowa" - 13 stycznia 2024</t>
+  </si>
+  <si>
+    <t>Wyświetlanie wydatków z bazy danych aplikacji z wybranego zakresu dat gdzie data początkowa jest późniejsza od daty końcowej</t>
+  </si>
+  <si>
+    <t>Użytkownikowi po wybraniu daty początkowej ("2024-01-13"), daty końcowej ("2023-12-23") i kliknięciu w przycisk "Pokaż wg daty" powinien zostać wyświetlony messagebox o treści: "Data początkowa nie może być późniejsza niż data końcowa."</t>
+  </si>
+  <si>
+    <t>Zamknięcie okienka dialogowego. Okno aplikacji o nazwie "Pokaż wydatki" pozostaje otwarte umożliwiając poprawienie danych lub cofnięcie się przyciskiem "Powrót"</t>
+  </si>
+  <si>
+    <t>Wyświetlanie wydatków z bazy danych aplikacji z wybranego zakresu dat gdzie data początkowa jest zapisana w zlym formacie</t>
+  </si>
+  <si>
+    <t>Użytkownikowi po wybraniu daty początkowej ("2024-01-01q"), daty końcowej ("2024-01-31") i kliknięciu w przycisk "Pokaż wg daty" powinien zostać wyświetlony messagebox o treści: "Nieprawidłowy format daty. Użyj formatu YYYY-MM-DD."</t>
+  </si>
+  <si>
+    <t>W polu wybierania daty pojawia się data w formacie  "2024-01-01q"</t>
+  </si>
+  <si>
+    <t>Wpisanie w polu "data początkowa" - "2024-01-01q"</t>
+  </si>
+  <si>
+    <t>Wybranie daty z widgetu kalendarza w polu "data początkowa" - 31 stycznia 2024</t>
+  </si>
+  <si>
+    <t>W polu wybierania daty pojawia się data w formacie  "2024-01-31"</t>
+  </si>
+  <si>
+    <t>Wyświetlanie wydatków z bazy danych aplikacji z wybranego zakresu dat gdzie data końcowa jest zapisana w zlym formacie</t>
+  </si>
+  <si>
+    <t>Użytkownikowi po wybraniu daty początkowej ("2024-01-01"), daty końcowej ("2024-01-31q") i kliknięciu w przycisk "Pokaż wg daty" powinien zostać wyświetlony messagebox o treści: "Nieprawidłowy format daty. Użyj formatu YYYY-MM-DD."</t>
+  </si>
+  <si>
+    <t>Wybranie daty z widgetu kalendarza w polu "data początkowa" - 01 stycznia 2024</t>
+  </si>
+  <si>
+    <t>W polu wybierania daty pojawia się data w formacie  "2024-01-31q"</t>
+  </si>
+  <si>
+    <t>W polu wybierania daty pojawia się data w formacie  "2024-01-01"</t>
+  </si>
+  <si>
+    <t>Wpisanie w polu "data końcowa" - "2024-01-31q"</t>
+  </si>
+  <si>
+    <t>Wyświetlanie wydatków z bazy danych aplikacji z wybranego zakresu dat gdzie data początkowa i data końcowa jest zapisana w zlym formacie</t>
+  </si>
+  <si>
+    <t>Użytkownikowi po wybraniu daty początkowej ("2024-01-01q"), daty końcowej ("2024-01-31q") i kliknięciu w przycisk "Pokaż wg daty" powinien zostać wyświetlony messagebox o treści: "Nieprawidłowy format daty. Użyj formatu YYYY-MM-DD."</t>
+  </si>
+  <si>
+    <t>Wyświetlanie wydatków z danego miesiąca z bazy danych aplikacji z poprawnymi danymi</t>
+  </si>
+  <si>
+    <t>Użytkownikowi po wybraniu miesiąca z listy rozwijanej i wpisaniu roku (domyślnie 2024) oraz kliknięciu w przycisk "Pokaż z miesiąca" w oknie o nazwie pokaż wydatki powinny wyświetlić się  wydatki dodane do bazy danych mieszczące się w wybranym zakresie</t>
+  </si>
+  <si>
+    <t>Wybranie z listy rozwijanej o nazwie "Wybierz miesiąc" miesiąca o nazwie "styczeń"</t>
+  </si>
+  <si>
+    <t>W polu wybierania  o nazwie "Wybierz miesiąc" wyświetla się nazwa "styczeń"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,8 +519,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -208,8 +552,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDFE6E7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -239,19 +595,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -269,11 +612,94 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -286,12 +712,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -309,13 +729,97 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -326,7 +830,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFDFE6E7"/>
       <color rgb="FFBCEFEE"/>
+      <color rgb="FFD1F4F3"/>
       <color rgb="FF33CCCC"/>
       <color rgb="FF00FFFF"/>
       <color rgb="FF66FFFF"/>
@@ -348,15 +854,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>627931</xdr:rowOff>
+      <xdr:colOff>1933575</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>265981</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2019565</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>2057618</xdr:rowOff>
+      <xdr:colOff>3657865</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1695668</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -379,7 +885,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11334750" y="4933231"/>
+          <a:off x="10696575" y="4199806"/>
           <a:ext cx="1724290" cy="1429687"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -394,6 +900,691 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2171701</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>243654</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3390901</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1438470</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Obraz 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E98E987-12A1-29DE-046F-55883A9003E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10934701" y="9711504"/>
+          <a:ext cx="1219200" cy="1194816"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1943100</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>282869</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3562350</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>1533718</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Obraz 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE525692-09CA-90F1-AB56-2CAA25887CE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10706100" y="16389644"/>
+          <a:ext cx="1619250" cy="1250849"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1990725</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>314325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3609975</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>1565174</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Obraz 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2696CDBF-8AAE-4E54-AE27-B8177122D904}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10753725" y="23012400"/>
+          <a:ext cx="1619250" cy="1250849"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1752601</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>276776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3981451</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>1286066</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Obraz 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71C81113-B788-82C9-65D8-A1FAC64CFFD4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10515601" y="28642226"/>
+          <a:ext cx="2228850" cy="1009290"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1781175</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>237287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3838575</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>1295590</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Obraz 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89A1B253-8376-C5AF-7426-77AA830DEC62}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10544175" y="34746362"/>
+          <a:ext cx="2057400" cy="1058303"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2276475</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3589202</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>1580897</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Obraz 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4767063E-A284-547B-5420-DA051E73F38A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11039475" y="41309925"/>
+          <a:ext cx="1312727" cy="1304672"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1924050</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>272597</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3781425</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>1505141</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Obraz 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{366D23F0-06F5-7C01-0DBA-63F7CDEF3008}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10687050" y="40887197"/>
+          <a:ext cx="1857375" cy="1232544"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1847850</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>234497</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1857375" cy="1232544"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Obraz 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AE3C1AD-3B22-4806-90BF-BB7D9C7BE5E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10610850" y="45887822"/>
+          <a:ext cx="1857375" cy="1232544"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>137996</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>452784</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>5604785</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>2914650</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Obraz 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F25E00E-990B-45D9-9A9D-09F5A78E2F53}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8900996" y="49001709"/>
+          <a:ext cx="5466789" cy="2461866"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>458267</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>5600700</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>2924630</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Obraz 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{699665AF-F9A0-C2D3-8ECA-7C312FE02B4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8877301" y="54103067"/>
+          <a:ext cx="5486399" cy="2466363"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>123826</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>474947</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>5562600</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>2934158</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Obraz 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1555C01-1354-1D77-B727-2B59EF038339}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8934451" y="59215622"/>
+          <a:ext cx="5438774" cy="2459211"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1219200</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>293504</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4410075</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>1447991</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Obraz 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0A8F2FA-D12E-680F-DD1A-49B16EDB6079}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10029825" y="64130054"/>
+          <a:ext cx="3190875" cy="1154487"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1238250</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>219970</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4410075</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>1476567</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Obraz 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11FB358D-91E2-ED1E-7F35-234A0DE33896}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10048875" y="67876045"/>
+          <a:ext cx="3171825" cy="1256597"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1238250</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>219970</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3171825" cy="1256597"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Obraz 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E64918CA-3EB6-4468-9360-790451EBF404}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10048875" y="67876045"/>
+          <a:ext cx="3171825" cy="1256597"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1238250</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>219970</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3171825" cy="1256597"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Obraz 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAEB1FFF-506E-4B39-A6CE-23D355DC7A22}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10048875" y="71695570"/>
+          <a:ext cx="3171825" cy="1256597"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -660,10 +1851,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:F316"/>
+  <dimension ref="B1:F315"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -683,10 +1874,10 @@
       <c r="C1" s="3"/>
     </row>
     <row r="2" spans="2:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6"/>
+      <c r="C2" s="24"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -708,56 +1899,62 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:6" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="B4" s="7">
+    <row r="4" spans="2:6" s="1" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="5">
         <v>1</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="8" t="s">
+      <c r="C4" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="B5" s="7">
+      <c r="F4" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" s="1" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="5">
         <v>2</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>20</v>
+      <c r="C5" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="2:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
     </row>
     <row r="7" spans="2:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
     </row>
     <row r="8" spans="2:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-    </row>
-    <row r="9" spans="2:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="8"/>
@@ -765,228 +1962,225 @@
       <c r="F9" s="8"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="2:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
     </row>
     <row r="13" spans="2:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
     </row>
     <row r="14" spans="2:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
     </row>
     <row r="15" spans="2:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
     </row>
     <row r="16" spans="2:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
     </row>
     <row r="17" spans="2:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
     </row>
     <row r="18" spans="2:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
     </row>
     <row r="19" spans="2:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
     </row>
     <row r="20" spans="2:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
     </row>
     <row r="21" spans="2:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
     </row>
     <row r="22" spans="2:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
     </row>
     <row r="23" spans="2:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
     </row>
     <row r="24" spans="2:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
     </row>
     <row r="25" spans="2:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
     </row>
     <row r="26" spans="2:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
     </row>
     <row r="27" spans="2:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
     </row>
     <row r="28" spans="2:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
     </row>
     <row r="29" spans="2:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
     </row>
     <row r="30" spans="2:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
     </row>
     <row r="31" spans="2:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
     </row>
     <row r="32" spans="2:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
     </row>
     <row r="33" spans="2:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
     </row>
     <row r="34" spans="2:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
     </row>
     <row r="35" spans="2:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
     </row>
     <row r="36" spans="2:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
     </row>
     <row r="37" spans="2:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
     </row>
     <row r="38" spans="2:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
     </row>
     <row r="39" spans="2:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
     </row>
     <row r="40" spans="2:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
     </row>
     <row r="41" spans="2:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
     </row>
     <row r="42" spans="2:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="3"/>
@@ -2083,10 +3277,6 @@
     <row r="315" spans="2:3" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B315" s="3"/>
       <c r="C315" s="3"/>
-    </row>
-    <row r="316" spans="2:3" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B316" s="3"/>
-      <c r="C316" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2098,355 +3288,2464 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0953F3B-78FC-43F3-9402-DE0C5199EBA3}">
-  <dimension ref="B1:J503"/>
+  <dimension ref="A1:J497"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F129" sqref="F129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="14" style="3" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="30" style="3" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="34.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="23" style="3" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="35" style="3" customWidth="1"/>
+    <col min="8" max="8" width="84.7109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="35.42578125" style="3" customWidth="1"/>
     <col min="10" max="10" width="14" style="3" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+    <row r="1" spans="1:10" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J1" s="14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="3">
+    <row r="2" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="35"/>
+      <c r="B2" s="30">
         <v>1</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C2" s="30">
         <v>1</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="13">
+      <c r="D2" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="36"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+    </row>
+    <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="36"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="36"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="36"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="36"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="1:10" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="36"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+    </row>
+    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="36"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+    </row>
+    <row r="10" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="36"/>
+      <c r="B10" s="25">
+        <v>1</v>
+      </c>
+      <c r="C10" s="25">
         <v>2</v>
       </c>
-      <c r="C5" s="13">
-        <v>1</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-    </row>
-    <row r="6" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-    </row>
-    <row r="7" spans="2:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-    </row>
-    <row r="8" spans="2:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-    </row>
-    <row r="9" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-    </row>
-    <row r="10" spans="2:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
+      <c r="D10" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>68</v>
+      </c>
       <c r="F10" s="11" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>39</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="H10" s="11"/>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
     </row>
-    <row r="11" spans="2:10" ht="171.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
+    <row r="11" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="36"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
       <c r="F11" s="11" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>46</v>
+        <v>21</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
     </row>
-    <row r="12" spans="2:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
+    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="36"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
       <c r="F12" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="H12" s="11" t="s">
         <v>43</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>44</v>
       </c>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
     </row>
-    <row r="13" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="36"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+    </row>
+    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="36"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+    </row>
+    <row r="15" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="36"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+    </row>
+    <row r="16" spans="1:10" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="36"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+    </row>
+    <row r="17" spans="1:10" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="36"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+    </row>
+    <row r="18" spans="1:10" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="36"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+    </row>
+    <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="36"/>
+      <c r="B19" s="26">
+        <v>1</v>
+      </c>
+      <c r="C19" s="26">
+        <v>3</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="36"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+    </row>
+    <row r="21" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="36"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+    </row>
+    <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="36"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+    </row>
+    <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="36"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+    </row>
+    <row r="24" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" s="36"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+    </row>
+    <row r="25" spans="1:10" ht="129" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="36"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+    </row>
+    <row r="26" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="36"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+    </row>
+    <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="36"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+    </row>
+    <row r="28" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="36"/>
+      <c r="B28" s="25">
+        <v>1</v>
+      </c>
+      <c r="C28" s="25">
+        <v>4</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="E28" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="36"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+    </row>
+    <row r="30" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="36"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+    </row>
+    <row r="31" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="36"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+    </row>
+    <row r="32" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="36"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+    </row>
+    <row r="33" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A33" s="36"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+    </row>
+    <row r="34" spans="1:10" ht="131.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="36"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+    </row>
+    <row r="35" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="36"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+    </row>
+    <row r="36" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="36"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+    </row>
+    <row r="37" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="36"/>
+      <c r="B37" s="26">
+        <v>1</v>
+      </c>
+      <c r="C37" s="26">
+        <v>5</v>
+      </c>
+      <c r="D37" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="E37" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="36"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+    </row>
+    <row r="39" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="36"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+    </row>
+    <row r="40" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="36"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+    </row>
+    <row r="41" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="36"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+    </row>
+    <row r="42" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A42" s="36"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+    </row>
+    <row r="43" spans="1:10" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="36"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+    </row>
+    <row r="44" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="36"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H44" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+    </row>
+    <row r="45" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="36"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H45" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+    </row>
+    <row r="46" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="36"/>
+      <c r="B46" s="25">
+        <v>1</v>
+      </c>
+      <c r="C46" s="25">
+        <v>6</v>
+      </c>
+      <c r="D46" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="E46" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G46" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="36"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H47" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+    </row>
+    <row r="48" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" s="36"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H48" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+    </row>
+    <row r="49" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49" s="36"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H49" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+    </row>
+    <row r="50" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="36"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H50" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+    </row>
+    <row r="51" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A51" s="36"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G51" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H51" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+    </row>
+    <row r="52" spans="1:10" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="36"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G52" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H52" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+    </row>
+    <row r="53" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="36"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G53" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H53" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+    </row>
+    <row r="54" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="36"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="25"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G54" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H54" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
+    </row>
+    <row r="55" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="36"/>
+      <c r="B55" s="26">
+        <v>1</v>
+      </c>
+      <c r="C55" s="26">
+        <v>7</v>
+      </c>
+      <c r="D55" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="E55" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G55" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="36"/>
+      <c r="B56" s="26"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="26"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G56" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H56" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+    </row>
+    <row r="57" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A57" s="36"/>
+      <c r="B57" s="26"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H57" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+    </row>
+    <row r="58" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A58" s="36"/>
+      <c r="B58" s="26"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G58" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H58" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+    </row>
+    <row r="59" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A59" s="36"/>
+      <c r="B59" s="26"/>
+      <c r="C59" s="26"/>
+      <c r="D59" s="26"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G59" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="H59" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+    </row>
+    <row r="60" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A60" s="36"/>
+      <c r="B60" s="26"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G60" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H60" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+    </row>
+    <row r="61" spans="1:10" ht="132" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="36"/>
+      <c r="B61" s="26"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="26"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G61" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H61" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+    </row>
+    <row r="62" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="36"/>
+      <c r="B62" s="26"/>
+      <c r="C62" s="26"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G62" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H62" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+    </row>
+    <row r="63" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="36"/>
+      <c r="B63" s="25">
+        <v>1</v>
+      </c>
+      <c r="C63" s="25">
+        <v>8</v>
+      </c>
+      <c r="D63" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="E63" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="F63" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G63" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="H63" s="11"/>
+      <c r="I63" s="11"/>
+      <c r="J63" s="11"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="36"/>
+      <c r="B64" s="25"/>
+      <c r="C64" s="25"/>
+      <c r="D64" s="25"/>
+      <c r="E64" s="25"/>
+      <c r="F64" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G64" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H64" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I64" s="11"/>
+      <c r="J64" s="11"/>
+    </row>
+    <row r="65" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A65" s="36"/>
+      <c r="B65" s="25"/>
+      <c r="C65" s="25"/>
+      <c r="D65" s="25"/>
+      <c r="E65" s="25"/>
+      <c r="F65" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G65" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H65" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="I65" s="11"/>
+      <c r="J65" s="11"/>
+    </row>
+    <row r="66" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A66" s="36"/>
+      <c r="B66" s="25"/>
+      <c r="C66" s="25"/>
+      <c r="D66" s="25"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G66" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="H66" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="I66" s="11"/>
+      <c r="J66" s="11"/>
+    </row>
+    <row r="67" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="36"/>
+      <c r="B67" s="25"/>
+      <c r="C67" s="25"/>
+      <c r="D67" s="25"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G67" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H67" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I67" s="11"/>
+      <c r="J67" s="11"/>
+    </row>
+    <row r="68" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="36"/>
+      <c r="B68" s="25"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="25"/>
+      <c r="E68" s="25"/>
+      <c r="F68" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G68" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H68" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="I68" s="11"/>
+      <c r="J68" s="11"/>
+    </row>
+    <row r="69" spans="1:10" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="36"/>
+      <c r="B69" s="25"/>
+      <c r="C69" s="25"/>
+      <c r="D69" s="25"/>
+      <c r="E69" s="25"/>
+      <c r="F69" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G69" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H69" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I69" s="11"/>
+      <c r="J69" s="11"/>
+    </row>
+    <row r="70" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A70" s="36"/>
+      <c r="B70" s="25"/>
+      <c r="C70" s="25"/>
+      <c r="D70" s="25"/>
+      <c r="E70" s="25"/>
+      <c r="F70" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G70" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H70" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="I70" s="11"/>
+      <c r="J70" s="11"/>
+    </row>
+    <row r="71" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="36"/>
+      <c r="B71" s="25"/>
+      <c r="C71" s="25"/>
+      <c r="D71" s="25"/>
+      <c r="E71" s="25"/>
+      <c r="F71" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G71" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H71" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I71" s="11"/>
+      <c r="J71" s="11"/>
+    </row>
+    <row r="72" spans="1:10" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="36"/>
+      <c r="B72" s="26">
+        <v>1</v>
+      </c>
+      <c r="C72" s="26">
+        <v>9</v>
+      </c>
+      <c r="D72" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="E72" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="F72" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G72" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="H72" s="9"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+    </row>
+    <row r="73" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="36"/>
+      <c r="B73" s="26"/>
+      <c r="C73" s="26"/>
+      <c r="D73" s="26"/>
+      <c r="E73" s="26"/>
+      <c r="F73" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G73" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H73" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+    </row>
+    <row r="74" spans="1:10" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A74" s="36"/>
+      <c r="B74" s="26"/>
+      <c r="C74" s="26"/>
+      <c r="D74" s="26"/>
+      <c r="E74" s="26"/>
+      <c r="F74" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G74" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H74" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+    </row>
+    <row r="75" spans="1:10" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A75" s="36"/>
+      <c r="B75" s="26"/>
+      <c r="C75" s="26"/>
+      <c r="D75" s="26"/>
+      <c r="E75" s="26"/>
+      <c r="F75" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G75" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H75" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+    </row>
+    <row r="76" spans="1:10" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76" s="36"/>
+      <c r="B76" s="26"/>
+      <c r="C76" s="26"/>
+      <c r="D76" s="26"/>
+      <c r="E76" s="26"/>
+      <c r="F76" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G76" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H76" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+    </row>
+    <row r="77" spans="1:10" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A77" s="36"/>
+      <c r="B77" s="26"/>
+      <c r="C77" s="26"/>
+      <c r="D77" s="26"/>
+      <c r="E77" s="26"/>
+      <c r="F77" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G77" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="H77" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+    </row>
+    <row r="78" spans="1:10" s="15" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="36"/>
+      <c r="B78" s="26"/>
+      <c r="C78" s="26"/>
+      <c r="D78" s="26"/>
+      <c r="E78" s="26"/>
+      <c r="F78" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G78" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H78" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+    </row>
+    <row r="79" spans="1:10" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="36"/>
+      <c r="B79" s="26"/>
+      <c r="C79" s="26"/>
+      <c r="D79" s="26"/>
+      <c r="E79" s="26"/>
+      <c r="F79" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G79" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H79" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+    </row>
+    <row r="80" spans="1:10" s="21" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="37"/>
+      <c r="B80" s="27"/>
+      <c r="C80" s="27"/>
+      <c r="D80" s="27"/>
+      <c r="E80" s="27"/>
+      <c r="F80" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="G80" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="H80" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="I80" s="16"/>
+      <c r="J80" s="16"/>
+    </row>
+    <row r="81" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B81" s="28">
+        <v>2</v>
+      </c>
+      <c r="C81" s="28">
+        <v>1</v>
+      </c>
+      <c r="D81" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="E81" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="F81" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G81" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="H81" s="20"/>
+      <c r="I81" s="20"/>
+      <c r="J81" s="20"/>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B82" s="25"/>
+      <c r="C82" s="25"/>
+      <c r="D82" s="25"/>
+      <c r="E82" s="25"/>
+      <c r="F82" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G82" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="H82" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="I82" s="11"/>
+      <c r="J82" s="11"/>
+    </row>
+    <row r="83" spans="2:10" ht="236.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="25"/>
+      <c r="C83" s="25"/>
+      <c r="D83" s="25"/>
+      <c r="E83" s="25"/>
+      <c r="F83" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G83" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="H83" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="I83" s="11"/>
+      <c r="J83" s="11"/>
+    </row>
+    <row r="84" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B84" s="29"/>
+      <c r="C84" s="29"/>
+      <c r="D84" s="29"/>
+      <c r="E84" s="29"/>
+      <c r="F84" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G84" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H84" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="I84" s="11"/>
+      <c r="J84" s="11"/>
+    </row>
+    <row r="85" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B85" s="26">
+        <v>2</v>
+      </c>
+      <c r="C85" s="26">
+        <v>2</v>
+      </c>
+      <c r="D85" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="E85" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="F85" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G85" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="H85" s="13"/>
+      <c r="I85" s="13"/>
+      <c r="J85" s="13"/>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B86" s="26"/>
+      <c r="C86" s="26"/>
+      <c r="D86" s="26"/>
+      <c r="E86" s="26"/>
+      <c r="F86" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G86" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="H86" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+    </row>
+    <row r="87" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B87" s="26"/>
+      <c r="C87" s="26"/>
+      <c r="D87" s="26"/>
+      <c r="E87" s="26"/>
+      <c r="F87" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G87" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="H87" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+    </row>
+    <row r="88" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B88" s="26"/>
+      <c r="C88" s="26"/>
+      <c r="D88" s="26"/>
+      <c r="E88" s="26"/>
+      <c r="F88" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G88" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="H88" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+    </row>
+    <row r="89" spans="2:10" ht="236.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="26"/>
+      <c r="C89" s="26"/>
+      <c r="D89" s="26"/>
+      <c r="E89" s="26"/>
+      <c r="F89" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G89" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="H89" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+    </row>
+    <row r="90" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B90" s="26"/>
+      <c r="C90" s="26"/>
+      <c r="D90" s="26"/>
+      <c r="E90" s="26"/>
+      <c r="F90" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G90" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H90" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+    </row>
+    <row r="91" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B91" s="26">
+        <v>2</v>
+      </c>
+      <c r="C91" s="26">
+        <v>3</v>
+      </c>
+      <c r="D91" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="E91" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="F91" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G91" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="H91" s="13"/>
+      <c r="I91" s="13"/>
+      <c r="J91" s="13"/>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B92" s="26"/>
+      <c r="C92" s="26"/>
+      <c r="D92" s="26"/>
+      <c r="E92" s="26"/>
+      <c r="F92" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G92" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="H92" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+    </row>
+    <row r="93" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B93" s="26"/>
+      <c r="C93" s="26"/>
+      <c r="D93" s="26"/>
+      <c r="E93" s="26"/>
+      <c r="F93" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G93" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="H93" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+    </row>
+    <row r="94" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B94" s="26"/>
+      <c r="C94" s="26"/>
+      <c r="D94" s="26"/>
+      <c r="E94" s="26"/>
+      <c r="F94" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G94" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="H94" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+    </row>
+    <row r="95" spans="2:10" ht="236.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="26"/>
+      <c r="C95" s="26"/>
+      <c r="D95" s="26"/>
+      <c r="E95" s="26"/>
+      <c r="F95" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G95" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="H95" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+    </row>
+    <row r="96" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B96" s="26"/>
+      <c r="C96" s="26"/>
+      <c r="D96" s="26"/>
+      <c r="E96" s="26"/>
+      <c r="F96" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G96" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H96" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+    </row>
+    <row r="97" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B97" s="25">
+        <v>2</v>
+      </c>
+      <c r="C97" s="25">
+        <v>4</v>
+      </c>
+      <c r="D97" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="E97" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="F97" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G97" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="H97" s="20"/>
+      <c r="I97" s="20"/>
+      <c r="J97" s="20"/>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B98" s="25"/>
+      <c r="C98" s="25"/>
+      <c r="D98" s="25"/>
+      <c r="E98" s="25"/>
+      <c r="F98" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G98" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="H98" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="I98" s="11"/>
+      <c r="J98" s="11"/>
+    </row>
+    <row r="99" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B99" s="25"/>
+      <c r="C99" s="25"/>
+      <c r="D99" s="25"/>
+      <c r="E99" s="25"/>
+      <c r="F99" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G99" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="H99" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="I99" s="11"/>
+      <c r="J99" s="11"/>
+    </row>
+    <row r="100" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B100" s="25"/>
+      <c r="C100" s="25"/>
+      <c r="D100" s="25"/>
+      <c r="E100" s="25"/>
+      <c r="F100" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G100" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="H100" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="I100" s="11"/>
+      <c r="J100" s="11"/>
+    </row>
+    <row r="101" spans="2:10" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="25"/>
+      <c r="C101" s="25"/>
+      <c r="D101" s="25"/>
+      <c r="E101" s="25"/>
+      <c r="F101" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="G101" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="H101" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I101" s="11"/>
+      <c r="J101" s="11"/>
+    </row>
+    <row r="102" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B102" s="25"/>
+      <c r="C102" s="25"/>
+      <c r="D102" s="25"/>
+      <c r="E102" s="25"/>
+      <c r="F102" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="G102" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="H102" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="I102" s="11"/>
+      <c r="J102" s="11"/>
+    </row>
+    <row r="103" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B103" s="25"/>
+      <c r="C103" s="25"/>
+      <c r="D103" s="25"/>
+      <c r="E103" s="25"/>
+      <c r="F103" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="G103" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="H103" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="I103" s="11"/>
+      <c r="J103" s="11"/>
+    </row>
+    <row r="104" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B104" s="26">
+        <v>2</v>
+      </c>
+      <c r="C104" s="26">
+        <v>5</v>
+      </c>
+      <c r="D104" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="E104" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="F104" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G104" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="H104" s="13"/>
+      <c r="I104" s="13"/>
+      <c r="J104" s="13"/>
+    </row>
+    <row r="105" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B105" s="26"/>
+      <c r="C105" s="26"/>
+      <c r="D105" s="26"/>
+      <c r="E105" s="26"/>
+      <c r="F105" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G105" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="H105" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+    </row>
+    <row r="106" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B106" s="26"/>
+      <c r="C106" s="26"/>
+      <c r="D106" s="26"/>
+      <c r="E106" s="26"/>
+      <c r="F106" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="G106" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="H106" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+    </row>
+    <row r="107" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B107" s="26"/>
+      <c r="C107" s="26"/>
+      <c r="D107" s="26"/>
+      <c r="E107" s="26"/>
+      <c r="F107" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="G107" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="H107" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+    </row>
+    <row r="108" spans="2:10" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B108" s="26"/>
+      <c r="C108" s="26"/>
+      <c r="D108" s="26"/>
+      <c r="E108" s="26"/>
+      <c r="F108" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="G108" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="H108" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+    </row>
+    <row r="109" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B109" s="26"/>
+      <c r="C109" s="26"/>
+      <c r="D109" s="26"/>
+      <c r="E109" s="26"/>
+      <c r="F109" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="G109" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="H109" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+    </row>
+    <row r="110" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B110" s="26"/>
+      <c r="C110" s="26"/>
+      <c r="D110" s="26"/>
+      <c r="E110" s="26"/>
+      <c r="F110" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="G110" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="H110" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+    </row>
+    <row r="111" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B111" s="25">
+        <v>2</v>
+      </c>
+      <c r="C111" s="25">
+        <v>6</v>
+      </c>
+      <c r="D111" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="E111" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="F111" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G111" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="H111" s="20"/>
+      <c r="I111" s="20"/>
+      <c r="J111" s="20"/>
+    </row>
+    <row r="112" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B112" s="25"/>
+      <c r="C112" s="25"/>
+      <c r="D112" s="25"/>
+      <c r="E112" s="25"/>
+      <c r="F112" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G112" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="H112" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="I112" s="11"/>
+      <c r="J112" s="11"/>
+    </row>
+    <row r="113" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B113" s="25"/>
+      <c r="C113" s="25"/>
+      <c r="D113" s="25"/>
+      <c r="E113" s="25"/>
+      <c r="F113" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G113" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="H113" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="I113" s="11"/>
+      <c r="J113" s="11"/>
+    </row>
+    <row r="114" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B114" s="25"/>
+      <c r="C114" s="25"/>
+      <c r="D114" s="25"/>
+      <c r="E114" s="25"/>
+      <c r="F114" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G114" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="H114" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="I114" s="11"/>
+      <c r="J114" s="11"/>
+    </row>
+    <row r="115" spans="2:10" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B115" s="25"/>
+      <c r="C115" s="25"/>
+      <c r="D115" s="25"/>
+      <c r="E115" s="25"/>
+      <c r="F115" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="G115" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="H115" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I115" s="11"/>
+      <c r="J115" s="11"/>
+    </row>
+    <row r="116" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B116" s="25"/>
+      <c r="C116" s="25"/>
+      <c r="D116" s="25"/>
+      <c r="E116" s="25"/>
+      <c r="F116" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="G116" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="H116" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="I116" s="11"/>
+      <c r="J116" s="11"/>
+    </row>
+    <row r="117" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B117" s="25"/>
+      <c r="C117" s="25"/>
+      <c r="D117" s="25"/>
+      <c r="E117" s="25"/>
+      <c r="F117" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="G117" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="H117" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="I117" s="11"/>
+      <c r="J117" s="11"/>
+    </row>
+    <row r="118" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B118" s="26">
+        <v>2</v>
+      </c>
+      <c r="C118" s="26">
+        <v>7</v>
+      </c>
+      <c r="D118" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="E118" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="F118" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G118" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="H118" s="13"/>
+      <c r="I118" s="13"/>
+      <c r="J118" s="13"/>
+    </row>
+    <row r="119" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B119" s="26"/>
+      <c r="C119" s="26"/>
+      <c r="D119" s="26"/>
+      <c r="E119" s="26"/>
+      <c r="F119" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G119" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="H119" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+    </row>
+    <row r="120" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B120" s="26"/>
+      <c r="C120" s="26"/>
+      <c r="D120" s="26"/>
+      <c r="E120" s="26"/>
+      <c r="F120" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="G120" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="H120" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+    </row>
+    <row r="121" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B121" s="26"/>
+      <c r="C121" s="26"/>
+      <c r="D121" s="26"/>
+      <c r="E121" s="26"/>
+      <c r="F121" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="G121" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="H121" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+    </row>
+    <row r="122" spans="2:10" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B122" s="26"/>
+      <c r="C122" s="26"/>
+      <c r="D122" s="26"/>
+      <c r="E122" s="26"/>
+      <c r="F122" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="G122" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="H122" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+    </row>
+    <row r="123" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B123" s="26"/>
+      <c r="C123" s="26"/>
+      <c r="D123" s="26"/>
+      <c r="E123" s="26"/>
+      <c r="F123" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="G123" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="H123" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+    </row>
+    <row r="124" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B124" s="26"/>
+      <c r="C124" s="26"/>
+      <c r="D124" s="26"/>
+      <c r="E124" s="26"/>
+      <c r="F124" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="G124" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="H124" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+    </row>
+    <row r="125" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B125" s="25">
+        <v>2</v>
+      </c>
+      <c r="C125" s="25">
+        <v>8</v>
+      </c>
+      <c r="D125" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="E125" s="41" t="s">
+        <v>152</v>
+      </c>
+      <c r="F125" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="G125" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="H125" s="38"/>
+      <c r="I125" s="20"/>
+      <c r="J125" s="20"/>
+    </row>
+    <row r="126" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B126" s="25"/>
+      <c r="C126" s="25"/>
+      <c r="D126" s="25"/>
+      <c r="E126" s="41"/>
+      <c r="F126" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="G126" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="H126" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="I126" s="11"/>
+      <c r="J126" s="11"/>
+    </row>
+    <row r="127" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B127" s="25"/>
+      <c r="C127" s="25"/>
+      <c r="D127" s="25"/>
+      <c r="E127" s="41"/>
+      <c r="F127" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="G127" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="H127" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="I127" s="11"/>
+      <c r="J127" s="11"/>
+    </row>
+    <row r="128" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B128" s="25"/>
+      <c r="C128" s="25"/>
+      <c r="D128" s="25"/>
+      <c r="E128" s="41"/>
+      <c r="F128" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="G128" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="H128" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="I128" s="11"/>
+      <c r="J128" s="11"/>
+    </row>
+    <row r="129" spans="2:10" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B129" s="25"/>
+      <c r="C129" s="25"/>
+      <c r="D129" s="25"/>
+      <c r="E129" s="41"/>
+      <c r="F129" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="G129" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="H129" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I129" s="11"/>
+      <c r="J129" s="11"/>
+    </row>
+    <row r="130" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B130" s="25"/>
+      <c r="C130" s="25"/>
+      <c r="D130" s="25"/>
+      <c r="E130" s="41"/>
+      <c r="F130" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="G130" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="H130" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="I130" s="11"/>
+      <c r="J130" s="11"/>
+    </row>
+    <row r="131" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B131" s="25"/>
+      <c r="C131" s="25"/>
+      <c r="D131" s="25"/>
+      <c r="E131" s="41"/>
+      <c r="F131" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="G131" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="H131" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="I131" s="11"/>
+      <c r="J131" s="11"/>
+    </row>
+    <row r="132" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="145" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="146" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="147" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2800,21 +6099,458 @@
     <row r="495" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="496" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="497" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B5:B12"/>
-    <mergeCell ref="C5:C12"/>
-    <mergeCell ref="D5:D12"/>
-    <mergeCell ref="E5:E12"/>
+  <autoFilter ref="A1:J1" xr:uid="{B0953F3B-78FC-43F3-9402-DE0C5199EBA3}"/>
+  <mergeCells count="69">
+    <mergeCell ref="B125:B131"/>
+    <mergeCell ref="C125:C131"/>
+    <mergeCell ref="D125:D131"/>
+    <mergeCell ref="E125:E131"/>
+    <mergeCell ref="B118:B124"/>
+    <mergeCell ref="C118:C124"/>
+    <mergeCell ref="D118:D124"/>
+    <mergeCell ref="E118:E124"/>
+    <mergeCell ref="A2:A80"/>
+    <mergeCell ref="B104:B110"/>
+    <mergeCell ref="C104:C110"/>
+    <mergeCell ref="D104:D110"/>
+    <mergeCell ref="E104:E110"/>
+    <mergeCell ref="B111:B117"/>
+    <mergeCell ref="C111:C117"/>
+    <mergeCell ref="D111:D117"/>
+    <mergeCell ref="E111:E117"/>
+    <mergeCell ref="B81:B84"/>
+    <mergeCell ref="C81:C84"/>
+    <mergeCell ref="D81:D84"/>
+    <mergeCell ref="E81:E84"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="D2:D9"/>
+    <mergeCell ref="E2:E9"/>
+    <mergeCell ref="B19:B27"/>
+    <mergeCell ref="C19:C27"/>
+    <mergeCell ref="D19:D27"/>
+    <mergeCell ref="E19:E27"/>
+    <mergeCell ref="E10:E18"/>
+    <mergeCell ref="D10:D18"/>
+    <mergeCell ref="C10:C18"/>
+    <mergeCell ref="B10:B18"/>
+    <mergeCell ref="E28:E36"/>
+    <mergeCell ref="B37:B45"/>
+    <mergeCell ref="C37:C45"/>
+    <mergeCell ref="D37:D45"/>
+    <mergeCell ref="E37:E45"/>
+    <mergeCell ref="B28:B36"/>
+    <mergeCell ref="C28:C36"/>
+    <mergeCell ref="D28:D36"/>
+    <mergeCell ref="B46:B54"/>
+    <mergeCell ref="C46:C54"/>
+    <mergeCell ref="D46:D54"/>
+    <mergeCell ref="E46:E54"/>
+    <mergeCell ref="B55:B62"/>
+    <mergeCell ref="C55:C62"/>
+    <mergeCell ref="D55:D62"/>
+    <mergeCell ref="E55:E62"/>
+    <mergeCell ref="B63:B71"/>
+    <mergeCell ref="C63:C71"/>
+    <mergeCell ref="D63:D71"/>
+    <mergeCell ref="E63:E71"/>
+    <mergeCell ref="B72:B80"/>
+    <mergeCell ref="C72:C80"/>
+    <mergeCell ref="D72:D80"/>
+    <mergeCell ref="E72:E80"/>
+    <mergeCell ref="B97:B103"/>
+    <mergeCell ref="C97:C103"/>
+    <mergeCell ref="D97:D103"/>
+    <mergeCell ref="E97:E103"/>
+    <mergeCell ref="B85:B90"/>
+    <mergeCell ref="C85:C90"/>
+    <mergeCell ref="D85:D90"/>
+    <mergeCell ref="E85:E90"/>
+    <mergeCell ref="B91:B96"/>
+    <mergeCell ref="C91:C96"/>
+    <mergeCell ref="D91:D96"/>
+    <mergeCell ref="E91:E96"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B204A399-C202-4A7B-9C11-B42BFE1631E2}">
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="18"/>
+    <col min="2" max="2" width="12.85546875" style="18" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="18"/>
+    <col min="4" max="4" width="22.28515625" style="18" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="18">
+        <v>1</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="18">
+        <v>35.5</v>
+      </c>
+      <c r="D3" s="19">
+        <v>45275</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="18">
+        <v>2</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="18">
+        <v>56.84</v>
+      </c>
+      <c r="D4" s="19">
+        <v>45277</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="18">
+        <v>3</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="18">
+        <v>105</v>
+      </c>
+      <c r="D5" s="19">
+        <v>45280</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="18">
+        <v>4</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="19">
+        <v>45283</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="18">
+        <v>5</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="18">
+        <v>99.99</v>
+      </c>
+      <c r="D7" s="19">
+        <v>45289</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="18">
+        <v>6</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" s="19">
+        <v>45301</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="18">
+        <v>7</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="18">
+        <v>127.35</v>
+      </c>
+      <c r="D9" s="19">
+        <v>45304</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="18">
+        <v>8</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="18">
+        <v>50</v>
+      </c>
+      <c r="D10" s="19">
+        <v>45305</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="18">
+        <v>1</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="18">
+        <v>35.5</v>
+      </c>
+      <c r="D13" s="19">
+        <v>45275</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="18">
+        <v>2</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="18">
+        <v>56.84</v>
+      </c>
+      <c r="D14" s="19">
+        <v>45277</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="18">
+        <v>3</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="18">
+        <v>105</v>
+      </c>
+      <c r="D15" s="19">
+        <v>45280</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="18">
+        <v>4</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" s="19">
+        <v>45283</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="18">
+        <v>4</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19" s="19">
+        <v>45283</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="18">
+        <v>5</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="18">
+        <v>99.99</v>
+      </c>
+      <c r="D20" s="19">
+        <v>45289</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="18">
+        <v>6</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21" s="19">
+        <v>45301</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="18">
+        <v>7</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" s="18">
+        <v>127.35</v>
+      </c>
+      <c r="D22" s="19">
+        <v>45304</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A17:E17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/testy/scenariusze_testowe.xlsx
+++ b/testy/scenariusze_testowe.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Studia WSB - Tester oprogramowania\App_zaliczenie\App_zaliczenie\testy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642BB2ED-0E79-4889-9003-525B469A12CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7618F16-5108-41B2-B20D-0DD834E79EFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="179">
   <si>
     <t>Scenariusze testowe:</t>
   </si>
@@ -377,9 +377,6 @@
     <t>Kliknięcie przycisku "Pokaż wszystkie"</t>
   </si>
   <si>
-    <t>Uruchomienie aplikacji - wyświetla się menu aplikacji</t>
-  </si>
-  <si>
     <t>W dolnej sekcji okna o nazwie "Wydatki" pojawia się tabela z danymi z bazy danych(patrz zakładke "Dane do bazy danych" i screen ponizej)</t>
   </si>
   <si>
@@ -495,6 +492,81 @@
   </si>
   <si>
     <t>W polu wybierania  o nazwie "Wybierz miesiąc" wyświetla się nazwa "styczeń"</t>
+  </si>
+  <si>
+    <t>Wyświetla się menu aplikacji</t>
+  </si>
+  <si>
+    <t>Uruchomienie aplikacji</t>
+  </si>
+  <si>
+    <t>Potwierdzenie wartości domyślnej z pola o nazwie "Wpisz rok" (domyślna wartość to: "2024")</t>
+  </si>
+  <si>
+    <t>W polu "Wpisz rok" wyświetla się wartość "2024"</t>
+  </si>
+  <si>
+    <t>Kliknięcie przycisku "Pokaż z miesiąca"</t>
+  </si>
+  <si>
+    <t>Przypadek testowy 2.8.</t>
+  </si>
+  <si>
+    <t>Użytkownikowi po wpisaniu ręcznie wartości "100" w polu wybierz miesiąc i wpisaniu roku (domyślnie 2024) oraz kliknięciu w przycisk "Pokaż z miesiąca" powinien zostać wyświetlony messagebox o treści: "Wybrano błędny miesiąc."</t>
+  </si>
+  <si>
+    <t>W polu wybierania  o nazwie "Wybierz miesiąc" wyświetla się wartość "100"</t>
+  </si>
+  <si>
+    <t>Wpisanie ręcznie w polu "Wybierz miesiąć" wartości "100"</t>
+  </si>
+  <si>
+    <t>Użytkownikowi po wpisaniu ręcznie wartości "słowo" w polu wybierz miesiąc i wpisaniu roku (domyślnie 2024) oraz kliknięciu w przycisk "Pokaż z miesiąca" powinien zostać wyświetlony messagebox o treści: "Wybrano błędny miesiąc."</t>
+  </si>
+  <si>
+    <t>Wpisanie ręcznie w polu "Wybierz miesiąć" wartości "słowo"</t>
+  </si>
+  <si>
+    <t>W polu wybierania  o nazwie "Wybierz miesiąc" wyświetla się wartość "słowo"</t>
+  </si>
+  <si>
+    <t>Wyświetlanie wydatków z danego miesiąca z bazy danych aplikacji z nie poprawnie wpisanymi danymi - w polu "Wybierz miesiąc" wpisano inne słowo niż podpowiada lista rozwijana</t>
+  </si>
+  <si>
+    <t>Wyświetlanie wydatków z danego miesiąca z bazy danych aplikacji z nie poprawnie wpisanymi danymi - w polu "Wybierz miesiąc" wpisano wartość liczbową</t>
+  </si>
+  <si>
+    <t>Wyświetlanie wydatków z danego miesiąca z bazy danych aplikacji z nie poprawnie wpisanymi danymi - w polu "Wpisz rok" wpisano niepoprawną dodatnią wartość liczbową</t>
+  </si>
+  <si>
+    <t>Wpisanie ręcznie w polu "Wpisz rok" wartości "25"</t>
+  </si>
+  <si>
+    <t>W polu "Wpisz rok" wyświetla się wartość "25"</t>
+  </si>
+  <si>
+    <t>Użytkownikowi po wybraniu miesiąca z listy rozwijanej i wpisaniu niepoprawnej liczbowej wartości "25" w polu "Wpisz rok" oraz kliknięciu w przycisk "Pokaż z miesiąca" powinien zostać wyświetlony messagebox o treści: "Wybrano niepoprawny rok!"</t>
+  </si>
+  <si>
+    <t>Wyświetlanie wydatków z danego miesiąca z bazy danych aplikacji z nie poprawnie wpisanymi danymi - w polu "Wpisz rok" wpisano niepoprawną ujemną wartość liczbową</t>
+  </si>
+  <si>
+    <t>Użytkownikowi po wybraniu miesiąca z listy rozwijanej i wpisaniu niepoprawnej wartości "-35,2" w polu "Wpisz rok" oraz kliknięciu w przycisk "Pokaż z miesiąca" powinien zostać wyświetlony messagebox o treści: "Wybrano niepoprawny rok!"</t>
+  </si>
+  <si>
+    <t>W polu "Wpisz rok" wyświetla się wartość "-35,2"</t>
+  </si>
+  <si>
+    <t>Wyświetlanie wydatków z danego miesiąca z bazy danych aplikacji z nie poprawnie wpisanymi danymi - w polu "Wpisz rok" wpisano niepoprawną  wartość ciągu znaków</t>
+  </si>
+  <si>
+    <t>Użytkownikowi po wybraniu miesiąca z listy rozwijanej i wpisaniu niepoprawnej  wartości (ciąg znaków) "rok" w polu "Wpisz rok" oraz kliknięciu w przycisk "Pokaż z miesiąca" powinien zostać wyświetlony messagebox o treści: "Wybrano niepoprawny rok!"</t>
+  </si>
+  <si>
+    <t>Wpisanie ręcznie w polu "Wpisz rok" wartości "rok"</t>
+  </si>
+  <si>
+    <t>W polu "Wpisz rok" wyświetla się wartość "rok"</t>
   </si>
 </sst>
 </file>
@@ -699,7 +771,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -768,6 +840,12 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -777,7 +855,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -792,35 +876,47 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -830,8 +926,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFBCEFEE"/>
       <color rgb="FFDFE6E7"/>
-      <color rgb="FFBCEFEE"/>
       <color rgb="FFD1F4F3"/>
       <color rgb="FF33CCCC"/>
       <color rgb="FF00FFFF"/>
@@ -1585,6 +1681,255 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>5570282</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>2857500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Obraz 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8C4AFF8-0791-6350-BEE5-861C58339ADF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8953500" y="75952350"/>
+          <a:ext cx="5427407" cy="2438400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1876426</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>253998</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3800476</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>1533715</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Obraz 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AD2CCED-0932-B352-A58B-85D5BC470A26}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10687051" y="80416398"/>
+          <a:ext cx="1924050" cy="1279717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1876426</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>253998</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1924050" cy="1279717"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Obraz 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4B48D87-BA44-49A5-8E64-368388D2CD32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10687051" y="80416398"/>
+          <a:ext cx="1924050" cy="1279717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1800225</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>241631</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3895725</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>1571818</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Obraz 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C731B5D-47EF-38BA-2250-AA823BCD9838}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10610850" y="87814481"/>
+          <a:ext cx="2095500" cy="1330187"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1800225</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>241631</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2095500" cy="1330187"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Obraz 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{350FA03F-3C77-44E7-B0B7-D3CF34216C02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10610850" y="87814481"/>
+          <a:ext cx="2095500" cy="1330187"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1800225</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>241631</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2095500" cy="1330187"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Obraz 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6BCF5C2-022F-497A-8A13-FE1410EE4D25}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10610850" y="87814481"/>
+          <a:ext cx="2095500" cy="1330187"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1854,7 +2199,7 @@
   <dimension ref="B1:F315"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1874,10 +2219,10 @@
       <c r="C1" s="3"/>
     </row>
     <row r="2" spans="2:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="24"/>
+      <c r="C2" s="26"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -3288,11 +3633,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0953F3B-78FC-43F3-9402-DE0C5199EBA3}">
-  <dimension ref="A1:J497"/>
+  <dimension ref="A1:J496"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F129" sqref="F129"/>
+      <pane ySplit="1" topLeftCell="A156" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H156" sqref="H156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3342,36 +3687,38 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="30">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="29"/>
+      <c r="B2" s="34">
         <v>1</v>
       </c>
-      <c r="C2" s="30">
+      <c r="C2" s="34">
         <v>1</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="34" t="s">
         <v>40</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>20</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="H2" s="13"/>
+        <v>155</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>154</v>
+      </c>
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="36"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
       <c r="F3" s="9" t="s">
         <v>19</v>
       </c>
@@ -3385,11 +3732,11 @@
       <c r="J3" s="9"/>
     </row>
     <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="36"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
       <c r="F4" s="9" t="s">
         <v>23</v>
       </c>
@@ -3403,11 +3750,11 @@
       <c r="J4" s="9"/>
     </row>
     <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="36"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
       <c r="F5" s="9" t="s">
         <v>26</v>
       </c>
@@ -3421,11 +3768,11 @@
       <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
       <c r="F6" s="9" t="s">
         <v>29</v>
       </c>
@@ -3439,11 +3786,11 @@
       <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="36"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
       <c r="F7" s="9" t="s">
         <v>32</v>
       </c>
@@ -3457,11 +3804,11 @@
       <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:10" ht="144" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="36"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
       <c r="F8" s="9" t="s">
         <v>35</v>
       </c>
@@ -3475,11 +3822,11 @@
       <c r="J8" s="9"/>
     </row>
     <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="36"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
       <c r="F9" s="9" t="s">
         <v>37</v>
       </c>
@@ -3492,36 +3839,38 @@
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
     </row>
-    <row r="10" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="36"/>
-      <c r="B10" s="25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="30"/>
+      <c r="B10" s="27">
         <v>1</v>
       </c>
-      <c r="C10" s="25">
+      <c r="C10" s="27">
         <v>2</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="27" t="s">
         <v>68</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>20</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="H10" s="11"/>
+        <v>155</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>154</v>
+      </c>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
     </row>
-    <row r="11" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="36"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="30"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
       <c r="F11" s="11" t="s">
         <v>19</v>
       </c>
@@ -3535,11 +3884,11 @@
       <c r="J11" s="11"/>
     </row>
     <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="36"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
+      <c r="A12" s="30"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
       <c r="F12" s="11" t="s">
         <v>23</v>
       </c>
@@ -3553,11 +3902,11 @@
       <c r="J12" s="11"/>
     </row>
     <row r="13" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="36"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
       <c r="F13" s="11" t="s">
         <v>26</v>
       </c>
@@ -3571,11 +3920,11 @@
       <c r="J13" s="11"/>
     </row>
     <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="36"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
       <c r="F14" s="11" t="s">
         <v>29</v>
       </c>
@@ -3589,11 +3938,11 @@
       <c r="J14" s="11"/>
     </row>
     <row r="15" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="36"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
       <c r="F15" s="11" t="s">
         <v>32</v>
       </c>
@@ -3607,11 +3956,11 @@
       <c r="J15" s="11"/>
     </row>
     <row r="16" spans="1:10" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="36"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
+      <c r="A16" s="30"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
       <c r="F16" s="11" t="s">
         <v>35</v>
       </c>
@@ -3625,11 +3974,11 @@
       <c r="J16" s="11"/>
     </row>
     <row r="17" spans="1:10" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="36"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
       <c r="F17" s="11" t="s">
         <v>37</v>
       </c>
@@ -3643,11 +3992,11 @@
       <c r="J17" s="11"/>
     </row>
     <row r="18" spans="1:10" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="36"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
+      <c r="A18" s="30"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
       <c r="F18" s="11" t="s">
         <v>47</v>
       </c>
@@ -3660,36 +4009,38 @@
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
     </row>
-    <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="36"/>
-      <c r="B19" s="26">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="30"/>
+      <c r="B19" s="28">
         <v>1</v>
       </c>
-      <c r="C19" s="26">
+      <c r="C19" s="28">
         <v>3</v>
       </c>
-      <c r="D19" s="26" t="s">
+      <c r="D19" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="E19" s="26" t="s">
+      <c r="E19" s="28" t="s">
         <v>69</v>
       </c>
       <c r="F19" s="9" t="s">
         <v>20</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="H19" s="9"/>
+        <v>155</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>154</v>
+      </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="36"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
+      <c r="A20" s="30"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
       <c r="F20" s="9" t="s">
         <v>19</v>
       </c>
@@ -3703,11 +4054,11 @@
       <c r="J20" s="9"/>
     </row>
     <row r="21" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="36"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
+      <c r="A21" s="30"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
       <c r="F21" s="9" t="s">
         <v>23</v>
       </c>
@@ -3721,11 +4072,11 @@
       <c r="J21" s="9"/>
     </row>
     <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="36"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
+      <c r="A22" s="30"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
       <c r="F22" s="9" t="s">
         <v>26</v>
       </c>
@@ -3739,11 +4090,11 @@
       <c r="J22" s="9"/>
     </row>
     <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="36"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
       <c r="F23" s="9" t="s">
         <v>29</v>
       </c>
@@ -3757,11 +4108,11 @@
       <c r="J23" s="9"/>
     </row>
     <row r="24" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="36"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
+      <c r="A24" s="30"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
       <c r="F24" s="9" t="s">
         <v>32</v>
       </c>
@@ -3775,11 +4126,11 @@
       <c r="J24" s="9"/>
     </row>
     <row r="25" spans="1:10" ht="129" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="36"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
       <c r="F25" s="9" t="s">
         <v>35</v>
       </c>
@@ -3793,11 +4144,11 @@
       <c r="J25" s="9"/>
     </row>
     <row r="26" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="36"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
+      <c r="A26" s="30"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
       <c r="F26" s="9" t="s">
         <v>37</v>
       </c>
@@ -3811,11 +4162,11 @@
       <c r="J26" s="9"/>
     </row>
     <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="36"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
       <c r="F27" s="9" t="s">
         <v>47</v>
       </c>
@@ -3828,36 +4179,38 @@
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
     </row>
-    <row r="28" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="36"/>
-      <c r="B28" s="25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="30"/>
+      <c r="B28" s="27">
         <v>1</v>
       </c>
-      <c r="C28" s="25">
+      <c r="C28" s="27">
         <v>4</v>
       </c>
-      <c r="D28" s="25" t="s">
+      <c r="D28" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="E28" s="25" t="s">
+      <c r="E28" s="27" t="s">
         <v>69</v>
       </c>
       <c r="F28" s="11" t="s">
         <v>20</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="H28" s="11"/>
+        <v>155</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>154</v>
+      </c>
       <c r="I28" s="11"/>
       <c r="J28" s="11"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="36"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
+      <c r="A29" s="30"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
       <c r="F29" s="11" t="s">
         <v>19</v>
       </c>
@@ -3871,11 +4224,11 @@
       <c r="J29" s="11"/>
     </row>
     <row r="30" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="36"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
+      <c r="A30" s="30"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
       <c r="F30" s="11" t="s">
         <v>23</v>
       </c>
@@ -3889,11 +4242,11 @@
       <c r="J30" s="11"/>
     </row>
     <row r="31" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="36"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
+      <c r="A31" s="30"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
       <c r="F31" s="11" t="s">
         <v>26</v>
       </c>
@@ -3907,11 +4260,11 @@
       <c r="J31" s="11"/>
     </row>
     <row r="32" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="36"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
+      <c r="A32" s="30"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
       <c r="F32" s="11" t="s">
         <v>29</v>
       </c>
@@ -3925,11 +4278,11 @@
       <c r="J32" s="11"/>
     </row>
     <row r="33" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A33" s="36"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
+      <c r="A33" s="30"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
       <c r="F33" s="11" t="s">
         <v>32</v>
       </c>
@@ -3943,11 +4296,11 @@
       <c r="J33" s="11"/>
     </row>
     <row r="34" spans="1:10" ht="131.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="36"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
+      <c r="A34" s="30"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
       <c r="F34" s="11" t="s">
         <v>35</v>
       </c>
@@ -3961,11 +4314,11 @@
       <c r="J34" s="11"/>
     </row>
     <row r="35" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="36"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
+      <c r="A35" s="30"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
       <c r="F35" s="11" t="s">
         <v>37</v>
       </c>
@@ -3979,11 +4332,11 @@
       <c r="J35" s="11"/>
     </row>
     <row r="36" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="36"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
+      <c r="A36" s="30"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
       <c r="F36" s="11" t="s">
         <v>47</v>
       </c>
@@ -3996,36 +4349,38 @@
       <c r="I36" s="11"/>
       <c r="J36" s="11"/>
     </row>
-    <row r="37" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="36"/>
-      <c r="B37" s="26">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="30"/>
+      <c r="B37" s="28">
         <v>1</v>
       </c>
-      <c r="C37" s="26">
+      <c r="C37" s="28">
         <v>5</v>
       </c>
-      <c r="D37" s="26" t="s">
+      <c r="D37" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="E37" s="26" t="s">
+      <c r="E37" s="28" t="s">
         <v>66</v>
       </c>
       <c r="F37" s="9" t="s">
         <v>20</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="H37" s="9"/>
+        <v>155</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>154</v>
+      </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="36"/>
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
+      <c r="A38" s="30"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
       <c r="F38" s="9" t="s">
         <v>19</v>
       </c>
@@ -4039,11 +4394,11 @@
       <c r="J38" s="9"/>
     </row>
     <row r="39" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="36"/>
-      <c r="B39" s="26"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
+      <c r="A39" s="30"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
       <c r="F39" s="9" t="s">
         <v>23</v>
       </c>
@@ -4057,11 +4412,11 @@
       <c r="J39" s="9"/>
     </row>
     <row r="40" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="36"/>
-      <c r="B40" s="26"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
+      <c r="A40" s="30"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
       <c r="F40" s="9" t="s">
         <v>26</v>
       </c>
@@ -4075,11 +4430,11 @@
       <c r="J40" s="9"/>
     </row>
     <row r="41" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="36"/>
-      <c r="B41" s="26"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
+      <c r="A41" s="30"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
       <c r="F41" s="9" t="s">
         <v>29</v>
       </c>
@@ -4093,11 +4448,11 @@
       <c r="J41" s="9"/>
     </row>
     <row r="42" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A42" s="36"/>
-      <c r="B42" s="26"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="26"/>
+      <c r="A42" s="30"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
       <c r="F42" s="9" t="s">
         <v>32</v>
       </c>
@@ -4111,11 +4466,11 @@
       <c r="J42" s="9"/>
     </row>
     <row r="43" spans="1:10" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="36"/>
-      <c r="B43" s="26"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
+      <c r="A43" s="30"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="28"/>
       <c r="F43" s="9" t="s">
         <v>35</v>
       </c>
@@ -4129,11 +4484,11 @@
       <c r="J43" s="9"/>
     </row>
     <row r="44" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="36"/>
-      <c r="B44" s="26"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
+      <c r="A44" s="30"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
       <c r="F44" s="9" t="s">
         <v>37</v>
       </c>
@@ -4147,11 +4502,11 @@
       <c r="J44" s="9"/>
     </row>
     <row r="45" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="36"/>
-      <c r="B45" s="26"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="26"/>
+      <c r="A45" s="30"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="28"/>
       <c r="F45" s="9" t="s">
         <v>47</v>
       </c>
@@ -4164,36 +4519,38 @@
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
     </row>
-    <row r="46" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="36"/>
-      <c r="B46" s="25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="30"/>
+      <c r="B46" s="27">
         <v>1</v>
       </c>
-      <c r="C46" s="25">
+      <c r="C46" s="27">
         <v>6</v>
       </c>
-      <c r="D46" s="25" t="s">
+      <c r="D46" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="E46" s="25" t="s">
+      <c r="E46" s="27" t="s">
         <v>79</v>
       </c>
       <c r="F46" s="11" t="s">
         <v>20</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="H46" s="11"/>
+        <v>155</v>
+      </c>
+      <c r="H46" s="11" t="s">
+        <v>154</v>
+      </c>
       <c r="I46" s="11"/>
       <c r="J46" s="11"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="36"/>
-      <c r="B47" s="25"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
+      <c r="A47" s="30"/>
+      <c r="B47" s="27"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="27"/>
       <c r="F47" s="11" t="s">
         <v>19</v>
       </c>
@@ -4207,11 +4564,11 @@
       <c r="J47" s="11"/>
     </row>
     <row r="48" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A48" s="36"/>
-      <c r="B48" s="25"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25"/>
+      <c r="A48" s="30"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="27"/>
       <c r="F48" s="11" t="s">
         <v>23</v>
       </c>
@@ -4225,11 +4582,11 @@
       <c r="J48" s="11"/>
     </row>
     <row r="49" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A49" s="36"/>
-      <c r="B49" s="25"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
+      <c r="A49" s="30"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
       <c r="F49" s="11" t="s">
         <v>26</v>
       </c>
@@ -4243,11 +4600,11 @@
       <c r="J49" s="11"/>
     </row>
     <row r="50" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="36"/>
-      <c r="B50" s="25"/>
-      <c r="C50" s="25"/>
-      <c r="D50" s="25"/>
-      <c r="E50" s="25"/>
+      <c r="A50" s="30"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
       <c r="F50" s="11" t="s">
         <v>29</v>
       </c>
@@ -4261,11 +4618,11 @@
       <c r="J50" s="11"/>
     </row>
     <row r="51" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A51" s="36"/>
-      <c r="B51" s="25"/>
-      <c r="C51" s="25"/>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
+      <c r="A51" s="30"/>
+      <c r="B51" s="27"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="27"/>
       <c r="F51" s="11" t="s">
         <v>32</v>
       </c>
@@ -4279,11 +4636,11 @@
       <c r="J51" s="11"/>
     </row>
     <row r="52" spans="1:10" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="36"/>
-      <c r="B52" s="25"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25"/>
+      <c r="A52" s="30"/>
+      <c r="B52" s="27"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="27"/>
       <c r="F52" s="11" t="s">
         <v>35</v>
       </c>
@@ -4297,11 +4654,11 @@
       <c r="J52" s="11"/>
     </row>
     <row r="53" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="36"/>
-      <c r="B53" s="25"/>
-      <c r="C53" s="25"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="25"/>
+      <c r="A53" s="30"/>
+      <c r="B53" s="27"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="27"/>
       <c r="F53" s="11" t="s">
         <v>37</v>
       </c>
@@ -4315,11 +4672,11 @@
       <c r="J53" s="11"/>
     </row>
     <row r="54" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="36"/>
-      <c r="B54" s="25"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="25"/>
-      <c r="E54" s="25"/>
+      <c r="A54" s="30"/>
+      <c r="B54" s="27"/>
+      <c r="C54" s="27"/>
+      <c r="D54" s="27"/>
+      <c r="E54" s="27"/>
       <c r="F54" s="11" t="s">
         <v>47</v>
       </c>
@@ -4332,36 +4689,38 @@
       <c r="I54" s="11"/>
       <c r="J54" s="11"/>
     </row>
-    <row r="55" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="36"/>
-      <c r="B55" s="26">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="30"/>
+      <c r="B55" s="28">
         <v>1</v>
       </c>
-      <c r="C55" s="26">
+      <c r="C55" s="28">
         <v>7</v>
       </c>
-      <c r="D55" s="26" t="s">
+      <c r="D55" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="E55" s="26" t="s">
+      <c r="E55" s="28" t="s">
         <v>76</v>
       </c>
       <c r="F55" s="9" t="s">
         <v>20</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="H55" s="9"/>
+        <v>155</v>
+      </c>
+      <c r="H55" s="9" t="s">
+        <v>154</v>
+      </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="36"/>
-      <c r="B56" s="26"/>
-      <c r="C56" s="26"/>
-      <c r="D56" s="26"/>
-      <c r="E56" s="26"/>
+      <c r="A56" s="30"/>
+      <c r="B56" s="28"/>
+      <c r="C56" s="28"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="28"/>
       <c r="F56" s="9" t="s">
         <v>19</v>
       </c>
@@ -4375,11 +4734,11 @@
       <c r="J56" s="9"/>
     </row>
     <row r="57" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A57" s="36"/>
-      <c r="B57" s="26"/>
-      <c r="C57" s="26"/>
-      <c r="D57" s="26"/>
-      <c r="E57" s="26"/>
+      <c r="A57" s="30"/>
+      <c r="B57" s="28"/>
+      <c r="C57" s="28"/>
+      <c r="D57" s="28"/>
+      <c r="E57" s="28"/>
       <c r="F57" s="9" t="s">
         <v>23</v>
       </c>
@@ -4393,11 +4752,11 @@
       <c r="J57" s="9"/>
     </row>
     <row r="58" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A58" s="36"/>
-      <c r="B58" s="26"/>
-      <c r="C58" s="26"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="26"/>
+      <c r="A58" s="30"/>
+      <c r="B58" s="28"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="28"/>
+      <c r="E58" s="28"/>
       <c r="F58" s="9" t="s">
         <v>26</v>
       </c>
@@ -4411,11 +4770,11 @@
       <c r="J58" s="9"/>
     </row>
     <row r="59" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A59" s="36"/>
-      <c r="B59" s="26"/>
-      <c r="C59" s="26"/>
-      <c r="D59" s="26"/>
-      <c r="E59" s="26"/>
+      <c r="A59" s="30"/>
+      <c r="B59" s="28"/>
+      <c r="C59" s="28"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
       <c r="F59" s="9" t="s">
         <v>29</v>
       </c>
@@ -4429,11 +4788,11 @@
       <c r="J59" s="9"/>
     </row>
     <row r="60" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A60" s="36"/>
-      <c r="B60" s="26"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="26"/>
+      <c r="A60" s="30"/>
+      <c r="B60" s="28"/>
+      <c r="C60" s="28"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="28"/>
       <c r="F60" s="9" t="s">
         <v>32</v>
       </c>
@@ -4447,11 +4806,11 @@
       <c r="J60" s="9"/>
     </row>
     <row r="61" spans="1:10" ht="132" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="36"/>
-      <c r="B61" s="26"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="26"/>
-      <c r="E61" s="26"/>
+      <c r="A61" s="30"/>
+      <c r="B61" s="28"/>
+      <c r="C61" s="28"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="28"/>
       <c r="F61" s="9" t="s">
         <v>35</v>
       </c>
@@ -4465,11 +4824,11 @@
       <c r="J61" s="9"/>
     </row>
     <row r="62" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="36"/>
-      <c r="B62" s="26"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="26"/>
-      <c r="E62" s="26"/>
+      <c r="A62" s="30"/>
+      <c r="B62" s="28"/>
+      <c r="C62" s="28"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
       <c r="F62" s="9" t="s">
         <v>37</v>
       </c>
@@ -4482,36 +4841,38 @@
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
     </row>
-    <row r="63" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="36"/>
-      <c r="B63" s="25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="30"/>
+      <c r="B63" s="27">
         <v>1</v>
       </c>
-      <c r="C63" s="25">
+      <c r="C63" s="27">
         <v>8</v>
       </c>
-      <c r="D63" s="25" t="s">
+      <c r="D63" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="E63" s="25" t="s">
+      <c r="E63" s="27" t="s">
         <v>81</v>
       </c>
       <c r="F63" s="11" t="s">
         <v>20</v>
       </c>
       <c r="G63" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="H63" s="11"/>
+        <v>155</v>
+      </c>
+      <c r="H63" s="11" t="s">
+        <v>154</v>
+      </c>
       <c r="I63" s="11"/>
       <c r="J63" s="11"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="36"/>
-      <c r="B64" s="25"/>
-      <c r="C64" s="25"/>
-      <c r="D64" s="25"/>
-      <c r="E64" s="25"/>
+      <c r="A64" s="30"/>
+      <c r="B64" s="27"/>
+      <c r="C64" s="27"/>
+      <c r="D64" s="27"/>
+      <c r="E64" s="27"/>
       <c r="F64" s="11" t="s">
         <v>19</v>
       </c>
@@ -4525,11 +4886,11 @@
       <c r="J64" s="11"/>
     </row>
     <row r="65" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A65" s="36"/>
-      <c r="B65" s="25"/>
-      <c r="C65" s="25"/>
-      <c r="D65" s="25"/>
-      <c r="E65" s="25"/>
+      <c r="A65" s="30"/>
+      <c r="B65" s="27"/>
+      <c r="C65" s="27"/>
+      <c r="D65" s="27"/>
+      <c r="E65" s="27"/>
       <c r="F65" s="11" t="s">
         <v>23</v>
       </c>
@@ -4543,11 +4904,11 @@
       <c r="J65" s="11"/>
     </row>
     <row r="66" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A66" s="36"/>
-      <c r="B66" s="25"/>
-      <c r="C66" s="25"/>
-      <c r="D66" s="25"/>
-      <c r="E66" s="25"/>
+      <c r="A66" s="30"/>
+      <c r="B66" s="27"/>
+      <c r="C66" s="27"/>
+      <c r="D66" s="27"/>
+      <c r="E66" s="27"/>
       <c r="F66" s="11" t="s">
         <v>26</v>
       </c>
@@ -4561,11 +4922,11 @@
       <c r="J66" s="11"/>
     </row>
     <row r="67" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="36"/>
-      <c r="B67" s="25"/>
-      <c r="C67" s="25"/>
-      <c r="D67" s="25"/>
-      <c r="E67" s="25"/>
+      <c r="A67" s="30"/>
+      <c r="B67" s="27"/>
+      <c r="C67" s="27"/>
+      <c r="D67" s="27"/>
+      <c r="E67" s="27"/>
       <c r="F67" s="11" t="s">
         <v>29</v>
       </c>
@@ -4579,11 +4940,11 @@
       <c r="J67" s="11"/>
     </row>
     <row r="68" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="36"/>
-      <c r="B68" s="25"/>
-      <c r="C68" s="25"/>
-      <c r="D68" s="25"/>
-      <c r="E68" s="25"/>
+      <c r="A68" s="30"/>
+      <c r="B68" s="27"/>
+      <c r="C68" s="27"/>
+      <c r="D68" s="27"/>
+      <c r="E68" s="27"/>
       <c r="F68" s="11" t="s">
         <v>32</v>
       </c>
@@ -4597,11 +4958,11 @@
       <c r="J68" s="11"/>
     </row>
     <row r="69" spans="1:10" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="36"/>
-      <c r="B69" s="25"/>
-      <c r="C69" s="25"/>
-      <c r="D69" s="25"/>
-      <c r="E69" s="25"/>
+      <c r="A69" s="30"/>
+      <c r="B69" s="27"/>
+      <c r="C69" s="27"/>
+      <c r="D69" s="27"/>
+      <c r="E69" s="27"/>
       <c r="F69" s="11" t="s">
         <v>35</v>
       </c>
@@ -4615,11 +4976,11 @@
       <c r="J69" s="11"/>
     </row>
     <row r="70" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="36"/>
-      <c r="B70" s="25"/>
-      <c r="C70" s="25"/>
-      <c r="D70" s="25"/>
-      <c r="E70" s="25"/>
+      <c r="A70" s="30"/>
+      <c r="B70" s="27"/>
+      <c r="C70" s="27"/>
+      <c r="D70" s="27"/>
+      <c r="E70" s="27"/>
       <c r="F70" s="11" t="s">
         <v>37</v>
       </c>
@@ -4633,11 +4994,11 @@
       <c r="J70" s="11"/>
     </row>
     <row r="71" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="36"/>
-      <c r="B71" s="25"/>
-      <c r="C71" s="25"/>
-      <c r="D71" s="25"/>
-      <c r="E71" s="25"/>
+      <c r="A71" s="30"/>
+      <c r="B71" s="27"/>
+      <c r="C71" s="27"/>
+      <c r="D71" s="27"/>
+      <c r="E71" s="27"/>
       <c r="F71" s="11" t="s">
         <v>47</v>
       </c>
@@ -4650,36 +5011,38 @@
       <c r="I71" s="11"/>
       <c r="J71" s="11"/>
     </row>
-    <row r="72" spans="1:10" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" s="36"/>
-      <c r="B72" s="26">
+    <row r="72" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="30"/>
+      <c r="B72" s="28">
         <v>1</v>
       </c>
-      <c r="C72" s="26">
+      <c r="C72" s="28">
         <v>9</v>
       </c>
-      <c r="D72" s="26" t="s">
+      <c r="D72" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="E72" s="26" t="s">
+      <c r="E72" s="28" t="s">
         <v>87</v>
       </c>
       <c r="F72" s="9" t="s">
         <v>20</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="H72" s="9"/>
+        <v>155</v>
+      </c>
+      <c r="H72" s="9" t="s">
+        <v>154</v>
+      </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
     </row>
     <row r="73" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="36"/>
-      <c r="B73" s="26"/>
-      <c r="C73" s="26"/>
-      <c r="D73" s="26"/>
-      <c r="E73" s="26"/>
+      <c r="A73" s="30"/>
+      <c r="B73" s="28"/>
+      <c r="C73" s="28"/>
+      <c r="D73" s="28"/>
+      <c r="E73" s="28"/>
       <c r="F73" s="9" t="s">
         <v>19</v>
       </c>
@@ -4693,11 +5056,11 @@
       <c r="J73" s="9"/>
     </row>
     <row r="74" spans="1:10" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A74" s="36"/>
-      <c r="B74" s="26"/>
-      <c r="C74" s="26"/>
-      <c r="D74" s="26"/>
-      <c r="E74" s="26"/>
+      <c r="A74" s="30"/>
+      <c r="B74" s="28"/>
+      <c r="C74" s="28"/>
+      <c r="D74" s="28"/>
+      <c r="E74" s="28"/>
       <c r="F74" s="9" t="s">
         <v>23</v>
       </c>
@@ -4711,11 +5074,11 @@
       <c r="J74" s="9"/>
     </row>
     <row r="75" spans="1:10" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A75" s="36"/>
-      <c r="B75" s="26"/>
-      <c r="C75" s="26"/>
-      <c r="D75" s="26"/>
-      <c r="E75" s="26"/>
+      <c r="A75" s="30"/>
+      <c r="B75" s="28"/>
+      <c r="C75" s="28"/>
+      <c r="D75" s="28"/>
+      <c r="E75" s="28"/>
       <c r="F75" s="9" t="s">
         <v>26</v>
       </c>
@@ -4729,11 +5092,11 @@
       <c r="J75" s="9"/>
     </row>
     <row r="76" spans="1:10" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="36"/>
-      <c r="B76" s="26"/>
-      <c r="C76" s="26"/>
-      <c r="D76" s="26"/>
-      <c r="E76" s="26"/>
+      <c r="A76" s="30"/>
+      <c r="B76" s="28"/>
+      <c r="C76" s="28"/>
+      <c r="D76" s="28"/>
+      <c r="E76" s="28"/>
       <c r="F76" s="9" t="s">
         <v>29</v>
       </c>
@@ -4747,11 +5110,11 @@
       <c r="J76" s="9"/>
     </row>
     <row r="77" spans="1:10" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A77" s="36"/>
-      <c r="B77" s="26"/>
-      <c r="C77" s="26"/>
-      <c r="D77" s="26"/>
-      <c r="E77" s="26"/>
+      <c r="A77" s="30"/>
+      <c r="B77" s="28"/>
+      <c r="C77" s="28"/>
+      <c r="D77" s="28"/>
+      <c r="E77" s="28"/>
       <c r="F77" s="9" t="s">
         <v>32</v>
       </c>
@@ -4765,11 +5128,11 @@
       <c r="J77" s="9"/>
     </row>
     <row r="78" spans="1:10" s="15" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="36"/>
-      <c r="B78" s="26"/>
-      <c r="C78" s="26"/>
-      <c r="D78" s="26"/>
-      <c r="E78" s="26"/>
+      <c r="A78" s="30"/>
+      <c r="B78" s="28"/>
+      <c r="C78" s="28"/>
+      <c r="D78" s="28"/>
+      <c r="E78" s="28"/>
       <c r="F78" s="9" t="s">
         <v>35</v>
       </c>
@@ -4783,11 +5146,11 @@
       <c r="J78" s="9"/>
     </row>
     <row r="79" spans="1:10" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="36"/>
-      <c r="B79" s="26"/>
-      <c r="C79" s="26"/>
-      <c r="D79" s="26"/>
-      <c r="E79" s="26"/>
+      <c r="A79" s="30"/>
+      <c r="B79" s="28"/>
+      <c r="C79" s="28"/>
+      <c r="D79" s="28"/>
+      <c r="E79" s="28"/>
       <c r="F79" s="9" t="s">
         <v>37</v>
       </c>
@@ -4801,11 +5164,11 @@
       <c r="J79" s="9"/>
     </row>
     <row r="80" spans="1:10" s="21" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="37"/>
-      <c r="B80" s="27"/>
-      <c r="C80" s="27"/>
-      <c r="D80" s="27"/>
-      <c r="E80" s="27"/>
+      <c r="A80" s="31"/>
+      <c r="B80" s="36"/>
+      <c r="C80" s="36"/>
+      <c r="D80" s="36"/>
+      <c r="E80" s="36"/>
       <c r="F80" s="16" t="s">
         <v>47</v>
       </c>
@@ -4818,34 +5181,36 @@
       <c r="I80" s="16"/>
       <c r="J80" s="16"/>
     </row>
-    <row r="81" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B81" s="28">
+    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B81" s="32">
         <v>2</v>
       </c>
-      <c r="C81" s="28">
+      <c r="C81" s="32">
         <v>1</v>
       </c>
-      <c r="D81" s="28" t="s">
+      <c r="D81" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="E81" s="28" t="s">
+      <c r="E81" s="32" t="s">
         <v>111</v>
       </c>
       <c r="F81" s="20" t="s">
         <v>20</v>
       </c>
       <c r="G81" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="H81" s="20"/>
+        <v>155</v>
+      </c>
+      <c r="H81" s="20" t="s">
+        <v>154</v>
+      </c>
       <c r="I81" s="20"/>
       <c r="J81" s="20"/>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B82" s="25"/>
-      <c r="C82" s="25"/>
-      <c r="D82" s="25"/>
-      <c r="E82" s="25"/>
+      <c r="B82" s="27"/>
+      <c r="C82" s="27"/>
+      <c r="D82" s="27"/>
+      <c r="E82" s="27"/>
       <c r="F82" s="11" t="s">
         <v>19</v>
       </c>
@@ -4859,10 +5224,10 @@
       <c r="J82" s="11"/>
     </row>
     <row r="83" spans="2:10" ht="236.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="25"/>
-      <c r="C83" s="25"/>
-      <c r="D83" s="25"/>
-      <c r="E83" s="25"/>
+      <c r="B83" s="27"/>
+      <c r="C83" s="27"/>
+      <c r="D83" s="27"/>
+      <c r="E83" s="27"/>
       <c r="F83" s="11" t="s">
         <v>23</v>
       </c>
@@ -4870,16 +5235,16 @@
         <v>114</v>
       </c>
       <c r="H83" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I83" s="11"/>
       <c r="J83" s="11"/>
     </row>
     <row r="84" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B84" s="29"/>
-      <c r="C84" s="29"/>
-      <c r="D84" s="29"/>
-      <c r="E84" s="29"/>
+      <c r="B84" s="33"/>
+      <c r="C84" s="33"/>
+      <c r="D84" s="33"/>
+      <c r="E84" s="33"/>
       <c r="F84" s="11" t="s">
         <v>26</v>
       </c>
@@ -4887,39 +5252,41 @@
         <v>49</v>
       </c>
       <c r="H84" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I84" s="11"/>
       <c r="J84" s="11"/>
     </row>
-    <row r="85" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B85" s="26">
+    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B85" s="28">
         <v>2</v>
       </c>
-      <c r="C85" s="26">
+      <c r="C85" s="28">
         <v>2</v>
       </c>
-      <c r="D85" s="26" t="s">
+      <c r="D85" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="E85" s="28" t="s">
         <v>125</v>
-      </c>
-      <c r="E85" s="26" t="s">
-        <v>126</v>
       </c>
       <c r="F85" s="13" t="s">
         <v>20</v>
       </c>
       <c r="G85" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="H85" s="13"/>
+        <v>155</v>
+      </c>
+      <c r="H85" s="13" t="s">
+        <v>154</v>
+      </c>
       <c r="I85" s="13"/>
       <c r="J85" s="13"/>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B86" s="26"/>
-      <c r="C86" s="26"/>
-      <c r="D86" s="26"/>
-      <c r="E86" s="26"/>
+      <c r="B86" s="28"/>
+      <c r="C86" s="28"/>
+      <c r="D86" s="28"/>
+      <c r="E86" s="28"/>
       <c r="F86" s="9" t="s">
         <v>19</v>
       </c>
@@ -4933,61 +5300,61 @@
       <c r="J86" s="9"/>
     </row>
     <row r="87" spans="2:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B87" s="26"/>
-      <c r="C87" s="26"/>
-      <c r="D87" s="26"/>
-      <c r="E87" s="26"/>
+      <c r="B87" s="28"/>
+      <c r="C87" s="28"/>
+      <c r="D87" s="28"/>
+      <c r="E87" s="28"/>
       <c r="F87" s="9" t="s">
         <v>23</v>
       </c>
       <c r="G87" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="H87" s="9" t="s">
         <v>117</v>
-      </c>
-      <c r="H87" s="9" t="s">
-        <v>118</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
     </row>
     <row r="88" spans="2:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B88" s="26"/>
-      <c r="C88" s="26"/>
-      <c r="D88" s="26"/>
-      <c r="E88" s="26"/>
+      <c r="B88" s="28"/>
+      <c r="C88" s="28"/>
+      <c r="D88" s="28"/>
+      <c r="E88" s="28"/>
       <c r="F88" s="9" t="s">
         <v>26</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H88" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
     </row>
     <row r="89" spans="2:10" ht="236.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="26"/>
-      <c r="C89" s="26"/>
-      <c r="D89" s="26"/>
-      <c r="E89" s="26"/>
+      <c r="B89" s="28"/>
+      <c r="C89" s="28"/>
+      <c r="D89" s="28"/>
+      <c r="E89" s="28"/>
       <c r="F89" s="9" t="s">
         <v>29</v>
       </c>
       <c r="G89" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H89" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
     </row>
     <row r="90" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B90" s="26"/>
-      <c r="C90" s="26"/>
-      <c r="D90" s="26"/>
-      <c r="E90" s="26"/>
+      <c r="B90" s="28"/>
+      <c r="C90" s="28"/>
+      <c r="D90" s="28"/>
+      <c r="E90" s="28"/>
       <c r="F90" s="9" t="s">
         <v>32</v>
       </c>
@@ -4995,789 +5362,1385 @@
         <v>49</v>
       </c>
       <c r="H90" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
     </row>
-    <row r="91" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B91" s="26">
+    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B91" s="27">
         <v>2</v>
       </c>
-      <c r="C91" s="26">
+      <c r="C91" s="27">
         <v>3</v>
       </c>
-      <c r="D91" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="E91" s="26" t="s">
+      <c r="D91" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="E91" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="F91" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G91" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="H91" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="I91" s="20"/>
+      <c r="J91" s="20"/>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B92" s="27"/>
+      <c r="C92" s="27"/>
+      <c r="D92" s="27"/>
+      <c r="E92" s="27"/>
+      <c r="F92" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G92" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="H92" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="I92" s="11"/>
+      <c r="J92" s="11"/>
+    </row>
+    <row r="93" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B93" s="27"/>
+      <c r="C93" s="27"/>
+      <c r="D93" s="27"/>
+      <c r="E93" s="27"/>
+      <c r="F93" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G93" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="H93" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="I93" s="11"/>
+      <c r="J93" s="11"/>
+    </row>
+    <row r="94" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B94" s="27"/>
+      <c r="C94" s="27"/>
+      <c r="D94" s="27"/>
+      <c r="E94" s="27"/>
+      <c r="F94" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G94" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="H94" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="F91" s="13" t="s">
+      <c r="I94" s="11"/>
+      <c r="J94" s="11"/>
+    </row>
+    <row r="95" spans="2:10" ht="236.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="27"/>
+      <c r="C95" s="27"/>
+      <c r="D95" s="27"/>
+      <c r="E95" s="27"/>
+      <c r="F95" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G95" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="H95" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="I95" s="11"/>
+      <c r="J95" s="11"/>
+    </row>
+    <row r="96" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B96" s="27"/>
+      <c r="C96" s="27"/>
+      <c r="D96" s="27"/>
+      <c r="E96" s="27"/>
+      <c r="F96" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G96" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H96" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="I96" s="11"/>
+      <c r="J96" s="11"/>
+    </row>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B97" s="28">
+        <v>2</v>
+      </c>
+      <c r="C97" s="28">
+        <v>4</v>
+      </c>
+      <c r="D97" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E97" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="F97" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G91" s="13" t="s">
+      <c r="G97" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="H97" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="I97" s="13"/>
+      <c r="J97" s="13"/>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B98" s="28"/>
+      <c r="C98" s="28"/>
+      <c r="D98" s="28"/>
+      <c r="E98" s="28"/>
+      <c r="F98" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G98" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="H98" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+    </row>
+    <row r="99" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B99" s="28"/>
+      <c r="C99" s="28"/>
+      <c r="D99" s="28"/>
+      <c r="E99" s="28"/>
+      <c r="F99" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="G99" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="H99" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+    </row>
+    <row r="100" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B100" s="28"/>
+      <c r="C100" s="28"/>
+      <c r="D100" s="28"/>
+      <c r="E100" s="28"/>
+      <c r="F100" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="G100" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="H100" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+    </row>
+    <row r="101" spans="2:10" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="28"/>
+      <c r="C101" s="28"/>
+      <c r="D101" s="28"/>
+      <c r="E101" s="28"/>
+      <c r="F101" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="G101" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="H101" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+    </row>
+    <row r="102" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B102" s="28"/>
+      <c r="C102" s="28"/>
+      <c r="D102" s="28"/>
+      <c r="E102" s="28"/>
+      <c r="F102" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="G102" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H102" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+    </row>
+    <row r="103" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B103" s="28"/>
+      <c r="C103" s="28"/>
+      <c r="D103" s="28"/>
+      <c r="E103" s="28"/>
+      <c r="F103" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="G103" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="H103" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+    </row>
+    <row r="104" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B104" s="27">
+        <v>2</v>
+      </c>
+      <c r="C104" s="27">
+        <v>5</v>
+      </c>
+      <c r="D104" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="E104" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="F104" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G104" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="H104" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="I104" s="20"/>
+      <c r="J104" s="20"/>
+    </row>
+    <row r="105" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B105" s="27"/>
+      <c r="C105" s="27"/>
+      <c r="D105" s="27"/>
+      <c r="E105" s="27"/>
+      <c r="F105" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G105" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="H105" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="I105" s="11"/>
+      <c r="J105" s="11"/>
+    </row>
+    <row r="106" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B106" s="27"/>
+      <c r="C106" s="27"/>
+      <c r="D106" s="27"/>
+      <c r="E106" s="27"/>
+      <c r="F106" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G106" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="H106" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="I106" s="11"/>
+      <c r="J106" s="11"/>
+    </row>
+    <row r="107" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B107" s="27"/>
+      <c r="C107" s="27"/>
+      <c r="D107" s="27"/>
+      <c r="E107" s="27"/>
+      <c r="F107" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G107" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="H107" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="I107" s="11"/>
+      <c r="J107" s="11"/>
+    </row>
+    <row r="108" spans="2:10" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B108" s="27"/>
+      <c r="C108" s="27"/>
+      <c r="D108" s="27"/>
+      <c r="E108" s="27"/>
+      <c r="F108" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="G108" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="H108" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I108" s="11"/>
+      <c r="J108" s="11"/>
+    </row>
+    <row r="109" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B109" s="27"/>
+      <c r="C109" s="27"/>
+      <c r="D109" s="27"/>
+      <c r="E109" s="27"/>
+      <c r="F109" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="G109" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="H109" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="I109" s="11"/>
+      <c r="J109" s="11"/>
+    </row>
+    <row r="110" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B110" s="27"/>
+      <c r="C110" s="27"/>
+      <c r="D110" s="27"/>
+      <c r="E110" s="27"/>
+      <c r="F110" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="G110" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="H110" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="I110" s="11"/>
+      <c r="J110" s="11"/>
+    </row>
+    <row r="111" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B111" s="28">
+        <v>2</v>
+      </c>
+      <c r="C111" s="28">
+        <v>6</v>
+      </c>
+      <c r="D111" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="E111" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="F111" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G111" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="H111" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="I111" s="13"/>
+      <c r="J111" s="13"/>
+    </row>
+    <row r="112" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B112" s="28"/>
+      <c r="C112" s="28"/>
+      <c r="D112" s="28"/>
+      <c r="E112" s="28"/>
+      <c r="F112" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G112" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="H112" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+    </row>
+    <row r="113" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B113" s="28"/>
+      <c r="C113" s="28"/>
+      <c r="D113" s="28"/>
+      <c r="E113" s="28"/>
+      <c r="F113" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="G113" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="H113" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+    </row>
+    <row r="114" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B114" s="28"/>
+      <c r="C114" s="28"/>
+      <c r="D114" s="28"/>
+      <c r="E114" s="28"/>
+      <c r="F114" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="G114" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="H114" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+    </row>
+    <row r="115" spans="2:10" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B115" s="28"/>
+      <c r="C115" s="28"/>
+      <c r="D115" s="28"/>
+      <c r="E115" s="28"/>
+      <c r="F115" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="G115" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="H115" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+    </row>
+    <row r="116" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B116" s="28"/>
+      <c r="C116" s="28"/>
+      <c r="D116" s="28"/>
+      <c r="E116" s="28"/>
+      <c r="F116" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="G116" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H116" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+    </row>
+    <row r="117" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B117" s="28"/>
+      <c r="C117" s="28"/>
+      <c r="D117" s="28"/>
+      <c r="E117" s="28"/>
+      <c r="F117" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="G117" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="H117" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+    </row>
+    <row r="118" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B118" s="27">
+        <v>2</v>
+      </c>
+      <c r="C118" s="27">
+        <v>7</v>
+      </c>
+      <c r="D118" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="E118" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="F118" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G118" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="H118" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="I118" s="20"/>
+      <c r="J118" s="20"/>
+    </row>
+    <row r="119" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B119" s="27"/>
+      <c r="C119" s="27"/>
+      <c r="D119" s="27"/>
+      <c r="E119" s="27"/>
+      <c r="F119" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G119" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="H119" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="I119" s="11"/>
+      <c r="J119" s="11"/>
+    </row>
+    <row r="120" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B120" s="27"/>
+      <c r="C120" s="27"/>
+      <c r="D120" s="27"/>
+      <c r="E120" s="27"/>
+      <c r="F120" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G120" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="H120" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="I120" s="11"/>
+      <c r="J120" s="11"/>
+    </row>
+    <row r="121" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B121" s="27"/>
+      <c r="C121" s="27"/>
+      <c r="D121" s="27"/>
+      <c r="E121" s="27"/>
+      <c r="F121" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G121" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="H121" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="I121" s="11"/>
+      <c r="J121" s="11"/>
+    </row>
+    <row r="122" spans="2:10" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B122" s="27"/>
+      <c r="C122" s="27"/>
+      <c r="D122" s="27"/>
+      <c r="E122" s="27"/>
+      <c r="F122" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="G122" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="H122" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I122" s="11"/>
+      <c r="J122" s="11"/>
+    </row>
+    <row r="123" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B123" s="27"/>
+      <c r="C123" s="27"/>
+      <c r="D123" s="27"/>
+      <c r="E123" s="27"/>
+      <c r="F123" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="G123" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="H123" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="I123" s="11"/>
+      <c r="J123" s="11"/>
+    </row>
+    <row r="124" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B124" s="27"/>
+      <c r="C124" s="27"/>
+      <c r="D124" s="27"/>
+      <c r="E124" s="27"/>
+      <c r="F124" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="G124" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="H124" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="I124" s="11"/>
+      <c r="J124" s="11"/>
+    </row>
+    <row r="125" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B125" s="28">
+        <v>2</v>
+      </c>
+      <c r="C125" s="28">
+        <v>8</v>
+      </c>
+      <c r="D125" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="E125" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="F125" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="G125" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="H125" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="I125" s="13"/>
+      <c r="J125" s="13"/>
+    </row>
+    <row r="126" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B126" s="28"/>
+      <c r="C126" s="28"/>
+      <c r="D126" s="28"/>
+      <c r="E126" s="41"/>
+      <c r="F126" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="G126" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="H126" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+    </row>
+    <row r="127" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B127" s="28"/>
+      <c r="C127" s="28"/>
+      <c r="D127" s="28"/>
+      <c r="E127" s="41"/>
+      <c r="F127" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="G127" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="H127" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+    </row>
+    <row r="128" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B128" s="28"/>
+      <c r="C128" s="28"/>
+      <c r="D128" s="28"/>
+      <c r="E128" s="41"/>
+      <c r="F128" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="G128" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="H128" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+    </row>
+    <row r="129" spans="2:10" ht="229.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B129" s="28"/>
+      <c r="C129" s="28"/>
+      <c r="D129" s="28"/>
+      <c r="E129" s="41"/>
+      <c r="F129" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="G129" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="H129" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="H91" s="13"/>
-      <c r="I91" s="13"/>
-      <c r="J91" s="13"/>
-    </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B92" s="26"/>
-      <c r="C92" s="26"/>
-      <c r="D92" s="26"/>
-      <c r="E92" s="26"/>
-      <c r="F92" s="9" t="s">
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+    </row>
+    <row r="130" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B130" s="28"/>
+      <c r="C130" s="28"/>
+      <c r="D130" s="28"/>
+      <c r="E130" s="41"/>
+      <c r="F130" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="G130" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="H130" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+    </row>
+    <row r="131" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B131" s="27">
+        <v>2</v>
+      </c>
+      <c r="C131" s="27">
+        <v>9</v>
+      </c>
+      <c r="D131" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="E131" s="45" t="s">
+        <v>160</v>
+      </c>
+      <c r="F131" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="G131" s="46" t="s">
+        <v>155</v>
+      </c>
+      <c r="H131" s="46" t="s">
+        <v>154</v>
+      </c>
+      <c r="I131" s="20"/>
+      <c r="J131" s="20"/>
+    </row>
+    <row r="132" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B132" s="27"/>
+      <c r="C132" s="27"/>
+      <c r="D132" s="27"/>
+      <c r="E132" s="45"/>
+      <c r="F132" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="G92" s="9" t="s">
+      <c r="G132" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="H92" s="9" t="s">
+      <c r="H132" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="I92" s="9"/>
-      <c r="J92" s="9"/>
-    </row>
-    <row r="93" spans="2:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B93" s="26"/>
-      <c r="C93" s="26"/>
-      <c r="D93" s="26"/>
-      <c r="E93" s="26"/>
-      <c r="F93" s="9" t="s">
+      <c r="I132" s="11"/>
+      <c r="J132" s="11"/>
+    </row>
+    <row r="133" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B133" s="27"/>
+      <c r="C133" s="27"/>
+      <c r="D133" s="27"/>
+      <c r="E133" s="45"/>
+      <c r="F133" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="G93" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="H93" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="I93" s="9"/>
-      <c r="J93" s="9"/>
-    </row>
-    <row r="94" spans="2:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B94" s="26"/>
-      <c r="C94" s="26"/>
-      <c r="D94" s="26"/>
-      <c r="E94" s="26"/>
-      <c r="F94" s="9" t="s">
+      <c r="G133" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="H133" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="I133" s="11"/>
+      <c r="J133" s="11"/>
+    </row>
+    <row r="134" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B134" s="27"/>
+      <c r="C134" s="27"/>
+      <c r="D134" s="27"/>
+      <c r="E134" s="45"/>
+      <c r="F134" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G94" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="H94" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="I94" s="9"/>
-      <c r="J94" s="9"/>
-    </row>
-    <row r="95" spans="2:10" ht="236.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="26"/>
-      <c r="C95" s="26"/>
-      <c r="D95" s="26"/>
-      <c r="E95" s="26"/>
-      <c r="F95" s="9" t="s">
+      <c r="G134" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="H134" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="I134" s="11"/>
+      <c r="J134" s="11"/>
+    </row>
+    <row r="135" spans="2:10" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B135" s="27"/>
+      <c r="C135" s="27"/>
+      <c r="D135" s="27"/>
+      <c r="E135" s="45"/>
+      <c r="F135" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="G95" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="H95" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="I95" s="9"/>
-      <c r="J95" s="9"/>
-    </row>
-    <row r="96" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B96" s="26"/>
-      <c r="C96" s="26"/>
-      <c r="D96" s="26"/>
-      <c r="E96" s="26"/>
-      <c r="F96" s="9" t="s">
+      <c r="G135" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="H135" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I135" s="11"/>
+      <c r="J135" s="11"/>
+    </row>
+    <row r="136" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B136" s="27"/>
+      <c r="C136" s="27"/>
+      <c r="D136" s="27"/>
+      <c r="E136" s="45"/>
+      <c r="F136" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="G96" s="9" t="s">
+      <c r="G136" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="H136" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="I136" s="11"/>
+      <c r="J136" s="11"/>
+    </row>
+    <row r="137" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B137" s="27"/>
+      <c r="C137" s="27"/>
+      <c r="D137" s="27"/>
+      <c r="E137" s="45"/>
+      <c r="F137" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="G137" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="H96" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="I96" s="9"/>
-      <c r="J96" s="9"/>
-    </row>
-    <row r="97" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B97" s="25">
+      <c r="H137" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="I137" s="11"/>
+      <c r="J137" s="11"/>
+    </row>
+    <row r="138" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B138" s="28">
         <v>2</v>
       </c>
-      <c r="C97" s="25">
-        <v>4</v>
-      </c>
-      <c r="D97" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="E97" s="25" t="s">
+      <c r="C138" s="28">
+        <v>10</v>
+      </c>
+      <c r="D138" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="E138" s="47" t="s">
+        <v>163</v>
+      </c>
+      <c r="F138" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="G138" s="48" t="s">
+        <v>155</v>
+      </c>
+      <c r="H138" s="48" t="s">
+        <v>154</v>
+      </c>
+      <c r="I138" s="13"/>
+      <c r="J138" s="13"/>
+    </row>
+    <row r="139" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B139" s="28"/>
+      <c r="C139" s="28"/>
+      <c r="D139" s="28"/>
+      <c r="E139" s="47"/>
+      <c r="F139" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G139" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="H139" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="I139" s="9"/>
+      <c r="J139" s="9"/>
+    </row>
+    <row r="140" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B140" s="28"/>
+      <c r="C140" s="28"/>
+      <c r="D140" s="28"/>
+      <c r="E140" s="47"/>
+      <c r="F140" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="G140" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="H140" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="I140" s="9"/>
+      <c r="J140" s="9"/>
+    </row>
+    <row r="141" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B141" s="28"/>
+      <c r="C141" s="28"/>
+      <c r="D141" s="28"/>
+      <c r="E141" s="47"/>
+      <c r="F141" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="G141" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="H141" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="I141" s="9"/>
+      <c r="J141" s="9"/>
+    </row>
+    <row r="142" spans="2:10" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B142" s="28"/>
+      <c r="C142" s="28"/>
+      <c r="D142" s="28"/>
+      <c r="E142" s="47"/>
+      <c r="F142" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="G142" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="H142" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I142" s="9"/>
+      <c r="J142" s="9"/>
+    </row>
+    <row r="143" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B143" s="28"/>
+      <c r="C143" s="28"/>
+      <c r="D143" s="28"/>
+      <c r="E143" s="47"/>
+      <c r="F143" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="G143" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H143" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="F97" s="20" t="s">
+      <c r="I143" s="9"/>
+      <c r="J143" s="9"/>
+    </row>
+    <row r="144" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B144" s="28"/>
+      <c r="C144" s="28"/>
+      <c r="D144" s="28"/>
+      <c r="E144" s="47"/>
+      <c r="F144" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="G144" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="H144" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="I144" s="9"/>
+      <c r="J144" s="9"/>
+    </row>
+    <row r="145" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B145" s="27">
+        <v>2</v>
+      </c>
+      <c r="C145" s="27">
+        <v>11</v>
+      </c>
+      <c r="D145" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="E145" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="F145" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="G97" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="H97" s="20"/>
-      <c r="I97" s="20"/>
-      <c r="J97" s="20"/>
-    </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B98" s="25"/>
-      <c r="C98" s="25"/>
-      <c r="D98" s="25"/>
-      <c r="E98" s="25"/>
-      <c r="F98" s="11" t="s">
+      <c r="G145" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="H145" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="I145" s="20"/>
+      <c r="J145" s="20"/>
+    </row>
+    <row r="146" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B146" s="27"/>
+      <c r="C146" s="27"/>
+      <c r="D146" s="38"/>
+      <c r="E146" s="38"/>
+      <c r="F146" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="G98" s="11" t="s">
+      <c r="G146" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="H98" s="11" t="s">
+      <c r="H146" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="I98" s="11"/>
-      <c r="J98" s="11"/>
-    </row>
-    <row r="99" spans="2:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B99" s="25"/>
-      <c r="C99" s="25"/>
-      <c r="D99" s="25"/>
-      <c r="E99" s="25"/>
-      <c r="F99" s="22" t="s">
+      <c r="I146" s="11"/>
+      <c r="J146" s="11"/>
+    </row>
+    <row r="147" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B147" s="27"/>
+      <c r="C147" s="27"/>
+      <c r="D147" s="38"/>
+      <c r="E147" s="38"/>
+      <c r="F147" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="G99" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="H99" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="I99" s="11"/>
-      <c r="J99" s="11"/>
-    </row>
-    <row r="100" spans="2:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B100" s="25"/>
-      <c r="C100" s="25"/>
-      <c r="D100" s="25"/>
-      <c r="E100" s="25"/>
-      <c r="F100" s="22" t="s">
+      <c r="G147" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="H147" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="I147" s="11"/>
+      <c r="J147" s="11"/>
+    </row>
+    <row r="148" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B148" s="27"/>
+      <c r="C148" s="27"/>
+      <c r="D148" s="38"/>
+      <c r="E148" s="38"/>
+      <c r="F148" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="G100" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="H100" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="I100" s="11"/>
-      <c r="J100" s="11"/>
-    </row>
-    <row r="101" spans="2:10" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="25"/>
-      <c r="C101" s="25"/>
-      <c r="D101" s="25"/>
-      <c r="E101" s="25"/>
-      <c r="F101" s="22" t="s">
+      <c r="G148" s="40" t="s">
+        <v>169</v>
+      </c>
+      <c r="H148" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="I148" s="11"/>
+      <c r="J148" s="11"/>
+    </row>
+    <row r="149" spans="2:10" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B149" s="27"/>
+      <c r="C149" s="27"/>
+      <c r="D149" s="38"/>
+      <c r="E149" s="38"/>
+      <c r="F149" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="G101" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="H101" s="23" t="s">
+      <c r="G149" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="H149" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="I101" s="11"/>
-      <c r="J101" s="11"/>
-    </row>
-    <row r="102" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B102" s="25"/>
-      <c r="C102" s="25"/>
-      <c r="D102" s="25"/>
-      <c r="E102" s="25"/>
-      <c r="F102" s="22" t="s">
+      <c r="I149" s="11"/>
+      <c r="J149" s="11"/>
+    </row>
+    <row r="150" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B150" s="27"/>
+      <c r="C150" s="27"/>
+      <c r="D150" s="38"/>
+      <c r="E150" s="38"/>
+      <c r="F150" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="G102" s="22" t="s">
+      <c r="G150" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="H102" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="I102" s="11"/>
-      <c r="J102" s="11"/>
-    </row>
-    <row r="103" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B103" s="25"/>
-      <c r="C103" s="25"/>
-      <c r="D103" s="25"/>
-      <c r="E103" s="25"/>
-      <c r="F103" s="22" t="s">
+      <c r="H150" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="I150" s="11"/>
+      <c r="J150" s="11"/>
+    </row>
+    <row r="151" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B151" s="27"/>
+      <c r="C151" s="27"/>
+      <c r="D151" s="38"/>
+      <c r="E151" s="38"/>
+      <c r="F151" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="G103" s="22" t="s">
+      <c r="G151" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="H103" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="I103" s="11"/>
-      <c r="J103" s="11"/>
-    </row>
-    <row r="104" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B104" s="26">
+      <c r="H151" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="I151" s="11"/>
+      <c r="J151" s="11"/>
+    </row>
+    <row r="152" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B152" s="28">
         <v>2</v>
       </c>
-      <c r="C104" s="26">
-        <v>5</v>
-      </c>
-      <c r="D104" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="E104" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="F104" s="13" t="s">
+      <c r="C152" s="28">
+        <v>12</v>
+      </c>
+      <c r="D152" s="41" t="s">
+        <v>172</v>
+      </c>
+      <c r="E152" s="41" t="s">
+        <v>173</v>
+      </c>
+      <c r="F152" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="G104" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="H104" s="13"/>
-      <c r="I104" s="13"/>
-      <c r="J104" s="13"/>
-    </row>
-    <row r="105" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B105" s="26"/>
-      <c r="C105" s="26"/>
-      <c r="D105" s="26"/>
-      <c r="E105" s="26"/>
-      <c r="F105" s="9" t="s">
+      <c r="G152" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="H152" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="I152" s="13"/>
+      <c r="J152" s="13"/>
+    </row>
+    <row r="153" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B153" s="28"/>
+      <c r="C153" s="28"/>
+      <c r="D153" s="41"/>
+      <c r="E153" s="41"/>
+      <c r="F153" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="G105" s="9" t="s">
+      <c r="G153" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="H105" s="9" t="s">
+      <c r="H153" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="I105" s="9"/>
-      <c r="J105" s="9"/>
-    </row>
-    <row r="106" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B106" s="26"/>
-      <c r="C106" s="26"/>
-      <c r="D106" s="26"/>
-      <c r="E106" s="26"/>
-      <c r="F106" s="33" t="s">
+      <c r="I153" s="9"/>
+      <c r="J153" s="9"/>
+    </row>
+    <row r="154" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B154" s="28"/>
+      <c r="C154" s="28"/>
+      <c r="D154" s="41"/>
+      <c r="E154" s="41"/>
+      <c r="F154" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="G106" s="33" t="s">
-        <v>140</v>
-      </c>
-      <c r="H106" s="33" t="s">
-        <v>139</v>
-      </c>
-      <c r="I106" s="9"/>
-      <c r="J106" s="9"/>
-    </row>
-    <row r="107" spans="2:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B107" s="26"/>
-      <c r="C107" s="26"/>
-      <c r="D107" s="26"/>
-      <c r="E107" s="26"/>
-      <c r="F107" s="33" t="s">
+      <c r="G154" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="H154" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="I154" s="9"/>
+      <c r="J154" s="9"/>
+    </row>
+    <row r="155" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B155" s="28"/>
+      <c r="C155" s="28"/>
+      <c r="D155" s="41"/>
+      <c r="E155" s="41"/>
+      <c r="F155" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="G107" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="H107" s="33" t="s">
-        <v>142</v>
-      </c>
-      <c r="I107" s="9"/>
-      <c r="J107" s="9"/>
-    </row>
-    <row r="108" spans="2:10" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="26"/>
-      <c r="C108" s="26"/>
-      <c r="D108" s="26"/>
-      <c r="E108" s="26"/>
-      <c r="F108" s="33" t="s">
+      <c r="G155" s="43" t="s">
+        <v>169</v>
+      </c>
+      <c r="H155" s="43" t="s">
+        <v>174</v>
+      </c>
+      <c r="I155" s="9"/>
+      <c r="J155" s="9"/>
+    </row>
+    <row r="156" spans="2:10" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B156" s="28"/>
+      <c r="C156" s="28"/>
+      <c r="D156" s="41"/>
+      <c r="E156" s="41"/>
+      <c r="F156" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="G108" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="H108" s="34" t="s">
+      <c r="G156" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="H156" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="I108" s="9"/>
-      <c r="J108" s="9"/>
-    </row>
-    <row r="109" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B109" s="26"/>
-      <c r="C109" s="26"/>
-      <c r="D109" s="26"/>
-      <c r="E109" s="26"/>
-      <c r="F109" s="33" t="s">
+      <c r="I156" s="9"/>
+      <c r="J156" s="9"/>
+    </row>
+    <row r="157" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B157" s="28"/>
+      <c r="C157" s="28"/>
+      <c r="D157" s="41"/>
+      <c r="E157" s="41"/>
+      <c r="F157" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="G109" s="33" t="s">
+      <c r="G157" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="H109" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="I109" s="9"/>
-      <c r="J109" s="9"/>
-    </row>
-    <row r="110" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B110" s="26"/>
-      <c r="C110" s="26"/>
-      <c r="D110" s="26"/>
-      <c r="E110" s="26"/>
-      <c r="F110" s="33" t="s">
+      <c r="H157" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="I157" s="9"/>
+      <c r="J157" s="9"/>
+    </row>
+    <row r="158" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B158" s="28"/>
+      <c r="C158" s="28"/>
+      <c r="D158" s="41"/>
+      <c r="E158" s="41"/>
+      <c r="F158" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="G110" s="33" t="s">
+      <c r="G158" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="H110" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="I110" s="9"/>
-      <c r="J110" s="9"/>
-    </row>
-    <row r="111" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B111" s="25">
+      <c r="H158" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="I158" s="9"/>
+      <c r="J158" s="9"/>
+    </row>
+    <row r="159" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B159" s="27">
         <v>2</v>
       </c>
-      <c r="C111" s="25">
-        <v>6</v>
-      </c>
-      <c r="D111" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="E111" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="F111" s="20" t="s">
+      <c r="C159" s="27">
+        <v>13</v>
+      </c>
+      <c r="D159" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="E159" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="F159" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="G111" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="H111" s="20"/>
-      <c r="I111" s="20"/>
-      <c r="J111" s="20"/>
-    </row>
-    <row r="112" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B112" s="25"/>
-      <c r="C112" s="25"/>
-      <c r="D112" s="25"/>
-      <c r="E112" s="25"/>
-      <c r="F112" s="11" t="s">
+      <c r="G159" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="H159" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="I159" s="20"/>
+      <c r="J159" s="20"/>
+    </row>
+    <row r="160" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B160" s="27"/>
+      <c r="C160" s="27"/>
+      <c r="D160" s="38"/>
+      <c r="E160" s="38"/>
+      <c r="F160" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="G112" s="11" t="s">
+      <c r="G160" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="H112" s="11" t="s">
+      <c r="H160" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="I112" s="11"/>
-      <c r="J112" s="11"/>
-    </row>
-    <row r="113" spans="2:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B113" s="25"/>
-      <c r="C113" s="25"/>
-      <c r="D113" s="25"/>
-      <c r="E113" s="25"/>
-      <c r="F113" s="22" t="s">
+      <c r="I160" s="11"/>
+      <c r="J160" s="11"/>
+    </row>
+    <row r="161" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B161" s="27"/>
+      <c r="C161" s="27"/>
+      <c r="D161" s="38"/>
+      <c r="E161" s="38"/>
+      <c r="F161" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="G113" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="H113" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="I113" s="11"/>
-      <c r="J113" s="11"/>
-    </row>
-    <row r="114" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B114" s="25"/>
-      <c r="C114" s="25"/>
-      <c r="D114" s="25"/>
-      <c r="E114" s="25"/>
-      <c r="F114" s="22" t="s">
+      <c r="G161" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="H161" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="I161" s="11"/>
+      <c r="J161" s="11"/>
+    </row>
+    <row r="162" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B162" s="27"/>
+      <c r="C162" s="27"/>
+      <c r="D162" s="38"/>
+      <c r="E162" s="38"/>
+      <c r="F162" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="G114" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="H114" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="I114" s="11"/>
-      <c r="J114" s="11"/>
-    </row>
-    <row r="115" spans="2:10" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="25"/>
-      <c r="C115" s="25"/>
-      <c r="D115" s="25"/>
-      <c r="E115" s="25"/>
-      <c r="F115" s="22" t="s">
+      <c r="G162" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="H162" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="I162" s="11"/>
+      <c r="J162" s="11"/>
+    </row>
+    <row r="163" spans="2:10" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B163" s="27"/>
+      <c r="C163" s="27"/>
+      <c r="D163" s="38"/>
+      <c r="E163" s="38"/>
+      <c r="F163" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="G115" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="H115" s="23" t="s">
+      <c r="G163" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="H163" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="I115" s="11"/>
-      <c r="J115" s="11"/>
-    </row>
-    <row r="116" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B116" s="25"/>
-      <c r="C116" s="25"/>
-      <c r="D116" s="25"/>
-      <c r="E116" s="25"/>
-      <c r="F116" s="22" t="s">
+      <c r="I163" s="11"/>
+      <c r="J163" s="11"/>
+    </row>
+    <row r="164" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B164" s="27"/>
+      <c r="C164" s="27"/>
+      <c r="D164" s="38"/>
+      <c r="E164" s="38"/>
+      <c r="F164" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="G116" s="22" t="s">
+      <c r="G164" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="H116" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="I116" s="11"/>
-      <c r="J116" s="11"/>
-    </row>
-    <row r="117" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B117" s="25"/>
-      <c r="C117" s="25"/>
-      <c r="D117" s="25"/>
-      <c r="E117" s="25"/>
-      <c r="F117" s="22" t="s">
+      <c r="H164" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="I164" s="11"/>
+      <c r="J164" s="11"/>
+    </row>
+    <row r="165" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B165" s="27"/>
+      <c r="C165" s="27"/>
+      <c r="D165" s="38"/>
+      <c r="E165" s="38"/>
+      <c r="F165" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="G117" s="22" t="s">
+      <c r="G165" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="H117" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="I117" s="11"/>
-      <c r="J117" s="11"/>
-    </row>
-    <row r="118" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B118" s="26">
-        <v>2</v>
-      </c>
-      <c r="C118" s="26">
-        <v>7</v>
-      </c>
-      <c r="D118" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="E118" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="F118" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G118" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="H118" s="13"/>
-      <c r="I118" s="13"/>
-      <c r="J118" s="13"/>
-    </row>
-    <row r="119" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B119" s="26"/>
-      <c r="C119" s="26"/>
-      <c r="D119" s="26"/>
-      <c r="E119" s="26"/>
-      <c r="F119" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G119" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="H119" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="I119" s="9"/>
-      <c r="J119" s="9"/>
-    </row>
-    <row r="120" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B120" s="26"/>
-      <c r="C120" s="26"/>
-      <c r="D120" s="26"/>
-      <c r="E120" s="26"/>
-      <c r="F120" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="G120" s="33" t="s">
-        <v>140</v>
-      </c>
-      <c r="H120" s="33" t="s">
-        <v>139</v>
-      </c>
-      <c r="I120" s="9"/>
-      <c r="J120" s="9"/>
-    </row>
-    <row r="121" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B121" s="26"/>
-      <c r="C121" s="26"/>
-      <c r="D121" s="26"/>
-      <c r="E121" s="26"/>
-      <c r="F121" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="G121" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="H121" s="33" t="s">
-        <v>146</v>
-      </c>
-      <c r="I121" s="9"/>
-      <c r="J121" s="9"/>
-    </row>
-    <row r="122" spans="2:10" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="26"/>
-      <c r="C122" s="26"/>
-      <c r="D122" s="26"/>
-      <c r="E122" s="26"/>
-      <c r="F122" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="G122" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="H122" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="I122" s="9"/>
-      <c r="J122" s="9"/>
-    </row>
-    <row r="123" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B123" s="26"/>
-      <c r="C123" s="26"/>
-      <c r="D123" s="26"/>
-      <c r="E123" s="26"/>
-      <c r="F123" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="G123" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="H123" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="I123" s="9"/>
-      <c r="J123" s="9"/>
-    </row>
-    <row r="124" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B124" s="26"/>
-      <c r="C124" s="26"/>
-      <c r="D124" s="26"/>
-      <c r="E124" s="26"/>
-      <c r="F124" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="G124" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="H124" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="I124" s="9"/>
-      <c r="J124" s="9"/>
-    </row>
-    <row r="125" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B125" s="25">
-        <v>2</v>
-      </c>
-      <c r="C125" s="25">
-        <v>8</v>
-      </c>
-      <c r="D125" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="E125" s="41" t="s">
-        <v>152</v>
-      </c>
-      <c r="F125" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="G125" s="38" t="s">
-        <v>115</v>
-      </c>
-      <c r="H125" s="38"/>
-      <c r="I125" s="20"/>
-      <c r="J125" s="20"/>
-    </row>
-    <row r="126" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B126" s="25"/>
-      <c r="C126" s="25"/>
-      <c r="D126" s="25"/>
-      <c r="E126" s="41"/>
-      <c r="F126" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="G126" s="39" t="s">
-        <v>112</v>
-      </c>
-      <c r="H126" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="I126" s="11"/>
-      <c r="J126" s="11"/>
-    </row>
-    <row r="127" spans="2:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B127" s="25"/>
-      <c r="C127" s="25"/>
-      <c r="D127" s="25"/>
-      <c r="E127" s="41"/>
-      <c r="F127" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="G127" s="39" t="s">
-        <v>153</v>
-      </c>
-      <c r="H127" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="I127" s="11"/>
-      <c r="J127" s="11"/>
-    </row>
-    <row r="128" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B128" s="25"/>
-      <c r="C128" s="25"/>
-      <c r="D128" s="25"/>
-      <c r="E128" s="41"/>
-      <c r="F128" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="G128" s="39" t="s">
-        <v>148</v>
-      </c>
-      <c r="H128" s="39" t="s">
-        <v>146</v>
-      </c>
-      <c r="I128" s="11"/>
-      <c r="J128" s="11"/>
-    </row>
-    <row r="129" spans="2:10" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B129" s="25"/>
-      <c r="C129" s="25"/>
-      <c r="D129" s="25"/>
-      <c r="E129" s="41"/>
-      <c r="F129" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="G129" s="39" t="s">
-        <v>120</v>
-      </c>
-      <c r="H129" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="I129" s="11"/>
-      <c r="J129" s="11"/>
-    </row>
-    <row r="130" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B130" s="25"/>
-      <c r="C130" s="25"/>
-      <c r="D130" s="25"/>
-      <c r="E130" s="41"/>
-      <c r="F130" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="G130" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="H130" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="I130" s="11"/>
-      <c r="J130" s="11"/>
-    </row>
-    <row r="131" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B131" s="25"/>
-      <c r="C131" s="25"/>
-      <c r="D131" s="25"/>
-      <c r="E131" s="41"/>
-      <c r="F131" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="G131" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="H131" s="40" t="s">
-        <v>124</v>
-      </c>
-      <c r="I131" s="11"/>
-      <c r="J131" s="11"/>
-    </row>
-    <row r="132" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="H165" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="I165" s="11"/>
+      <c r="J165" s="11"/>
+    </row>
+    <row r="166" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="177" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="178" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="179" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6098,23 +7061,58 @@
     <row r="494" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="495" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="496" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A1:J1" xr:uid="{B0953F3B-78FC-43F3-9402-DE0C5199EBA3}"/>
-  <mergeCells count="69">
-    <mergeCell ref="B125:B131"/>
-    <mergeCell ref="C125:C131"/>
-    <mergeCell ref="D125:D131"/>
-    <mergeCell ref="E125:E131"/>
-    <mergeCell ref="B118:B124"/>
-    <mergeCell ref="C118:C124"/>
-    <mergeCell ref="D118:D124"/>
-    <mergeCell ref="E118:E124"/>
-    <mergeCell ref="A2:A80"/>
-    <mergeCell ref="B104:B110"/>
-    <mergeCell ref="C104:C110"/>
-    <mergeCell ref="D104:D110"/>
-    <mergeCell ref="E104:E110"/>
+  <mergeCells count="89">
+    <mergeCell ref="B152:B158"/>
+    <mergeCell ref="C152:C158"/>
+    <mergeCell ref="D152:D158"/>
+    <mergeCell ref="E152:E158"/>
+    <mergeCell ref="B159:B165"/>
+    <mergeCell ref="C159:C165"/>
+    <mergeCell ref="D159:D165"/>
+    <mergeCell ref="E159:E165"/>
+    <mergeCell ref="B138:B144"/>
+    <mergeCell ref="C138:C144"/>
+    <mergeCell ref="D138:D144"/>
+    <mergeCell ref="E138:E144"/>
+    <mergeCell ref="B145:B151"/>
+    <mergeCell ref="C145:C151"/>
+    <mergeCell ref="D145:D151"/>
+    <mergeCell ref="E145:E151"/>
+    <mergeCell ref="B91:B96"/>
+    <mergeCell ref="C91:C96"/>
+    <mergeCell ref="D91:D96"/>
+    <mergeCell ref="E91:E96"/>
+    <mergeCell ref="B131:B137"/>
+    <mergeCell ref="C131:C137"/>
+    <mergeCell ref="D131:D137"/>
+    <mergeCell ref="E131:E137"/>
+    <mergeCell ref="B63:B71"/>
+    <mergeCell ref="C63:C71"/>
+    <mergeCell ref="D63:D71"/>
+    <mergeCell ref="E63:E71"/>
+    <mergeCell ref="B72:B80"/>
+    <mergeCell ref="C72:C80"/>
+    <mergeCell ref="D72:D80"/>
+    <mergeCell ref="E72:E80"/>
+    <mergeCell ref="B46:B54"/>
+    <mergeCell ref="C46:C54"/>
+    <mergeCell ref="D46:D54"/>
+    <mergeCell ref="E46:E54"/>
+    <mergeCell ref="B55:B62"/>
+    <mergeCell ref="C55:C62"/>
+    <mergeCell ref="D55:D62"/>
+    <mergeCell ref="E55:E62"/>
+    <mergeCell ref="B10:B18"/>
+    <mergeCell ref="E28:E36"/>
+    <mergeCell ref="B37:B45"/>
+    <mergeCell ref="C37:C45"/>
+    <mergeCell ref="D37:D45"/>
+    <mergeCell ref="E37:E45"/>
+    <mergeCell ref="B28:B36"/>
+    <mergeCell ref="C28:C36"/>
+    <mergeCell ref="D28:D36"/>
     <mergeCell ref="B111:B117"/>
     <mergeCell ref="C111:C117"/>
     <mergeCell ref="D111:D117"/>
@@ -6123,6 +7121,19 @@
     <mergeCell ref="C81:C84"/>
     <mergeCell ref="D81:D84"/>
     <mergeCell ref="E81:E84"/>
+    <mergeCell ref="B97:B103"/>
+    <mergeCell ref="C97:C103"/>
+    <mergeCell ref="D97:D103"/>
+    <mergeCell ref="E97:E103"/>
+    <mergeCell ref="B85:B90"/>
+    <mergeCell ref="C85:C90"/>
+    <mergeCell ref="D85:D90"/>
+    <mergeCell ref="E85:E90"/>
+    <mergeCell ref="A2:A80"/>
+    <mergeCell ref="B104:B110"/>
+    <mergeCell ref="C104:C110"/>
+    <mergeCell ref="D104:D110"/>
+    <mergeCell ref="E104:E110"/>
     <mergeCell ref="B2:B9"/>
     <mergeCell ref="C2:C9"/>
     <mergeCell ref="D2:D9"/>
@@ -6134,43 +7145,14 @@
     <mergeCell ref="E10:E18"/>
     <mergeCell ref="D10:D18"/>
     <mergeCell ref="C10:C18"/>
-    <mergeCell ref="B10:B18"/>
-    <mergeCell ref="E28:E36"/>
-    <mergeCell ref="B37:B45"/>
-    <mergeCell ref="C37:C45"/>
-    <mergeCell ref="D37:D45"/>
-    <mergeCell ref="E37:E45"/>
-    <mergeCell ref="B28:B36"/>
-    <mergeCell ref="C28:C36"/>
-    <mergeCell ref="D28:D36"/>
-    <mergeCell ref="B46:B54"/>
-    <mergeCell ref="C46:C54"/>
-    <mergeCell ref="D46:D54"/>
-    <mergeCell ref="E46:E54"/>
-    <mergeCell ref="B55:B62"/>
-    <mergeCell ref="C55:C62"/>
-    <mergeCell ref="D55:D62"/>
-    <mergeCell ref="E55:E62"/>
-    <mergeCell ref="B63:B71"/>
-    <mergeCell ref="C63:C71"/>
-    <mergeCell ref="D63:D71"/>
-    <mergeCell ref="E63:E71"/>
-    <mergeCell ref="B72:B80"/>
-    <mergeCell ref="C72:C80"/>
-    <mergeCell ref="D72:D80"/>
-    <mergeCell ref="E72:E80"/>
-    <mergeCell ref="B97:B103"/>
-    <mergeCell ref="C97:C103"/>
-    <mergeCell ref="D97:D103"/>
-    <mergeCell ref="E97:E103"/>
-    <mergeCell ref="B85:B90"/>
-    <mergeCell ref="C85:C90"/>
-    <mergeCell ref="D85:D90"/>
-    <mergeCell ref="E85:E90"/>
-    <mergeCell ref="B91:B96"/>
-    <mergeCell ref="C91:C96"/>
-    <mergeCell ref="D91:D96"/>
-    <mergeCell ref="E91:E96"/>
+    <mergeCell ref="B125:B130"/>
+    <mergeCell ref="C125:C130"/>
+    <mergeCell ref="D125:D130"/>
+    <mergeCell ref="E125:E130"/>
+    <mergeCell ref="B118:B124"/>
+    <mergeCell ref="C118:C124"/>
+    <mergeCell ref="D118:D124"/>
+    <mergeCell ref="E118:E124"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6179,10 +7161,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B204A399-C202-4A7B-9C11-B42BFE1631E2}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="A25" sqref="A25:E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6196,13 +7178,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
+      <c r="A1" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
@@ -6358,13 +7340,13 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
+      <c r="A11" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
@@ -6452,13 +7434,13 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
+      <c r="A17" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
@@ -6545,11 +7527,89 @@
         <v>101</v>
       </c>
     </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="18">
+        <v>6</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25" s="19">
+        <v>45301</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="18">
+        <v>7</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" s="18">
+        <v>127.35</v>
+      </c>
+      <c r="D26" s="19">
+        <v>45304</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="18">
+        <v>8</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" s="18">
+        <v>50</v>
+      </c>
+      <c r="D27" s="19">
+        <v>45305</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>105</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A23:E23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/testy/scenariusze_testowe.xlsx
+++ b/testy/scenariusze_testowe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Studia WSB - Tester oprogramowania\App_zaliczenie\App_zaliczenie\testy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7618F16-5108-41B2-B20D-0DD834E79EFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C491283-E713-40CD-96D6-8CB8AEA82DF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="211">
   <si>
     <t>Scenariusze testowe:</t>
   </si>
@@ -567,6 +567,102 @@
   </si>
   <si>
     <t>W polu "Wpisz rok" wyświetla się wartość "rok"</t>
+  </si>
+  <si>
+    <t>Wpisanie ręcznie w polu "Wpisz rok" wartości "-35,2"</t>
+  </si>
+  <si>
+    <t>Wyświetlanie wydatków z danego miesiąca z bazy danych aplikacji z nie poprawnie wpisanymi danymi - w polu "Wpisz rok" skasowano domyślną wartość "2024" i pozostawiono pole bez żadnej wartości</t>
+  </si>
+  <si>
+    <t>Użytkownikowi po wybraniu miesiąca z listy rozwijanej, skasowaniu domyślnej wartości "2024" i pozostawiniu  pola "Wpisz rok" bez żadnej wartości oraz kliknięciu w przycisk "Pokaż z miesiąca" powinien zostać wyświetlony messagebox o treści: "Wybrano niepoprawny rok!"</t>
+  </si>
+  <si>
+    <t>Wybranie z listy rozwijanej o nazwie "Wybierz miesiąc" miesiąca o nazwie "grudzień"</t>
+  </si>
+  <si>
+    <t>W polu wybierania  o nazwie "Wybierz miesiąc" wyświetla się nazwa "grudzień"</t>
+  </si>
+  <si>
+    <t>Skasowanie domyślnej wartości z pola "Wpisz rok" i pozostawienie go bez wpisanej wartości</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wyświetlanie wydatków z danego miesiąca z bazy danych aplikacji z nie poprawnie wpisanymi danymi - w polu "Wybierz miesiąc" nie wybrano żadnej wartości (pole pozostaje puste) </t>
+  </si>
+  <si>
+    <t>Użytkownikowi po nie wybraniu żadnej wartości z listy rozwijanej w polu wybierz miesiąc i wpisaniu roku (domyślnie 2024) oraz kliknięciu w przycisk "Pokaż z miesiąca" powinien zostać wyświetlony messagebox o treści: "Wybrano błędny miesiąc."</t>
+  </si>
+  <si>
+    <t>Pozostawieni pola "Wybierz miesiąć" bez żadnej wartości (pole pozostaje puste)</t>
+  </si>
+  <si>
+    <t>W polu "Wpisz rok" nie wyświetla się żadna wartość (pole pozostaje puste)</t>
+  </si>
+  <si>
+    <t>W polu wybierania z listy rozwijanej  o nazwie "Wybierz miesiąc" nie wyświetla się żadna wartość (pole pozostaje puste)</t>
+  </si>
+  <si>
+    <t>Wyświetlanie wydatków z danego miesiąca z bazy danych aplikacji z nie poprawnie wpisanymi danymi - w polu "Wybierz miesiąc" nie wybrano żadnej wartości (pole pozostaje puste) oraz w polu "Wpisz rok" skasowano domyślną wartość "2024" i pozostawiono pole bez żadnej wartości</t>
+  </si>
+  <si>
+    <t>Użytkownikowi po nie wybraniu żadnej wartości z listy rozwijanej w polu wybierz miesiąc, skasowaniu domyślnej wartości "2024" i pozostawiniu  pola "Wpisz rok" bez żadnej wartości oraz kliknięciu w przycisk "Pokaż z miesiąca" powinien zostać wyświetlony kolejno messagebox o treści: "Wybrano niepoprawny rok!" oraz "Wybrano błędny miesiąc."</t>
+  </si>
+  <si>
+    <t>Kliknięcie "ok" w drugim okienku dialogowym</t>
+  </si>
+  <si>
+    <t>Użytkownikowi po wpisaniu ręcznie wartości "100" w polu wybierz miesiąc, skasowaniu domyślnej wartości "2024" i pozostawiniu  pola "Wpisz rok" bez żadnej wartości oraz kliknięciu w przycisk "Pokaż z miesiąca" powinien zostać wyświetlony kolejno messagebox o treści: "Wybrano niepoprawny rok!" oraz "Wybrano błędny miesiąc."</t>
+  </si>
+  <si>
+    <t>Wyświetlanie wydatków z danego miesiąca z bazy danych aplikacji z nie poprawnie wpisanymi danymi - w polu "Wybierz miesiąc" wpisano wartość liczbową oraz w polu "Wpisz rok" skasowano domyślną wartość "2024" i pozostawiono pole bez żadnej wartości</t>
+  </si>
+  <si>
+    <t>Wyświetlanie wydatków z danego miesiąca z bazy danych aplikacji z nie poprawnie wpisanymi danymi - w polu "Wybierz miesiąc" wpisano ciąg znaków oraz w polu "Wpisz rok" skasowano domyślną wartość "2024" i pozostawiono pole bez żadnej wartości</t>
+  </si>
+  <si>
+    <t>Użytkownikowi po wpisaniu ręcznie wartości "miesiąc maj" w polu wybierz miesiąc, skasowaniu domyślnej wartości "2024" i pozostawiniu  pola "Wpisz rok" bez żadnej wartości oraz kliknięciu w przycisk "Pokaż z miesiąca" powinien zostać wyświetlony kolejno messagebox o treści: "Wybrano niepoprawny rok!" oraz "Wybrano błędny miesiąc."</t>
+  </si>
+  <si>
+    <t>W polu wybierania  o nazwie "Wybierz miesiąc" wyświetla się wartość "miesiąc maj"</t>
+  </si>
+  <si>
+    <t>Wpisanie ręcznie w polu "Wybierz miesiąć" wartości "miesiąc maj"</t>
+  </si>
+  <si>
+    <t>Wpisanie ręcznie w polu "Wpisz rok" wartości "120.5"</t>
+  </si>
+  <si>
+    <t>W polu "Wpisz rok" wyświetla się wartość "120.5"</t>
+  </si>
+  <si>
+    <t>Wyświetlanie wydatków z danego miesiąca z bazy danych aplikacji z nie poprawnie wpisanymi danymi - w polu "Wybierz miesiąc" nie wybrano żadnej wartości (pole pozostaje puste), a w polu "Wpisz rok" wpisano niepoprawną dodatnią wartość liczbową</t>
+  </si>
+  <si>
+    <t>Użytkownikowi po nie wybraniu żadnej wartości z listy rozwijanej w polu wybierz miesiąc, i wpisaniu niepoprawnej liczbowej wartości "120.5" w polu "Wpisz rok" oraz kliknięciu w przycisk "Pokaż z miesiąca" powinien zostać wyświetlony kolejno messagebox o treści: "Wybrano niepoprawny rok!" oraz "Wybrano błędny miesiąc."</t>
+  </si>
+  <si>
+    <t>Wpisanie ręcznie w polu "Wpisz rok" wartości "-562,5"</t>
+  </si>
+  <si>
+    <t>W polu "Wpisz rok" wyświetla się wartość "-562,5"</t>
+  </si>
+  <si>
+    <t>Wyświetlanie wydatków z danego miesiąca z bazy danych aplikacji z nie poprawnie wpisanymi danymi - w polu "Wybierz miesiąc" nie wybrano żadnej wartości (pole pozostaje puste), a w polu "Wpisz rok" wpisano niepoprawną ujemną wartość liczbową</t>
+  </si>
+  <si>
+    <t>Użytkownikowi po nie wybraniu żadnej wartości z listy rozwijanej w polu wybierz miesiąc, i wpisaniu niepoprawnej ujemnej wartości liczbowej "-562,5" w polu "Wpisz rok" oraz kliknięciu w przycisk "Pokaż z miesiąca" powinien zostać wyświetlony kolejno messagebox o treści: "Wybrano niepoprawny rok!" oraz "Wybrano błędny miesiąc."</t>
+  </si>
+  <si>
+    <t>Wyświetlanie wydatków z danego miesiąca z bazy danych aplikacji z nie poprawnie wpisanymi danymi - w polu "Wybierz miesiąc" nie wybrano żadnej wartości (pole pozostaje puste), a w polu "Wpisz rok"wpisano niepoprawną  wartość: ciąg znaków</t>
+  </si>
+  <si>
+    <t>Wpisanie ręcznie w polu "Wpisz rok" wartości "rok 2024"</t>
+  </si>
+  <si>
+    <t>W polu "Wpisz rok" wyświetla się wartość "rok 2024"</t>
+  </si>
+  <si>
+    <t>Użytkownikowi po nie wybraniu żadnej wartości z listy rozwijanej w polu wybierz miesiąc,wpisaniu niepoprawnej  wartości (ciąg znaków) "rok 2024" w polu "Wpisz rok" oraz kliknięciu w przycisk "Pokaż z miesiąca" powinien zostać wyświetlony kolejno messagebox o treści: "Wybrano niepoprawny rok!" oraz "Wybrano błędny miesiąc."</t>
   </si>
 </sst>
 </file>
@@ -576,12 +672,20 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -605,7 +709,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -636,8 +740,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -756,22 +866,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -785,16 +884,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -813,7 +912,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -831,28 +930,49 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -861,37 +981,22 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -903,20 +1008,35 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -926,8 +1046,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFDFE6E7"/>
       <color rgb="FFBCEFEE"/>
-      <color rgb="FFDFE6E7"/>
       <color rgb="FFD1F4F3"/>
       <color rgb="FF33CCCC"/>
       <color rgb="FF00FFFF"/>
@@ -1812,13 +1932,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1800225</xdr:colOff>
-      <xdr:row>148</xdr:row>
+      <xdr:row>155</xdr:row>
       <xdr:rowOff>241631</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>3895725</xdr:colOff>
-      <xdr:row>148</xdr:row>
+      <xdr:row>155</xdr:row>
       <xdr:rowOff>1571818</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1856,7 +1976,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1800225</xdr:colOff>
-      <xdr:row>155</xdr:row>
+      <xdr:row>162</xdr:row>
       <xdr:rowOff>241631</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2095500" cy="1330187"/>
@@ -1895,7 +2015,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1800225</xdr:colOff>
-      <xdr:row>162</xdr:row>
+      <xdr:row>169</xdr:row>
       <xdr:rowOff>241631</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2095500" cy="1330187"/>
@@ -1922,6 +2042,552 @@
         <a:xfrm>
           <a:off x="10610850" y="87814481"/>
           <a:ext cx="2095500" cy="1330187"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1800225</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>241631</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2095500" cy="1330187"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Obraz 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30190806-D073-4AE6-9480-FD8BCFDEBD8D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10687050" y="95301131"/>
+          <a:ext cx="2095500" cy="1330187"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1876426</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>253998</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1924050" cy="1279717"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Obraz 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68FF9E7B-EBF1-45C7-9577-042BD2384797}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10763251" y="84121623"/>
+          <a:ext cx="1924050" cy="1279717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1800225</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>241631</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2095500" cy="1330187"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Obraz 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{634B7FC5-78A1-4A41-B697-3E56A763999B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10687050" y="103092581"/>
+          <a:ext cx="2095500" cy="1330187"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1933576</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>292098</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1924050" cy="1279717"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Obraz 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAEC756B-2E8D-45DC-83BD-295DB12C9601}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10820401" y="108648498"/>
+          <a:ext cx="1924050" cy="1279717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1800225</xdr:colOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>241631</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2095500" cy="1330187"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Obraz 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57635037-88AD-40EF-95C4-DAFA20658524}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10687050" y="106988306"/>
+          <a:ext cx="2095500" cy="1330187"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1933576</xdr:colOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>292098</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1924050" cy="1279717"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Obraz 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F0F0353-5C44-48A0-B711-11368D981C37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10820401" y="108648498"/>
+          <a:ext cx="1924050" cy="1279717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1800225</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>241631</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2095500" cy="1330187"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Obraz 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72C680B8-12B0-4DC2-980C-688167226362}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10687050" y="112427081"/>
+          <a:ext cx="2095500" cy="1330187"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1933576</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>292098</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1924050" cy="1279717"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Obraz 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43C06272-8505-4799-98E4-CD0B7183B244}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10820401" y="114087273"/>
+          <a:ext cx="1924050" cy="1279717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1800225</xdr:colOff>
+      <xdr:row>207</xdr:row>
+      <xdr:rowOff>241631</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2095500" cy="1330187"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Obraz 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20D87B8B-241A-47C2-843F-14282DE01A47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10687050" y="117865856"/>
+          <a:ext cx="2095500" cy="1330187"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1933576</xdr:colOff>
+      <xdr:row>208</xdr:row>
+      <xdr:rowOff>292098</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1924050" cy="1279717"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Obraz 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{889E0C95-BFA8-4521-A915-0D56400DB804}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10820401" y="119526048"/>
+          <a:ext cx="1924050" cy="1279717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1800225</xdr:colOff>
+      <xdr:row>215</xdr:row>
+      <xdr:rowOff>241631</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2095500" cy="1330187"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Obraz 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F72C7ED-4AA6-4082-AF92-5752E8CF6BCB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10687050" y="123304631"/>
+          <a:ext cx="2095500" cy="1330187"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1933576</xdr:colOff>
+      <xdr:row>216</xdr:row>
+      <xdr:rowOff>292098</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1924050" cy="1279717"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Obraz 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E15D160-09DB-43C3-97C8-B79D678653BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10820401" y="124964823"/>
+          <a:ext cx="1924050" cy="1279717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1800225</xdr:colOff>
+      <xdr:row>223</xdr:row>
+      <xdr:rowOff>241631</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2095500" cy="1330187"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Obraz 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E93EF387-347A-40FE-9B0C-E005D7820E84}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10687050" y="128743406"/>
+          <a:ext cx="2095500" cy="1330187"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1933576</xdr:colOff>
+      <xdr:row>224</xdr:row>
+      <xdr:rowOff>292098</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1924050" cy="1279717"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Obraz 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB55483D-D43F-48EF-B6A7-BEEED1E2A248}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10820401" y="130403598"/>
+          <a:ext cx="1924050" cy="1279717"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2219,10 +2885,10 @@
       <c r="C1" s="3"/>
     </row>
     <row r="2" spans="2:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="26"/>
+      <c r="C2" s="28"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -3633,11 +4299,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0953F3B-78FC-43F3-9402-DE0C5199EBA3}">
-  <dimension ref="A1:J496"/>
+  <dimension ref="A1:J504"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A156" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H156" sqref="H156"/>
+      <pane ySplit="1" topLeftCell="A218" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E220" sqref="E220:E227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3646,7 +4312,7 @@
     <col min="2" max="2" width="11.42578125" style="3" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" style="3" customWidth="1"/>
     <col min="4" max="4" width="23" style="3" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="25.28515625" style="3" customWidth="1"/>
     <col min="6" max="6" width="18.7109375" style="3" customWidth="1"/>
     <col min="7" max="7" width="35" style="3" customWidth="1"/>
     <col min="8" max="8" width="84.7109375" style="3" customWidth="1"/>
@@ -3688,17 +4354,17 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="29"/>
-      <c r="B2" s="34">
+      <c r="A2" s="36"/>
+      <c r="B2" s="38">
         <v>1</v>
       </c>
-      <c r="C2" s="34">
+      <c r="C2" s="38">
         <v>1</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="38" t="s">
         <v>40</v>
       </c>
       <c r="F2" s="13" t="s">
@@ -3714,11 +4380,11 @@
       <c r="J2" s="13"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="30"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
+      <c r="A3" s="37"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
       <c r="F3" s="9" t="s">
         <v>19</v>
       </c>
@@ -3732,11 +4398,11 @@
       <c r="J3" s="9"/>
     </row>
     <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="30"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
+      <c r="A4" s="37"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
       <c r="F4" s="9" t="s">
         <v>23</v>
       </c>
@@ -3750,11 +4416,11 @@
       <c r="J4" s="9"/>
     </row>
     <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
+      <c r="A5" s="37"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
       <c r="F5" s="9" t="s">
         <v>26</v>
       </c>
@@ -3768,11 +4434,11 @@
       <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="30"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
+      <c r="A6" s="37"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
       <c r="F6" s="9" t="s">
         <v>29</v>
       </c>
@@ -3786,11 +4452,11 @@
       <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
+      <c r="A7" s="37"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
       <c r="F7" s="9" t="s">
         <v>32</v>
       </c>
@@ -3804,11 +4470,11 @@
       <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:10" ht="144" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
+      <c r="A8" s="37"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
       <c r="F8" s="9" t="s">
         <v>35</v>
       </c>
@@ -3822,11 +4488,11 @@
       <c r="J8" s="9"/>
     </row>
     <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="30"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
+      <c r="A9" s="37"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
       <c r="F9" s="9" t="s">
         <v>37</v>
       </c>
@@ -3840,17 +4506,17 @@
       <c r="J9" s="9"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="30"/>
-      <c r="B10" s="27">
+      <c r="A10" s="37"/>
+      <c r="B10" s="30">
         <v>1</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C10" s="30">
         <v>2</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="30" t="s">
         <v>68</v>
       </c>
       <c r="F10" s="11" t="s">
@@ -3866,11 +4532,11 @@
       <c r="J10" s="11"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
+      <c r="A11" s="37"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
       <c r="F11" s="11" t="s">
         <v>19</v>
       </c>
@@ -3884,11 +4550,11 @@
       <c r="J11" s="11"/>
     </row>
     <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="30"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
+      <c r="A12" s="37"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
       <c r="F12" s="11" t="s">
         <v>23</v>
       </c>
@@ -3902,11 +4568,11 @@
       <c r="J12" s="11"/>
     </row>
     <row r="13" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="30"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
+      <c r="A13" s="37"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
       <c r="F13" s="11" t="s">
         <v>26</v>
       </c>
@@ -3920,11 +4586,11 @@
       <c r="J13" s="11"/>
     </row>
     <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="30"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
+      <c r="A14" s="37"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
       <c r="F14" s="11" t="s">
         <v>29</v>
       </c>
@@ -3938,11 +4604,11 @@
       <c r="J14" s="11"/>
     </row>
     <row r="15" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="30"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
+      <c r="A15" s="37"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
       <c r="F15" s="11" t="s">
         <v>32</v>
       </c>
@@ -3956,11 +4622,11 @@
       <c r="J15" s="11"/>
     </row>
     <row r="16" spans="1:10" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="30"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
+      <c r="A16" s="37"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
       <c r="F16" s="11" t="s">
         <v>35</v>
       </c>
@@ -3974,11 +4640,11 @@
       <c r="J16" s="11"/>
     </row>
     <row r="17" spans="1:10" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="30"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
       <c r="F17" s="11" t="s">
         <v>37</v>
       </c>
@@ -3992,11 +4658,11 @@
       <c r="J17" s="11"/>
     </row>
     <row r="18" spans="1:10" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="30"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
+      <c r="A18" s="37"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
       <c r="F18" s="11" t="s">
         <v>47</v>
       </c>
@@ -4010,17 +4676,17 @@
       <c r="J18" s="11"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="30"/>
-      <c r="B19" s="28">
+      <c r="A19" s="37"/>
+      <c r="B19" s="29">
         <v>1</v>
       </c>
-      <c r="C19" s="28">
+      <c r="C19" s="29">
         <v>3</v>
       </c>
-      <c r="D19" s="28" t="s">
+      <c r="D19" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="E19" s="28" t="s">
+      <c r="E19" s="29" t="s">
         <v>69</v>
       </c>
       <c r="F19" s="9" t="s">
@@ -4036,11 +4702,11 @@
       <c r="J19" s="9"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="30"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
+      <c r="A20" s="37"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
       <c r="F20" s="9" t="s">
         <v>19</v>
       </c>
@@ -4054,11 +4720,11 @@
       <c r="J20" s="9"/>
     </row>
     <row r="21" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="30"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
+      <c r="A21" s="37"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
       <c r="F21" s="9" t="s">
         <v>23</v>
       </c>
@@ -4072,11 +4738,11 @@
       <c r="J21" s="9"/>
     </row>
     <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="30"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
+      <c r="A22" s="37"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
       <c r="F22" s="9" t="s">
         <v>26</v>
       </c>
@@ -4090,11 +4756,11 @@
       <c r="J22" s="9"/>
     </row>
     <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="30"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
       <c r="F23" s="9" t="s">
         <v>29</v>
       </c>
@@ -4108,11 +4774,11 @@
       <c r="J23" s="9"/>
     </row>
     <row r="24" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="30"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
+      <c r="A24" s="37"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
       <c r="F24" s="9" t="s">
         <v>32</v>
       </c>
@@ -4126,11 +4792,11 @@
       <c r="J24" s="9"/>
     </row>
     <row r="25" spans="1:10" ht="129" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="30"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
       <c r="F25" s="9" t="s">
         <v>35</v>
       </c>
@@ -4144,11 +4810,11 @@
       <c r="J25" s="9"/>
     </row>
     <row r="26" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="30"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
+      <c r="A26" s="37"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
       <c r="F26" s="9" t="s">
         <v>37</v>
       </c>
@@ -4162,11 +4828,11 @@
       <c r="J26" s="9"/>
     </row>
     <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="30"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
       <c r="F27" s="9" t="s">
         <v>47</v>
       </c>
@@ -4180,17 +4846,17 @@
       <c r="J27" s="9"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="30"/>
-      <c r="B28" s="27">
+      <c r="A28" s="37"/>
+      <c r="B28" s="30">
         <v>1</v>
       </c>
-      <c r="C28" s="27">
+      <c r="C28" s="30">
         <v>4</v>
       </c>
-      <c r="D28" s="27" t="s">
+      <c r="D28" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="E28" s="27" t="s">
+      <c r="E28" s="30" t="s">
         <v>69</v>
       </c>
       <c r="F28" s="11" t="s">
@@ -4206,11 +4872,11 @@
       <c r="J28" s="11"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="30"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
       <c r="F29" s="11" t="s">
         <v>19</v>
       </c>
@@ -4224,11 +4890,11 @@
       <c r="J29" s="11"/>
     </row>
     <row r="30" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="30"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
+      <c r="A30" s="37"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
       <c r="F30" s="11" t="s">
         <v>23</v>
       </c>
@@ -4242,11 +4908,11 @@
       <c r="J30" s="11"/>
     </row>
     <row r="31" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="30"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
+      <c r="A31" s="37"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
       <c r="F31" s="11" t="s">
         <v>26</v>
       </c>
@@ -4260,11 +4926,11 @@
       <c r="J31" s="11"/>
     </row>
     <row r="32" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="30"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
+      <c r="A32" s="37"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
       <c r="F32" s="11" t="s">
         <v>29</v>
       </c>
@@ -4278,11 +4944,11 @@
       <c r="J32" s="11"/>
     </row>
     <row r="33" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A33" s="30"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
+      <c r="A33" s="37"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
       <c r="F33" s="11" t="s">
         <v>32</v>
       </c>
@@ -4296,11 +4962,11 @@
       <c r="J33" s="11"/>
     </row>
     <row r="34" spans="1:10" ht="131.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="30"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
+      <c r="A34" s="37"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
       <c r="F34" s="11" t="s">
         <v>35</v>
       </c>
@@ -4314,11 +4980,11 @@
       <c r="J34" s="11"/>
     </row>
     <row r="35" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="30"/>
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
+      <c r="A35" s="37"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
       <c r="F35" s="11" t="s">
         <v>37</v>
       </c>
@@ -4332,11 +4998,11 @@
       <c r="J35" s="11"/>
     </row>
     <row r="36" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="30"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
+      <c r="A36" s="37"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
       <c r="F36" s="11" t="s">
         <v>47</v>
       </c>
@@ -4350,17 +5016,17 @@
       <c r="J36" s="11"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="30"/>
-      <c r="B37" s="28">
+      <c r="A37" s="37"/>
+      <c r="B37" s="29">
         <v>1</v>
       </c>
-      <c r="C37" s="28">
+      <c r="C37" s="29">
         <v>5</v>
       </c>
-      <c r="D37" s="28" t="s">
+      <c r="D37" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="E37" s="28" t="s">
+      <c r="E37" s="29" t="s">
         <v>66</v>
       </c>
       <c r="F37" s="9" t="s">
@@ -4376,11 +5042,11 @@
       <c r="J37" s="9"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="30"/>
-      <c r="B38" s="28"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
+      <c r="A38" s="37"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
       <c r="F38" s="9" t="s">
         <v>19</v>
       </c>
@@ -4394,11 +5060,11 @@
       <c r="J38" s="9"/>
     </row>
     <row r="39" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="30"/>
-      <c r="B39" s="28"/>
-      <c r="C39" s="28"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28"/>
+      <c r="A39" s="37"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
       <c r="F39" s="9" t="s">
         <v>23</v>
       </c>
@@ -4412,11 +5078,11 @@
       <c r="J39" s="9"/>
     </row>
     <row r="40" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="30"/>
-      <c r="B40" s="28"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
+      <c r="A40" s="37"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
       <c r="F40" s="9" t="s">
         <v>26</v>
       </c>
@@ -4430,11 +5096,11 @@
       <c r="J40" s="9"/>
     </row>
     <row r="41" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="30"/>
-      <c r="B41" s="28"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
+      <c r="A41" s="37"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
       <c r="F41" s="9" t="s">
         <v>29</v>
       </c>
@@ -4448,11 +5114,11 @@
       <c r="J41" s="9"/>
     </row>
     <row r="42" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A42" s="30"/>
-      <c r="B42" s="28"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
+      <c r="A42" s="37"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
       <c r="F42" s="9" t="s">
         <v>32</v>
       </c>
@@ -4466,11 +5132,11 @@
       <c r="J42" s="9"/>
     </row>
     <row r="43" spans="1:10" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="30"/>
-      <c r="B43" s="28"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="28"/>
+      <c r="A43" s="37"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
       <c r="F43" s="9" t="s">
         <v>35</v>
       </c>
@@ -4484,11 +5150,11 @@
       <c r="J43" s="9"/>
     </row>
     <row r="44" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="30"/>
-      <c r="B44" s="28"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
+      <c r="A44" s="37"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29"/>
       <c r="F44" s="9" t="s">
         <v>37</v>
       </c>
@@ -4502,11 +5168,11 @@
       <c r="J44" s="9"/>
     </row>
     <row r="45" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="30"/>
-      <c r="B45" s="28"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="28"/>
+      <c r="A45" s="37"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="29"/>
       <c r="F45" s="9" t="s">
         <v>47</v>
       </c>
@@ -4520,17 +5186,17 @@
       <c r="J45" s="9"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="30"/>
-      <c r="B46" s="27">
+      <c r="A46" s="37"/>
+      <c r="B46" s="30">
         <v>1</v>
       </c>
-      <c r="C46" s="27">
+      <c r="C46" s="30">
         <v>6</v>
       </c>
-      <c r="D46" s="27" t="s">
+      <c r="D46" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="E46" s="27" t="s">
+      <c r="E46" s="30" t="s">
         <v>79</v>
       </c>
       <c r="F46" s="11" t="s">
@@ -4546,11 +5212,11 @@
       <c r="J46" s="11"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="30"/>
-      <c r="B47" s="27"/>
-      <c r="C47" s="27"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="27"/>
+      <c r="A47" s="37"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="30"/>
       <c r="F47" s="11" t="s">
         <v>19</v>
       </c>
@@ -4564,11 +5230,11 @@
       <c r="J47" s="11"/>
     </row>
     <row r="48" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A48" s="30"/>
-      <c r="B48" s="27"/>
-      <c r="C48" s="27"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="27"/>
+      <c r="A48" s="37"/>
+      <c r="B48" s="30"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="30"/>
       <c r="F48" s="11" t="s">
         <v>23</v>
       </c>
@@ -4582,11 +5248,11 @@
       <c r="J48" s="11"/>
     </row>
     <row r="49" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A49" s="30"/>
-      <c r="B49" s="27"/>
-      <c r="C49" s="27"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
+      <c r="A49" s="37"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
       <c r="F49" s="11" t="s">
         <v>26</v>
       </c>
@@ -4600,11 +5266,11 @@
       <c r="J49" s="11"/>
     </row>
     <row r="50" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="30"/>
-      <c r="B50" s="27"/>
-      <c r="C50" s="27"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="27"/>
+      <c r="A50" s="37"/>
+      <c r="B50" s="30"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="30"/>
       <c r="F50" s="11" t="s">
         <v>29</v>
       </c>
@@ -4618,11 +5284,11 @@
       <c r="J50" s="11"/>
     </row>
     <row r="51" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A51" s="30"/>
-      <c r="B51" s="27"/>
-      <c r="C51" s="27"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="27"/>
+      <c r="A51" s="37"/>
+      <c r="B51" s="30"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="30"/>
       <c r="F51" s="11" t="s">
         <v>32</v>
       </c>
@@ -4636,11 +5302,11 @@
       <c r="J51" s="11"/>
     </row>
     <row r="52" spans="1:10" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="30"/>
-      <c r="B52" s="27"/>
-      <c r="C52" s="27"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="27"/>
+      <c r="A52" s="37"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="30"/>
       <c r="F52" s="11" t="s">
         <v>35</v>
       </c>
@@ -4654,11 +5320,11 @@
       <c r="J52" s="11"/>
     </row>
     <row r="53" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="30"/>
-      <c r="B53" s="27"/>
-      <c r="C53" s="27"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="27"/>
+      <c r="A53" s="37"/>
+      <c r="B53" s="30"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="30"/>
       <c r="F53" s="11" t="s">
         <v>37</v>
       </c>
@@ -4672,11 +5338,11 @@
       <c r="J53" s="11"/>
     </row>
     <row r="54" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="30"/>
-      <c r="B54" s="27"/>
-      <c r="C54" s="27"/>
-      <c r="D54" s="27"/>
-      <c r="E54" s="27"/>
+      <c r="A54" s="37"/>
+      <c r="B54" s="30"/>
+      <c r="C54" s="30"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="30"/>
       <c r="F54" s="11" t="s">
         <v>47</v>
       </c>
@@ -4690,17 +5356,17 @@
       <c r="J54" s="11"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="30"/>
-      <c r="B55" s="28">
+      <c r="A55" s="37"/>
+      <c r="B55" s="29">
         <v>1</v>
       </c>
-      <c r="C55" s="28">
+      <c r="C55" s="29">
         <v>7</v>
       </c>
-      <c r="D55" s="28" t="s">
+      <c r="D55" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="E55" s="28" t="s">
+      <c r="E55" s="29" t="s">
         <v>76</v>
       </c>
       <c r="F55" s="9" t="s">
@@ -4716,11 +5382,11 @@
       <c r="J55" s="9"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="30"/>
-      <c r="B56" s="28"/>
-      <c r="C56" s="28"/>
-      <c r="D56" s="28"/>
-      <c r="E56" s="28"/>
+      <c r="A56" s="37"/>
+      <c r="B56" s="29"/>
+      <c r="C56" s="29"/>
+      <c r="D56" s="29"/>
+      <c r="E56" s="29"/>
       <c r="F56" s="9" t="s">
         <v>19</v>
       </c>
@@ -4734,11 +5400,11 @@
       <c r="J56" s="9"/>
     </row>
     <row r="57" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A57" s="30"/>
-      <c r="B57" s="28"/>
-      <c r="C57" s="28"/>
-      <c r="D57" s="28"/>
-      <c r="E57" s="28"/>
+      <c r="A57" s="37"/>
+      <c r="B57" s="29"/>
+      <c r="C57" s="29"/>
+      <c r="D57" s="29"/>
+      <c r="E57" s="29"/>
       <c r="F57" s="9" t="s">
         <v>23</v>
       </c>
@@ -4752,11 +5418,11 @@
       <c r="J57" s="9"/>
     </row>
     <row r="58" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A58" s="30"/>
-      <c r="B58" s="28"/>
-      <c r="C58" s="28"/>
-      <c r="D58" s="28"/>
-      <c r="E58" s="28"/>
+      <c r="A58" s="37"/>
+      <c r="B58" s="29"/>
+      <c r="C58" s="29"/>
+      <c r="D58" s="29"/>
+      <c r="E58" s="29"/>
       <c r="F58" s="9" t="s">
         <v>26</v>
       </c>
@@ -4770,11 +5436,11 @@
       <c r="J58" s="9"/>
     </row>
     <row r="59" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A59" s="30"/>
-      <c r="B59" s="28"/>
-      <c r="C59" s="28"/>
-      <c r="D59" s="28"/>
-      <c r="E59" s="28"/>
+      <c r="A59" s="37"/>
+      <c r="B59" s="29"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="29"/>
       <c r="F59" s="9" t="s">
         <v>29</v>
       </c>
@@ -4788,11 +5454,11 @@
       <c r="J59" s="9"/>
     </row>
     <row r="60" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A60" s="30"/>
-      <c r="B60" s="28"/>
-      <c r="C60" s="28"/>
-      <c r="D60" s="28"/>
-      <c r="E60" s="28"/>
+      <c r="A60" s="37"/>
+      <c r="B60" s="29"/>
+      <c r="C60" s="29"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="29"/>
       <c r="F60" s="9" t="s">
         <v>32</v>
       </c>
@@ -4806,11 +5472,11 @@
       <c r="J60" s="9"/>
     </row>
     <row r="61" spans="1:10" ht="132" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="30"/>
-      <c r="B61" s="28"/>
-      <c r="C61" s="28"/>
-      <c r="D61" s="28"/>
-      <c r="E61" s="28"/>
+      <c r="A61" s="37"/>
+      <c r="B61" s="29"/>
+      <c r="C61" s="29"/>
+      <c r="D61" s="29"/>
+      <c r="E61" s="29"/>
       <c r="F61" s="9" t="s">
         <v>35</v>
       </c>
@@ -4824,11 +5490,11 @@
       <c r="J61" s="9"/>
     </row>
     <row r="62" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="30"/>
-      <c r="B62" s="28"/>
-      <c r="C62" s="28"/>
-      <c r="D62" s="28"/>
-      <c r="E62" s="28"/>
+      <c r="A62" s="37"/>
+      <c r="B62" s="29"/>
+      <c r="C62" s="29"/>
+      <c r="D62" s="29"/>
+      <c r="E62" s="29"/>
       <c r="F62" s="9" t="s">
         <v>37</v>
       </c>
@@ -4842,17 +5508,17 @@
       <c r="J62" s="9"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="30"/>
-      <c r="B63" s="27">
+      <c r="A63" s="37"/>
+      <c r="B63" s="30">
         <v>1</v>
       </c>
-      <c r="C63" s="27">
+      <c r="C63" s="30">
         <v>8</v>
       </c>
-      <c r="D63" s="27" t="s">
+      <c r="D63" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="E63" s="27" t="s">
+      <c r="E63" s="30" t="s">
         <v>81</v>
       </c>
       <c r="F63" s="11" t="s">
@@ -4868,11 +5534,11 @@
       <c r="J63" s="11"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="30"/>
-      <c r="B64" s="27"/>
-      <c r="C64" s="27"/>
-      <c r="D64" s="27"/>
-      <c r="E64" s="27"/>
+      <c r="A64" s="37"/>
+      <c r="B64" s="30"/>
+      <c r="C64" s="30"/>
+      <c r="D64" s="30"/>
+      <c r="E64" s="30"/>
       <c r="F64" s="11" t="s">
         <v>19</v>
       </c>
@@ -4886,11 +5552,11 @@
       <c r="J64" s="11"/>
     </row>
     <row r="65" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A65" s="30"/>
-      <c r="B65" s="27"/>
-      <c r="C65" s="27"/>
-      <c r="D65" s="27"/>
-      <c r="E65" s="27"/>
+      <c r="A65" s="37"/>
+      <c r="B65" s="30"/>
+      <c r="C65" s="30"/>
+      <c r="D65" s="30"/>
+      <c r="E65" s="30"/>
       <c r="F65" s="11" t="s">
         <v>23</v>
       </c>
@@ -4904,11 +5570,11 @@
       <c r="J65" s="11"/>
     </row>
     <row r="66" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A66" s="30"/>
-      <c r="B66" s="27"/>
-      <c r="C66" s="27"/>
-      <c r="D66" s="27"/>
-      <c r="E66" s="27"/>
+      <c r="A66" s="37"/>
+      <c r="B66" s="30"/>
+      <c r="C66" s="30"/>
+      <c r="D66" s="30"/>
+      <c r="E66" s="30"/>
       <c r="F66" s="11" t="s">
         <v>26</v>
       </c>
@@ -4922,11 +5588,11 @@
       <c r="J66" s="11"/>
     </row>
     <row r="67" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="30"/>
-      <c r="B67" s="27"/>
-      <c r="C67" s="27"/>
-      <c r="D67" s="27"/>
-      <c r="E67" s="27"/>
+      <c r="A67" s="37"/>
+      <c r="B67" s="30"/>
+      <c r="C67" s="30"/>
+      <c r="D67" s="30"/>
+      <c r="E67" s="30"/>
       <c r="F67" s="11" t="s">
         <v>29</v>
       </c>
@@ -4940,11 +5606,11 @@
       <c r="J67" s="11"/>
     </row>
     <row r="68" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="30"/>
-      <c r="B68" s="27"/>
-      <c r="C68" s="27"/>
-      <c r="D68" s="27"/>
-      <c r="E68" s="27"/>
+      <c r="A68" s="37"/>
+      <c r="B68" s="30"/>
+      <c r="C68" s="30"/>
+      <c r="D68" s="30"/>
+      <c r="E68" s="30"/>
       <c r="F68" s="11" t="s">
         <v>32</v>
       </c>
@@ -4958,11 +5624,11 @@
       <c r="J68" s="11"/>
     </row>
     <row r="69" spans="1:10" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="30"/>
-      <c r="B69" s="27"/>
-      <c r="C69" s="27"/>
-      <c r="D69" s="27"/>
-      <c r="E69" s="27"/>
+      <c r="A69" s="37"/>
+      <c r="B69" s="30"/>
+      <c r="C69" s="30"/>
+      <c r="D69" s="30"/>
+      <c r="E69" s="30"/>
       <c r="F69" s="11" t="s">
         <v>35</v>
       </c>
@@ -4976,11 +5642,11 @@
       <c r="J69" s="11"/>
     </row>
     <row r="70" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="30"/>
-      <c r="B70" s="27"/>
-      <c r="C70" s="27"/>
-      <c r="D70" s="27"/>
-      <c r="E70" s="27"/>
+      <c r="A70" s="37"/>
+      <c r="B70" s="30"/>
+      <c r="C70" s="30"/>
+      <c r="D70" s="30"/>
+      <c r="E70" s="30"/>
       <c r="F70" s="11" t="s">
         <v>37</v>
       </c>
@@ -4994,11 +5660,11 @@
       <c r="J70" s="11"/>
     </row>
     <row r="71" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="30"/>
-      <c r="B71" s="27"/>
-      <c r="C71" s="27"/>
-      <c r="D71" s="27"/>
-      <c r="E71" s="27"/>
+      <c r="A71" s="37"/>
+      <c r="B71" s="30"/>
+      <c r="C71" s="30"/>
+      <c r="D71" s="30"/>
+      <c r="E71" s="30"/>
       <c r="F71" s="11" t="s">
         <v>47</v>
       </c>
@@ -5012,17 +5678,17 @@
       <c r="J71" s="11"/>
     </row>
     <row r="72" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="30"/>
-      <c r="B72" s="28">
+      <c r="A72" s="37"/>
+      <c r="B72" s="29">
         <v>1</v>
       </c>
-      <c r="C72" s="28">
+      <c r="C72" s="29">
         <v>9</v>
       </c>
-      <c r="D72" s="28" t="s">
+      <c r="D72" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="E72" s="28" t="s">
+      <c r="E72" s="29" t="s">
         <v>87</v>
       </c>
       <c r="F72" s="9" t="s">
@@ -5038,11 +5704,11 @@
       <c r="J72" s="9"/>
     </row>
     <row r="73" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="30"/>
-      <c r="B73" s="28"/>
-      <c r="C73" s="28"/>
-      <c r="D73" s="28"/>
-      <c r="E73" s="28"/>
+      <c r="A73" s="37"/>
+      <c r="B73" s="29"/>
+      <c r="C73" s="29"/>
+      <c r="D73" s="29"/>
+      <c r="E73" s="29"/>
       <c r="F73" s="9" t="s">
         <v>19</v>
       </c>
@@ -5056,11 +5722,11 @@
       <c r="J73" s="9"/>
     </row>
     <row r="74" spans="1:10" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A74" s="30"/>
-      <c r="B74" s="28"/>
-      <c r="C74" s="28"/>
-      <c r="D74" s="28"/>
-      <c r="E74" s="28"/>
+      <c r="A74" s="37"/>
+      <c r="B74" s="29"/>
+      <c r="C74" s="29"/>
+      <c r="D74" s="29"/>
+      <c r="E74" s="29"/>
       <c r="F74" s="9" t="s">
         <v>23</v>
       </c>
@@ -5074,11 +5740,11 @@
       <c r="J74" s="9"/>
     </row>
     <row r="75" spans="1:10" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A75" s="30"/>
-      <c r="B75" s="28"/>
-      <c r="C75" s="28"/>
-      <c r="D75" s="28"/>
-      <c r="E75" s="28"/>
+      <c r="A75" s="37"/>
+      <c r="B75" s="29"/>
+      <c r="C75" s="29"/>
+      <c r="D75" s="29"/>
+      <c r="E75" s="29"/>
       <c r="F75" s="9" t="s">
         <v>26</v>
       </c>
@@ -5092,11 +5758,11 @@
       <c r="J75" s="9"/>
     </row>
     <row r="76" spans="1:10" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="30"/>
-      <c r="B76" s="28"/>
-      <c r="C76" s="28"/>
-      <c r="D76" s="28"/>
-      <c r="E76" s="28"/>
+      <c r="A76" s="37"/>
+      <c r="B76" s="29"/>
+      <c r="C76" s="29"/>
+      <c r="D76" s="29"/>
+      <c r="E76" s="29"/>
       <c r="F76" s="9" t="s">
         <v>29</v>
       </c>
@@ -5110,11 +5776,11 @@
       <c r="J76" s="9"/>
     </row>
     <row r="77" spans="1:10" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A77" s="30"/>
-      <c r="B77" s="28"/>
-      <c r="C77" s="28"/>
-      <c r="D77" s="28"/>
-      <c r="E77" s="28"/>
+      <c r="A77" s="37"/>
+      <c r="B77" s="29"/>
+      <c r="C77" s="29"/>
+      <c r="D77" s="29"/>
+      <c r="E77" s="29"/>
       <c r="F77" s="9" t="s">
         <v>32</v>
       </c>
@@ -5128,11 +5794,11 @@
       <c r="J77" s="9"/>
     </row>
     <row r="78" spans="1:10" s="15" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="30"/>
-      <c r="B78" s="28"/>
-      <c r="C78" s="28"/>
-      <c r="D78" s="28"/>
-      <c r="E78" s="28"/>
+      <c r="A78" s="37"/>
+      <c r="B78" s="29"/>
+      <c r="C78" s="29"/>
+      <c r="D78" s="29"/>
+      <c r="E78" s="29"/>
       <c r="F78" s="9" t="s">
         <v>35</v>
       </c>
@@ -5146,11 +5812,11 @@
       <c r="J78" s="9"/>
     </row>
     <row r="79" spans="1:10" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="30"/>
-      <c r="B79" s="28"/>
-      <c r="C79" s="28"/>
-      <c r="D79" s="28"/>
-      <c r="E79" s="28"/>
+      <c r="A79" s="37"/>
+      <c r="B79" s="29"/>
+      <c r="C79" s="29"/>
+      <c r="D79" s="29"/>
+      <c r="E79" s="29"/>
       <c r="F79" s="9" t="s">
         <v>37</v>
       </c>
@@ -5164,11 +5830,11 @@
       <c r="J79" s="9"/>
     </row>
     <row r="80" spans="1:10" s="21" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="31"/>
-      <c r="B80" s="36"/>
-      <c r="C80" s="36"/>
-      <c r="D80" s="36"/>
-      <c r="E80" s="36"/>
+      <c r="A80" s="37"/>
+      <c r="B80" s="33"/>
+      <c r="C80" s="33"/>
+      <c r="D80" s="33"/>
+      <c r="E80" s="33"/>
       <c r="F80" s="16" t="s">
         <v>47</v>
       </c>
@@ -5181,17 +5847,18 @@
       <c r="I80" s="16"/>
       <c r="J80" s="16"/>
     </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B81" s="32">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" s="54"/>
+      <c r="B81" s="34">
         <v>2</v>
       </c>
-      <c r="C81" s="32">
+      <c r="C81" s="34">
         <v>1</v>
       </c>
-      <c r="D81" s="32" t="s">
+      <c r="D81" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="E81" s="32" t="s">
+      <c r="E81" s="34" t="s">
         <v>111</v>
       </c>
       <c r="F81" s="20" t="s">
@@ -5206,11 +5873,12 @@
       <c r="I81" s="20"/>
       <c r="J81" s="20"/>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B82" s="27"/>
-      <c r="C82" s="27"/>
-      <c r="D82" s="27"/>
-      <c r="E82" s="27"/>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="55"/>
+      <c r="B82" s="30"/>
+      <c r="C82" s="30"/>
+      <c r="D82" s="30"/>
+      <c r="E82" s="30"/>
       <c r="F82" s="11" t="s">
         <v>19</v>
       </c>
@@ -5223,11 +5891,12 @@
       <c r="I82" s="11"/>
       <c r="J82" s="11"/>
     </row>
-    <row r="83" spans="2:10" ht="236.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="27"/>
-      <c r="C83" s="27"/>
-      <c r="D83" s="27"/>
-      <c r="E83" s="27"/>
+    <row r="83" spans="1:10" ht="236.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="55"/>
+      <c r="B83" s="30"/>
+      <c r="C83" s="30"/>
+      <c r="D83" s="30"/>
+      <c r="E83" s="30"/>
       <c r="F83" s="11" t="s">
         <v>23</v>
       </c>
@@ -5240,11 +5909,12 @@
       <c r="I83" s="11"/>
       <c r="J83" s="11"/>
     </row>
-    <row r="84" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B84" s="33"/>
-      <c r="C84" s="33"/>
-      <c r="D84" s="33"/>
-      <c r="E84" s="33"/>
+    <row r="84" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A84" s="55"/>
+      <c r="B84" s="35"/>
+      <c r="C84" s="35"/>
+      <c r="D84" s="35"/>
+      <c r="E84" s="35"/>
       <c r="F84" s="11" t="s">
         <v>26</v>
       </c>
@@ -5257,17 +5927,18 @@
       <c r="I84" s="11"/>
       <c r="J84" s="11"/>
     </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B85" s="28">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" s="55"/>
+      <c r="B85" s="29">
         <v>2</v>
       </c>
-      <c r="C85" s="28">
+      <c r="C85" s="29">
         <v>2</v>
       </c>
-      <c r="D85" s="28" t="s">
+      <c r="D85" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="E85" s="28" t="s">
+      <c r="E85" s="29" t="s">
         <v>125</v>
       </c>
       <c r="F85" s="13" t="s">
@@ -5282,11 +5953,12 @@
       <c r="I85" s="13"/>
       <c r="J85" s="13"/>
     </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B86" s="28"/>
-      <c r="C86" s="28"/>
-      <c r="D86" s="28"/>
-      <c r="E86" s="28"/>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" s="55"/>
+      <c r="B86" s="29"/>
+      <c r="C86" s="29"/>
+      <c r="D86" s="29"/>
+      <c r="E86" s="29"/>
       <c r="F86" s="9" t="s">
         <v>19</v>
       </c>
@@ -5299,11 +5971,12 @@
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
     </row>
-    <row r="87" spans="2:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B87" s="28"/>
-      <c r="C87" s="28"/>
-      <c r="D87" s="28"/>
-      <c r="E87" s="28"/>
+    <row r="87" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A87" s="55"/>
+      <c r="B87" s="29"/>
+      <c r="C87" s="29"/>
+      <c r="D87" s="29"/>
+      <c r="E87" s="29"/>
       <c r="F87" s="9" t="s">
         <v>23</v>
       </c>
@@ -5316,11 +5989,12 @@
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
     </row>
-    <row r="88" spans="2:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B88" s="28"/>
-      <c r="C88" s="28"/>
-      <c r="D88" s="28"/>
-      <c r="E88" s="28"/>
+    <row r="88" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A88" s="55"/>
+      <c r="B88" s="29"/>
+      <c r="C88" s="29"/>
+      <c r="D88" s="29"/>
+      <c r="E88" s="29"/>
       <c r="F88" s="9" t="s">
         <v>26</v>
       </c>
@@ -5333,11 +6007,12 @@
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
     </row>
-    <row r="89" spans="2:10" ht="236.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="28"/>
-      <c r="C89" s="28"/>
-      <c r="D89" s="28"/>
-      <c r="E89" s="28"/>
+    <row r="89" spans="1:10" ht="236.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="55"/>
+      <c r="B89" s="29"/>
+      <c r="C89" s="29"/>
+      <c r="D89" s="29"/>
+      <c r="E89" s="29"/>
       <c r="F89" s="9" t="s">
         <v>29</v>
       </c>
@@ -5350,11 +6025,12 @@
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
     </row>
-    <row r="90" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B90" s="28"/>
-      <c r="C90" s="28"/>
-      <c r="D90" s="28"/>
-      <c r="E90" s="28"/>
+    <row r="90" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A90" s="55"/>
+      <c r="B90" s="29"/>
+      <c r="C90" s="29"/>
+      <c r="D90" s="29"/>
+      <c r="E90" s="29"/>
       <c r="F90" s="9" t="s">
         <v>32</v>
       </c>
@@ -5367,17 +6043,18 @@
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
     </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B91" s="27">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" s="55"/>
+      <c r="B91" s="30">
         <v>2</v>
       </c>
-      <c r="C91" s="27">
+      <c r="C91" s="30">
         <v>3</v>
       </c>
-      <c r="D91" s="27" t="s">
+      <c r="D91" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="E91" s="27" t="s">
+      <c r="E91" s="30" t="s">
         <v>130</v>
       </c>
       <c r="F91" s="20" t="s">
@@ -5392,11 +6069,12 @@
       <c r="I91" s="20"/>
       <c r="J91" s="20"/>
     </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B92" s="27"/>
-      <c r="C92" s="27"/>
-      <c r="D92" s="27"/>
-      <c r="E92" s="27"/>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" s="55"/>
+      <c r="B92" s="30"/>
+      <c r="C92" s="30"/>
+      <c r="D92" s="30"/>
+      <c r="E92" s="30"/>
       <c r="F92" s="11" t="s">
         <v>19</v>
       </c>
@@ -5409,11 +6087,12 @@
       <c r="I92" s="11"/>
       <c r="J92" s="11"/>
     </row>
-    <row r="93" spans="2:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B93" s="27"/>
-      <c r="C93" s="27"/>
-      <c r="D93" s="27"/>
-      <c r="E93" s="27"/>
+    <row r="93" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A93" s="55"/>
+      <c r="B93" s="30"/>
+      <c r="C93" s="30"/>
+      <c r="D93" s="30"/>
+      <c r="E93" s="30"/>
       <c r="F93" s="11" t="s">
         <v>23</v>
       </c>
@@ -5426,11 +6105,12 @@
       <c r="I93" s="11"/>
       <c r="J93" s="11"/>
     </row>
-    <row r="94" spans="2:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B94" s="27"/>
-      <c r="C94" s="27"/>
-      <c r="D94" s="27"/>
-      <c r="E94" s="27"/>
+    <row r="94" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A94" s="55"/>
+      <c r="B94" s="30"/>
+      <c r="C94" s="30"/>
+      <c r="D94" s="30"/>
+      <c r="E94" s="30"/>
       <c r="F94" s="11" t="s">
         <v>26</v>
       </c>
@@ -5443,11 +6123,12 @@
       <c r="I94" s="11"/>
       <c r="J94" s="11"/>
     </row>
-    <row r="95" spans="2:10" ht="236.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="27"/>
-      <c r="C95" s="27"/>
-      <c r="D95" s="27"/>
-      <c r="E95" s="27"/>
+    <row r="95" spans="1:10" ht="236.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="55"/>
+      <c r="B95" s="30"/>
+      <c r="C95" s="30"/>
+      <c r="D95" s="30"/>
+      <c r="E95" s="30"/>
       <c r="F95" s="11" t="s">
         <v>29</v>
       </c>
@@ -5460,11 +6141,12 @@
       <c r="I95" s="11"/>
       <c r="J95" s="11"/>
     </row>
-    <row r="96" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B96" s="27"/>
-      <c r="C96" s="27"/>
-      <c r="D96" s="27"/>
-      <c r="E96" s="27"/>
+    <row r="96" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A96" s="55"/>
+      <c r="B96" s="30"/>
+      <c r="C96" s="30"/>
+      <c r="D96" s="30"/>
+      <c r="E96" s="30"/>
       <c r="F96" s="11" t="s">
         <v>32</v>
       </c>
@@ -5477,17 +6159,18 @@
       <c r="I96" s="11"/>
       <c r="J96" s="11"/>
     </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B97" s="28">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" s="55"/>
+      <c r="B97" s="29">
         <v>2</v>
       </c>
-      <c r="C97" s="28">
+      <c r="C97" s="29">
         <v>4</v>
       </c>
-      <c r="D97" s="28" t="s">
+      <c r="D97" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="E97" s="28" t="s">
+      <c r="E97" s="29" t="s">
         <v>134</v>
       </c>
       <c r="F97" s="13" t="s">
@@ -5502,11 +6185,12 @@
       <c r="I97" s="13"/>
       <c r="J97" s="13"/>
     </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B98" s="28"/>
-      <c r="C98" s="28"/>
-      <c r="D98" s="28"/>
-      <c r="E98" s="28"/>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" s="55"/>
+      <c r="B98" s="29"/>
+      <c r="C98" s="29"/>
+      <c r="D98" s="29"/>
+      <c r="E98" s="29"/>
       <c r="F98" s="9" t="s">
         <v>19</v>
       </c>
@@ -5519,11 +6203,12 @@
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
     </row>
-    <row r="99" spans="2:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B99" s="28"/>
-      <c r="C99" s="28"/>
-      <c r="D99" s="28"/>
-      <c r="E99" s="28"/>
+    <row r="99" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A99" s="55"/>
+      <c r="B99" s="29"/>
+      <c r="C99" s="29"/>
+      <c r="D99" s="29"/>
+      <c r="E99" s="29"/>
       <c r="F99" s="24" t="s">
         <v>23</v>
       </c>
@@ -5536,11 +6221,12 @@
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
     </row>
-    <row r="100" spans="2:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B100" s="28"/>
-      <c r="C100" s="28"/>
-      <c r="D100" s="28"/>
-      <c r="E100" s="28"/>
+    <row r="100" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A100" s="55"/>
+      <c r="B100" s="29"/>
+      <c r="C100" s="29"/>
+      <c r="D100" s="29"/>
+      <c r="E100" s="29"/>
       <c r="F100" s="24" t="s">
         <v>26</v>
       </c>
@@ -5553,11 +6239,12 @@
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
     </row>
-    <row r="101" spans="2:10" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="28"/>
-      <c r="C101" s="28"/>
-      <c r="D101" s="28"/>
-      <c r="E101" s="28"/>
+    <row r="101" spans="1:10" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="55"/>
+      <c r="B101" s="29"/>
+      <c r="C101" s="29"/>
+      <c r="D101" s="29"/>
+      <c r="E101" s="29"/>
       <c r="F101" s="24" t="s">
         <v>29</v>
       </c>
@@ -5570,11 +6257,12 @@
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
     </row>
-    <row r="102" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B102" s="28"/>
-      <c r="C102" s="28"/>
-      <c r="D102" s="28"/>
-      <c r="E102" s="28"/>
+    <row r="102" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A102" s="55"/>
+      <c r="B102" s="29"/>
+      <c r="C102" s="29"/>
+      <c r="D102" s="29"/>
+      <c r="E102" s="29"/>
       <c r="F102" s="24" t="s">
         <v>32</v>
       </c>
@@ -5587,11 +6275,12 @@
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
     </row>
-    <row r="103" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B103" s="28"/>
-      <c r="C103" s="28"/>
-      <c r="D103" s="28"/>
-      <c r="E103" s="28"/>
+    <row r="103" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A103" s="55"/>
+      <c r="B103" s="29"/>
+      <c r="C103" s="29"/>
+      <c r="D103" s="29"/>
+      <c r="E103" s="29"/>
       <c r="F103" s="24" t="s">
         <v>35</v>
       </c>
@@ -5604,17 +6293,18 @@
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
     </row>
-    <row r="104" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B104" s="27">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" s="55"/>
+      <c r="B104" s="30">
         <v>2</v>
       </c>
-      <c r="C104" s="27">
+      <c r="C104" s="30">
         <v>5</v>
       </c>
-      <c r="D104" s="27" t="s">
+      <c r="D104" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="E104" s="27" t="s">
+      <c r="E104" s="30" t="s">
         <v>137</v>
       </c>
       <c r="F104" s="20" t="s">
@@ -5629,11 +6319,12 @@
       <c r="I104" s="20"/>
       <c r="J104" s="20"/>
     </row>
-    <row r="105" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B105" s="27"/>
-      <c r="C105" s="27"/>
-      <c r="D105" s="27"/>
-      <c r="E105" s="27"/>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" s="55"/>
+      <c r="B105" s="30"/>
+      <c r="C105" s="30"/>
+      <c r="D105" s="30"/>
+      <c r="E105" s="30"/>
       <c r="F105" s="11" t="s">
         <v>19</v>
       </c>
@@ -5646,11 +6337,12 @@
       <c r="I105" s="11"/>
       <c r="J105" s="11"/>
     </row>
-    <row r="106" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B106" s="27"/>
-      <c r="C106" s="27"/>
-      <c r="D106" s="27"/>
-      <c r="E106" s="27"/>
+    <row r="106" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A106" s="55"/>
+      <c r="B106" s="30"/>
+      <c r="C106" s="30"/>
+      <c r="D106" s="30"/>
+      <c r="E106" s="30"/>
       <c r="F106" s="22" t="s">
         <v>23</v>
       </c>
@@ -5663,11 +6355,12 @@
       <c r="I106" s="11"/>
       <c r="J106" s="11"/>
     </row>
-    <row r="107" spans="2:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B107" s="27"/>
-      <c r="C107" s="27"/>
-      <c r="D107" s="27"/>
-      <c r="E107" s="27"/>
+    <row r="107" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A107" s="55"/>
+      <c r="B107" s="30"/>
+      <c r="C107" s="30"/>
+      <c r="D107" s="30"/>
+      <c r="E107" s="30"/>
       <c r="F107" s="22" t="s">
         <v>26</v>
       </c>
@@ -5680,11 +6373,12 @@
       <c r="I107" s="11"/>
       <c r="J107" s="11"/>
     </row>
-    <row r="108" spans="2:10" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="27"/>
-      <c r="C108" s="27"/>
-      <c r="D108" s="27"/>
-      <c r="E108" s="27"/>
+    <row r="108" spans="1:10" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="55"/>
+      <c r="B108" s="30"/>
+      <c r="C108" s="30"/>
+      <c r="D108" s="30"/>
+      <c r="E108" s="30"/>
       <c r="F108" s="22" t="s">
         <v>29</v>
       </c>
@@ -5697,11 +6391,12 @@
       <c r="I108" s="11"/>
       <c r="J108" s="11"/>
     </row>
-    <row r="109" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B109" s="27"/>
-      <c r="C109" s="27"/>
-      <c r="D109" s="27"/>
-      <c r="E109" s="27"/>
+    <row r="109" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A109" s="55"/>
+      <c r="B109" s="30"/>
+      <c r="C109" s="30"/>
+      <c r="D109" s="30"/>
+      <c r="E109" s="30"/>
       <c r="F109" s="22" t="s">
         <v>32</v>
       </c>
@@ -5714,11 +6409,12 @@
       <c r="I109" s="11"/>
       <c r="J109" s="11"/>
     </row>
-    <row r="110" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B110" s="27"/>
-      <c r="C110" s="27"/>
-      <c r="D110" s="27"/>
-      <c r="E110" s="27"/>
+    <row r="110" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A110" s="55"/>
+      <c r="B110" s="30"/>
+      <c r="C110" s="30"/>
+      <c r="D110" s="30"/>
+      <c r="E110" s="30"/>
       <c r="F110" s="22" t="s">
         <v>35</v>
       </c>
@@ -5731,17 +6427,18 @@
       <c r="I110" s="11"/>
       <c r="J110" s="11"/>
     </row>
-    <row r="111" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B111" s="28">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" s="55"/>
+      <c r="B111" s="29">
         <v>2</v>
       </c>
-      <c r="C111" s="28">
+      <c r="C111" s="29">
         <v>6</v>
       </c>
-      <c r="D111" s="28" t="s">
+      <c r="D111" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="E111" s="28" t="s">
+      <c r="E111" s="29" t="s">
         <v>143</v>
       </c>
       <c r="F111" s="13" t="s">
@@ -5756,11 +6453,12 @@
       <c r="I111" s="13"/>
       <c r="J111" s="13"/>
     </row>
-    <row r="112" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B112" s="28"/>
-      <c r="C112" s="28"/>
-      <c r="D112" s="28"/>
-      <c r="E112" s="28"/>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112" s="55"/>
+      <c r="B112" s="29"/>
+      <c r="C112" s="29"/>
+      <c r="D112" s="29"/>
+      <c r="E112" s="29"/>
       <c r="F112" s="9" t="s">
         <v>19</v>
       </c>
@@ -5773,11 +6471,12 @@
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
     </row>
-    <row r="113" spans="2:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B113" s="28"/>
-      <c r="C113" s="28"/>
-      <c r="D113" s="28"/>
-      <c r="E113" s="28"/>
+    <row r="113" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A113" s="55"/>
+      <c r="B113" s="29"/>
+      <c r="C113" s="29"/>
+      <c r="D113" s="29"/>
+      <c r="E113" s="29"/>
       <c r="F113" s="24" t="s">
         <v>23</v>
       </c>
@@ -5790,11 +6489,12 @@
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
     </row>
-    <row r="114" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B114" s="28"/>
-      <c r="C114" s="28"/>
-      <c r="D114" s="28"/>
-      <c r="E114" s="28"/>
+    <row r="114" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A114" s="55"/>
+      <c r="B114" s="29"/>
+      <c r="C114" s="29"/>
+      <c r="D114" s="29"/>
+      <c r="E114" s="29"/>
       <c r="F114" s="24" t="s">
         <v>26</v>
       </c>
@@ -5807,11 +6507,12 @@
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
     </row>
-    <row r="115" spans="2:10" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="28"/>
-      <c r="C115" s="28"/>
-      <c r="D115" s="28"/>
-      <c r="E115" s="28"/>
+    <row r="115" spans="1:10" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="55"/>
+      <c r="B115" s="29"/>
+      <c r="C115" s="29"/>
+      <c r="D115" s="29"/>
+      <c r="E115" s="29"/>
       <c r="F115" s="24" t="s">
         <v>29</v>
       </c>
@@ -5824,11 +6525,12 @@
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
     </row>
-    <row r="116" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B116" s="28"/>
-      <c r="C116" s="28"/>
-      <c r="D116" s="28"/>
-      <c r="E116" s="28"/>
+    <row r="116" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A116" s="55"/>
+      <c r="B116" s="29"/>
+      <c r="C116" s="29"/>
+      <c r="D116" s="29"/>
+      <c r="E116" s="29"/>
       <c r="F116" s="24" t="s">
         <v>32</v>
       </c>
@@ -5841,11 +6543,12 @@
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
     </row>
-    <row r="117" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B117" s="28"/>
-      <c r="C117" s="28"/>
-      <c r="D117" s="28"/>
-      <c r="E117" s="28"/>
+    <row r="117" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A117" s="55"/>
+      <c r="B117" s="29"/>
+      <c r="C117" s="29"/>
+      <c r="D117" s="29"/>
+      <c r="E117" s="29"/>
       <c r="F117" s="24" t="s">
         <v>35</v>
       </c>
@@ -5858,17 +6561,18 @@
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
     </row>
-    <row r="118" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B118" s="27">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" s="55"/>
+      <c r="B118" s="30">
         <v>2</v>
       </c>
-      <c r="C118" s="27">
+      <c r="C118" s="30">
         <v>7</v>
       </c>
-      <c r="D118" s="27" t="s">
+      <c r="D118" s="30" t="s">
         <v>148</v>
       </c>
-      <c r="E118" s="27" t="s">
+      <c r="E118" s="30" t="s">
         <v>149</v>
       </c>
       <c r="F118" s="20" t="s">
@@ -5883,11 +6587,12 @@
       <c r="I118" s="20"/>
       <c r="J118" s="20"/>
     </row>
-    <row r="119" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B119" s="27"/>
-      <c r="C119" s="27"/>
-      <c r="D119" s="27"/>
-      <c r="E119" s="27"/>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" s="55"/>
+      <c r="B119" s="30"/>
+      <c r="C119" s="30"/>
+      <c r="D119" s="30"/>
+      <c r="E119" s="30"/>
       <c r="F119" s="11" t="s">
         <v>19</v>
       </c>
@@ -5900,11 +6605,12 @@
       <c r="I119" s="11"/>
       <c r="J119" s="11"/>
     </row>
-    <row r="120" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B120" s="27"/>
-      <c r="C120" s="27"/>
-      <c r="D120" s="27"/>
-      <c r="E120" s="27"/>
+    <row r="120" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A120" s="55"/>
+      <c r="B120" s="30"/>
+      <c r="C120" s="30"/>
+      <c r="D120" s="30"/>
+      <c r="E120" s="30"/>
       <c r="F120" s="22" t="s">
         <v>23</v>
       </c>
@@ -5917,11 +6623,12 @@
       <c r="I120" s="11"/>
       <c r="J120" s="11"/>
     </row>
-    <row r="121" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B121" s="27"/>
-      <c r="C121" s="27"/>
-      <c r="D121" s="27"/>
-      <c r="E121" s="27"/>
+    <row r="121" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A121" s="55"/>
+      <c r="B121" s="30"/>
+      <c r="C121" s="30"/>
+      <c r="D121" s="30"/>
+      <c r="E121" s="30"/>
       <c r="F121" s="22" t="s">
         <v>26</v>
       </c>
@@ -5934,11 +6641,12 @@
       <c r="I121" s="11"/>
       <c r="J121" s="11"/>
     </row>
-    <row r="122" spans="2:10" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="27"/>
-      <c r="C122" s="27"/>
-      <c r="D122" s="27"/>
-      <c r="E122" s="27"/>
+    <row r="122" spans="1:10" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="55"/>
+      <c r="B122" s="30"/>
+      <c r="C122" s="30"/>
+      <c r="D122" s="30"/>
+      <c r="E122" s="30"/>
       <c r="F122" s="22" t="s">
         <v>29</v>
       </c>
@@ -5951,11 +6659,12 @@
       <c r="I122" s="11"/>
       <c r="J122" s="11"/>
     </row>
-    <row r="123" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B123" s="27"/>
-      <c r="C123" s="27"/>
-      <c r="D123" s="27"/>
-      <c r="E123" s="27"/>
+    <row r="123" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A123" s="55"/>
+      <c r="B123" s="30"/>
+      <c r="C123" s="30"/>
+      <c r="D123" s="30"/>
+      <c r="E123" s="30"/>
       <c r="F123" s="22" t="s">
         <v>32</v>
       </c>
@@ -5968,11 +6677,12 @@
       <c r="I123" s="11"/>
       <c r="J123" s="11"/>
     </row>
-    <row r="124" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B124" s="27"/>
-      <c r="C124" s="27"/>
-      <c r="D124" s="27"/>
-      <c r="E124" s="27"/>
+    <row r="124" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A124" s="55"/>
+      <c r="B124" s="30"/>
+      <c r="C124" s="30"/>
+      <c r="D124" s="30"/>
+      <c r="E124" s="30"/>
       <c r="F124" s="22" t="s">
         <v>35</v>
       </c>
@@ -5985,146 +6695,154 @@
       <c r="I124" s="11"/>
       <c r="J124" s="11"/>
     </row>
-    <row r="125" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B125" s="28">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125" s="55"/>
+      <c r="B125" s="29">
         <v>2</v>
       </c>
-      <c r="C125" s="28">
+      <c r="C125" s="29">
         <v>8</v>
       </c>
-      <c r="D125" s="28" t="s">
+      <c r="D125" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="E125" s="41" t="s">
+      <c r="E125" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="F125" s="42" t="s">
+      <c r="F125" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G125" s="42" t="s">
+      <c r="G125" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="H125" s="42" t="s">
+      <c r="H125" s="13" t="s">
         <v>154</v>
       </c>
       <c r="I125" s="13"/>
       <c r="J125" s="13"/>
     </row>
-    <row r="126" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B126" s="28"/>
-      <c r="C126" s="28"/>
-      <c r="D126" s="28"/>
-      <c r="E126" s="41"/>
-      <c r="F126" s="43" t="s">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126" s="55"/>
+      <c r="B126" s="29"/>
+      <c r="C126" s="29"/>
+      <c r="D126" s="29"/>
+      <c r="E126" s="29"/>
+      <c r="F126" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G126" s="43" t="s">
+      <c r="G126" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="H126" s="43" t="s">
+      <c r="H126" s="9" t="s">
         <v>113</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
     </row>
-    <row r="127" spans="2:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B127" s="28"/>
-      <c r="C127" s="28"/>
-      <c r="D127" s="28"/>
-      <c r="E127" s="41"/>
-      <c r="F127" s="43" t="s">
+    <row r="127" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A127" s="55"/>
+      <c r="B127" s="29"/>
+      <c r="C127" s="29"/>
+      <c r="D127" s="29"/>
+      <c r="E127" s="29"/>
+      <c r="F127" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G127" s="43" t="s">
+      <c r="G127" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="H127" s="43" t="s">
+      <c r="H127" s="9" t="s">
         <v>153</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
     </row>
-    <row r="128" spans="2:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B128" s="28"/>
-      <c r="C128" s="28"/>
-      <c r="D128" s="28"/>
-      <c r="E128" s="41"/>
-      <c r="F128" s="43" t="s">
+    <row r="128" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A128" s="55"/>
+      <c r="B128" s="29"/>
+      <c r="C128" s="29"/>
+      <c r="D128" s="29"/>
+      <c r="E128" s="29"/>
+      <c r="F128" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G128" s="43" t="s">
+      <c r="G128" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="H128" s="43" t="s">
+      <c r="H128" s="9" t="s">
         <v>157</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
     </row>
-    <row r="129" spans="2:10" ht="229.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B129" s="28"/>
-      <c r="C129" s="28"/>
-      <c r="D129" s="28"/>
-      <c r="E129" s="41"/>
-      <c r="F129" s="43" t="s">
+    <row r="129" spans="1:10" ht="229.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="55"/>
+      <c r="B129" s="29"/>
+      <c r="C129" s="29"/>
+      <c r="D129" s="29"/>
+      <c r="E129" s="29"/>
+      <c r="F129" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G129" s="43" t="s">
+      <c r="G129" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="H129" s="44" t="s">
+      <c r="H129" s="10" t="s">
         <v>115</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
     </row>
-    <row r="130" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B130" s="28"/>
-      <c r="C130" s="28"/>
-      <c r="D130" s="28"/>
-      <c r="E130" s="41"/>
-      <c r="F130" s="43" t="s">
+    <row r="130" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A130" s="55"/>
+      <c r="B130" s="29"/>
+      <c r="C130" s="29"/>
+      <c r="D130" s="29"/>
+      <c r="E130" s="29"/>
+      <c r="F130" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G130" s="43" t="s">
+      <c r="G130" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="H130" s="43" t="s">
+      <c r="H130" s="9" t="s">
         <v>123</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
     </row>
-    <row r="131" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B131" s="27">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A131" s="55"/>
+      <c r="B131" s="30">
         <v>2</v>
       </c>
-      <c r="C131" s="27">
+      <c r="C131" s="30">
         <v>9</v>
       </c>
-      <c r="D131" s="27" t="s">
+      <c r="D131" s="30" t="s">
         <v>167</v>
       </c>
-      <c r="E131" s="45" t="s">
+      <c r="E131" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="F131" s="46" t="s">
+      <c r="F131" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="G131" s="46" t="s">
+      <c r="G131" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="H131" s="46" t="s">
+      <c r="H131" s="26" t="s">
         <v>154</v>
       </c>
       <c r="I131" s="20"/>
       <c r="J131" s="20"/>
     </row>
-    <row r="132" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B132" s="27"/>
-      <c r="C132" s="27"/>
-      <c r="D132" s="27"/>
-      <c r="E132" s="45"/>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A132" s="55"/>
+      <c r="B132" s="30"/>
+      <c r="C132" s="30"/>
+      <c r="D132" s="30"/>
+      <c r="E132" s="32"/>
       <c r="F132" s="22" t="s">
         <v>19</v>
       </c>
@@ -6137,11 +6855,12 @@
       <c r="I132" s="11"/>
       <c r="J132" s="11"/>
     </row>
-    <row r="133" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B133" s="27"/>
-      <c r="C133" s="27"/>
-      <c r="D133" s="27"/>
-      <c r="E133" s="45"/>
+    <row r="133" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A133" s="55"/>
+      <c r="B133" s="30"/>
+      <c r="C133" s="30"/>
+      <c r="D133" s="30"/>
+      <c r="E133" s="32"/>
       <c r="F133" s="22" t="s">
         <v>23</v>
       </c>
@@ -6154,11 +6873,12 @@
       <c r="I133" s="11"/>
       <c r="J133" s="11"/>
     </row>
-    <row r="134" spans="2:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B134" s="27"/>
-      <c r="C134" s="27"/>
-      <c r="D134" s="27"/>
-      <c r="E134" s="45"/>
+    <row r="134" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A134" s="55"/>
+      <c r="B134" s="30"/>
+      <c r="C134" s="30"/>
+      <c r="D134" s="30"/>
+      <c r="E134" s="32"/>
       <c r="F134" s="22" t="s">
         <v>26</v>
       </c>
@@ -6171,11 +6891,12 @@
       <c r="I134" s="11"/>
       <c r="J134" s="11"/>
     </row>
-    <row r="135" spans="2:10" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B135" s="27"/>
-      <c r="C135" s="27"/>
-      <c r="D135" s="27"/>
-      <c r="E135" s="45"/>
+    <row r="135" spans="1:10" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="55"/>
+      <c r="B135" s="30"/>
+      <c r="C135" s="30"/>
+      <c r="D135" s="30"/>
+      <c r="E135" s="32"/>
       <c r="F135" s="22" t="s">
         <v>29</v>
       </c>
@@ -6188,11 +6909,12 @@
       <c r="I135" s="11"/>
       <c r="J135" s="11"/>
     </row>
-    <row r="136" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B136" s="27"/>
-      <c r="C136" s="27"/>
-      <c r="D136" s="27"/>
-      <c r="E136" s="45"/>
+    <row r="136" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A136" s="55"/>
+      <c r="B136" s="30"/>
+      <c r="C136" s="30"/>
+      <c r="D136" s="30"/>
+      <c r="E136" s="32"/>
       <c r="F136" s="22" t="s">
         <v>32</v>
       </c>
@@ -6205,11 +6927,12 @@
       <c r="I136" s="11"/>
       <c r="J136" s="11"/>
     </row>
-    <row r="137" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B137" s="27"/>
-      <c r="C137" s="27"/>
-      <c r="D137" s="27"/>
-      <c r="E137" s="45"/>
+    <row r="137" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A137" s="55"/>
+      <c r="B137" s="30"/>
+      <c r="C137" s="30"/>
+      <c r="D137" s="30"/>
+      <c r="E137" s="32"/>
       <c r="F137" s="22" t="s">
         <v>35</v>
       </c>
@@ -6222,36 +6945,38 @@
       <c r="I137" s="11"/>
       <c r="J137" s="11"/>
     </row>
-    <row r="138" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B138" s="28">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A138" s="55"/>
+      <c r="B138" s="29">
         <v>2</v>
       </c>
-      <c r="C138" s="28">
+      <c r="C138" s="29">
         <v>10</v>
       </c>
-      <c r="D138" s="28" t="s">
+      <c r="D138" s="29" t="s">
         <v>166</v>
       </c>
-      <c r="E138" s="47" t="s">
+      <c r="E138" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="F138" s="48" t="s">
+      <c r="F138" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="G138" s="48" t="s">
+      <c r="G138" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="H138" s="48" t="s">
+      <c r="H138" s="27" t="s">
         <v>154</v>
       </c>
       <c r="I138" s="13"/>
       <c r="J138" s="13"/>
     </row>
-    <row r="139" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B139" s="28"/>
-      <c r="C139" s="28"/>
-      <c r="D139" s="28"/>
-      <c r="E139" s="47"/>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A139" s="55"/>
+      <c r="B139" s="29"/>
+      <c r="C139" s="29"/>
+      <c r="D139" s="29"/>
+      <c r="E139" s="31"/>
       <c r="F139" s="24" t="s">
         <v>19</v>
       </c>
@@ -6264,11 +6989,12 @@
       <c r="I139" s="9"/>
       <c r="J139" s="9"/>
     </row>
-    <row r="140" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B140" s="28"/>
-      <c r="C140" s="28"/>
-      <c r="D140" s="28"/>
-      <c r="E140" s="47"/>
+    <row r="140" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A140" s="55"/>
+      <c r="B140" s="29"/>
+      <c r="C140" s="29"/>
+      <c r="D140" s="29"/>
+      <c r="E140" s="31"/>
       <c r="F140" s="24" t="s">
         <v>23</v>
       </c>
@@ -6281,11 +7007,12 @@
       <c r="I140" s="9"/>
       <c r="J140" s="9"/>
     </row>
-    <row r="141" spans="2:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B141" s="28"/>
-      <c r="C141" s="28"/>
-      <c r="D141" s="28"/>
-      <c r="E141" s="47"/>
+    <row r="141" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A141" s="55"/>
+      <c r="B141" s="29"/>
+      <c r="C141" s="29"/>
+      <c r="D141" s="29"/>
+      <c r="E141" s="31"/>
       <c r="F141" s="24" t="s">
         <v>26</v>
       </c>
@@ -6298,11 +7025,12 @@
       <c r="I141" s="9"/>
       <c r="J141" s="9"/>
     </row>
-    <row r="142" spans="2:10" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B142" s="28"/>
-      <c r="C142" s="28"/>
-      <c r="D142" s="28"/>
-      <c r="E142" s="47"/>
+    <row r="142" spans="1:10" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="55"/>
+      <c r="B142" s="29"/>
+      <c r="C142" s="29"/>
+      <c r="D142" s="29"/>
+      <c r="E142" s="31"/>
       <c r="F142" s="24" t="s">
         <v>29</v>
       </c>
@@ -6315,11 +7043,12 @@
       <c r="I142" s="9"/>
       <c r="J142" s="9"/>
     </row>
-    <row r="143" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B143" s="28"/>
-      <c r="C143" s="28"/>
-      <c r="D143" s="28"/>
-      <c r="E143" s="47"/>
+    <row r="143" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A143" s="55"/>
+      <c r="B143" s="29"/>
+      <c r="C143" s="29"/>
+      <c r="D143" s="29"/>
+      <c r="E143" s="31"/>
       <c r="F143" s="24" t="s">
         <v>32</v>
       </c>
@@ -6332,11 +7061,12 @@
       <c r="I143" s="9"/>
       <c r="J143" s="9"/>
     </row>
-    <row r="144" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B144" s="28"/>
-      <c r="C144" s="28"/>
-      <c r="D144" s="28"/>
-      <c r="E144" s="47"/>
+    <row r="144" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A144" s="55"/>
+      <c r="B144" s="29"/>
+      <c r="C144" s="29"/>
+      <c r="D144" s="29"/>
+      <c r="E144" s="31"/>
       <c r="F144" s="24" t="s">
         <v>35</v>
       </c>
@@ -6349,462 +7079,1601 @@
       <c r="I144" s="9"/>
       <c r="J144" s="9"/>
     </row>
-    <row r="145" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B145" s="27">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A145" s="55"/>
+      <c r="B145" s="47">
         <v>2</v>
       </c>
-      <c r="C145" s="27">
+      <c r="C145" s="47">
         <v>11</v>
       </c>
-      <c r="D145" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="E145" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="F145" s="39" t="s">
+      <c r="D145" s="47" t="s">
+        <v>185</v>
+      </c>
+      <c r="E145" s="48" t="s">
+        <v>186</v>
+      </c>
+      <c r="F145" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="G145" s="39" t="s">
+      <c r="G145" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="H145" s="39" t="s">
+      <c r="H145" s="49" t="s">
         <v>154</v>
       </c>
       <c r="I145" s="20"/>
       <c r="J145" s="20"/>
     </row>
-    <row r="146" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B146" s="27"/>
-      <c r="C146" s="27"/>
-      <c r="D146" s="38"/>
-      <c r="E146" s="38"/>
-      <c r="F146" s="40" t="s">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A146" s="55"/>
+      <c r="B146" s="47"/>
+      <c r="C146" s="47"/>
+      <c r="D146" s="47"/>
+      <c r="E146" s="50"/>
+      <c r="F146" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="G146" s="40" t="s">
+      <c r="G146" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="H146" s="40" t="s">
+      <c r="H146" s="51" t="s">
         <v>113</v>
       </c>
       <c r="I146" s="11"/>
       <c r="J146" s="11"/>
     </row>
-    <row r="147" spans="2:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B147" s="27"/>
-      <c r="C147" s="27"/>
-      <c r="D147" s="38"/>
-      <c r="E147" s="38"/>
-      <c r="F147" s="40" t="s">
+    <row r="147" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A147" s="55"/>
+      <c r="B147" s="47"/>
+      <c r="C147" s="47"/>
+      <c r="D147" s="47"/>
+      <c r="E147" s="50"/>
+      <c r="F147" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="G147" s="40" t="s">
-        <v>152</v>
-      </c>
-      <c r="H147" s="40" t="s">
-        <v>153</v>
+      <c r="G147" s="51" t="s">
+        <v>187</v>
+      </c>
+      <c r="H147" s="52" t="s">
+        <v>189</v>
       </c>
       <c r="I147" s="11"/>
       <c r="J147" s="11"/>
     </row>
-    <row r="148" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B148" s="27"/>
-      <c r="C148" s="27"/>
-      <c r="D148" s="38"/>
-      <c r="E148" s="38"/>
-      <c r="F148" s="40" t="s">
+    <row r="148" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A148" s="55"/>
+      <c r="B148" s="47"/>
+      <c r="C148" s="47"/>
+      <c r="D148" s="47"/>
+      <c r="E148" s="50"/>
+      <c r="F148" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="G148" s="40" t="s">
-        <v>169</v>
-      </c>
-      <c r="H148" s="40" t="s">
-        <v>170</v>
+      <c r="G148" s="51" t="s">
+        <v>156</v>
+      </c>
+      <c r="H148" s="51" t="s">
+        <v>157</v>
       </c>
       <c r="I148" s="11"/>
       <c r="J148" s="11"/>
     </row>
-    <row r="149" spans="2:10" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B149" s="27"/>
-      <c r="C149" s="27"/>
-      <c r="D149" s="38"/>
-      <c r="E149" s="38"/>
-      <c r="F149" s="40" t="s">
+    <row r="149" spans="1:10" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="55"/>
+      <c r="B149" s="47"/>
+      <c r="C149" s="47"/>
+      <c r="D149" s="47"/>
+      <c r="E149" s="50"/>
+      <c r="F149" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="G149" s="40" t="s">
+      <c r="G149" s="51" t="s">
         <v>119</v>
       </c>
-      <c r="H149" s="49" t="s">
+      <c r="H149" s="53" t="s">
         <v>46</v>
       </c>
       <c r="I149" s="11"/>
       <c r="J149" s="11"/>
     </row>
-    <row r="150" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B150" s="27"/>
-      <c r="C150" s="27"/>
-      <c r="D150" s="38"/>
-      <c r="E150" s="38"/>
-      <c r="F150" s="40" t="s">
+    <row r="150" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A150" s="55"/>
+      <c r="B150" s="47"/>
+      <c r="C150" s="47"/>
+      <c r="D150" s="47"/>
+      <c r="E150" s="50"/>
+      <c r="F150" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="G150" s="40" t="s">
+      <c r="G150" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="H150" s="40" t="s">
+      <c r="H150" s="51" t="s">
         <v>135</v>
       </c>
       <c r="I150" s="11"/>
       <c r="J150" s="11"/>
     </row>
-    <row r="151" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B151" s="27"/>
-      <c r="C151" s="27"/>
-      <c r="D151" s="38"/>
-      <c r="E151" s="38"/>
-      <c r="F151" s="40" t="s">
+    <row r="151" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A151" s="55"/>
+      <c r="B151" s="47"/>
+      <c r="C151" s="47"/>
+      <c r="D151" s="47"/>
+      <c r="E151" s="50"/>
+      <c r="F151" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="G151" s="40" t="s">
+      <c r="G151" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="H151" s="49" t="s">
+      <c r="H151" s="53" t="s">
         <v>123</v>
       </c>
       <c r="I151" s="11"/>
       <c r="J151" s="11"/>
     </row>
-    <row r="152" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B152" s="28">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A152" s="55"/>
+      <c r="B152" s="29">
         <v>2</v>
       </c>
-      <c r="C152" s="28">
+      <c r="C152" s="29">
         <v>12</v>
       </c>
-      <c r="D152" s="41" t="s">
-        <v>172</v>
-      </c>
-      <c r="E152" s="41" t="s">
-        <v>173</v>
-      </c>
-      <c r="F152" s="42" t="s">
+      <c r="D152" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="E152" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="F152" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G152" s="42" t="s">
+      <c r="G152" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="H152" s="42" t="s">
+      <c r="H152" s="13" t="s">
         <v>154</v>
       </c>
       <c r="I152" s="13"/>
       <c r="J152" s="13"/>
     </row>
-    <row r="153" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B153" s="28"/>
-      <c r="C153" s="28"/>
-      <c r="D153" s="41"/>
-      <c r="E153" s="41"/>
-      <c r="F153" s="43" t="s">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A153" s="55"/>
+      <c r="B153" s="29"/>
+      <c r="C153" s="29"/>
+      <c r="D153" s="29"/>
+      <c r="E153" s="29"/>
+      <c r="F153" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G153" s="43" t="s">
+      <c r="G153" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="H153" s="43" t="s">
+      <c r="H153" s="9" t="s">
         <v>113</v>
       </c>
       <c r="I153" s="9"/>
       <c r="J153" s="9"/>
     </row>
-    <row r="154" spans="2:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B154" s="28"/>
-      <c r="C154" s="28"/>
-      <c r="D154" s="41"/>
-      <c r="E154" s="41"/>
-      <c r="F154" s="43" t="s">
+    <row r="154" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A154" s="55"/>
+      <c r="B154" s="29"/>
+      <c r="C154" s="29"/>
+      <c r="D154" s="29"/>
+      <c r="E154" s="29"/>
+      <c r="F154" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G154" s="43" t="s">
+      <c r="G154" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="H154" s="43" t="s">
+      <c r="H154" s="9" t="s">
         <v>153</v>
       </c>
       <c r="I154" s="9"/>
       <c r="J154" s="9"/>
     </row>
-    <row r="155" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B155" s="28"/>
-      <c r="C155" s="28"/>
-      <c r="D155" s="41"/>
-      <c r="E155" s="41"/>
-      <c r="F155" s="43" t="s">
+    <row r="155" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A155" s="55"/>
+      <c r="B155" s="29"/>
+      <c r="C155" s="29"/>
+      <c r="D155" s="29"/>
+      <c r="E155" s="29"/>
+      <c r="F155" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G155" s="43" t="s">
+      <c r="G155" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="H155" s="43" t="s">
-        <v>174</v>
+      <c r="H155" s="9" t="s">
+        <v>170</v>
       </c>
       <c r="I155" s="9"/>
       <c r="J155" s="9"/>
     </row>
-    <row r="156" spans="2:10" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B156" s="28"/>
-      <c r="C156" s="28"/>
-      <c r="D156" s="41"/>
-      <c r="E156" s="41"/>
-      <c r="F156" s="43" t="s">
+    <row r="156" spans="1:10" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="55"/>
+      <c r="B156" s="29"/>
+      <c r="C156" s="29"/>
+      <c r="D156" s="29"/>
+      <c r="E156" s="29"/>
+      <c r="F156" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G156" s="43" t="s">
+      <c r="G156" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="H156" s="44" t="s">
+      <c r="H156" s="10" t="s">
         <v>46</v>
       </c>
       <c r="I156" s="9"/>
       <c r="J156" s="9"/>
     </row>
-    <row r="157" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B157" s="28"/>
-      <c r="C157" s="28"/>
-      <c r="D157" s="41"/>
-      <c r="E157" s="41"/>
-      <c r="F157" s="43" t="s">
+    <row r="157" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A157" s="55"/>
+      <c r="B157" s="29"/>
+      <c r="C157" s="29"/>
+      <c r="D157" s="29"/>
+      <c r="E157" s="29"/>
+      <c r="F157" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G157" s="43" t="s">
+      <c r="G157" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="H157" s="43" t="s">
+      <c r="H157" s="9" t="s">
         <v>135</v>
       </c>
       <c r="I157" s="9"/>
       <c r="J157" s="9"/>
     </row>
-    <row r="158" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B158" s="28"/>
-      <c r="C158" s="28"/>
-      <c r="D158" s="41"/>
-      <c r="E158" s="41"/>
-      <c r="F158" s="43" t="s">
+    <row r="158" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A158" s="55"/>
+      <c r="B158" s="29"/>
+      <c r="C158" s="29"/>
+      <c r="D158" s="29"/>
+      <c r="E158" s="29"/>
+      <c r="F158" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G158" s="43" t="s">
+      <c r="G158" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="H158" s="44" t="s">
+      <c r="H158" s="10" t="s">
         <v>123</v>
       </c>
       <c r="I158" s="9"/>
       <c r="J158" s="9"/>
     </row>
-    <row r="159" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B159" s="27">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A159" s="55"/>
+      <c r="B159" s="30">
         <v>2</v>
       </c>
-      <c r="C159" s="27">
+      <c r="C159" s="30">
         <v>13</v>
       </c>
-      <c r="D159" s="38" t="s">
-        <v>175</v>
-      </c>
-      <c r="E159" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="F159" s="39" t="s">
+      <c r="D159" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="E159" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="F159" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="G159" s="39" t="s">
+      <c r="G159" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="H159" s="39" t="s">
+      <c r="H159" s="20" t="s">
         <v>154</v>
       </c>
       <c r="I159" s="20"/>
       <c r="J159" s="20"/>
     </row>
-    <row r="160" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B160" s="27"/>
-      <c r="C160" s="27"/>
-      <c r="D160" s="38"/>
-      <c r="E160" s="38"/>
-      <c r="F160" s="40" t="s">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A160" s="55"/>
+      <c r="B160" s="30"/>
+      <c r="C160" s="30"/>
+      <c r="D160" s="30"/>
+      <c r="E160" s="30"/>
+      <c r="F160" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G160" s="40" t="s">
+      <c r="G160" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="H160" s="40" t="s">
+      <c r="H160" s="11" t="s">
         <v>113</v>
       </c>
       <c r="I160" s="11"/>
       <c r="J160" s="11"/>
     </row>
-    <row r="161" spans="2:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B161" s="27"/>
-      <c r="C161" s="27"/>
-      <c r="D161" s="38"/>
-      <c r="E161" s="38"/>
-      <c r="F161" s="40" t="s">
+    <row r="161" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A161" s="55"/>
+      <c r="B161" s="30"/>
+      <c r="C161" s="30"/>
+      <c r="D161" s="30"/>
+      <c r="E161" s="30"/>
+      <c r="F161" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G161" s="40" t="s">
+      <c r="G161" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="H161" s="40" t="s">
+      <c r="H161" s="11" t="s">
         <v>153</v>
       </c>
       <c r="I161" s="11"/>
       <c r="J161" s="11"/>
     </row>
-    <row r="162" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B162" s="27"/>
-      <c r="C162" s="27"/>
-      <c r="D162" s="38"/>
-      <c r="E162" s="38"/>
-      <c r="F162" s="40" t="s">
+    <row r="162" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A162" s="55"/>
+      <c r="B162" s="30"/>
+      <c r="C162" s="30"/>
+      <c r="D162" s="30"/>
+      <c r="E162" s="30"/>
+      <c r="F162" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G162" s="40" t="s">
-        <v>177</v>
-      </c>
-      <c r="H162" s="40" t="s">
-        <v>178</v>
+      <c r="G162" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="H162" s="11" t="s">
+        <v>174</v>
       </c>
       <c r="I162" s="11"/>
       <c r="J162" s="11"/>
     </row>
-    <row r="163" spans="2:10" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B163" s="27"/>
-      <c r="C163" s="27"/>
-      <c r="D163" s="38"/>
-      <c r="E163" s="38"/>
-      <c r="F163" s="40" t="s">
+    <row r="163" spans="1:10" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="55"/>
+      <c r="B163" s="30"/>
+      <c r="C163" s="30"/>
+      <c r="D163" s="30"/>
+      <c r="E163" s="30"/>
+      <c r="F163" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G163" s="40" t="s">
+      <c r="G163" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="H163" s="49" t="s">
+      <c r="H163" s="12" t="s">
         <v>46</v>
       </c>
       <c r="I163" s="11"/>
       <c r="J163" s="11"/>
     </row>
-    <row r="164" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B164" s="27"/>
-      <c r="C164" s="27"/>
-      <c r="D164" s="38"/>
-      <c r="E164" s="38"/>
-      <c r="F164" s="40" t="s">
+    <row r="164" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A164" s="55"/>
+      <c r="B164" s="30"/>
+      <c r="C164" s="30"/>
+      <c r="D164" s="30"/>
+      <c r="E164" s="30"/>
+      <c r="F164" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="G164" s="40" t="s">
+      <c r="G164" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="H164" s="40" t="s">
+      <c r="H164" s="11" t="s">
         <v>135</v>
       </c>
       <c r="I164" s="11"/>
       <c r="J164" s="11"/>
     </row>
-    <row r="165" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B165" s="27"/>
-      <c r="C165" s="27"/>
-      <c r="D165" s="38"/>
-      <c r="E165" s="38"/>
-      <c r="F165" s="40" t="s">
+    <row r="165" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A165" s="55"/>
+      <c r="B165" s="30"/>
+      <c r="C165" s="30"/>
+      <c r="D165" s="30"/>
+      <c r="E165" s="30"/>
+      <c r="F165" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="G165" s="40" t="s">
+      <c r="G165" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="H165" s="49" t="s">
+      <c r="H165" s="12" t="s">
         <v>123</v>
       </c>
       <c r="I165" s="11"/>
       <c r="J165" s="11"/>
     </row>
-    <row r="166" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A166" s="55"/>
+      <c r="B166" s="29">
+        <v>2</v>
+      </c>
+      <c r="C166" s="29">
+        <v>14</v>
+      </c>
+      <c r="D166" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="E166" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="F166" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G166" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="H166" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="I166" s="13"/>
+      <c r="J166" s="13"/>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A167" s="55"/>
+      <c r="B167" s="29"/>
+      <c r="C167" s="29"/>
+      <c r="D167" s="29"/>
+      <c r="E167" s="29"/>
+      <c r="F167" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G167" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="H167" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="I167" s="9"/>
+      <c r="J167" s="9"/>
+    </row>
+    <row r="168" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A168" s="55"/>
+      <c r="B168" s="29"/>
+      <c r="C168" s="29"/>
+      <c r="D168" s="29"/>
+      <c r="E168" s="29"/>
+      <c r="F168" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G168" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="H168" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="I168" s="9"/>
+      <c r="J168" s="9"/>
+    </row>
+    <row r="169" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A169" s="55"/>
+      <c r="B169" s="29"/>
+      <c r="C169" s="29"/>
+      <c r="D169" s="29"/>
+      <c r="E169" s="29"/>
+      <c r="F169" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G169" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="H169" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="I169" s="9"/>
+      <c r="J169" s="9"/>
+    </row>
+    <row r="170" spans="1:10" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="55"/>
+      <c r="B170" s="29"/>
+      <c r="C170" s="29"/>
+      <c r="D170" s="29"/>
+      <c r="E170" s="29"/>
+      <c r="F170" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G170" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="H170" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I170" s="9"/>
+      <c r="J170" s="9"/>
+    </row>
+    <row r="171" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A171" s="55"/>
+      <c r="B171" s="29"/>
+      <c r="C171" s="29"/>
+      <c r="D171" s="29"/>
+      <c r="E171" s="29"/>
+      <c r="F171" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G171" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H171" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="I171" s="9"/>
+      <c r="J171" s="9"/>
+    </row>
+    <row r="172" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A172" s="55"/>
+      <c r="B172" s="29"/>
+      <c r="C172" s="29"/>
+      <c r="D172" s="29"/>
+      <c r="E172" s="29"/>
+      <c r="F172" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G172" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H172" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="I172" s="9"/>
+      <c r="J172" s="9"/>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A173" s="55"/>
+      <c r="B173" s="30">
+        <v>2</v>
+      </c>
+      <c r="C173" s="30">
+        <v>15</v>
+      </c>
+      <c r="D173" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="E173" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="F173" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G173" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="H173" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="I173" s="20"/>
+      <c r="J173" s="20"/>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A174" s="55"/>
+      <c r="B174" s="30"/>
+      <c r="C174" s="30"/>
+      <c r="D174" s="30"/>
+      <c r="E174" s="30"/>
+      <c r="F174" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G174" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="H174" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="I174" s="11"/>
+      <c r="J174" s="11"/>
+    </row>
+    <row r="175" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A175" s="55"/>
+      <c r="B175" s="30"/>
+      <c r="C175" s="30"/>
+      <c r="D175" s="30"/>
+      <c r="E175" s="30"/>
+      <c r="F175" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G175" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="H175" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="I175" s="11"/>
+      <c r="J175" s="11"/>
+    </row>
+    <row r="176" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A176" s="55"/>
+      <c r="B176" s="30"/>
+      <c r="C176" s="30"/>
+      <c r="D176" s="30"/>
+      <c r="E176" s="30"/>
+      <c r="F176" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G176" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="H176" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="I176" s="11"/>
+      <c r="J176" s="11"/>
+    </row>
+    <row r="177" spans="1:10" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="55"/>
+      <c r="B177" s="30"/>
+      <c r="C177" s="30"/>
+      <c r="D177" s="30"/>
+      <c r="E177" s="30"/>
+      <c r="F177" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G177" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="H177" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I177" s="11"/>
+      <c r="J177" s="11"/>
+    </row>
+    <row r="178" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A178" s="55"/>
+      <c r="B178" s="30"/>
+      <c r="C178" s="30"/>
+      <c r="D178" s="30"/>
+      <c r="E178" s="30"/>
+      <c r="F178" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G178" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H178" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="I178" s="11"/>
+      <c r="J178" s="11"/>
+    </row>
+    <row r="179" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A179" s="55"/>
+      <c r="B179" s="30"/>
+      <c r="C179" s="30"/>
+      <c r="D179" s="30"/>
+      <c r="E179" s="30"/>
+      <c r="F179" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G179" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H179" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="I179" s="11"/>
+      <c r="J179" s="11"/>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A180" s="55"/>
+      <c r="B180" s="29">
+        <v>2</v>
+      </c>
+      <c r="C180" s="29">
+        <v>16</v>
+      </c>
+      <c r="D180" s="42" t="s">
+        <v>190</v>
+      </c>
+      <c r="E180" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="F180" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="G180" s="44" t="s">
+        <v>155</v>
+      </c>
+      <c r="H180" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="I180" s="13"/>
+      <c r="J180" s="13"/>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A181" s="55"/>
+      <c r="B181" s="29"/>
+      <c r="C181" s="29"/>
+      <c r="D181" s="42"/>
+      <c r="E181" s="42"/>
+      <c r="F181" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="G181" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="H181" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="I181" s="9"/>
+      <c r="J181" s="9"/>
+    </row>
+    <row r="182" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A182" s="55"/>
+      <c r="B182" s="29"/>
+      <c r="C182" s="29"/>
+      <c r="D182" s="42"/>
+      <c r="E182" s="42"/>
+      <c r="F182" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="G182" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="H182" s="45" t="s">
+        <v>189</v>
+      </c>
+      <c r="I182" s="9"/>
+      <c r="J182" s="9"/>
+    </row>
+    <row r="183" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A183" s="55"/>
+      <c r="B183" s="29"/>
+      <c r="C183" s="29"/>
+      <c r="D183" s="42"/>
+      <c r="E183" s="42"/>
+      <c r="F183" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="G183" s="45" t="s">
+        <v>184</v>
+      </c>
+      <c r="H183" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="I183" s="9"/>
+      <c r="J183" s="9"/>
+    </row>
+    <row r="184" spans="1:10" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="55"/>
+      <c r="B184" s="29"/>
+      <c r="C184" s="29"/>
+      <c r="D184" s="42"/>
+      <c r="E184" s="42"/>
+      <c r="F184" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="G184" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="H184" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I184" s="9"/>
+      <c r="J184" s="9"/>
+    </row>
+    <row r="185" spans="1:10" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="55"/>
+      <c r="B185" s="29"/>
+      <c r="C185" s="29"/>
+      <c r="D185" s="42"/>
+      <c r="E185" s="42"/>
+      <c r="F185" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="G185" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H185" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I185" s="9"/>
+      <c r="J185" s="9"/>
+    </row>
+    <row r="186" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A186" s="55"/>
+      <c r="B186" s="29"/>
+      <c r="C186" s="29"/>
+      <c r="D186" s="42"/>
+      <c r="E186" s="42"/>
+      <c r="F186" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="G186" s="45" t="s">
+        <v>192</v>
+      </c>
+      <c r="H186" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="I186" s="9"/>
+      <c r="J186" s="9"/>
+    </row>
+    <row r="187" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A187" s="55"/>
+      <c r="B187" s="29"/>
+      <c r="C187" s="29"/>
+      <c r="D187" s="42"/>
+      <c r="E187" s="42"/>
+      <c r="F187" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="G187" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="H187" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="I187" s="9"/>
+      <c r="J187" s="9"/>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A188" s="55"/>
+      <c r="B188" s="30">
+        <v>2</v>
+      </c>
+      <c r="C188" s="30">
+        <v>17</v>
+      </c>
+      <c r="D188" s="47" t="s">
+        <v>194</v>
+      </c>
+      <c r="E188" s="47" t="s">
+        <v>193</v>
+      </c>
+      <c r="F188" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="G188" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="H188" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="I188" s="20"/>
+      <c r="J188" s="20"/>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A189" s="55"/>
+      <c r="B189" s="30"/>
+      <c r="C189" s="30"/>
+      <c r="D189" s="47"/>
+      <c r="E189" s="47"/>
+      <c r="F189" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="G189" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="H189" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="I189" s="11"/>
+      <c r="J189" s="11"/>
+    </row>
+    <row r="190" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A190" s="55"/>
+      <c r="B190" s="30"/>
+      <c r="C190" s="30"/>
+      <c r="D190" s="47"/>
+      <c r="E190" s="47"/>
+      <c r="F190" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="G190" s="51" t="s">
+        <v>162</v>
+      </c>
+      <c r="H190" s="51" t="s">
+        <v>161</v>
+      </c>
+      <c r="I190" s="11"/>
+      <c r="J190" s="11"/>
+    </row>
+    <row r="191" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A191" s="55"/>
+      <c r="B191" s="30"/>
+      <c r="C191" s="30"/>
+      <c r="D191" s="47"/>
+      <c r="E191" s="47"/>
+      <c r="F191" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="G191" s="51" t="s">
+        <v>184</v>
+      </c>
+      <c r="H191" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="I191" s="11"/>
+      <c r="J191" s="11"/>
+    </row>
+    <row r="192" spans="1:10" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="55"/>
+      <c r="B192" s="30"/>
+      <c r="C192" s="30"/>
+      <c r="D192" s="47"/>
+      <c r="E192" s="47"/>
+      <c r="F192" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="G192" s="51" t="s">
+        <v>119</v>
+      </c>
+      <c r="H192" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I192" s="11"/>
+      <c r="J192" s="11"/>
+    </row>
+    <row r="193" spans="1:10" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="55"/>
+      <c r="B193" s="30"/>
+      <c r="C193" s="30"/>
+      <c r="D193" s="47"/>
+      <c r="E193" s="47"/>
+      <c r="F193" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="G193" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="H193" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I193" s="11"/>
+      <c r="J193" s="11"/>
+    </row>
+    <row r="194" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A194" s="55"/>
+      <c r="B194" s="30"/>
+      <c r="C194" s="30"/>
+      <c r="D194" s="47"/>
+      <c r="E194" s="47"/>
+      <c r="F194" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="G194" s="51" t="s">
+        <v>192</v>
+      </c>
+      <c r="H194" s="51" t="s">
+        <v>135</v>
+      </c>
+      <c r="I194" s="11"/>
+      <c r="J194" s="11"/>
+    </row>
+    <row r="195" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A195" s="55"/>
+      <c r="B195" s="30"/>
+      <c r="C195" s="30"/>
+      <c r="D195" s="47"/>
+      <c r="E195" s="47"/>
+      <c r="F195" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="G195" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="H195" s="53" t="s">
+        <v>123</v>
+      </c>
+      <c r="I195" s="11"/>
+      <c r="J195" s="11"/>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A196" s="55"/>
+      <c r="B196" s="29">
+        <v>2</v>
+      </c>
+      <c r="C196" s="29">
+        <v>18</v>
+      </c>
+      <c r="D196" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="E196" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="F196" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="G196" s="44" t="s">
+        <v>155</v>
+      </c>
+      <c r="H196" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="I196" s="13"/>
+      <c r="J196" s="13"/>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A197" s="55"/>
+      <c r="B197" s="29"/>
+      <c r="C197" s="29"/>
+      <c r="D197" s="42"/>
+      <c r="E197" s="42"/>
+      <c r="F197" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="G197" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="H197" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="I197" s="9"/>
+      <c r="J197" s="9"/>
+    </row>
+    <row r="198" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A198" s="55"/>
+      <c r="B198" s="29"/>
+      <c r="C198" s="29"/>
+      <c r="D198" s="42"/>
+      <c r="E198" s="42"/>
+      <c r="F198" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="G198" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="H198" s="45" t="s">
+        <v>197</v>
+      </c>
+      <c r="I198" s="9"/>
+      <c r="J198" s="9"/>
+    </row>
+    <row r="199" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A199" s="55"/>
+      <c r="B199" s="29"/>
+      <c r="C199" s="29"/>
+      <c r="D199" s="42"/>
+      <c r="E199" s="42"/>
+      <c r="F199" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="G199" s="45" t="s">
+        <v>184</v>
+      </c>
+      <c r="H199" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="I199" s="9"/>
+      <c r="J199" s="9"/>
+    </row>
+    <row r="200" spans="1:10" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="55"/>
+      <c r="B200" s="29"/>
+      <c r="C200" s="29"/>
+      <c r="D200" s="42"/>
+      <c r="E200" s="42"/>
+      <c r="F200" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="G200" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="H200" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I200" s="9"/>
+      <c r="J200" s="9"/>
+    </row>
+    <row r="201" spans="1:10" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="55"/>
+      <c r="B201" s="29"/>
+      <c r="C201" s="29"/>
+      <c r="D201" s="42"/>
+      <c r="E201" s="42"/>
+      <c r="F201" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="G201" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H201" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I201" s="9"/>
+      <c r="J201" s="9"/>
+    </row>
+    <row r="202" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A202" s="55"/>
+      <c r="B202" s="29"/>
+      <c r="C202" s="29"/>
+      <c r="D202" s="42"/>
+      <c r="E202" s="42"/>
+      <c r="F202" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="G202" s="45" t="s">
+        <v>192</v>
+      </c>
+      <c r="H202" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="I202" s="9"/>
+      <c r="J202" s="9"/>
+    </row>
+    <row r="203" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A203" s="55"/>
+      <c r="B203" s="29"/>
+      <c r="C203" s="29"/>
+      <c r="D203" s="42"/>
+      <c r="E203" s="42"/>
+      <c r="F203" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="G203" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="H203" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="I203" s="9"/>
+      <c r="J203" s="9"/>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A204" s="55"/>
+      <c r="B204" s="30">
+        <v>2</v>
+      </c>
+      <c r="C204" s="30">
+        <v>19</v>
+      </c>
+      <c r="D204" s="47" t="s">
+        <v>201</v>
+      </c>
+      <c r="E204" s="48" t="s">
+        <v>202</v>
+      </c>
+      <c r="F204" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="G204" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="H204" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="I204" s="20"/>
+      <c r="J204" s="20"/>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A205" s="55"/>
+      <c r="B205" s="30"/>
+      <c r="C205" s="30"/>
+      <c r="D205" s="47"/>
+      <c r="E205" s="50"/>
+      <c r="F205" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="G205" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="H205" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="I205" s="11"/>
+      <c r="J205" s="11"/>
+    </row>
+    <row r="206" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A206" s="55"/>
+      <c r="B206" s="30"/>
+      <c r="C206" s="30"/>
+      <c r="D206" s="47"/>
+      <c r="E206" s="50"/>
+      <c r="F206" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="G206" s="51" t="s">
+        <v>187</v>
+      </c>
+      <c r="H206" s="51" t="s">
+        <v>189</v>
+      </c>
+      <c r="I206" s="11"/>
+      <c r="J206" s="11"/>
+    </row>
+    <row r="207" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A207" s="55"/>
+      <c r="B207" s="30"/>
+      <c r="C207" s="30"/>
+      <c r="D207" s="47"/>
+      <c r="E207" s="50"/>
+      <c r="F207" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="G207" s="51" t="s">
+        <v>199</v>
+      </c>
+      <c r="H207" s="51" t="s">
+        <v>200</v>
+      </c>
+      <c r="I207" s="11"/>
+      <c r="J207" s="11"/>
+    </row>
+    <row r="208" spans="1:10" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="55"/>
+      <c r="B208" s="30"/>
+      <c r="C208" s="30"/>
+      <c r="D208" s="47"/>
+      <c r="E208" s="50"/>
+      <c r="F208" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="G208" s="51" t="s">
+        <v>119</v>
+      </c>
+      <c r="H208" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I208" s="11"/>
+      <c r="J208" s="11"/>
+    </row>
+    <row r="209" spans="1:10" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="55"/>
+      <c r="B209" s="30"/>
+      <c r="C209" s="30"/>
+      <c r="D209" s="47"/>
+      <c r="E209" s="50"/>
+      <c r="F209" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="G209" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="H209" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I209" s="11"/>
+      <c r="J209" s="11"/>
+    </row>
+    <row r="210" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A210" s="55"/>
+      <c r="B210" s="30"/>
+      <c r="C210" s="30"/>
+      <c r="D210" s="47"/>
+      <c r="E210" s="50"/>
+      <c r="F210" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="G210" s="51" t="s">
+        <v>192</v>
+      </c>
+      <c r="H210" s="51" t="s">
+        <v>135</v>
+      </c>
+      <c r="I210" s="11"/>
+      <c r="J210" s="11"/>
+    </row>
+    <row r="211" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A211" s="55"/>
+      <c r="B211" s="30"/>
+      <c r="C211" s="30"/>
+      <c r="D211" s="47"/>
+      <c r="E211" s="50"/>
+      <c r="F211" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="G211" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="H211" s="53" t="s">
+        <v>123</v>
+      </c>
+      <c r="I211" s="11"/>
+      <c r="J211" s="11"/>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A212" s="55"/>
+      <c r="B212" s="29">
+        <v>2</v>
+      </c>
+      <c r="C212" s="29">
+        <v>20</v>
+      </c>
+      <c r="D212" s="42" t="s">
+        <v>205</v>
+      </c>
+      <c r="E212" s="43" t="s">
+        <v>206</v>
+      </c>
+      <c r="F212" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="G212" s="44" t="s">
+        <v>155</v>
+      </c>
+      <c r="H212" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="I212" s="13"/>
+      <c r="J212" s="13"/>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A213" s="55"/>
+      <c r="B213" s="29"/>
+      <c r="C213" s="29"/>
+      <c r="D213" s="42"/>
+      <c r="E213" s="41"/>
+      <c r="F213" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="G213" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="H213" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="I213" s="9"/>
+      <c r="J213" s="9"/>
+    </row>
+    <row r="214" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A214" s="55"/>
+      <c r="B214" s="29"/>
+      <c r="C214" s="29"/>
+      <c r="D214" s="42"/>
+      <c r="E214" s="41"/>
+      <c r="F214" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="G214" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="H214" s="45" t="s">
+        <v>189</v>
+      </c>
+      <c r="I214" s="9"/>
+      <c r="J214" s="9"/>
+    </row>
+    <row r="215" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A215" s="55"/>
+      <c r="B215" s="29"/>
+      <c r="C215" s="29"/>
+      <c r="D215" s="42"/>
+      <c r="E215" s="41"/>
+      <c r="F215" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="G215" s="45" t="s">
+        <v>203</v>
+      </c>
+      <c r="H215" s="45" t="s">
+        <v>204</v>
+      </c>
+      <c r="I215" s="9"/>
+      <c r="J215" s="9"/>
+    </row>
+    <row r="216" spans="1:10" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="55"/>
+      <c r="B216" s="29"/>
+      <c r="C216" s="29"/>
+      <c r="D216" s="42"/>
+      <c r="E216" s="41"/>
+      <c r="F216" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="G216" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="H216" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I216" s="9"/>
+      <c r="J216" s="9"/>
+    </row>
+    <row r="217" spans="1:10" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="55"/>
+      <c r="B217" s="29"/>
+      <c r="C217" s="29"/>
+      <c r="D217" s="42"/>
+      <c r="E217" s="41"/>
+      <c r="F217" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="G217" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H217" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I217" s="9"/>
+      <c r="J217" s="9"/>
+    </row>
+    <row r="218" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A218" s="55"/>
+      <c r="B218" s="29"/>
+      <c r="C218" s="29"/>
+      <c r="D218" s="42"/>
+      <c r="E218" s="41"/>
+      <c r="F218" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="G218" s="45" t="s">
+        <v>192</v>
+      </c>
+      <c r="H218" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="I218" s="9"/>
+      <c r="J218" s="9"/>
+    </row>
+    <row r="219" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A219" s="55"/>
+      <c r="B219" s="29"/>
+      <c r="C219" s="29"/>
+      <c r="D219" s="42"/>
+      <c r="E219" s="41"/>
+      <c r="F219" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="G219" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="H219" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="I219" s="9"/>
+      <c r="J219" s="9"/>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A220" s="55"/>
+      <c r="B220" s="30">
+        <v>2</v>
+      </c>
+      <c r="C220" s="30">
+        <v>21</v>
+      </c>
+      <c r="D220" s="47" t="s">
+        <v>207</v>
+      </c>
+      <c r="E220" s="48" t="s">
+        <v>210</v>
+      </c>
+      <c r="F220" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="G220" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="H220" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="I220" s="20"/>
+      <c r="J220" s="20"/>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A221" s="55"/>
+      <c r="B221" s="30"/>
+      <c r="C221" s="30"/>
+      <c r="D221" s="47"/>
+      <c r="E221" s="50"/>
+      <c r="F221" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="G221" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="H221" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="I221" s="11"/>
+      <c r="J221" s="11"/>
+    </row>
+    <row r="222" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A222" s="55"/>
+      <c r="B222" s="30"/>
+      <c r="C222" s="30"/>
+      <c r="D222" s="47"/>
+      <c r="E222" s="50"/>
+      <c r="F222" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="G222" s="51" t="s">
+        <v>187</v>
+      </c>
+      <c r="H222" s="51" t="s">
+        <v>189</v>
+      </c>
+      <c r="I222" s="11"/>
+      <c r="J222" s="11"/>
+    </row>
+    <row r="223" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A223" s="55"/>
+      <c r="B223" s="30"/>
+      <c r="C223" s="30"/>
+      <c r="D223" s="47"/>
+      <c r="E223" s="50"/>
+      <c r="F223" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="G223" s="51" t="s">
+        <v>208</v>
+      </c>
+      <c r="H223" s="51" t="s">
+        <v>209</v>
+      </c>
+      <c r="I223" s="11"/>
+      <c r="J223" s="11"/>
+    </row>
+    <row r="224" spans="1:10" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="55"/>
+      <c r="B224" s="30"/>
+      <c r="C224" s="30"/>
+      <c r="D224" s="47"/>
+      <c r="E224" s="50"/>
+      <c r="F224" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="G224" s="51" t="s">
+        <v>119</v>
+      </c>
+      <c r="H224" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I224" s="11"/>
+      <c r="J224" s="11"/>
+    </row>
+    <row r="225" spans="1:10" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="55"/>
+      <c r="B225" s="30"/>
+      <c r="C225" s="30"/>
+      <c r="D225" s="47"/>
+      <c r="E225" s="50"/>
+      <c r="F225" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="G225" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="H225" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I225" s="11"/>
+      <c r="J225" s="11"/>
+    </row>
+    <row r="226" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A226" s="55"/>
+      <c r="B226" s="30"/>
+      <c r="C226" s="30"/>
+      <c r="D226" s="47"/>
+      <c r="E226" s="50"/>
+      <c r="F226" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="G226" s="51" t="s">
+        <v>192</v>
+      </c>
+      <c r="H226" s="51" t="s">
+        <v>135</v>
+      </c>
+      <c r="I226" s="11"/>
+      <c r="J226" s="11"/>
+    </row>
+    <row r="227" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A227" s="56"/>
+      <c r="B227" s="30"/>
+      <c r="C227" s="30"/>
+      <c r="D227" s="47"/>
+      <c r="E227" s="50"/>
+      <c r="F227" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="G227" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="H227" s="53" t="s">
+        <v>123</v>
+      </c>
+      <c r="I227" s="11"/>
+      <c r="J227" s="11"/>
+    </row>
+    <row r="228" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="241" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="242" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="243" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7061,74 +8930,54 @@
     <row r="494" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="495" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="496" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A1:J1" xr:uid="{B0953F3B-78FC-43F3-9402-DE0C5199EBA3}"/>
-  <mergeCells count="89">
-    <mergeCell ref="B152:B158"/>
-    <mergeCell ref="C152:C158"/>
-    <mergeCell ref="D152:D158"/>
-    <mergeCell ref="E152:E158"/>
-    <mergeCell ref="B159:B165"/>
-    <mergeCell ref="C159:C165"/>
-    <mergeCell ref="D159:D165"/>
-    <mergeCell ref="E159:E165"/>
-    <mergeCell ref="B138:B144"/>
-    <mergeCell ref="C138:C144"/>
-    <mergeCell ref="D138:D144"/>
-    <mergeCell ref="E138:E144"/>
+  <mergeCells count="122">
+    <mergeCell ref="A81:A227"/>
+    <mergeCell ref="B212:B219"/>
+    <mergeCell ref="C212:C219"/>
+    <mergeCell ref="D212:D219"/>
+    <mergeCell ref="E212:E219"/>
+    <mergeCell ref="B220:B227"/>
+    <mergeCell ref="C220:C227"/>
+    <mergeCell ref="D220:D227"/>
+    <mergeCell ref="E220:E227"/>
+    <mergeCell ref="B196:B203"/>
+    <mergeCell ref="C196:C203"/>
+    <mergeCell ref="D196:D203"/>
+    <mergeCell ref="E196:E203"/>
+    <mergeCell ref="B204:B211"/>
+    <mergeCell ref="C204:C211"/>
+    <mergeCell ref="D204:D211"/>
+    <mergeCell ref="E204:E211"/>
+    <mergeCell ref="B180:B187"/>
+    <mergeCell ref="C180:C187"/>
+    <mergeCell ref="D180:D187"/>
+    <mergeCell ref="E180:E187"/>
+    <mergeCell ref="B188:B195"/>
+    <mergeCell ref="C188:C195"/>
+    <mergeCell ref="D188:D195"/>
+    <mergeCell ref="E188:E195"/>
+    <mergeCell ref="B118:B124"/>
+    <mergeCell ref="C118:C124"/>
+    <mergeCell ref="D118:D124"/>
+    <mergeCell ref="E118:E124"/>
+    <mergeCell ref="B173:B179"/>
+    <mergeCell ref="C173:C179"/>
+    <mergeCell ref="D173:D179"/>
+    <mergeCell ref="E173:E179"/>
     <mergeCell ref="B145:B151"/>
     <mergeCell ref="C145:C151"/>
     <mergeCell ref="D145:D151"/>
     <mergeCell ref="E145:E151"/>
-    <mergeCell ref="B91:B96"/>
-    <mergeCell ref="C91:C96"/>
-    <mergeCell ref="D91:D96"/>
-    <mergeCell ref="E91:E96"/>
-    <mergeCell ref="B131:B137"/>
-    <mergeCell ref="C131:C137"/>
-    <mergeCell ref="D131:D137"/>
-    <mergeCell ref="E131:E137"/>
-    <mergeCell ref="B63:B71"/>
-    <mergeCell ref="C63:C71"/>
-    <mergeCell ref="D63:D71"/>
-    <mergeCell ref="E63:E71"/>
-    <mergeCell ref="B72:B80"/>
-    <mergeCell ref="C72:C80"/>
-    <mergeCell ref="D72:D80"/>
-    <mergeCell ref="E72:E80"/>
-    <mergeCell ref="B46:B54"/>
-    <mergeCell ref="C46:C54"/>
-    <mergeCell ref="D46:D54"/>
-    <mergeCell ref="E46:E54"/>
-    <mergeCell ref="B55:B62"/>
-    <mergeCell ref="C55:C62"/>
-    <mergeCell ref="D55:D62"/>
-    <mergeCell ref="E55:E62"/>
-    <mergeCell ref="B10:B18"/>
-    <mergeCell ref="E28:E36"/>
-    <mergeCell ref="B37:B45"/>
-    <mergeCell ref="C37:C45"/>
-    <mergeCell ref="D37:D45"/>
-    <mergeCell ref="E37:E45"/>
-    <mergeCell ref="B28:B36"/>
-    <mergeCell ref="C28:C36"/>
-    <mergeCell ref="D28:D36"/>
-    <mergeCell ref="B111:B117"/>
-    <mergeCell ref="C111:C117"/>
-    <mergeCell ref="D111:D117"/>
-    <mergeCell ref="E111:E117"/>
-    <mergeCell ref="B81:B84"/>
-    <mergeCell ref="C81:C84"/>
-    <mergeCell ref="D81:D84"/>
-    <mergeCell ref="E81:E84"/>
-    <mergeCell ref="B97:B103"/>
-    <mergeCell ref="C97:C103"/>
-    <mergeCell ref="D97:D103"/>
-    <mergeCell ref="E97:E103"/>
-    <mergeCell ref="B85:B90"/>
-    <mergeCell ref="C85:C90"/>
-    <mergeCell ref="D85:D90"/>
-    <mergeCell ref="E85:E90"/>
     <mergeCell ref="A2:A80"/>
     <mergeCell ref="B104:B110"/>
     <mergeCell ref="C104:C110"/>
@@ -7145,14 +8994,75 @@
     <mergeCell ref="E10:E18"/>
     <mergeCell ref="D10:D18"/>
     <mergeCell ref="C10:C18"/>
+    <mergeCell ref="B81:B84"/>
+    <mergeCell ref="C81:C84"/>
+    <mergeCell ref="D81:D84"/>
+    <mergeCell ref="E81:E84"/>
+    <mergeCell ref="B97:B103"/>
+    <mergeCell ref="C97:C103"/>
+    <mergeCell ref="D97:D103"/>
+    <mergeCell ref="E97:E103"/>
+    <mergeCell ref="B85:B90"/>
+    <mergeCell ref="C85:C90"/>
+    <mergeCell ref="D85:D90"/>
+    <mergeCell ref="E85:E90"/>
+    <mergeCell ref="B10:B18"/>
+    <mergeCell ref="E28:E36"/>
+    <mergeCell ref="B37:B45"/>
+    <mergeCell ref="C37:C45"/>
+    <mergeCell ref="D37:D45"/>
+    <mergeCell ref="E37:E45"/>
+    <mergeCell ref="B28:B36"/>
+    <mergeCell ref="C28:C36"/>
+    <mergeCell ref="D28:D36"/>
+    <mergeCell ref="B46:B54"/>
+    <mergeCell ref="C46:C54"/>
+    <mergeCell ref="D46:D54"/>
+    <mergeCell ref="E46:E54"/>
+    <mergeCell ref="B55:B62"/>
+    <mergeCell ref="C55:C62"/>
+    <mergeCell ref="D55:D62"/>
+    <mergeCell ref="E55:E62"/>
+    <mergeCell ref="B63:B71"/>
+    <mergeCell ref="C63:C71"/>
+    <mergeCell ref="D63:D71"/>
+    <mergeCell ref="E63:E71"/>
+    <mergeCell ref="B72:B80"/>
+    <mergeCell ref="C72:C80"/>
+    <mergeCell ref="D72:D80"/>
+    <mergeCell ref="E72:E80"/>
+    <mergeCell ref="B91:B96"/>
+    <mergeCell ref="C91:C96"/>
+    <mergeCell ref="D91:D96"/>
+    <mergeCell ref="E91:E96"/>
+    <mergeCell ref="B131:B137"/>
+    <mergeCell ref="C131:C137"/>
+    <mergeCell ref="D131:D137"/>
+    <mergeCell ref="E131:E137"/>
+    <mergeCell ref="B111:B117"/>
+    <mergeCell ref="C111:C117"/>
+    <mergeCell ref="D111:D117"/>
+    <mergeCell ref="E111:E117"/>
     <mergeCell ref="B125:B130"/>
     <mergeCell ref="C125:C130"/>
     <mergeCell ref="D125:D130"/>
     <mergeCell ref="E125:E130"/>
-    <mergeCell ref="B118:B124"/>
-    <mergeCell ref="C118:C124"/>
-    <mergeCell ref="D118:D124"/>
-    <mergeCell ref="E118:E124"/>
+    <mergeCell ref="B138:B144"/>
+    <mergeCell ref="C138:C144"/>
+    <mergeCell ref="D138:D144"/>
+    <mergeCell ref="E138:E144"/>
+    <mergeCell ref="B152:B158"/>
+    <mergeCell ref="C152:C158"/>
+    <mergeCell ref="D152:D158"/>
+    <mergeCell ref="E152:E158"/>
+    <mergeCell ref="B159:B165"/>
+    <mergeCell ref="C159:C165"/>
+    <mergeCell ref="D159:D165"/>
+    <mergeCell ref="E159:E165"/>
+    <mergeCell ref="B166:B172"/>
+    <mergeCell ref="C166:C172"/>
+    <mergeCell ref="D166:D172"/>
+    <mergeCell ref="E166:E172"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7178,13 +9088,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
@@ -7340,13 +9250,13 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
@@ -7434,13 +9344,13 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
@@ -7528,13 +9438,13 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="37" t="s">
+      <c r="A23" s="40" t="s">
         <v>159</v>
       </c>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">

--- a/testy/scenariusze_testowe.xlsx
+++ b/testy/scenariusze_testowe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Studia WSB - Tester oprogramowania\App_zaliczenie\App_zaliczenie\testy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C491283-E713-40CD-96D6-8CB8AEA82DF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6148657E-CA3A-4250-93FB-6E26874081AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="267">
   <si>
     <t>Scenariusze testowe:</t>
   </si>
@@ -663,6 +663,174 @@
   </si>
   <si>
     <t>Użytkownikowi po nie wybraniu żadnej wartości z listy rozwijanej w polu wybierz miesiąc,wpisaniu niepoprawnej  wartości (ciąg znaków) "rok 2024" w polu "Wpisz rok" oraz kliknięciu w przycisk "Pokaż z miesiąca" powinien zostać wyświetlony kolejno messagebox o treści: "Wybrano niepoprawny rok!" oraz "Wybrano błędny miesiąc."</t>
+  </si>
+  <si>
+    <t>Edycja recordów z bazy danych aplikacji</t>
+  </si>
+  <si>
+    <t>Sprawdzenie poprawności funkcjonalności edycji wydatków z bazy danych aplikacji (nazwy, kwoty, daty zakupu i kategorii)</t>
+  </si>
+  <si>
+    <t>Kliknięcie przycisku "Edytuj wydatki"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uruchamia się okno aplikacji o nazwie "Edytuj wydatki" </t>
+  </si>
+  <si>
+    <t>Użytkownik powinien mieć możliwość zmiany nazwy wydatku na dowolny ciąg znaków (alfanumeryczny, numeryczny lub literowy)</t>
+  </si>
+  <si>
+    <t>Wprowadzenie w pole entry o nazwie "Wybierz ID wydatku do edycji:" wartości ID równej "1"</t>
+  </si>
+  <si>
+    <t>W polu entry pojawia się wpisana wartość ID "1"</t>
+  </si>
+  <si>
+    <t>Kliknięcie przycisku "Wybierz "</t>
+  </si>
+  <si>
+    <t>W oknie pojawiają się dane wybranego ID "1 Lidl 35.5 2023-12-15 {wydatki podstawowe}" oraz kolejno pola z danymi do edycji (patrz screen poniżej)</t>
+  </si>
+  <si>
+    <t>Test poprawnego wyboru identyfikatora paragonu do edycji</t>
+  </si>
+  <si>
+    <t>Użytkownikowi po wpisaniu poprawnego identyfikatora wydatku (istniejącego w bazie danych) powinny zostać wyświetlone dane wydatku. Użytkownik powinien mieć możliwość edycji danych.</t>
+  </si>
+  <si>
+    <t>W oknie pojawiają się poprawne dane wybranego ID "1 Lidl 35.5 2023-12-15 {wydatki podstawowe}" oraz kolejno pola z danymi do edycji (patrz screen poniżej)</t>
+  </si>
+  <si>
+    <t>Kliknięcie przycisku "Powrót "</t>
+  </si>
+  <si>
+    <t>Test  błędnego wyboru identyfikatora paragonu do edycji</t>
+  </si>
+  <si>
+    <t>Użytkownikowi po wpisaniu nieistniejącego w bazie danych identyfikatora wydatku powinien zostać wyświetlony messagebox o treści: "Brak danych dla podanego ID!"</t>
+  </si>
+  <si>
+    <t>Wprowadzenie w pole entry o nazwie "Wybierz ID wydatku do edycji:" wartości ID równej "25"</t>
+  </si>
+  <si>
+    <t>W polu entry pojawia się wpisana wartość ID "25"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pojawienie się okienka o nazwie "Informacja" z komunikatem jak na poniższym screenie </t>
+  </si>
+  <si>
+    <t>Zamknięcie okienka dialogowego. Okno aplikacji o nazwie "Edytuj wydatki" zostaje automatycznie zamknięte. Otwarte pozostaje główne menu aplikacji.</t>
+  </si>
+  <si>
+    <t>Natępuje zamknięcie okna aplikacji o nazwie "Edytuj wydatki". Otwarte pozostaje główne menu aplikacji.</t>
+  </si>
+  <si>
+    <t>Test  wprowadzenia nieprawidłowej wartości jako identyfikatora paragonu do edycji</t>
+  </si>
+  <si>
+    <t>Użytkownikowi po wpisaniu nieprawidłowego identyfikatora wydatku (ciąg literowy) powinien zostać wyświetlony messagebox o treści: "Nieprawidłowa wartość!"</t>
+  </si>
+  <si>
+    <t>Wprowadzenie w pole entry o nazwie "Wybierz ID wydatku do edycji:" wartości ID "qwerty"</t>
+  </si>
+  <si>
+    <t>W polu entry pojawia się wpisana wartość ID "qwerty"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pojawienie się okienka o nazwie "Błąd" z komunikatem jak na poniższym screenie </t>
+  </si>
+  <si>
+    <t>Brak wartości w polu entry identyfikatora paragonu do edycji</t>
+  </si>
+  <si>
+    <t>Użytkownikowi po zostawieniu pustego pola entry identyfikatora wydatku powinien zostać wyświetlony messagebox o treści: "Nieprawidłowa wartość!"</t>
+  </si>
+  <si>
+    <t>Pole entry o nazwie "Wybierz ID wydatku do edycji:" pozostawiamy puste</t>
+  </si>
+  <si>
+    <t>W polu entry o nazwie "Wybierz ID wydatku do edycji:" nie wyświetla się żadna wartość (pole pozostaje puste)</t>
+  </si>
+  <si>
+    <t>Test edycji paragonu z poprawnie wpisaną nową nazwą wydatku</t>
+  </si>
+  <si>
+    <t>Kliknięcie przycisku "Zatwierdź "</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pojawienie się okienka o nazwie "Zaktualizowano dane" z informacją jak na poniższym screenie </t>
+  </si>
+  <si>
+    <t>Zamknięcie okienka dialogowego i okna aplikacji o nazwie "Edytuj wydatki". Otwarte pozostaje główne menu aplikacji.</t>
+  </si>
+  <si>
+    <t>Krok 9.</t>
+  </si>
+  <si>
+    <t>W dolnej sekcji okna o nazwie "Wydatki" pojawia się tabela z danymi z bazy danych(patrz wydatek z ID nr 1)</t>
+  </si>
+  <si>
+    <t>Krok 10.</t>
+  </si>
+  <si>
+    <t>Porównanie nazwy podanej w kroku nr 5 z nazwą wyświetlaną w tabeli przy użyciu funkcjonalności "Pokaż wydatki" --&gt; "Pokaż wszystkie"</t>
+  </si>
+  <si>
+    <t>Dane wpisane w kroku nr 5 pokrywają się z danymi wyświetlonymi z bazy danych</t>
+  </si>
+  <si>
+    <t>Krok 11.</t>
+  </si>
+  <si>
+    <t>Natępuje zamknięcie okna aplikacji o nazwie "Pokaż wydatki". Otwarte pozostaje główne menu aplikacji.</t>
+  </si>
+  <si>
+    <t>Test edycji paragonu z poprawnie wpisaną nową kwotą</t>
+  </si>
+  <si>
+    <t>Użytkownik powinien mieć możliwość zmiany kwoty wydatku na dowolną różną od zera dodatnią wartość liczbową</t>
+  </si>
+  <si>
+    <t>Skasowanie wyświetlanej informacji "35.5" w polu o nazwie "Zmień kwotę:"</t>
+  </si>
+  <si>
+    <t>Skasowanie wyświetlanej informacji "Lidl" w polu o nazwie "Zmień nazwe:"</t>
+  </si>
+  <si>
+    <t>W polu o nazwie "Zmień kwotę:" nie wyświetla się żadna wartość (pole pozostaje puste)</t>
+  </si>
+  <si>
+    <t>W polu o nazwie "Zmień nazwe:" nie wyświetla się żadna wartość (pole pozostaje puste)</t>
+  </si>
+  <si>
+    <t>W polu entry o nazwie "Zmień nazwe:" wyświetla się nowa wartość "Biedronka, Solna 14"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wpisanie nowej nazwy - "Biedronka, Solna 14" w polu o nazwie "Zmień nazwe:" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wpisanie nowej kwoty - "25,6" w polu o nazwie "Zmień kwotę:" </t>
+  </si>
+  <si>
+    <t>W polu entry o nazwie "Zmień kwotę:" wyświetla się nowa wartość "25,6"</t>
+  </si>
+  <si>
+    <t>Krok 12.</t>
+  </si>
+  <si>
+    <t>Potwierdzenie zmiany znaku przecinka na znak kropka w wartości liczbowej</t>
+  </si>
+  <si>
+    <t>Wyświetlona w okienku dialogowym wartość nowej kwoty to "25.6"</t>
+  </si>
+  <si>
+    <t>Porównanie kwoty podanej w kroku nr 5 z nazwą wyświetlaną w tabeli przy użyciu funkcjonalności "Pokaż wydatki" --&gt; "Pokaż wszystkie"</t>
+  </si>
+  <si>
+    <t>Test edycji paragonu z poprawnie wybraną nową datą</t>
+  </si>
+  <si>
+    <t>Użytkownik powinien mieć możliwość zmiany daty dokonania wydatku poprzez wybranie nowej z widgetu wyboru daty</t>
   </si>
 </sst>
 </file>
@@ -672,12 +840,20 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -708,8 +884,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -746,8 +929,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -866,11 +1055,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -884,16 +1086,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -912,7 +1114,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -930,43 +1132,67 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -975,59 +1201,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1035,7 +1216,67 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2596,6 +2837,548 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1038226</xdr:colOff>
+      <xdr:row>250</xdr:row>
+      <xdr:rowOff>450531</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4733926</xdr:colOff>
+      <xdr:row>250</xdr:row>
+      <xdr:rowOff>1876672</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Obraz 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BC64442-AF04-B34D-581E-6BDB8A3E2F12}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9925051" y="139448856"/>
+          <a:ext cx="3695700" cy="1426141"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1038226</xdr:colOff>
+      <xdr:row>230</xdr:row>
+      <xdr:rowOff>450531</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3695700" cy="1426141"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Obraz 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04115A95-EE1A-47B6-9A5B-0C17CE9A3467}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9925051" y="140972856"/>
+          <a:ext cx="3695700" cy="1426141"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1828800</xdr:colOff>
+      <xdr:row>235</xdr:row>
+      <xdr:rowOff>279565</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4000500</xdr:colOff>
+      <xdr:row>235</xdr:row>
+      <xdr:rowOff>1571816</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="Obraz 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78F8643B-87B5-3A69-9EBA-2FAC6EC1A710}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10715625" y="142392565"/>
+          <a:ext cx="2171700" cy="1292251"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1962150</xdr:colOff>
+      <xdr:row>240</xdr:row>
+      <xdr:rowOff>226774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3819525</xdr:colOff>
+      <xdr:row>240</xdr:row>
+      <xdr:rowOff>1514670</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="Obraz 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71DBE2CB-0509-E6A0-59BB-EDBA9DEE1C57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10848975" y="145521124"/>
+          <a:ext cx="1857375" cy="1287896"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1962150</xdr:colOff>
+      <xdr:row>245</xdr:row>
+      <xdr:rowOff>226774</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1857375" cy="1287896"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="Obraz 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7585F3C7-5D1C-4B48-B0F3-F799C590498B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10848975" y="145521124"/>
+          <a:ext cx="1857375" cy="1287896"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1952625</xdr:colOff>
+      <xdr:row>253</xdr:row>
+      <xdr:rowOff>301286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3714750</xdr:colOff>
+      <xdr:row>253</xdr:row>
+      <xdr:rowOff>1762344</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="Obraz 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60CCFE3B-17DB-553B-EC85-D70EB36833CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10839450" y="154682486"/>
+          <a:ext cx="1762125" cy="1461058"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>123826</xdr:colOff>
+      <xdr:row>256</xdr:row>
+      <xdr:rowOff>426809</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>5505450</xdr:colOff>
+      <xdr:row>256</xdr:row>
+      <xdr:rowOff>1009759</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="Obraz 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6E3B36E-615C-1C3D-12CD-0CBFA6FE09B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9010651" y="157208309"/>
+          <a:ext cx="5381624" cy="582950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1038226</xdr:colOff>
+      <xdr:row>262</xdr:row>
+      <xdr:rowOff>450531</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3695700" cy="1426141"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="Obraz 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FCCBB0A-E55C-42EB-BDD7-1F38E5402012}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9925051" y="151726581"/>
+          <a:ext cx="3695700" cy="1426141"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2019300</xdr:colOff>
+      <xdr:row>265</xdr:row>
+      <xdr:rowOff>238124</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3838779</xdr:colOff>
+      <xdr:row>265</xdr:row>
+      <xdr:rowOff>1752817</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="Obraz 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66BB8D44-F12B-22FB-528F-A46B385FC7EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10906125" y="163172774"/>
+          <a:ext cx="1819479" cy="1514693"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>269</xdr:row>
+      <xdr:rowOff>447674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>5620519</xdr:colOff>
+      <xdr:row>269</xdr:row>
+      <xdr:rowOff>1028805</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="Obraz 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F599D02-8530-2A5C-1F8E-C4C1DC5BFC0D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9001125" y="166182674"/>
+          <a:ext cx="5506219" cy="581131"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1038226</xdr:colOff>
+      <xdr:row>275</xdr:row>
+      <xdr:rowOff>450531</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3695700" cy="1426141"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="Obraz 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35794A8A-E7C5-4FF6-9088-8D09A6E0ACE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9925051" y="160470531"/>
+          <a:ext cx="3695700" cy="1426141"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2019300</xdr:colOff>
+      <xdr:row>278</xdr:row>
+      <xdr:rowOff>238124</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1819479" cy="1514693"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="Obraz 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21B8E0B8-ADD0-4F65-B89B-8282B9B61655}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10906125" y="163172774"/>
+          <a:ext cx="1819479" cy="1514693"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>282</xdr:row>
+      <xdr:rowOff>447674</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5506219" cy="581131"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="Obraz 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3608EFC3-2EDD-4706-B96F-9D3B9FD287F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9001125" y="166182674"/>
+          <a:ext cx="5506219" cy="581131"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2865,7 +3648,7 @@
   <dimension ref="B1:F315"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2885,10 +3668,10 @@
       <c r="C1" s="3"/>
     </row>
     <row r="2" spans="2:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="28"/>
+      <c r="C2" s="30"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -2944,12 +3727,22 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="2:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
+    <row r="6" spans="2:6" s="1" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="5">
+        <v>3</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="7" spans="2:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
@@ -4299,11 +5092,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0953F3B-78FC-43F3-9402-DE0C5199EBA3}">
-  <dimension ref="A1:J504"/>
+  <dimension ref="A1:J529"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A218" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E220" sqref="E220:E227"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A274" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G278" sqref="G278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4354,17 +5147,17 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
-      <c r="B2" s="38">
+      <c r="A2" s="40"/>
+      <c r="B2" s="34">
         <v>1</v>
       </c>
-      <c r="C2" s="38">
+      <c r="C2" s="34">
         <v>1</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="34" t="s">
         <v>40</v>
       </c>
       <c r="F2" s="13" t="s">
@@ -4380,11 +5173,11 @@
       <c r="J2" s="13"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="37"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
+      <c r="A3" s="41"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
       <c r="F3" s="9" t="s">
         <v>19</v>
       </c>
@@ -4398,11 +5191,11 @@
       <c r="J3" s="9"/>
     </row>
     <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="37"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
       <c r="F4" s="9" t="s">
         <v>23</v>
       </c>
@@ -4416,11 +5209,11 @@
       <c r="J4" s="9"/>
     </row>
     <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="37"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
       <c r="F5" s="9" t="s">
         <v>26</v>
       </c>
@@ -4434,11 +5227,11 @@
       <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
       <c r="F6" s="9" t="s">
         <v>29</v>
       </c>
@@ -4452,11 +5245,11 @@
       <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="37"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
+      <c r="A7" s="41"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
       <c r="F7" s="9" t="s">
         <v>32</v>
       </c>
@@ -4470,11 +5263,11 @@
       <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:10" ht="144" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="37"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
+      <c r="A8" s="41"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
       <c r="F8" s="9" t="s">
         <v>35</v>
       </c>
@@ -4488,11 +5281,11 @@
       <c r="J8" s="9"/>
     </row>
     <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="37"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
+      <c r="A9" s="41"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
       <c r="F9" s="9" t="s">
         <v>37</v>
       </c>
@@ -4506,17 +5299,17 @@
       <c r="J9" s="9"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="37"/>
-      <c r="B10" s="30">
+      <c r="A10" s="41"/>
+      <c r="B10" s="31">
         <v>1</v>
       </c>
-      <c r="C10" s="30">
+      <c r="C10" s="31">
         <v>2</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="E10" s="31" t="s">
         <v>68</v>
       </c>
       <c r="F10" s="11" t="s">
@@ -4532,11 +5325,11 @@
       <c r="J10" s="11"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="37"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
+      <c r="A11" s="41"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
       <c r="F11" s="11" t="s">
         <v>19</v>
       </c>
@@ -4550,11 +5343,11 @@
       <c r="J11" s="11"/>
     </row>
     <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="37"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
       <c r="F12" s="11" t="s">
         <v>23</v>
       </c>
@@ -4568,11 +5361,11 @@
       <c r="J12" s="11"/>
     </row>
     <row r="13" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="37"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
+      <c r="A13" s="41"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
       <c r="F13" s="11" t="s">
         <v>26</v>
       </c>
@@ -4586,11 +5379,11 @@
       <c r="J13" s="11"/>
     </row>
     <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="37"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
+      <c r="A14" s="41"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
       <c r="F14" s="11" t="s">
         <v>29</v>
       </c>
@@ -4604,11 +5397,11 @@
       <c r="J14" s="11"/>
     </row>
     <row r="15" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="37"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
+      <c r="A15" s="41"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
       <c r="F15" s="11" t="s">
         <v>32</v>
       </c>
@@ -4622,11 +5415,11 @@
       <c r="J15" s="11"/>
     </row>
     <row r="16" spans="1:10" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="37"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
+      <c r="A16" s="41"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
       <c r="F16" s="11" t="s">
         <v>35</v>
       </c>
@@ -4640,11 +5433,11 @@
       <c r="J16" s="11"/>
     </row>
     <row r="17" spans="1:10" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="37"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
+      <c r="A17" s="41"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
       <c r="F17" s="11" t="s">
         <v>37</v>
       </c>
@@ -4658,11 +5451,11 @@
       <c r="J17" s="11"/>
     </row>
     <row r="18" spans="1:10" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
+      <c r="A18" s="41"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
       <c r="F18" s="11" t="s">
         <v>47</v>
       </c>
@@ -4676,17 +5469,17 @@
       <c r="J18" s="11"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="37"/>
-      <c r="B19" s="29">
+      <c r="A19" s="41"/>
+      <c r="B19" s="32">
         <v>1</v>
       </c>
-      <c r="C19" s="29">
+      <c r="C19" s="32">
         <v>3</v>
       </c>
-      <c r="D19" s="29" t="s">
+      <c r="D19" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="E19" s="29" t="s">
+      <c r="E19" s="32" t="s">
         <v>69</v>
       </c>
       <c r="F19" s="9" t="s">
@@ -4702,11 +5495,11 @@
       <c r="J19" s="9"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="37"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
+      <c r="A20" s="41"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
       <c r="F20" s="9" t="s">
         <v>19</v>
       </c>
@@ -4720,11 +5513,11 @@
       <c r="J20" s="9"/>
     </row>
     <row r="21" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="37"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
+      <c r="A21" s="41"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
       <c r="F21" s="9" t="s">
         <v>23</v>
       </c>
@@ -4738,11 +5531,11 @@
       <c r="J21" s="9"/>
     </row>
     <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="37"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
+      <c r="A22" s="41"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
       <c r="F22" s="9" t="s">
         <v>26</v>
       </c>
@@ -4756,11 +5549,11 @@
       <c r="J22" s="9"/>
     </row>
     <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="37"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
+      <c r="A23" s="41"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
       <c r="F23" s="9" t="s">
         <v>29</v>
       </c>
@@ -4774,11 +5567,11 @@
       <c r="J23" s="9"/>
     </row>
     <row r="24" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="37"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
+      <c r="A24" s="41"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
       <c r="F24" s="9" t="s">
         <v>32</v>
       </c>
@@ -4792,11 +5585,11 @@
       <c r="J24" s="9"/>
     </row>
     <row r="25" spans="1:10" ht="129" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="37"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
+      <c r="A25" s="41"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
       <c r="F25" s="9" t="s">
         <v>35</v>
       </c>
@@ -4810,11 +5603,11 @@
       <c r="J25" s="9"/>
     </row>
     <row r="26" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="37"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
+      <c r="A26" s="41"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
       <c r="F26" s="9" t="s">
         <v>37</v>
       </c>
@@ -4828,11 +5621,11 @@
       <c r="J26" s="9"/>
     </row>
     <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="37"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
+      <c r="A27" s="41"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
       <c r="F27" s="9" t="s">
         <v>47</v>
       </c>
@@ -4846,17 +5639,17 @@
       <c r="J27" s="9"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="37"/>
-      <c r="B28" s="30">
+      <c r="A28" s="41"/>
+      <c r="B28" s="31">
         <v>1</v>
       </c>
-      <c r="C28" s="30">
+      <c r="C28" s="31">
         <v>4</v>
       </c>
-      <c r="D28" s="30" t="s">
+      <c r="D28" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="E28" s="30" t="s">
+      <c r="E28" s="31" t="s">
         <v>69</v>
       </c>
       <c r="F28" s="11" t="s">
@@ -4872,11 +5665,11 @@
       <c r="J28" s="11"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="37"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
+      <c r="A29" s="41"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
       <c r="F29" s="11" t="s">
         <v>19</v>
       </c>
@@ -4890,11 +5683,11 @@
       <c r="J29" s="11"/>
     </row>
     <row r="30" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="37"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
+      <c r="A30" s="41"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
       <c r="F30" s="11" t="s">
         <v>23</v>
       </c>
@@ -4908,11 +5701,11 @@
       <c r="J30" s="11"/>
     </row>
     <row r="31" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="37"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
+      <c r="A31" s="41"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
       <c r="F31" s="11" t="s">
         <v>26</v>
       </c>
@@ -4926,11 +5719,11 @@
       <c r="J31" s="11"/>
     </row>
     <row r="32" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="37"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
+      <c r="A32" s="41"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
       <c r="F32" s="11" t="s">
         <v>29</v>
       </c>
@@ -4944,11 +5737,11 @@
       <c r="J32" s="11"/>
     </row>
     <row r="33" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A33" s="37"/>
-      <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
+      <c r="A33" s="41"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
       <c r="F33" s="11" t="s">
         <v>32</v>
       </c>
@@ -4962,11 +5755,11 @@
       <c r="J33" s="11"/>
     </row>
     <row r="34" spans="1:10" ht="131.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="37"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
+      <c r="A34" s="41"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
       <c r="F34" s="11" t="s">
         <v>35</v>
       </c>
@@ -4980,11 +5773,11 @@
       <c r="J34" s="11"/>
     </row>
     <row r="35" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="37"/>
-      <c r="B35" s="30"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
+      <c r="A35" s="41"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
       <c r="F35" s="11" t="s">
         <v>37</v>
       </c>
@@ -4998,11 +5791,11 @@
       <c r="J35" s="11"/>
     </row>
     <row r="36" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="37"/>
-      <c r="B36" s="30"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
+      <c r="A36" s="41"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
       <c r="F36" s="11" t="s">
         <v>47</v>
       </c>
@@ -5016,17 +5809,17 @@
       <c r="J36" s="11"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="37"/>
-      <c r="B37" s="29">
+      <c r="A37" s="41"/>
+      <c r="B37" s="32">
         <v>1</v>
       </c>
-      <c r="C37" s="29">
+      <c r="C37" s="32">
         <v>5</v>
       </c>
-      <c r="D37" s="29" t="s">
+      <c r="D37" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="E37" s="29" t="s">
+      <c r="E37" s="32" t="s">
         <v>66</v>
       </c>
       <c r="F37" s="9" t="s">
@@ -5042,11 +5835,11 @@
       <c r="J37" s="9"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="37"/>
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
+      <c r="A38" s="41"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
       <c r="F38" s="9" t="s">
         <v>19</v>
       </c>
@@ -5060,11 +5853,11 @@
       <c r="J38" s="9"/>
     </row>
     <row r="39" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="37"/>
-      <c r="B39" s="29"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
+      <c r="A39" s="41"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
       <c r="F39" s="9" t="s">
         <v>23</v>
       </c>
@@ -5078,11 +5871,11 @@
       <c r="J39" s="9"/>
     </row>
     <row r="40" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="37"/>
-      <c r="B40" s="29"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="29"/>
+      <c r="A40" s="41"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
       <c r="F40" s="9" t="s">
         <v>26</v>
       </c>
@@ -5096,11 +5889,11 @@
       <c r="J40" s="9"/>
     </row>
     <row r="41" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="37"/>
-      <c r="B41" s="29"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
+      <c r="A41" s="41"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
       <c r="F41" s="9" t="s">
         <v>29</v>
       </c>
@@ -5114,11 +5907,11 @@
       <c r="J41" s="9"/>
     </row>
     <row r="42" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A42" s="37"/>
-      <c r="B42" s="29"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="29"/>
+      <c r="A42" s="41"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
       <c r="F42" s="9" t="s">
         <v>32</v>
       </c>
@@ -5132,11 +5925,11 @@
       <c r="J42" s="9"/>
     </row>
     <row r="43" spans="1:10" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="37"/>
-      <c r="B43" s="29"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
+      <c r="A43" s="41"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
       <c r="F43" s="9" t="s">
         <v>35</v>
       </c>
@@ -5150,11 +5943,11 @@
       <c r="J43" s="9"/>
     </row>
     <row r="44" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="37"/>
-      <c r="B44" s="29"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="29"/>
+      <c r="A44" s="41"/>
+      <c r="B44" s="32"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
       <c r="F44" s="9" t="s">
         <v>37</v>
       </c>
@@ -5168,11 +5961,11 @@
       <c r="J44" s="9"/>
     </row>
     <row r="45" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="37"/>
-      <c r="B45" s="29"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="29"/>
+      <c r="A45" s="41"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="32"/>
       <c r="F45" s="9" t="s">
         <v>47</v>
       </c>
@@ -5186,17 +5979,17 @@
       <c r="J45" s="9"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="37"/>
-      <c r="B46" s="30">
+      <c r="A46" s="41"/>
+      <c r="B46" s="31">
         <v>1</v>
       </c>
-      <c r="C46" s="30">
+      <c r="C46" s="31">
         <v>6</v>
       </c>
-      <c r="D46" s="30" t="s">
+      <c r="D46" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="E46" s="30" t="s">
+      <c r="E46" s="31" t="s">
         <v>79</v>
       </c>
       <c r="F46" s="11" t="s">
@@ -5212,11 +6005,11 @@
       <c r="J46" s="11"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="37"/>
-      <c r="B47" s="30"/>
-      <c r="C47" s="30"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="30"/>
+      <c r="A47" s="41"/>
+      <c r="B47" s="31"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
       <c r="F47" s="11" t="s">
         <v>19</v>
       </c>
@@ -5230,11 +6023,11 @@
       <c r="J47" s="11"/>
     </row>
     <row r="48" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A48" s="37"/>
-      <c r="B48" s="30"/>
-      <c r="C48" s="30"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="30"/>
+      <c r="A48" s="41"/>
+      <c r="B48" s="31"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="31"/>
       <c r="F48" s="11" t="s">
         <v>23</v>
       </c>
@@ -5248,11 +6041,11 @@
       <c r="J48" s="11"/>
     </row>
     <row r="49" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A49" s="37"/>
-      <c r="B49" s="30"/>
-      <c r="C49" s="30"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="30"/>
+      <c r="A49" s="41"/>
+      <c r="B49" s="31"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="31"/>
       <c r="F49" s="11" t="s">
         <v>26</v>
       </c>
@@ -5266,11 +6059,11 @@
       <c r="J49" s="11"/>
     </row>
     <row r="50" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="37"/>
-      <c r="B50" s="30"/>
-      <c r="C50" s="30"/>
-      <c r="D50" s="30"/>
-      <c r="E50" s="30"/>
+      <c r="A50" s="41"/>
+      <c r="B50" s="31"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="31"/>
       <c r="F50" s="11" t="s">
         <v>29</v>
       </c>
@@ -5284,11 +6077,11 @@
       <c r="J50" s="11"/>
     </row>
     <row r="51" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A51" s="37"/>
-      <c r="B51" s="30"/>
-      <c r="C51" s="30"/>
-      <c r="D51" s="30"/>
-      <c r="E51" s="30"/>
+      <c r="A51" s="41"/>
+      <c r="B51" s="31"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
       <c r="F51" s="11" t="s">
         <v>32</v>
       </c>
@@ -5302,11 +6095,11 @@
       <c r="J51" s="11"/>
     </row>
     <row r="52" spans="1:10" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="37"/>
-      <c r="B52" s="30"/>
-      <c r="C52" s="30"/>
-      <c r="D52" s="30"/>
-      <c r="E52" s="30"/>
+      <c r="A52" s="41"/>
+      <c r="B52" s="31"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
       <c r="F52" s="11" t="s">
         <v>35</v>
       </c>
@@ -5320,11 +6113,11 @@
       <c r="J52" s="11"/>
     </row>
     <row r="53" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="37"/>
-      <c r="B53" s="30"/>
-      <c r="C53" s="30"/>
-      <c r="D53" s="30"/>
-      <c r="E53" s="30"/>
+      <c r="A53" s="41"/>
+      <c r="B53" s="31"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="31"/>
       <c r="F53" s="11" t="s">
         <v>37</v>
       </c>
@@ -5338,11 +6131,11 @@
       <c r="J53" s="11"/>
     </row>
     <row r="54" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="37"/>
-      <c r="B54" s="30"/>
-      <c r="C54" s="30"/>
-      <c r="D54" s="30"/>
-      <c r="E54" s="30"/>
+      <c r="A54" s="41"/>
+      <c r="B54" s="31"/>
+      <c r="C54" s="31"/>
+      <c r="D54" s="31"/>
+      <c r="E54" s="31"/>
       <c r="F54" s="11" t="s">
         <v>47</v>
       </c>
@@ -5356,17 +6149,17 @@
       <c r="J54" s="11"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="37"/>
-      <c r="B55" s="29">
+      <c r="A55" s="41"/>
+      <c r="B55" s="32">
         <v>1</v>
       </c>
-      <c r="C55" s="29">
+      <c r="C55" s="32">
         <v>7</v>
       </c>
-      <c r="D55" s="29" t="s">
+      <c r="D55" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="E55" s="29" t="s">
+      <c r="E55" s="32" t="s">
         <v>76</v>
       </c>
       <c r="F55" s="9" t="s">
@@ -5382,11 +6175,11 @@
       <c r="J55" s="9"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="37"/>
-      <c r="B56" s="29"/>
-      <c r="C56" s="29"/>
-      <c r="D56" s="29"/>
-      <c r="E56" s="29"/>
+      <c r="A56" s="41"/>
+      <c r="B56" s="32"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="32"/>
       <c r="F56" s="9" t="s">
         <v>19</v>
       </c>
@@ -5400,11 +6193,11 @@
       <c r="J56" s="9"/>
     </row>
     <row r="57" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A57" s="37"/>
-      <c r="B57" s="29"/>
-      <c r="C57" s="29"/>
-      <c r="D57" s="29"/>
-      <c r="E57" s="29"/>
+      <c r="A57" s="41"/>
+      <c r="B57" s="32"/>
+      <c r="C57" s="32"/>
+      <c r="D57" s="32"/>
+      <c r="E57" s="32"/>
       <c r="F57" s="9" t="s">
         <v>23</v>
       </c>
@@ -5418,11 +6211,11 @@
       <c r="J57" s="9"/>
     </row>
     <row r="58" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A58" s="37"/>
-      <c r="B58" s="29"/>
-      <c r="C58" s="29"/>
-      <c r="D58" s="29"/>
-      <c r="E58" s="29"/>
+      <c r="A58" s="41"/>
+      <c r="B58" s="32"/>
+      <c r="C58" s="32"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="32"/>
       <c r="F58" s="9" t="s">
         <v>26</v>
       </c>
@@ -5436,11 +6229,11 @@
       <c r="J58" s="9"/>
     </row>
     <row r="59" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A59" s="37"/>
-      <c r="B59" s="29"/>
-      <c r="C59" s="29"/>
-      <c r="D59" s="29"/>
-      <c r="E59" s="29"/>
+      <c r="A59" s="41"/>
+      <c r="B59" s="32"/>
+      <c r="C59" s="32"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="32"/>
       <c r="F59" s="9" t="s">
         <v>29</v>
       </c>
@@ -5454,11 +6247,11 @@
       <c r="J59" s="9"/>
     </row>
     <row r="60" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A60" s="37"/>
-      <c r="B60" s="29"/>
-      <c r="C60" s="29"/>
-      <c r="D60" s="29"/>
-      <c r="E60" s="29"/>
+      <c r="A60" s="41"/>
+      <c r="B60" s="32"/>
+      <c r="C60" s="32"/>
+      <c r="D60" s="32"/>
+      <c r="E60" s="32"/>
       <c r="F60" s="9" t="s">
         <v>32</v>
       </c>
@@ -5472,11 +6265,11 @@
       <c r="J60" s="9"/>
     </row>
     <row r="61" spans="1:10" ht="132" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="37"/>
-      <c r="B61" s="29"/>
-      <c r="C61" s="29"/>
-      <c r="D61" s="29"/>
-      <c r="E61" s="29"/>
+      <c r="A61" s="41"/>
+      <c r="B61" s="32"/>
+      <c r="C61" s="32"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="32"/>
       <c r="F61" s="9" t="s">
         <v>35</v>
       </c>
@@ -5490,11 +6283,11 @@
       <c r="J61" s="9"/>
     </row>
     <row r="62" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="37"/>
-      <c r="B62" s="29"/>
-      <c r="C62" s="29"/>
-      <c r="D62" s="29"/>
-      <c r="E62" s="29"/>
+      <c r="A62" s="41"/>
+      <c r="B62" s="32"/>
+      <c r="C62" s="32"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="32"/>
       <c r="F62" s="9" t="s">
         <v>37</v>
       </c>
@@ -5508,17 +6301,17 @@
       <c r="J62" s="9"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="37"/>
-      <c r="B63" s="30">
+      <c r="A63" s="41"/>
+      <c r="B63" s="31">
         <v>1</v>
       </c>
-      <c r="C63" s="30">
+      <c r="C63" s="31">
         <v>8</v>
       </c>
-      <c r="D63" s="30" t="s">
+      <c r="D63" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="E63" s="30" t="s">
+      <c r="E63" s="31" t="s">
         <v>81</v>
       </c>
       <c r="F63" s="11" t="s">
@@ -5534,11 +6327,11 @@
       <c r="J63" s="11"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="37"/>
-      <c r="B64" s="30"/>
-      <c r="C64" s="30"/>
-      <c r="D64" s="30"/>
-      <c r="E64" s="30"/>
+      <c r="A64" s="41"/>
+      <c r="B64" s="31"/>
+      <c r="C64" s="31"/>
+      <c r="D64" s="31"/>
+      <c r="E64" s="31"/>
       <c r="F64" s="11" t="s">
         <v>19</v>
       </c>
@@ -5552,11 +6345,11 @@
       <c r="J64" s="11"/>
     </row>
     <row r="65" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A65" s="37"/>
-      <c r="B65" s="30"/>
-      <c r="C65" s="30"/>
-      <c r="D65" s="30"/>
-      <c r="E65" s="30"/>
+      <c r="A65" s="41"/>
+      <c r="B65" s="31"/>
+      <c r="C65" s="31"/>
+      <c r="D65" s="31"/>
+      <c r="E65" s="31"/>
       <c r="F65" s="11" t="s">
         <v>23</v>
       </c>
@@ -5570,11 +6363,11 @@
       <c r="J65" s="11"/>
     </row>
     <row r="66" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A66" s="37"/>
-      <c r="B66" s="30"/>
-      <c r="C66" s="30"/>
-      <c r="D66" s="30"/>
-      <c r="E66" s="30"/>
+      <c r="A66" s="41"/>
+      <c r="B66" s="31"/>
+      <c r="C66" s="31"/>
+      <c r="D66" s="31"/>
+      <c r="E66" s="31"/>
       <c r="F66" s="11" t="s">
         <v>26</v>
       </c>
@@ -5588,11 +6381,11 @@
       <c r="J66" s="11"/>
     </row>
     <row r="67" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="37"/>
-      <c r="B67" s="30"/>
-      <c r="C67" s="30"/>
-      <c r="D67" s="30"/>
-      <c r="E67" s="30"/>
+      <c r="A67" s="41"/>
+      <c r="B67" s="31"/>
+      <c r="C67" s="31"/>
+      <c r="D67" s="31"/>
+      <c r="E67" s="31"/>
       <c r="F67" s="11" t="s">
         <v>29</v>
       </c>
@@ -5606,11 +6399,11 @@
       <c r="J67" s="11"/>
     </row>
     <row r="68" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="37"/>
-      <c r="B68" s="30"/>
-      <c r="C68" s="30"/>
-      <c r="D68" s="30"/>
-      <c r="E68" s="30"/>
+      <c r="A68" s="41"/>
+      <c r="B68" s="31"/>
+      <c r="C68" s="31"/>
+      <c r="D68" s="31"/>
+      <c r="E68" s="31"/>
       <c r="F68" s="11" t="s">
         <v>32</v>
       </c>
@@ -5624,11 +6417,11 @@
       <c r="J68" s="11"/>
     </row>
     <row r="69" spans="1:10" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="37"/>
-      <c r="B69" s="30"/>
-      <c r="C69" s="30"/>
-      <c r="D69" s="30"/>
-      <c r="E69" s="30"/>
+      <c r="A69" s="41"/>
+      <c r="B69" s="31"/>
+      <c r="C69" s="31"/>
+      <c r="D69" s="31"/>
+      <c r="E69" s="31"/>
       <c r="F69" s="11" t="s">
         <v>35</v>
       </c>
@@ -5642,11 +6435,11 @@
       <c r="J69" s="11"/>
     </row>
     <row r="70" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="37"/>
-      <c r="B70" s="30"/>
-      <c r="C70" s="30"/>
-      <c r="D70" s="30"/>
-      <c r="E70" s="30"/>
+      <c r="A70" s="41"/>
+      <c r="B70" s="31"/>
+      <c r="C70" s="31"/>
+      <c r="D70" s="31"/>
+      <c r="E70" s="31"/>
       <c r="F70" s="11" t="s">
         <v>37</v>
       </c>
@@ -5660,11 +6453,11 @@
       <c r="J70" s="11"/>
     </row>
     <row r="71" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="37"/>
-      <c r="B71" s="30"/>
-      <c r="C71" s="30"/>
-      <c r="D71" s="30"/>
-      <c r="E71" s="30"/>
+      <c r="A71" s="41"/>
+      <c r="B71" s="31"/>
+      <c r="C71" s="31"/>
+      <c r="D71" s="31"/>
+      <c r="E71" s="31"/>
       <c r="F71" s="11" t="s">
         <v>47</v>
       </c>
@@ -5678,17 +6471,17 @@
       <c r="J71" s="11"/>
     </row>
     <row r="72" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="37"/>
-      <c r="B72" s="29">
+      <c r="A72" s="41"/>
+      <c r="B72" s="32">
         <v>1</v>
       </c>
-      <c r="C72" s="29">
+      <c r="C72" s="32">
         <v>9</v>
       </c>
-      <c r="D72" s="29" t="s">
+      <c r="D72" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="E72" s="29" t="s">
+      <c r="E72" s="32" t="s">
         <v>87</v>
       </c>
       <c r="F72" s="9" t="s">
@@ -5704,11 +6497,11 @@
       <c r="J72" s="9"/>
     </row>
     <row r="73" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="37"/>
-      <c r="B73" s="29"/>
-      <c r="C73" s="29"/>
-      <c r="D73" s="29"/>
-      <c r="E73" s="29"/>
+      <c r="A73" s="41"/>
+      <c r="B73" s="32"/>
+      <c r="C73" s="32"/>
+      <c r="D73" s="32"/>
+      <c r="E73" s="32"/>
       <c r="F73" s="9" t="s">
         <v>19</v>
       </c>
@@ -5722,11 +6515,11 @@
       <c r="J73" s="9"/>
     </row>
     <row r="74" spans="1:10" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A74" s="37"/>
-      <c r="B74" s="29"/>
-      <c r="C74" s="29"/>
-      <c r="D74" s="29"/>
-      <c r="E74" s="29"/>
+      <c r="A74" s="41"/>
+      <c r="B74" s="32"/>
+      <c r="C74" s="32"/>
+      <c r="D74" s="32"/>
+      <c r="E74" s="32"/>
       <c r="F74" s="9" t="s">
         <v>23</v>
       </c>
@@ -5740,11 +6533,11 @@
       <c r="J74" s="9"/>
     </row>
     <row r="75" spans="1:10" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A75" s="37"/>
-      <c r="B75" s="29"/>
-      <c r="C75" s="29"/>
-      <c r="D75" s="29"/>
-      <c r="E75" s="29"/>
+      <c r="A75" s="41"/>
+      <c r="B75" s="32"/>
+      <c r="C75" s="32"/>
+      <c r="D75" s="32"/>
+      <c r="E75" s="32"/>
       <c r="F75" s="9" t="s">
         <v>26</v>
       </c>
@@ -5758,11 +6551,11 @@
       <c r="J75" s="9"/>
     </row>
     <row r="76" spans="1:10" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="37"/>
-      <c r="B76" s="29"/>
-      <c r="C76" s="29"/>
-      <c r="D76" s="29"/>
-      <c r="E76" s="29"/>
+      <c r="A76" s="41"/>
+      <c r="B76" s="32"/>
+      <c r="C76" s="32"/>
+      <c r="D76" s="32"/>
+      <c r="E76" s="32"/>
       <c r="F76" s="9" t="s">
         <v>29</v>
       </c>
@@ -5776,11 +6569,11 @@
       <c r="J76" s="9"/>
     </row>
     <row r="77" spans="1:10" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A77" s="37"/>
-      <c r="B77" s="29"/>
-      <c r="C77" s="29"/>
-      <c r="D77" s="29"/>
-      <c r="E77" s="29"/>
+      <c r="A77" s="41"/>
+      <c r="B77" s="32"/>
+      <c r="C77" s="32"/>
+      <c r="D77" s="32"/>
+      <c r="E77" s="32"/>
       <c r="F77" s="9" t="s">
         <v>32</v>
       </c>
@@ -5794,11 +6587,11 @@
       <c r="J77" s="9"/>
     </row>
     <row r="78" spans="1:10" s="15" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="37"/>
-      <c r="B78" s="29"/>
-      <c r="C78" s="29"/>
-      <c r="D78" s="29"/>
-      <c r="E78" s="29"/>
+      <c r="A78" s="41"/>
+      <c r="B78" s="32"/>
+      <c r="C78" s="32"/>
+      <c r="D78" s="32"/>
+      <c r="E78" s="32"/>
       <c r="F78" s="9" t="s">
         <v>35</v>
       </c>
@@ -5812,11 +6605,11 @@
       <c r="J78" s="9"/>
     </row>
     <row r="79" spans="1:10" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="37"/>
-      <c r="B79" s="29"/>
-      <c r="C79" s="29"/>
-      <c r="D79" s="29"/>
-      <c r="E79" s="29"/>
+      <c r="A79" s="41"/>
+      <c r="B79" s="32"/>
+      <c r="C79" s="32"/>
+      <c r="D79" s="32"/>
+      <c r="E79" s="32"/>
       <c r="F79" s="9" t="s">
         <v>37</v>
       </c>
@@ -5830,11 +6623,11 @@
       <c r="J79" s="9"/>
     </row>
     <row r="80" spans="1:10" s="21" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="37"/>
-      <c r="B80" s="33"/>
-      <c r="C80" s="33"/>
-      <c r="D80" s="33"/>
-      <c r="E80" s="33"/>
+      <c r="A80" s="41"/>
+      <c r="B80" s="39"/>
+      <c r="C80" s="39"/>
+      <c r="D80" s="39"/>
+      <c r="E80" s="39"/>
       <c r="F80" s="16" t="s">
         <v>47</v>
       </c>
@@ -5848,17 +6641,17 @@
       <c r="J80" s="16"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="54"/>
-      <c r="B81" s="34">
+      <c r="A81" s="47"/>
+      <c r="B81" s="42">
         <v>2</v>
       </c>
-      <c r="C81" s="34">
+      <c r="C81" s="42">
         <v>1</v>
       </c>
-      <c r="D81" s="34" t="s">
+      <c r="D81" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="E81" s="34" t="s">
+      <c r="E81" s="42" t="s">
         <v>111</v>
       </c>
       <c r="F81" s="20" t="s">
@@ -5874,11 +6667,11 @@
       <c r="J81" s="20"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="55"/>
-      <c r="B82" s="30"/>
-      <c r="C82" s="30"/>
-      <c r="D82" s="30"/>
-      <c r="E82" s="30"/>
+      <c r="A82" s="48"/>
+      <c r="B82" s="31"/>
+      <c r="C82" s="31"/>
+      <c r="D82" s="31"/>
+      <c r="E82" s="31"/>
       <c r="F82" s="11" t="s">
         <v>19</v>
       </c>
@@ -5892,11 +6685,11 @@
       <c r="J82" s="11"/>
     </row>
     <row r="83" spans="1:10" ht="236.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="55"/>
-      <c r="B83" s="30"/>
-      <c r="C83" s="30"/>
-      <c r="D83" s="30"/>
-      <c r="E83" s="30"/>
+      <c r="A83" s="48"/>
+      <c r="B83" s="31"/>
+      <c r="C83" s="31"/>
+      <c r="D83" s="31"/>
+      <c r="E83" s="31"/>
       <c r="F83" s="11" t="s">
         <v>23</v>
       </c>
@@ -5910,11 +6703,11 @@
       <c r="J83" s="11"/>
     </row>
     <row r="84" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A84" s="55"/>
-      <c r="B84" s="35"/>
-      <c r="C84" s="35"/>
-      <c r="D84" s="35"/>
-      <c r="E84" s="35"/>
+      <c r="A84" s="48"/>
+      <c r="B84" s="43"/>
+      <c r="C84" s="43"/>
+      <c r="D84" s="43"/>
+      <c r="E84" s="43"/>
       <c r="F84" s="11" t="s">
         <v>26</v>
       </c>
@@ -5928,17 +6721,17 @@
       <c r="J84" s="11"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="55"/>
-      <c r="B85" s="29">
+      <c r="A85" s="48"/>
+      <c r="B85" s="32">
         <v>2</v>
       </c>
-      <c r="C85" s="29">
+      <c r="C85" s="32">
         <v>2</v>
       </c>
-      <c r="D85" s="29" t="s">
+      <c r="D85" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="E85" s="29" t="s">
+      <c r="E85" s="32" t="s">
         <v>125</v>
       </c>
       <c r="F85" s="13" t="s">
@@ -5954,11 +6747,11 @@
       <c r="J85" s="13"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="55"/>
-      <c r="B86" s="29"/>
-      <c r="C86" s="29"/>
-      <c r="D86" s="29"/>
-      <c r="E86" s="29"/>
+      <c r="A86" s="48"/>
+      <c r="B86" s="32"/>
+      <c r="C86" s="32"/>
+      <c r="D86" s="32"/>
+      <c r="E86" s="32"/>
       <c r="F86" s="9" t="s">
         <v>19</v>
       </c>
@@ -5972,11 +6765,11 @@
       <c r="J86" s="9"/>
     </row>
     <row r="87" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A87" s="55"/>
-      <c r="B87" s="29"/>
-      <c r="C87" s="29"/>
-      <c r="D87" s="29"/>
-      <c r="E87" s="29"/>
+      <c r="A87" s="48"/>
+      <c r="B87" s="32"/>
+      <c r="C87" s="32"/>
+      <c r="D87" s="32"/>
+      <c r="E87" s="32"/>
       <c r="F87" s="9" t="s">
         <v>23</v>
       </c>
@@ -5990,11 +6783,11 @@
       <c r="J87" s="9"/>
     </row>
     <row r="88" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A88" s="55"/>
-      <c r="B88" s="29"/>
-      <c r="C88" s="29"/>
-      <c r="D88" s="29"/>
-      <c r="E88" s="29"/>
+      <c r="A88" s="48"/>
+      <c r="B88" s="32"/>
+      <c r="C88" s="32"/>
+      <c r="D88" s="32"/>
+      <c r="E88" s="32"/>
       <c r="F88" s="9" t="s">
         <v>26</v>
       </c>
@@ -6008,11 +6801,11 @@
       <c r="J88" s="9"/>
     </row>
     <row r="89" spans="1:10" ht="236.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="55"/>
-      <c r="B89" s="29"/>
-      <c r="C89" s="29"/>
-      <c r="D89" s="29"/>
-      <c r="E89" s="29"/>
+      <c r="A89" s="48"/>
+      <c r="B89" s="32"/>
+      <c r="C89" s="32"/>
+      <c r="D89" s="32"/>
+      <c r="E89" s="32"/>
       <c r="F89" s="9" t="s">
         <v>29</v>
       </c>
@@ -6026,11 +6819,11 @@
       <c r="J89" s="9"/>
     </row>
     <row r="90" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A90" s="55"/>
-      <c r="B90" s="29"/>
-      <c r="C90" s="29"/>
-      <c r="D90" s="29"/>
-      <c r="E90" s="29"/>
+      <c r="A90" s="48"/>
+      <c r="B90" s="32"/>
+      <c r="C90" s="32"/>
+      <c r="D90" s="32"/>
+      <c r="E90" s="32"/>
       <c r="F90" s="9" t="s">
         <v>32</v>
       </c>
@@ -6044,17 +6837,17 @@
       <c r="J90" s="9"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="55"/>
-      <c r="B91" s="30">
+      <c r="A91" s="48"/>
+      <c r="B91" s="31">
         <v>2</v>
       </c>
-      <c r="C91" s="30">
+      <c r="C91" s="31">
         <v>3</v>
       </c>
-      <c r="D91" s="30" t="s">
+      <c r="D91" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="E91" s="30" t="s">
+      <c r="E91" s="31" t="s">
         <v>130</v>
       </c>
       <c r="F91" s="20" t="s">
@@ -6070,11 +6863,11 @@
       <c r="J91" s="20"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="55"/>
-      <c r="B92" s="30"/>
-      <c r="C92" s="30"/>
-      <c r="D92" s="30"/>
-      <c r="E92" s="30"/>
+      <c r="A92" s="48"/>
+      <c r="B92" s="31"/>
+      <c r="C92" s="31"/>
+      <c r="D92" s="31"/>
+      <c r="E92" s="31"/>
       <c r="F92" s="11" t="s">
         <v>19</v>
       </c>
@@ -6088,11 +6881,11 @@
       <c r="J92" s="11"/>
     </row>
     <row r="93" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A93" s="55"/>
-      <c r="B93" s="30"/>
-      <c r="C93" s="30"/>
-      <c r="D93" s="30"/>
-      <c r="E93" s="30"/>
+      <c r="A93" s="48"/>
+      <c r="B93" s="31"/>
+      <c r="C93" s="31"/>
+      <c r="D93" s="31"/>
+      <c r="E93" s="31"/>
       <c r="F93" s="11" t="s">
         <v>23</v>
       </c>
@@ -6106,11 +6899,11 @@
       <c r="J93" s="11"/>
     </row>
     <row r="94" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A94" s="55"/>
-      <c r="B94" s="30"/>
-      <c r="C94" s="30"/>
-      <c r="D94" s="30"/>
-      <c r="E94" s="30"/>
+      <c r="A94" s="48"/>
+      <c r="B94" s="31"/>
+      <c r="C94" s="31"/>
+      <c r="D94" s="31"/>
+      <c r="E94" s="31"/>
       <c r="F94" s="11" t="s">
         <v>26</v>
       </c>
@@ -6124,11 +6917,11 @@
       <c r="J94" s="11"/>
     </row>
     <row r="95" spans="1:10" ht="236.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="55"/>
-      <c r="B95" s="30"/>
-      <c r="C95" s="30"/>
-      <c r="D95" s="30"/>
-      <c r="E95" s="30"/>
+      <c r="A95" s="48"/>
+      <c r="B95" s="31"/>
+      <c r="C95" s="31"/>
+      <c r="D95" s="31"/>
+      <c r="E95" s="31"/>
       <c r="F95" s="11" t="s">
         <v>29</v>
       </c>
@@ -6142,11 +6935,11 @@
       <c r="J95" s="11"/>
     </row>
     <row r="96" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A96" s="55"/>
-      <c r="B96" s="30"/>
-      <c r="C96" s="30"/>
-      <c r="D96" s="30"/>
-      <c r="E96" s="30"/>
+      <c r="A96" s="48"/>
+      <c r="B96" s="31"/>
+      <c r="C96" s="31"/>
+      <c r="D96" s="31"/>
+      <c r="E96" s="31"/>
       <c r="F96" s="11" t="s">
         <v>32</v>
       </c>
@@ -6160,17 +6953,17 @@
       <c r="J96" s="11"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="55"/>
-      <c r="B97" s="29">
+      <c r="A97" s="48"/>
+      <c r="B97" s="32">
         <v>2</v>
       </c>
-      <c r="C97" s="29">
+      <c r="C97" s="32">
         <v>4</v>
       </c>
-      <c r="D97" s="29" t="s">
+      <c r="D97" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="E97" s="29" t="s">
+      <c r="E97" s="32" t="s">
         <v>134</v>
       </c>
       <c r="F97" s="13" t="s">
@@ -6186,11 +6979,11 @@
       <c r="J97" s="13"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="55"/>
-      <c r="B98" s="29"/>
-      <c r="C98" s="29"/>
-      <c r="D98" s="29"/>
-      <c r="E98" s="29"/>
+      <c r="A98" s="48"/>
+      <c r="B98" s="32"/>
+      <c r="C98" s="32"/>
+      <c r="D98" s="32"/>
+      <c r="E98" s="32"/>
       <c r="F98" s="9" t="s">
         <v>19</v>
       </c>
@@ -6204,11 +6997,11 @@
       <c r="J98" s="9"/>
     </row>
     <row r="99" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A99" s="55"/>
-      <c r="B99" s="29"/>
-      <c r="C99" s="29"/>
-      <c r="D99" s="29"/>
-      <c r="E99" s="29"/>
+      <c r="A99" s="48"/>
+      <c r="B99" s="32"/>
+      <c r="C99" s="32"/>
+      <c r="D99" s="32"/>
+      <c r="E99" s="32"/>
       <c r="F99" s="24" t="s">
         <v>23</v>
       </c>
@@ -6222,11 +7015,11 @@
       <c r="J99" s="9"/>
     </row>
     <row r="100" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A100" s="55"/>
-      <c r="B100" s="29"/>
-      <c r="C100" s="29"/>
-      <c r="D100" s="29"/>
-      <c r="E100" s="29"/>
+      <c r="A100" s="48"/>
+      <c r="B100" s="32"/>
+      <c r="C100" s="32"/>
+      <c r="D100" s="32"/>
+      <c r="E100" s="32"/>
       <c r="F100" s="24" t="s">
         <v>26</v>
       </c>
@@ -6240,11 +7033,11 @@
       <c r="J100" s="9"/>
     </row>
     <row r="101" spans="1:10" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="55"/>
-      <c r="B101" s="29"/>
-      <c r="C101" s="29"/>
-      <c r="D101" s="29"/>
-      <c r="E101" s="29"/>
+      <c r="A101" s="48"/>
+      <c r="B101" s="32"/>
+      <c r="C101" s="32"/>
+      <c r="D101" s="32"/>
+      <c r="E101" s="32"/>
       <c r="F101" s="24" t="s">
         <v>29</v>
       </c>
@@ -6258,11 +7051,11 @@
       <c r="J101" s="9"/>
     </row>
     <row r="102" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A102" s="55"/>
-      <c r="B102" s="29"/>
-      <c r="C102" s="29"/>
-      <c r="D102" s="29"/>
-      <c r="E102" s="29"/>
+      <c r="A102" s="48"/>
+      <c r="B102" s="32"/>
+      <c r="C102" s="32"/>
+      <c r="D102" s="32"/>
+      <c r="E102" s="32"/>
       <c r="F102" s="24" t="s">
         <v>32</v>
       </c>
@@ -6276,11 +7069,11 @@
       <c r="J102" s="9"/>
     </row>
     <row r="103" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A103" s="55"/>
-      <c r="B103" s="29"/>
-      <c r="C103" s="29"/>
-      <c r="D103" s="29"/>
-      <c r="E103" s="29"/>
+      <c r="A103" s="48"/>
+      <c r="B103" s="32"/>
+      <c r="C103" s="32"/>
+      <c r="D103" s="32"/>
+      <c r="E103" s="32"/>
       <c r="F103" s="24" t="s">
         <v>35</v>
       </c>
@@ -6294,17 +7087,17 @@
       <c r="J103" s="9"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="55"/>
-      <c r="B104" s="30">
+      <c r="A104" s="48"/>
+      <c r="B104" s="31">
         <v>2</v>
       </c>
-      <c r="C104" s="30">
+      <c r="C104" s="31">
         <v>5</v>
       </c>
-      <c r="D104" s="30" t="s">
+      <c r="D104" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="E104" s="30" t="s">
+      <c r="E104" s="31" t="s">
         <v>137</v>
       </c>
       <c r="F104" s="20" t="s">
@@ -6320,11 +7113,11 @@
       <c r="J104" s="20"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="55"/>
-      <c r="B105" s="30"/>
-      <c r="C105" s="30"/>
-      <c r="D105" s="30"/>
-      <c r="E105" s="30"/>
+      <c r="A105" s="48"/>
+      <c r="B105" s="31"/>
+      <c r="C105" s="31"/>
+      <c r="D105" s="31"/>
+      <c r="E105" s="31"/>
       <c r="F105" s="11" t="s">
         <v>19</v>
       </c>
@@ -6338,11 +7131,11 @@
       <c r="J105" s="11"/>
     </row>
     <row r="106" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A106" s="55"/>
-      <c r="B106" s="30"/>
-      <c r="C106" s="30"/>
-      <c r="D106" s="30"/>
-      <c r="E106" s="30"/>
+      <c r="A106" s="48"/>
+      <c r="B106" s="31"/>
+      <c r="C106" s="31"/>
+      <c r="D106" s="31"/>
+      <c r="E106" s="31"/>
       <c r="F106" s="22" t="s">
         <v>23</v>
       </c>
@@ -6356,11 +7149,11 @@
       <c r="J106" s="11"/>
     </row>
     <row r="107" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A107" s="55"/>
-      <c r="B107" s="30"/>
-      <c r="C107" s="30"/>
-      <c r="D107" s="30"/>
-      <c r="E107" s="30"/>
+      <c r="A107" s="48"/>
+      <c r="B107" s="31"/>
+      <c r="C107" s="31"/>
+      <c r="D107" s="31"/>
+      <c r="E107" s="31"/>
       <c r="F107" s="22" t="s">
         <v>26</v>
       </c>
@@ -6374,11 +7167,11 @@
       <c r="J107" s="11"/>
     </row>
     <row r="108" spans="1:10" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="55"/>
-      <c r="B108" s="30"/>
-      <c r="C108" s="30"/>
-      <c r="D108" s="30"/>
-      <c r="E108" s="30"/>
+      <c r="A108" s="48"/>
+      <c r="B108" s="31"/>
+      <c r="C108" s="31"/>
+      <c r="D108" s="31"/>
+      <c r="E108" s="31"/>
       <c r="F108" s="22" t="s">
         <v>29</v>
       </c>
@@ -6392,11 +7185,11 @@
       <c r="J108" s="11"/>
     </row>
     <row r="109" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A109" s="55"/>
-      <c r="B109" s="30"/>
-      <c r="C109" s="30"/>
-      <c r="D109" s="30"/>
-      <c r="E109" s="30"/>
+      <c r="A109" s="48"/>
+      <c r="B109" s="31"/>
+      <c r="C109" s="31"/>
+      <c r="D109" s="31"/>
+      <c r="E109" s="31"/>
       <c r="F109" s="22" t="s">
         <v>32</v>
       </c>
@@ -6410,11 +7203,11 @@
       <c r="J109" s="11"/>
     </row>
     <row r="110" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A110" s="55"/>
-      <c r="B110" s="30"/>
-      <c r="C110" s="30"/>
-      <c r="D110" s="30"/>
-      <c r="E110" s="30"/>
+      <c r="A110" s="48"/>
+      <c r="B110" s="31"/>
+      <c r="C110" s="31"/>
+      <c r="D110" s="31"/>
+      <c r="E110" s="31"/>
       <c r="F110" s="22" t="s">
         <v>35</v>
       </c>
@@ -6428,17 +7221,17 @@
       <c r="J110" s="11"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="55"/>
-      <c r="B111" s="29">
+      <c r="A111" s="48"/>
+      <c r="B111" s="32">
         <v>2</v>
       </c>
-      <c r="C111" s="29">
+      <c r="C111" s="32">
         <v>6</v>
       </c>
-      <c r="D111" s="29" t="s">
+      <c r="D111" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="E111" s="29" t="s">
+      <c r="E111" s="32" t="s">
         <v>143</v>
       </c>
       <c r="F111" s="13" t="s">
@@ -6454,11 +7247,11 @@
       <c r="J111" s="13"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="55"/>
-      <c r="B112" s="29"/>
-      <c r="C112" s="29"/>
-      <c r="D112" s="29"/>
-      <c r="E112" s="29"/>
+      <c r="A112" s="48"/>
+      <c r="B112" s="32"/>
+      <c r="C112" s="32"/>
+      <c r="D112" s="32"/>
+      <c r="E112" s="32"/>
       <c r="F112" s="9" t="s">
         <v>19</v>
       </c>
@@ -6472,11 +7265,11 @@
       <c r="J112" s="9"/>
     </row>
     <row r="113" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A113" s="55"/>
-      <c r="B113" s="29"/>
-      <c r="C113" s="29"/>
-      <c r="D113" s="29"/>
-      <c r="E113" s="29"/>
+      <c r="A113" s="48"/>
+      <c r="B113" s="32"/>
+      <c r="C113" s="32"/>
+      <c r="D113" s="32"/>
+      <c r="E113" s="32"/>
       <c r="F113" s="24" t="s">
         <v>23</v>
       </c>
@@ -6490,11 +7283,11 @@
       <c r="J113" s="9"/>
     </row>
     <row r="114" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A114" s="55"/>
-      <c r="B114" s="29"/>
-      <c r="C114" s="29"/>
-      <c r="D114" s="29"/>
-      <c r="E114" s="29"/>
+      <c r="A114" s="48"/>
+      <c r="B114" s="32"/>
+      <c r="C114" s="32"/>
+      <c r="D114" s="32"/>
+      <c r="E114" s="32"/>
       <c r="F114" s="24" t="s">
         <v>26</v>
       </c>
@@ -6508,11 +7301,11 @@
       <c r="J114" s="9"/>
     </row>
     <row r="115" spans="1:10" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="55"/>
-      <c r="B115" s="29"/>
-      <c r="C115" s="29"/>
-      <c r="D115" s="29"/>
-      <c r="E115" s="29"/>
+      <c r="A115" s="48"/>
+      <c r="B115" s="32"/>
+      <c r="C115" s="32"/>
+      <c r="D115" s="32"/>
+      <c r="E115" s="32"/>
       <c r="F115" s="24" t="s">
         <v>29</v>
       </c>
@@ -6526,11 +7319,11 @@
       <c r="J115" s="9"/>
     </row>
     <row r="116" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A116" s="55"/>
-      <c r="B116" s="29"/>
-      <c r="C116" s="29"/>
-      <c r="D116" s="29"/>
-      <c r="E116" s="29"/>
+      <c r="A116" s="48"/>
+      <c r="B116" s="32"/>
+      <c r="C116" s="32"/>
+      <c r="D116" s="32"/>
+      <c r="E116" s="32"/>
       <c r="F116" s="24" t="s">
         <v>32</v>
       </c>
@@ -6544,11 +7337,11 @@
       <c r="J116" s="9"/>
     </row>
     <row r="117" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A117" s="55"/>
-      <c r="B117" s="29"/>
-      <c r="C117" s="29"/>
-      <c r="D117" s="29"/>
-      <c r="E117" s="29"/>
+      <c r="A117" s="48"/>
+      <c r="B117" s="32"/>
+      <c r="C117" s="32"/>
+      <c r="D117" s="32"/>
+      <c r="E117" s="32"/>
       <c r="F117" s="24" t="s">
         <v>35</v>
       </c>
@@ -6562,17 +7355,17 @@
       <c r="J117" s="9"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="55"/>
-      <c r="B118" s="30">
+      <c r="A118" s="48"/>
+      <c r="B118" s="31">
         <v>2</v>
       </c>
-      <c r="C118" s="30">
+      <c r="C118" s="31">
         <v>7</v>
       </c>
-      <c r="D118" s="30" t="s">
+      <c r="D118" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="E118" s="30" t="s">
+      <c r="E118" s="31" t="s">
         <v>149</v>
       </c>
       <c r="F118" s="20" t="s">
@@ -6588,11 +7381,11 @@
       <c r="J118" s="20"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="55"/>
-      <c r="B119" s="30"/>
-      <c r="C119" s="30"/>
-      <c r="D119" s="30"/>
-      <c r="E119" s="30"/>
+      <c r="A119" s="48"/>
+      <c r="B119" s="31"/>
+      <c r="C119" s="31"/>
+      <c r="D119" s="31"/>
+      <c r="E119" s="31"/>
       <c r="F119" s="11" t="s">
         <v>19</v>
       </c>
@@ -6606,11 +7399,11 @@
       <c r="J119" s="11"/>
     </row>
     <row r="120" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A120" s="55"/>
-      <c r="B120" s="30"/>
-      <c r="C120" s="30"/>
-      <c r="D120" s="30"/>
-      <c r="E120" s="30"/>
+      <c r="A120" s="48"/>
+      <c r="B120" s="31"/>
+      <c r="C120" s="31"/>
+      <c r="D120" s="31"/>
+      <c r="E120" s="31"/>
       <c r="F120" s="22" t="s">
         <v>23</v>
       </c>
@@ -6624,11 +7417,11 @@
       <c r="J120" s="11"/>
     </row>
     <row r="121" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A121" s="55"/>
-      <c r="B121" s="30"/>
-      <c r="C121" s="30"/>
-      <c r="D121" s="30"/>
-      <c r="E121" s="30"/>
+      <c r="A121" s="48"/>
+      <c r="B121" s="31"/>
+      <c r="C121" s="31"/>
+      <c r="D121" s="31"/>
+      <c r="E121" s="31"/>
       <c r="F121" s="22" t="s">
         <v>26</v>
       </c>
@@ -6642,11 +7435,11 @@
       <c r="J121" s="11"/>
     </row>
     <row r="122" spans="1:10" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="55"/>
-      <c r="B122" s="30"/>
-      <c r="C122" s="30"/>
-      <c r="D122" s="30"/>
-      <c r="E122" s="30"/>
+      <c r="A122" s="48"/>
+      <c r="B122" s="31"/>
+      <c r="C122" s="31"/>
+      <c r="D122" s="31"/>
+      <c r="E122" s="31"/>
       <c r="F122" s="22" t="s">
         <v>29</v>
       </c>
@@ -6660,11 +7453,11 @@
       <c r="J122" s="11"/>
     </row>
     <row r="123" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A123" s="55"/>
-      <c r="B123" s="30"/>
-      <c r="C123" s="30"/>
-      <c r="D123" s="30"/>
-      <c r="E123" s="30"/>
+      <c r="A123" s="48"/>
+      <c r="B123" s="31"/>
+      <c r="C123" s="31"/>
+      <c r="D123" s="31"/>
+      <c r="E123" s="31"/>
       <c r="F123" s="22" t="s">
         <v>32</v>
       </c>
@@ -6678,11 +7471,11 @@
       <c r="J123" s="11"/>
     </row>
     <row r="124" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A124" s="55"/>
-      <c r="B124" s="30"/>
-      <c r="C124" s="30"/>
-      <c r="D124" s="30"/>
-      <c r="E124" s="30"/>
+      <c r="A124" s="48"/>
+      <c r="B124" s="31"/>
+      <c r="C124" s="31"/>
+      <c r="D124" s="31"/>
+      <c r="E124" s="31"/>
       <c r="F124" s="22" t="s">
         <v>35</v>
       </c>
@@ -6696,17 +7489,17 @@
       <c r="J124" s="11"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="55"/>
-      <c r="B125" s="29">
+      <c r="A125" s="48"/>
+      <c r="B125" s="32">
         <v>2</v>
       </c>
-      <c r="C125" s="29">
+      <c r="C125" s="32">
         <v>8</v>
       </c>
-      <c r="D125" s="29" t="s">
+      <c r="D125" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="E125" s="29" t="s">
+      <c r="E125" s="32" t="s">
         <v>151</v>
       </c>
       <c r="F125" s="13" t="s">
@@ -6722,11 +7515,11 @@
       <c r="J125" s="13"/>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="55"/>
-      <c r="B126" s="29"/>
-      <c r="C126" s="29"/>
-      <c r="D126" s="29"/>
-      <c r="E126" s="29"/>
+      <c r="A126" s="48"/>
+      <c r="B126" s="32"/>
+      <c r="C126" s="32"/>
+      <c r="D126" s="32"/>
+      <c r="E126" s="32"/>
       <c r="F126" s="9" t="s">
         <v>19</v>
       </c>
@@ -6740,11 +7533,11 @@
       <c r="J126" s="9"/>
     </row>
     <row r="127" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A127" s="55"/>
-      <c r="B127" s="29"/>
-      <c r="C127" s="29"/>
-      <c r="D127" s="29"/>
-      <c r="E127" s="29"/>
+      <c r="A127" s="48"/>
+      <c r="B127" s="32"/>
+      <c r="C127" s="32"/>
+      <c r="D127" s="32"/>
+      <c r="E127" s="32"/>
       <c r="F127" s="9" t="s">
         <v>23</v>
       </c>
@@ -6758,11 +7551,11 @@
       <c r="J127" s="9"/>
     </row>
     <row r="128" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A128" s="55"/>
-      <c r="B128" s="29"/>
-      <c r="C128" s="29"/>
-      <c r="D128" s="29"/>
-      <c r="E128" s="29"/>
+      <c r="A128" s="48"/>
+      <c r="B128" s="32"/>
+      <c r="C128" s="32"/>
+      <c r="D128" s="32"/>
+      <c r="E128" s="32"/>
       <c r="F128" s="9" t="s">
         <v>26</v>
       </c>
@@ -6776,11 +7569,11 @@
       <c r="J128" s="9"/>
     </row>
     <row r="129" spans="1:10" ht="229.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="55"/>
-      <c r="B129" s="29"/>
-      <c r="C129" s="29"/>
-      <c r="D129" s="29"/>
-      <c r="E129" s="29"/>
+      <c r="A129" s="48"/>
+      <c r="B129" s="32"/>
+      <c r="C129" s="32"/>
+      <c r="D129" s="32"/>
+      <c r="E129" s="32"/>
       <c r="F129" s="9" t="s">
         <v>29</v>
       </c>
@@ -6794,11 +7587,11 @@
       <c r="J129" s="9"/>
     </row>
     <row r="130" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A130" s="55"/>
-      <c r="B130" s="29"/>
-      <c r="C130" s="29"/>
-      <c r="D130" s="29"/>
-      <c r="E130" s="29"/>
+      <c r="A130" s="48"/>
+      <c r="B130" s="32"/>
+      <c r="C130" s="32"/>
+      <c r="D130" s="32"/>
+      <c r="E130" s="32"/>
       <c r="F130" s="9" t="s">
         <v>32</v>
       </c>
@@ -6812,17 +7605,17 @@
       <c r="J130" s="9"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="55"/>
-      <c r="B131" s="30">
+      <c r="A131" s="48"/>
+      <c r="B131" s="31">
         <v>2</v>
       </c>
-      <c r="C131" s="30">
+      <c r="C131" s="31">
         <v>9</v>
       </c>
-      <c r="D131" s="30" t="s">
+      <c r="D131" s="31" t="s">
         <v>167</v>
       </c>
-      <c r="E131" s="32" t="s">
+      <c r="E131" s="46" t="s">
         <v>160</v>
       </c>
       <c r="F131" s="26" t="s">
@@ -6838,11 +7631,11 @@
       <c r="J131" s="20"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="55"/>
-      <c r="B132" s="30"/>
-      <c r="C132" s="30"/>
-      <c r="D132" s="30"/>
-      <c r="E132" s="32"/>
+      <c r="A132" s="48"/>
+      <c r="B132" s="31"/>
+      <c r="C132" s="31"/>
+      <c r="D132" s="31"/>
+      <c r="E132" s="46"/>
       <c r="F132" s="22" t="s">
         <v>19</v>
       </c>
@@ -6856,11 +7649,11 @@
       <c r="J132" s="11"/>
     </row>
     <row r="133" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A133" s="55"/>
-      <c r="B133" s="30"/>
-      <c r="C133" s="30"/>
-      <c r="D133" s="30"/>
-      <c r="E133" s="32"/>
+      <c r="A133" s="48"/>
+      <c r="B133" s="31"/>
+      <c r="C133" s="31"/>
+      <c r="D133" s="31"/>
+      <c r="E133" s="46"/>
       <c r="F133" s="22" t="s">
         <v>23</v>
       </c>
@@ -6874,11 +7667,11 @@
       <c r="J133" s="11"/>
     </row>
     <row r="134" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A134" s="55"/>
-      <c r="B134" s="30"/>
-      <c r="C134" s="30"/>
-      <c r="D134" s="30"/>
-      <c r="E134" s="32"/>
+      <c r="A134" s="48"/>
+      <c r="B134" s="31"/>
+      <c r="C134" s="31"/>
+      <c r="D134" s="31"/>
+      <c r="E134" s="46"/>
       <c r="F134" s="22" t="s">
         <v>26</v>
       </c>
@@ -6892,11 +7685,11 @@
       <c r="J134" s="11"/>
     </row>
     <row r="135" spans="1:10" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="55"/>
-      <c r="B135" s="30"/>
-      <c r="C135" s="30"/>
-      <c r="D135" s="30"/>
-      <c r="E135" s="32"/>
+      <c r="A135" s="48"/>
+      <c r="B135" s="31"/>
+      <c r="C135" s="31"/>
+      <c r="D135" s="31"/>
+      <c r="E135" s="46"/>
       <c r="F135" s="22" t="s">
         <v>29</v>
       </c>
@@ -6910,11 +7703,11 @@
       <c r="J135" s="11"/>
     </row>
     <row r="136" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A136" s="55"/>
-      <c r="B136" s="30"/>
-      <c r="C136" s="30"/>
-      <c r="D136" s="30"/>
-      <c r="E136" s="32"/>
+      <c r="A136" s="48"/>
+      <c r="B136" s="31"/>
+      <c r="C136" s="31"/>
+      <c r="D136" s="31"/>
+      <c r="E136" s="46"/>
       <c r="F136" s="22" t="s">
         <v>32</v>
       </c>
@@ -6928,11 +7721,11 @@
       <c r="J136" s="11"/>
     </row>
     <row r="137" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A137" s="55"/>
-      <c r="B137" s="30"/>
-      <c r="C137" s="30"/>
-      <c r="D137" s="30"/>
-      <c r="E137" s="32"/>
+      <c r="A137" s="48"/>
+      <c r="B137" s="31"/>
+      <c r="C137" s="31"/>
+      <c r="D137" s="31"/>
+      <c r="E137" s="46"/>
       <c r="F137" s="22" t="s">
         <v>35</v>
       </c>
@@ -6946,17 +7739,17 @@
       <c r="J137" s="11"/>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A138" s="55"/>
-      <c r="B138" s="29">
+      <c r="A138" s="48"/>
+      <c r="B138" s="32">
         <v>2</v>
       </c>
-      <c r="C138" s="29">
+      <c r="C138" s="32">
         <v>10</v>
       </c>
-      <c r="D138" s="29" t="s">
+      <c r="D138" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="E138" s="31" t="s">
+      <c r="E138" s="38" t="s">
         <v>163</v>
       </c>
       <c r="F138" s="27" t="s">
@@ -6972,11 +7765,11 @@
       <c r="J138" s="13"/>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139" s="55"/>
-      <c r="B139" s="29"/>
-      <c r="C139" s="29"/>
-      <c r="D139" s="29"/>
-      <c r="E139" s="31"/>
+      <c r="A139" s="48"/>
+      <c r="B139" s="32"/>
+      <c r="C139" s="32"/>
+      <c r="D139" s="32"/>
+      <c r="E139" s="38"/>
       <c r="F139" s="24" t="s">
         <v>19</v>
       </c>
@@ -6990,11 +7783,11 @@
       <c r="J139" s="9"/>
     </row>
     <row r="140" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A140" s="55"/>
-      <c r="B140" s="29"/>
-      <c r="C140" s="29"/>
-      <c r="D140" s="29"/>
-      <c r="E140" s="31"/>
+      <c r="A140" s="48"/>
+      <c r="B140" s="32"/>
+      <c r="C140" s="32"/>
+      <c r="D140" s="32"/>
+      <c r="E140" s="38"/>
       <c r="F140" s="24" t="s">
         <v>23</v>
       </c>
@@ -7008,11 +7801,11 @@
       <c r="J140" s="9"/>
     </row>
     <row r="141" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A141" s="55"/>
-      <c r="B141" s="29"/>
-      <c r="C141" s="29"/>
-      <c r="D141" s="29"/>
-      <c r="E141" s="31"/>
+      <c r="A141" s="48"/>
+      <c r="B141" s="32"/>
+      <c r="C141" s="32"/>
+      <c r="D141" s="32"/>
+      <c r="E141" s="38"/>
       <c r="F141" s="24" t="s">
         <v>26</v>
       </c>
@@ -7026,11 +7819,11 @@
       <c r="J141" s="9"/>
     </row>
     <row r="142" spans="1:10" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="55"/>
-      <c r="B142" s="29"/>
-      <c r="C142" s="29"/>
-      <c r="D142" s="29"/>
-      <c r="E142" s="31"/>
+      <c r="A142" s="48"/>
+      <c r="B142" s="32"/>
+      <c r="C142" s="32"/>
+      <c r="D142" s="32"/>
+      <c r="E142" s="38"/>
       <c r="F142" s="24" t="s">
         <v>29</v>
       </c>
@@ -7044,11 +7837,11 @@
       <c r="J142" s="9"/>
     </row>
     <row r="143" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A143" s="55"/>
-      <c r="B143" s="29"/>
-      <c r="C143" s="29"/>
-      <c r="D143" s="29"/>
-      <c r="E143" s="31"/>
+      <c r="A143" s="48"/>
+      <c r="B143" s="32"/>
+      <c r="C143" s="32"/>
+      <c r="D143" s="32"/>
+      <c r="E143" s="38"/>
       <c r="F143" s="24" t="s">
         <v>32</v>
       </c>
@@ -7062,11 +7855,11 @@
       <c r="J143" s="9"/>
     </row>
     <row r="144" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A144" s="55"/>
-      <c r="B144" s="29"/>
-      <c r="C144" s="29"/>
-      <c r="D144" s="29"/>
-      <c r="E144" s="31"/>
+      <c r="A144" s="48"/>
+      <c r="B144" s="32"/>
+      <c r="C144" s="32"/>
+      <c r="D144" s="32"/>
+      <c r="E144" s="38"/>
       <c r="F144" s="24" t="s">
         <v>35</v>
       </c>
@@ -7080,151 +7873,151 @@
       <c r="J144" s="9"/>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A145" s="55"/>
-      <c r="B145" s="47">
+      <c r="A145" s="48"/>
+      <c r="B145" s="31">
         <v>2</v>
       </c>
-      <c r="C145" s="47">
+      <c r="C145" s="31">
         <v>11</v>
       </c>
-      <c r="D145" s="47" t="s">
+      <c r="D145" s="31" t="s">
         <v>185</v>
       </c>
-      <c r="E145" s="48" t="s">
+      <c r="E145" s="44" t="s">
         <v>186</v>
       </c>
-      <c r="F145" s="49" t="s">
+      <c r="F145" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="G145" s="49" t="s">
+      <c r="G145" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="H145" s="49" t="s">
+      <c r="H145" s="20" t="s">
         <v>154</v>
       </c>
       <c r="I145" s="20"/>
       <c r="J145" s="20"/>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A146" s="55"/>
-      <c r="B146" s="47"/>
-      <c r="C146" s="47"/>
-      <c r="D146" s="47"/>
-      <c r="E146" s="50"/>
-      <c r="F146" s="51" t="s">
+      <c r="A146" s="48"/>
+      <c r="B146" s="31"/>
+      <c r="C146" s="31"/>
+      <c r="D146" s="31"/>
+      <c r="E146" s="45"/>
+      <c r="F146" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G146" s="51" t="s">
+      <c r="G146" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="H146" s="51" t="s">
+      <c r="H146" s="11" t="s">
         <v>113</v>
       </c>
       <c r="I146" s="11"/>
       <c r="J146" s="11"/>
     </row>
     <row r="147" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A147" s="55"/>
-      <c r="B147" s="47"/>
-      <c r="C147" s="47"/>
-      <c r="D147" s="47"/>
-      <c r="E147" s="50"/>
-      <c r="F147" s="51" t="s">
+      <c r="A147" s="48"/>
+      <c r="B147" s="31"/>
+      <c r="C147" s="31"/>
+      <c r="D147" s="31"/>
+      <c r="E147" s="45"/>
+      <c r="F147" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G147" s="51" t="s">
+      <c r="G147" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="H147" s="52" t="s">
+      <c r="H147" s="28" t="s">
         <v>189</v>
       </c>
       <c r="I147" s="11"/>
       <c r="J147" s="11"/>
     </row>
     <row r="148" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A148" s="55"/>
-      <c r="B148" s="47"/>
-      <c r="C148" s="47"/>
-      <c r="D148" s="47"/>
-      <c r="E148" s="50"/>
-      <c r="F148" s="51" t="s">
+      <c r="A148" s="48"/>
+      <c r="B148" s="31"/>
+      <c r="C148" s="31"/>
+      <c r="D148" s="31"/>
+      <c r="E148" s="45"/>
+      <c r="F148" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G148" s="51" t="s">
+      <c r="G148" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="H148" s="51" t="s">
+      <c r="H148" s="11" t="s">
         <v>157</v>
       </c>
       <c r="I148" s="11"/>
       <c r="J148" s="11"/>
     </row>
     <row r="149" spans="1:10" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="55"/>
-      <c r="B149" s="47"/>
-      <c r="C149" s="47"/>
-      <c r="D149" s="47"/>
-      <c r="E149" s="50"/>
-      <c r="F149" s="51" t="s">
+      <c r="A149" s="48"/>
+      <c r="B149" s="31"/>
+      <c r="C149" s="31"/>
+      <c r="D149" s="31"/>
+      <c r="E149" s="45"/>
+      <c r="F149" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G149" s="51" t="s">
+      <c r="G149" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="H149" s="53" t="s">
+      <c r="H149" s="12" t="s">
         <v>46</v>
       </c>
       <c r="I149" s="11"/>
       <c r="J149" s="11"/>
     </row>
     <row r="150" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A150" s="55"/>
-      <c r="B150" s="47"/>
-      <c r="C150" s="47"/>
-      <c r="D150" s="47"/>
-      <c r="E150" s="50"/>
-      <c r="F150" s="51" t="s">
+      <c r="A150" s="48"/>
+      <c r="B150" s="31"/>
+      <c r="C150" s="31"/>
+      <c r="D150" s="31"/>
+      <c r="E150" s="45"/>
+      <c r="F150" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="G150" s="51" t="s">
+      <c r="G150" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="H150" s="51" t="s">
+      <c r="H150" s="11" t="s">
         <v>135</v>
       </c>
       <c r="I150" s="11"/>
       <c r="J150" s="11"/>
     </row>
     <row r="151" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A151" s="55"/>
-      <c r="B151" s="47"/>
-      <c r="C151" s="47"/>
-      <c r="D151" s="47"/>
-      <c r="E151" s="50"/>
-      <c r="F151" s="51" t="s">
+      <c r="A151" s="48"/>
+      <c r="B151" s="31"/>
+      <c r="C151" s="31"/>
+      <c r="D151" s="31"/>
+      <c r="E151" s="45"/>
+      <c r="F151" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="G151" s="51" t="s">
+      <c r="G151" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="H151" s="53" t="s">
+      <c r="H151" s="12" t="s">
         <v>123</v>
       </c>
       <c r="I151" s="11"/>
       <c r="J151" s="11"/>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A152" s="55"/>
-      <c r="B152" s="29">
+      <c r="A152" s="48"/>
+      <c r="B152" s="32">
         <v>2</v>
       </c>
-      <c r="C152" s="29">
+      <c r="C152" s="32">
         <v>12</v>
       </c>
-      <c r="D152" s="29" t="s">
+      <c r="D152" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="E152" s="29" t="s">
+      <c r="E152" s="32" t="s">
         <v>171</v>
       </c>
       <c r="F152" s="13" t="s">
@@ -7240,11 +8033,11 @@
       <c r="J152" s="13"/>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A153" s="55"/>
-      <c r="B153" s="29"/>
-      <c r="C153" s="29"/>
-      <c r="D153" s="29"/>
-      <c r="E153" s="29"/>
+      <c r="A153" s="48"/>
+      <c r="B153" s="32"/>
+      <c r="C153" s="32"/>
+      <c r="D153" s="32"/>
+      <c r="E153" s="32"/>
       <c r="F153" s="9" t="s">
         <v>19</v>
       </c>
@@ -7258,11 +8051,11 @@
       <c r="J153" s="9"/>
     </row>
     <row r="154" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A154" s="55"/>
-      <c r="B154" s="29"/>
-      <c r="C154" s="29"/>
-      <c r="D154" s="29"/>
-      <c r="E154" s="29"/>
+      <c r="A154" s="48"/>
+      <c r="B154" s="32"/>
+      <c r="C154" s="32"/>
+      <c r="D154" s="32"/>
+      <c r="E154" s="32"/>
       <c r="F154" s="9" t="s">
         <v>23</v>
       </c>
@@ -7276,11 +8069,11 @@
       <c r="J154" s="9"/>
     </row>
     <row r="155" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A155" s="55"/>
-      <c r="B155" s="29"/>
-      <c r="C155" s="29"/>
-      <c r="D155" s="29"/>
-      <c r="E155" s="29"/>
+      <c r="A155" s="48"/>
+      <c r="B155" s="32"/>
+      <c r="C155" s="32"/>
+      <c r="D155" s="32"/>
+      <c r="E155" s="32"/>
       <c r="F155" s="9" t="s">
         <v>26</v>
       </c>
@@ -7294,11 +8087,11 @@
       <c r="J155" s="9"/>
     </row>
     <row r="156" spans="1:10" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="55"/>
-      <c r="B156" s="29"/>
-      <c r="C156" s="29"/>
-      <c r="D156" s="29"/>
-      <c r="E156" s="29"/>
+      <c r="A156" s="48"/>
+      <c r="B156" s="32"/>
+      <c r="C156" s="32"/>
+      <c r="D156" s="32"/>
+      <c r="E156" s="32"/>
       <c r="F156" s="9" t="s">
         <v>29</v>
       </c>
@@ -7312,11 +8105,11 @@
       <c r="J156" s="9"/>
     </row>
     <row r="157" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A157" s="55"/>
-      <c r="B157" s="29"/>
-      <c r="C157" s="29"/>
-      <c r="D157" s="29"/>
-      <c r="E157" s="29"/>
+      <c r="A157" s="48"/>
+      <c r="B157" s="32"/>
+      <c r="C157" s="32"/>
+      <c r="D157" s="32"/>
+      <c r="E157" s="32"/>
       <c r="F157" s="9" t="s">
         <v>32</v>
       </c>
@@ -7330,11 +8123,11 @@
       <c r="J157" s="9"/>
     </row>
     <row r="158" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A158" s="55"/>
-      <c r="B158" s="29"/>
-      <c r="C158" s="29"/>
-      <c r="D158" s="29"/>
-      <c r="E158" s="29"/>
+      <c r="A158" s="48"/>
+      <c r="B158" s="32"/>
+      <c r="C158" s="32"/>
+      <c r="D158" s="32"/>
+      <c r="E158" s="32"/>
       <c r="F158" s="9" t="s">
         <v>35</v>
       </c>
@@ -7348,17 +8141,17 @@
       <c r="J158" s="9"/>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A159" s="55"/>
-      <c r="B159" s="30">
+      <c r="A159" s="48"/>
+      <c r="B159" s="31">
         <v>2</v>
       </c>
-      <c r="C159" s="30">
+      <c r="C159" s="31">
         <v>13</v>
       </c>
-      <c r="D159" s="30" t="s">
+      <c r="D159" s="31" t="s">
         <v>172</v>
       </c>
-      <c r="E159" s="30" t="s">
+      <c r="E159" s="31" t="s">
         <v>173</v>
       </c>
       <c r="F159" s="20" t="s">
@@ -7374,11 +8167,11 @@
       <c r="J159" s="20"/>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A160" s="55"/>
-      <c r="B160" s="30"/>
-      <c r="C160" s="30"/>
-      <c r="D160" s="30"/>
-      <c r="E160" s="30"/>
+      <c r="A160" s="48"/>
+      <c r="B160" s="31"/>
+      <c r="C160" s="31"/>
+      <c r="D160" s="31"/>
+      <c r="E160" s="31"/>
       <c r="F160" s="11" t="s">
         <v>19</v>
       </c>
@@ -7392,11 +8185,11 @@
       <c r="J160" s="11"/>
     </row>
     <row r="161" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A161" s="55"/>
-      <c r="B161" s="30"/>
-      <c r="C161" s="30"/>
-      <c r="D161" s="30"/>
-      <c r="E161" s="30"/>
+      <c r="A161" s="48"/>
+      <c r="B161" s="31"/>
+      <c r="C161" s="31"/>
+      <c r="D161" s="31"/>
+      <c r="E161" s="31"/>
       <c r="F161" s="11" t="s">
         <v>23</v>
       </c>
@@ -7410,11 +8203,11 @@
       <c r="J161" s="11"/>
     </row>
     <row r="162" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A162" s="55"/>
-      <c r="B162" s="30"/>
-      <c r="C162" s="30"/>
-      <c r="D162" s="30"/>
-      <c r="E162" s="30"/>
+      <c r="A162" s="48"/>
+      <c r="B162" s="31"/>
+      <c r="C162" s="31"/>
+      <c r="D162" s="31"/>
+      <c r="E162" s="31"/>
       <c r="F162" s="11" t="s">
         <v>26</v>
       </c>
@@ -7428,11 +8221,11 @@
       <c r="J162" s="11"/>
     </row>
     <row r="163" spans="1:10" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="55"/>
-      <c r="B163" s="30"/>
-      <c r="C163" s="30"/>
-      <c r="D163" s="30"/>
-      <c r="E163" s="30"/>
+      <c r="A163" s="48"/>
+      <c r="B163" s="31"/>
+      <c r="C163" s="31"/>
+      <c r="D163" s="31"/>
+      <c r="E163" s="31"/>
       <c r="F163" s="11" t="s">
         <v>29</v>
       </c>
@@ -7446,11 +8239,11 @@
       <c r="J163" s="11"/>
     </row>
     <row r="164" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A164" s="55"/>
-      <c r="B164" s="30"/>
-      <c r="C164" s="30"/>
-      <c r="D164" s="30"/>
-      <c r="E164" s="30"/>
+      <c r="A164" s="48"/>
+      <c r="B164" s="31"/>
+      <c r="C164" s="31"/>
+      <c r="D164" s="31"/>
+      <c r="E164" s="31"/>
       <c r="F164" s="11" t="s">
         <v>32</v>
       </c>
@@ -7464,11 +8257,11 @@
       <c r="J164" s="11"/>
     </row>
     <row r="165" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A165" s="55"/>
-      <c r="B165" s="30"/>
-      <c r="C165" s="30"/>
-      <c r="D165" s="30"/>
-      <c r="E165" s="30"/>
+      <c r="A165" s="48"/>
+      <c r="B165" s="31"/>
+      <c r="C165" s="31"/>
+      <c r="D165" s="31"/>
+      <c r="E165" s="31"/>
       <c r="F165" s="11" t="s">
         <v>35</v>
       </c>
@@ -7482,17 +8275,17 @@
       <c r="J165" s="11"/>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A166" s="55"/>
-      <c r="B166" s="29">
+      <c r="A166" s="48"/>
+      <c r="B166" s="32">
         <v>2</v>
       </c>
-      <c r="C166" s="29">
+      <c r="C166" s="32">
         <v>14</v>
       </c>
-      <c r="D166" s="29" t="s">
+      <c r="D166" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="E166" s="29" t="s">
+      <c r="E166" s="32" t="s">
         <v>176</v>
       </c>
       <c r="F166" s="13" t="s">
@@ -7508,11 +8301,11 @@
       <c r="J166" s="13"/>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A167" s="55"/>
-      <c r="B167" s="29"/>
-      <c r="C167" s="29"/>
-      <c r="D167" s="29"/>
-      <c r="E167" s="29"/>
+      <c r="A167" s="48"/>
+      <c r="B167" s="32"/>
+      <c r="C167" s="32"/>
+      <c r="D167" s="32"/>
+      <c r="E167" s="32"/>
       <c r="F167" s="9" t="s">
         <v>19</v>
       </c>
@@ -7526,11 +8319,11 @@
       <c r="J167" s="9"/>
     </row>
     <row r="168" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A168" s="55"/>
-      <c r="B168" s="29"/>
-      <c r="C168" s="29"/>
-      <c r="D168" s="29"/>
-      <c r="E168" s="29"/>
+      <c r="A168" s="48"/>
+      <c r="B168" s="32"/>
+      <c r="C168" s="32"/>
+      <c r="D168" s="32"/>
+      <c r="E168" s="32"/>
       <c r="F168" s="9" t="s">
         <v>23</v>
       </c>
@@ -7544,11 +8337,11 @@
       <c r="J168" s="9"/>
     </row>
     <row r="169" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A169" s="55"/>
-      <c r="B169" s="29"/>
-      <c r="C169" s="29"/>
-      <c r="D169" s="29"/>
-      <c r="E169" s="29"/>
+      <c r="A169" s="48"/>
+      <c r="B169" s="32"/>
+      <c r="C169" s="32"/>
+      <c r="D169" s="32"/>
+      <c r="E169" s="32"/>
       <c r="F169" s="9" t="s">
         <v>26</v>
       </c>
@@ -7562,11 +8355,11 @@
       <c r="J169" s="9"/>
     </row>
     <row r="170" spans="1:10" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="55"/>
-      <c r="B170" s="29"/>
-      <c r="C170" s="29"/>
-      <c r="D170" s="29"/>
-      <c r="E170" s="29"/>
+      <c r="A170" s="48"/>
+      <c r="B170" s="32"/>
+      <c r="C170" s="32"/>
+      <c r="D170" s="32"/>
+      <c r="E170" s="32"/>
       <c r="F170" s="9" t="s">
         <v>29</v>
       </c>
@@ -7580,11 +8373,11 @@
       <c r="J170" s="9"/>
     </row>
     <row r="171" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A171" s="55"/>
-      <c r="B171" s="29"/>
-      <c r="C171" s="29"/>
-      <c r="D171" s="29"/>
-      <c r="E171" s="29"/>
+      <c r="A171" s="48"/>
+      <c r="B171" s="32"/>
+      <c r="C171" s="32"/>
+      <c r="D171" s="32"/>
+      <c r="E171" s="32"/>
       <c r="F171" s="9" t="s">
         <v>32</v>
       </c>
@@ -7598,11 +8391,11 @@
       <c r="J171" s="9"/>
     </row>
     <row r="172" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A172" s="55"/>
-      <c r="B172" s="29"/>
-      <c r="C172" s="29"/>
-      <c r="D172" s="29"/>
-      <c r="E172" s="29"/>
+      <c r="A172" s="48"/>
+      <c r="B172" s="32"/>
+      <c r="C172" s="32"/>
+      <c r="D172" s="32"/>
+      <c r="E172" s="32"/>
       <c r="F172" s="9" t="s">
         <v>35</v>
       </c>
@@ -7616,17 +8409,17 @@
       <c r="J172" s="9"/>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A173" s="55"/>
-      <c r="B173" s="30">
+      <c r="A173" s="48"/>
+      <c r="B173" s="31">
         <v>2</v>
       </c>
-      <c r="C173" s="30">
+      <c r="C173" s="31">
         <v>15</v>
       </c>
-      <c r="D173" s="30" t="s">
+      <c r="D173" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="E173" s="30" t="s">
+      <c r="E173" s="31" t="s">
         <v>181</v>
       </c>
       <c r="F173" s="20" t="s">
@@ -7642,11 +8435,11 @@
       <c r="J173" s="20"/>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A174" s="55"/>
-      <c r="B174" s="30"/>
-      <c r="C174" s="30"/>
-      <c r="D174" s="30"/>
-      <c r="E174" s="30"/>
+      <c r="A174" s="48"/>
+      <c r="B174" s="31"/>
+      <c r="C174" s="31"/>
+      <c r="D174" s="31"/>
+      <c r="E174" s="31"/>
       <c r="F174" s="11" t="s">
         <v>19</v>
       </c>
@@ -7660,11 +8453,11 @@
       <c r="J174" s="11"/>
     </row>
     <row r="175" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A175" s="55"/>
-      <c r="B175" s="30"/>
-      <c r="C175" s="30"/>
-      <c r="D175" s="30"/>
-      <c r="E175" s="30"/>
+      <c r="A175" s="48"/>
+      <c r="B175" s="31"/>
+      <c r="C175" s="31"/>
+      <c r="D175" s="31"/>
+      <c r="E175" s="31"/>
       <c r="F175" s="11" t="s">
         <v>23</v>
       </c>
@@ -7678,11 +8471,11 @@
       <c r="J175" s="11"/>
     </row>
     <row r="176" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A176" s="55"/>
-      <c r="B176" s="30"/>
-      <c r="C176" s="30"/>
-      <c r="D176" s="30"/>
-      <c r="E176" s="30"/>
+      <c r="A176" s="48"/>
+      <c r="B176" s="31"/>
+      <c r="C176" s="31"/>
+      <c r="D176" s="31"/>
+      <c r="E176" s="31"/>
       <c r="F176" s="11" t="s">
         <v>26</v>
       </c>
@@ -7696,11 +8489,11 @@
       <c r="J176" s="11"/>
     </row>
     <row r="177" spans="1:10" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="55"/>
-      <c r="B177" s="30"/>
-      <c r="C177" s="30"/>
-      <c r="D177" s="30"/>
-      <c r="E177" s="30"/>
+      <c r="A177" s="48"/>
+      <c r="B177" s="31"/>
+      <c r="C177" s="31"/>
+      <c r="D177" s="31"/>
+      <c r="E177" s="31"/>
       <c r="F177" s="11" t="s">
         <v>29</v>
       </c>
@@ -7714,11 +8507,11 @@
       <c r="J177" s="11"/>
     </row>
     <row r="178" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A178" s="55"/>
-      <c r="B178" s="30"/>
-      <c r="C178" s="30"/>
-      <c r="D178" s="30"/>
-      <c r="E178" s="30"/>
+      <c r="A178" s="48"/>
+      <c r="B178" s="31"/>
+      <c r="C178" s="31"/>
+      <c r="D178" s="31"/>
+      <c r="E178" s="31"/>
       <c r="F178" s="11" t="s">
         <v>32</v>
       </c>
@@ -7732,11 +8525,11 @@
       <c r="J178" s="11"/>
     </row>
     <row r="179" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A179" s="55"/>
-      <c r="B179" s="30"/>
-      <c r="C179" s="30"/>
-      <c r="D179" s="30"/>
-      <c r="E179" s="30"/>
+      <c r="A179" s="48"/>
+      <c r="B179" s="31"/>
+      <c r="C179" s="31"/>
+      <c r="D179" s="31"/>
+      <c r="E179" s="31"/>
       <c r="F179" s="11" t="s">
         <v>35</v>
       </c>
@@ -7750,978 +8543,2020 @@
       <c r="J179" s="11"/>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A180" s="55"/>
-      <c r="B180" s="29">
+      <c r="A180" s="48"/>
+      <c r="B180" s="32">
         <v>2</v>
       </c>
-      <c r="C180" s="29">
+      <c r="C180" s="32">
         <v>16</v>
       </c>
-      <c r="D180" s="42" t="s">
+      <c r="D180" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="E180" s="42" t="s">
+      <c r="E180" s="32" t="s">
         <v>191</v>
       </c>
-      <c r="F180" s="44" t="s">
+      <c r="F180" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G180" s="44" t="s">
+      <c r="G180" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="H180" s="44" t="s">
+      <c r="H180" s="13" t="s">
         <v>154</v>
       </c>
       <c r="I180" s="13"/>
       <c r="J180" s="13"/>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A181" s="55"/>
-      <c r="B181" s="29"/>
-      <c r="C181" s="29"/>
-      <c r="D181" s="42"/>
-      <c r="E181" s="42"/>
-      <c r="F181" s="45" t="s">
+      <c r="A181" s="48"/>
+      <c r="B181" s="32"/>
+      <c r="C181" s="32"/>
+      <c r="D181" s="32"/>
+      <c r="E181" s="32"/>
+      <c r="F181" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G181" s="45" t="s">
+      <c r="G181" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="H181" s="45" t="s">
+      <c r="H181" s="9" t="s">
         <v>113</v>
       </c>
       <c r="I181" s="9"/>
       <c r="J181" s="9"/>
     </row>
     <row r="182" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A182" s="55"/>
-      <c r="B182" s="29"/>
-      <c r="C182" s="29"/>
-      <c r="D182" s="42"/>
-      <c r="E182" s="42"/>
-      <c r="F182" s="45" t="s">
+      <c r="A182" s="48"/>
+      <c r="B182" s="32"/>
+      <c r="C182" s="32"/>
+      <c r="D182" s="32"/>
+      <c r="E182" s="32"/>
+      <c r="F182" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G182" s="45" t="s">
+      <c r="G182" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="H182" s="45" t="s">
+      <c r="H182" s="9" t="s">
         <v>189</v>
       </c>
       <c r="I182" s="9"/>
       <c r="J182" s="9"/>
     </row>
     <row r="183" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A183" s="55"/>
-      <c r="B183" s="29"/>
-      <c r="C183" s="29"/>
-      <c r="D183" s="42"/>
-      <c r="E183" s="42"/>
-      <c r="F183" s="45" t="s">
+      <c r="A183" s="48"/>
+      <c r="B183" s="32"/>
+      <c r="C183" s="32"/>
+      <c r="D183" s="32"/>
+      <c r="E183" s="32"/>
+      <c r="F183" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G183" s="45" t="s">
+      <c r="G183" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="H183" s="45" t="s">
+      <c r="H183" s="9" t="s">
         <v>188</v>
       </c>
       <c r="I183" s="9"/>
       <c r="J183" s="9"/>
     </row>
     <row r="184" spans="1:10" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="55"/>
-      <c r="B184" s="29"/>
-      <c r="C184" s="29"/>
-      <c r="D184" s="42"/>
-      <c r="E184" s="42"/>
-      <c r="F184" s="45" t="s">
+      <c r="A184" s="48"/>
+      <c r="B184" s="32"/>
+      <c r="C184" s="32"/>
+      <c r="D184" s="32"/>
+      <c r="E184" s="32"/>
+      <c r="F184" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G184" s="45" t="s">
+      <c r="G184" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="H184" s="46" t="s">
+      <c r="H184" s="10" t="s">
         <v>46</v>
       </c>
       <c r="I184" s="9"/>
       <c r="J184" s="9"/>
     </row>
     <row r="185" spans="1:10" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="55"/>
-      <c r="B185" s="29"/>
-      <c r="C185" s="29"/>
-      <c r="D185" s="42"/>
-      <c r="E185" s="42"/>
-      <c r="F185" s="45" t="s">
+      <c r="A185" s="48"/>
+      <c r="B185" s="32"/>
+      <c r="C185" s="32"/>
+      <c r="D185" s="32"/>
+      <c r="E185" s="32"/>
+      <c r="F185" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G185" s="45" t="s">
+      <c r="G185" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="H185" s="46" t="s">
+      <c r="H185" s="10" t="s">
         <v>46</v>
       </c>
       <c r="I185" s="9"/>
       <c r="J185" s="9"/>
     </row>
     <row r="186" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A186" s="55"/>
-      <c r="B186" s="29"/>
-      <c r="C186" s="29"/>
-      <c r="D186" s="42"/>
-      <c r="E186" s="42"/>
-      <c r="F186" s="45" t="s">
+      <c r="A186" s="48"/>
+      <c r="B186" s="32"/>
+      <c r="C186" s="32"/>
+      <c r="D186" s="32"/>
+      <c r="E186" s="32"/>
+      <c r="F186" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G186" s="45" t="s">
+      <c r="G186" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="H186" s="45" t="s">
+      <c r="H186" s="9" t="s">
         <v>135</v>
       </c>
       <c r="I186" s="9"/>
       <c r="J186" s="9"/>
     </row>
     <row r="187" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A187" s="55"/>
-      <c r="B187" s="29"/>
-      <c r="C187" s="29"/>
-      <c r="D187" s="42"/>
-      <c r="E187" s="42"/>
-      <c r="F187" s="45" t="s">
+      <c r="A187" s="48"/>
+      <c r="B187" s="32"/>
+      <c r="C187" s="32"/>
+      <c r="D187" s="32"/>
+      <c r="E187" s="32"/>
+      <c r="F187" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G187" s="45" t="s">
+      <c r="G187" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="H187" s="46" t="s">
+      <c r="H187" s="10" t="s">
         <v>123</v>
       </c>
       <c r="I187" s="9"/>
       <c r="J187" s="9"/>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A188" s="55"/>
-      <c r="B188" s="30">
+      <c r="A188" s="48"/>
+      <c r="B188" s="31">
         <v>2</v>
       </c>
-      <c r="C188" s="30">
+      <c r="C188" s="31">
         <v>17</v>
       </c>
-      <c r="D188" s="47" t="s">
+      <c r="D188" s="31" t="s">
         <v>194</v>
       </c>
-      <c r="E188" s="47" t="s">
+      <c r="E188" s="31" t="s">
         <v>193</v>
       </c>
-      <c r="F188" s="49" t="s">
+      <c r="F188" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="G188" s="49" t="s">
+      <c r="G188" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="H188" s="49" t="s">
+      <c r="H188" s="20" t="s">
         <v>154</v>
       </c>
       <c r="I188" s="20"/>
       <c r="J188" s="20"/>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A189" s="55"/>
-      <c r="B189" s="30"/>
-      <c r="C189" s="30"/>
-      <c r="D189" s="47"/>
-      <c r="E189" s="47"/>
-      <c r="F189" s="51" t="s">
+      <c r="A189" s="48"/>
+      <c r="B189" s="31"/>
+      <c r="C189" s="31"/>
+      <c r="D189" s="31"/>
+      <c r="E189" s="31"/>
+      <c r="F189" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G189" s="51" t="s">
+      <c r="G189" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="H189" s="51" t="s">
+      <c r="H189" s="11" t="s">
         <v>113</v>
       </c>
       <c r="I189" s="11"/>
       <c r="J189" s="11"/>
     </row>
     <row r="190" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A190" s="55"/>
-      <c r="B190" s="30"/>
-      <c r="C190" s="30"/>
-      <c r="D190" s="47"/>
-      <c r="E190" s="47"/>
-      <c r="F190" s="51" t="s">
+      <c r="A190" s="48"/>
+      <c r="B190" s="31"/>
+      <c r="C190" s="31"/>
+      <c r="D190" s="31"/>
+      <c r="E190" s="31"/>
+      <c r="F190" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G190" s="51" t="s">
+      <c r="G190" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="H190" s="51" t="s">
+      <c r="H190" s="11" t="s">
         <v>161</v>
       </c>
       <c r="I190" s="11"/>
       <c r="J190" s="11"/>
     </row>
     <row r="191" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A191" s="55"/>
-      <c r="B191" s="30"/>
-      <c r="C191" s="30"/>
-      <c r="D191" s="47"/>
-      <c r="E191" s="47"/>
-      <c r="F191" s="51" t="s">
+      <c r="A191" s="48"/>
+      <c r="B191" s="31"/>
+      <c r="C191" s="31"/>
+      <c r="D191" s="31"/>
+      <c r="E191" s="31"/>
+      <c r="F191" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G191" s="51" t="s">
+      <c r="G191" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="H191" s="51" t="s">
+      <c r="H191" s="11" t="s">
         <v>188</v>
       </c>
       <c r="I191" s="11"/>
       <c r="J191" s="11"/>
     </row>
     <row r="192" spans="1:10" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="55"/>
-      <c r="B192" s="30"/>
-      <c r="C192" s="30"/>
-      <c r="D192" s="47"/>
-      <c r="E192" s="47"/>
-      <c r="F192" s="51" t="s">
+      <c r="A192" s="48"/>
+      <c r="B192" s="31"/>
+      <c r="C192" s="31"/>
+      <c r="D192" s="31"/>
+      <c r="E192" s="31"/>
+      <c r="F192" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G192" s="51" t="s">
+      <c r="G192" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="H192" s="53" t="s">
+      <c r="H192" s="12" t="s">
         <v>46</v>
       </c>
       <c r="I192" s="11"/>
       <c r="J192" s="11"/>
     </row>
     <row r="193" spans="1:10" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="55"/>
-      <c r="B193" s="30"/>
-      <c r="C193" s="30"/>
-      <c r="D193" s="47"/>
-      <c r="E193" s="47"/>
-      <c r="F193" s="51" t="s">
+      <c r="A193" s="48"/>
+      <c r="B193" s="31"/>
+      <c r="C193" s="31"/>
+      <c r="D193" s="31"/>
+      <c r="E193" s="31"/>
+      <c r="F193" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="G193" s="51" t="s">
+      <c r="G193" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="H193" s="53" t="s">
+      <c r="H193" s="12" t="s">
         <v>46</v>
       </c>
       <c r="I193" s="11"/>
       <c r="J193" s="11"/>
     </row>
     <row r="194" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A194" s="55"/>
-      <c r="B194" s="30"/>
-      <c r="C194" s="30"/>
-      <c r="D194" s="47"/>
-      <c r="E194" s="47"/>
-      <c r="F194" s="51" t="s">
+      <c r="A194" s="48"/>
+      <c r="B194" s="31"/>
+      <c r="C194" s="31"/>
+      <c r="D194" s="31"/>
+      <c r="E194" s="31"/>
+      <c r="F194" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="G194" s="51" t="s">
+      <c r="G194" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="H194" s="51" t="s">
+      <c r="H194" s="11" t="s">
         <v>135</v>
       </c>
       <c r="I194" s="11"/>
       <c r="J194" s="11"/>
     </row>
     <row r="195" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A195" s="55"/>
-      <c r="B195" s="30"/>
-      <c r="C195" s="30"/>
-      <c r="D195" s="47"/>
-      <c r="E195" s="47"/>
-      <c r="F195" s="51" t="s">
+      <c r="A195" s="48"/>
+      <c r="B195" s="31"/>
+      <c r="C195" s="31"/>
+      <c r="D195" s="31"/>
+      <c r="E195" s="31"/>
+      <c r="F195" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="G195" s="51" t="s">
+      <c r="G195" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="H195" s="53" t="s">
+      <c r="H195" s="12" t="s">
         <v>123</v>
       </c>
       <c r="I195" s="11"/>
       <c r="J195" s="11"/>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A196" s="55"/>
-      <c r="B196" s="29">
+      <c r="A196" s="48"/>
+      <c r="B196" s="32">
         <v>2</v>
       </c>
-      <c r="C196" s="29">
+      <c r="C196" s="32">
         <v>18</v>
       </c>
-      <c r="D196" s="42" t="s">
+      <c r="D196" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="E196" s="42" t="s">
+      <c r="E196" s="32" t="s">
         <v>196</v>
       </c>
-      <c r="F196" s="44" t="s">
+      <c r="F196" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G196" s="44" t="s">
+      <c r="G196" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="H196" s="44" t="s">
+      <c r="H196" s="13" t="s">
         <v>154</v>
       </c>
       <c r="I196" s="13"/>
       <c r="J196" s="13"/>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A197" s="55"/>
-      <c r="B197" s="29"/>
-      <c r="C197" s="29"/>
-      <c r="D197" s="42"/>
-      <c r="E197" s="42"/>
-      <c r="F197" s="45" t="s">
+      <c r="A197" s="48"/>
+      <c r="B197" s="32"/>
+      <c r="C197" s="32"/>
+      <c r="D197" s="32"/>
+      <c r="E197" s="32"/>
+      <c r="F197" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G197" s="45" t="s">
+      <c r="G197" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="H197" s="45" t="s">
+      <c r="H197" s="9" t="s">
         <v>113</v>
       </c>
       <c r="I197" s="9"/>
       <c r="J197" s="9"/>
     </row>
     <row r="198" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A198" s="55"/>
-      <c r="B198" s="29"/>
-      <c r="C198" s="29"/>
-      <c r="D198" s="42"/>
-      <c r="E198" s="42"/>
-      <c r="F198" s="45" t="s">
+      <c r="A198" s="48"/>
+      <c r="B198" s="32"/>
+      <c r="C198" s="32"/>
+      <c r="D198" s="32"/>
+      <c r="E198" s="32"/>
+      <c r="F198" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G198" s="45" t="s">
+      <c r="G198" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="H198" s="45" t="s">
+      <c r="H198" s="9" t="s">
         <v>197</v>
       </c>
       <c r="I198" s="9"/>
       <c r="J198" s="9"/>
     </row>
     <row r="199" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A199" s="55"/>
-      <c r="B199" s="29"/>
-      <c r="C199" s="29"/>
-      <c r="D199" s="42"/>
-      <c r="E199" s="42"/>
-      <c r="F199" s="45" t="s">
+      <c r="A199" s="48"/>
+      <c r="B199" s="32"/>
+      <c r="C199" s="32"/>
+      <c r="D199" s="32"/>
+      <c r="E199" s="32"/>
+      <c r="F199" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G199" s="45" t="s">
+      <c r="G199" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="H199" s="45" t="s">
+      <c r="H199" s="9" t="s">
         <v>188</v>
       </c>
       <c r="I199" s="9"/>
       <c r="J199" s="9"/>
     </row>
     <row r="200" spans="1:10" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="55"/>
-      <c r="B200" s="29"/>
-      <c r="C200" s="29"/>
-      <c r="D200" s="42"/>
-      <c r="E200" s="42"/>
-      <c r="F200" s="45" t="s">
+      <c r="A200" s="48"/>
+      <c r="B200" s="32"/>
+      <c r="C200" s="32"/>
+      <c r="D200" s="32"/>
+      <c r="E200" s="32"/>
+      <c r="F200" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G200" s="45" t="s">
+      <c r="G200" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="H200" s="46" t="s">
+      <c r="H200" s="10" t="s">
         <v>46</v>
       </c>
       <c r="I200" s="9"/>
       <c r="J200" s="9"/>
     </row>
     <row r="201" spans="1:10" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="55"/>
-      <c r="B201" s="29"/>
-      <c r="C201" s="29"/>
-      <c r="D201" s="42"/>
-      <c r="E201" s="42"/>
-      <c r="F201" s="45" t="s">
+      <c r="A201" s="48"/>
+      <c r="B201" s="32"/>
+      <c r="C201" s="32"/>
+      <c r="D201" s="32"/>
+      <c r="E201" s="32"/>
+      <c r="F201" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G201" s="45" t="s">
+      <c r="G201" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="H201" s="46" t="s">
+      <c r="H201" s="10" t="s">
         <v>46</v>
       </c>
       <c r="I201" s="9"/>
       <c r="J201" s="9"/>
     </row>
     <row r="202" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A202" s="55"/>
-      <c r="B202" s="29"/>
-      <c r="C202" s="29"/>
-      <c r="D202" s="42"/>
-      <c r="E202" s="42"/>
-      <c r="F202" s="45" t="s">
+      <c r="A202" s="48"/>
+      <c r="B202" s="32"/>
+      <c r="C202" s="32"/>
+      <c r="D202" s="32"/>
+      <c r="E202" s="32"/>
+      <c r="F202" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G202" s="45" t="s">
+      <c r="G202" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="H202" s="45" t="s">
+      <c r="H202" s="9" t="s">
         <v>135</v>
       </c>
       <c r="I202" s="9"/>
       <c r="J202" s="9"/>
     </row>
     <row r="203" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A203" s="55"/>
-      <c r="B203" s="29"/>
-      <c r="C203" s="29"/>
-      <c r="D203" s="42"/>
-      <c r="E203" s="42"/>
-      <c r="F203" s="45" t="s">
+      <c r="A203" s="48"/>
+      <c r="B203" s="32"/>
+      <c r="C203" s="32"/>
+      <c r="D203" s="32"/>
+      <c r="E203" s="32"/>
+      <c r="F203" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G203" s="45" t="s">
+      <c r="G203" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="H203" s="46" t="s">
+      <c r="H203" s="10" t="s">
         <v>123</v>
       </c>
       <c r="I203" s="9"/>
       <c r="J203" s="9"/>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A204" s="55"/>
-      <c r="B204" s="30">
+      <c r="A204" s="48"/>
+      <c r="B204" s="31">
         <v>2</v>
       </c>
-      <c r="C204" s="30">
+      <c r="C204" s="31">
         <v>19</v>
       </c>
-      <c r="D204" s="47" t="s">
+      <c r="D204" s="31" t="s">
         <v>201</v>
       </c>
-      <c r="E204" s="48" t="s">
+      <c r="E204" s="44" t="s">
         <v>202</v>
       </c>
-      <c r="F204" s="49" t="s">
+      <c r="F204" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="G204" s="49" t="s">
+      <c r="G204" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="H204" s="49" t="s">
+      <c r="H204" s="20" t="s">
         <v>154</v>
       </c>
       <c r="I204" s="20"/>
       <c r="J204" s="20"/>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A205" s="55"/>
-      <c r="B205" s="30"/>
-      <c r="C205" s="30"/>
-      <c r="D205" s="47"/>
-      <c r="E205" s="50"/>
-      <c r="F205" s="51" t="s">
+      <c r="A205" s="48"/>
+      <c r="B205" s="31"/>
+      <c r="C205" s="31"/>
+      <c r="D205" s="31"/>
+      <c r="E205" s="45"/>
+      <c r="F205" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G205" s="51" t="s">
+      <c r="G205" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="H205" s="51" t="s">
+      <c r="H205" s="11" t="s">
         <v>113</v>
       </c>
       <c r="I205" s="11"/>
       <c r="J205" s="11"/>
     </row>
     <row r="206" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A206" s="55"/>
-      <c r="B206" s="30"/>
-      <c r="C206" s="30"/>
-      <c r="D206" s="47"/>
-      <c r="E206" s="50"/>
-      <c r="F206" s="51" t="s">
+      <c r="A206" s="48"/>
+      <c r="B206" s="31"/>
+      <c r="C206" s="31"/>
+      <c r="D206" s="31"/>
+      <c r="E206" s="45"/>
+      <c r="F206" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G206" s="51" t="s">
+      <c r="G206" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="H206" s="51" t="s">
+      <c r="H206" s="11" t="s">
         <v>189</v>
       </c>
       <c r="I206" s="11"/>
       <c r="J206" s="11"/>
     </row>
     <row r="207" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A207" s="55"/>
-      <c r="B207" s="30"/>
-      <c r="C207" s="30"/>
-      <c r="D207" s="47"/>
-      <c r="E207" s="50"/>
-      <c r="F207" s="51" t="s">
+      <c r="A207" s="48"/>
+      <c r="B207" s="31"/>
+      <c r="C207" s="31"/>
+      <c r="D207" s="31"/>
+      <c r="E207" s="45"/>
+      <c r="F207" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G207" s="51" t="s">
+      <c r="G207" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="H207" s="51" t="s">
+      <c r="H207" s="11" t="s">
         <v>200</v>
       </c>
       <c r="I207" s="11"/>
       <c r="J207" s="11"/>
     </row>
     <row r="208" spans="1:10" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="55"/>
-      <c r="B208" s="30"/>
-      <c r="C208" s="30"/>
-      <c r="D208" s="47"/>
-      <c r="E208" s="50"/>
-      <c r="F208" s="51" t="s">
+      <c r="A208" s="48"/>
+      <c r="B208" s="31"/>
+      <c r="C208" s="31"/>
+      <c r="D208" s="31"/>
+      <c r="E208" s="45"/>
+      <c r="F208" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G208" s="51" t="s">
+      <c r="G208" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="H208" s="53" t="s">
+      <c r="H208" s="12" t="s">
         <v>46</v>
       </c>
       <c r="I208" s="11"/>
       <c r="J208" s="11"/>
     </row>
     <row r="209" spans="1:10" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="55"/>
-      <c r="B209" s="30"/>
-      <c r="C209" s="30"/>
-      <c r="D209" s="47"/>
-      <c r="E209" s="50"/>
-      <c r="F209" s="51" t="s">
+      <c r="A209" s="48"/>
+      <c r="B209" s="31"/>
+      <c r="C209" s="31"/>
+      <c r="D209" s="31"/>
+      <c r="E209" s="45"/>
+      <c r="F209" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="G209" s="51" t="s">
+      <c r="G209" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="H209" s="53" t="s">
+      <c r="H209" s="12" t="s">
         <v>46</v>
       </c>
       <c r="I209" s="11"/>
       <c r="J209" s="11"/>
     </row>
     <row r="210" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A210" s="55"/>
-      <c r="B210" s="30"/>
-      <c r="C210" s="30"/>
-      <c r="D210" s="47"/>
-      <c r="E210" s="50"/>
-      <c r="F210" s="51" t="s">
+      <c r="A210" s="48"/>
+      <c r="B210" s="31"/>
+      <c r="C210" s="31"/>
+      <c r="D210" s="31"/>
+      <c r="E210" s="45"/>
+      <c r="F210" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="G210" s="51" t="s">
+      <c r="G210" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="H210" s="51" t="s">
+      <c r="H210" s="11" t="s">
         <v>135</v>
       </c>
       <c r="I210" s="11"/>
       <c r="J210" s="11"/>
     </row>
     <row r="211" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A211" s="55"/>
-      <c r="B211" s="30"/>
-      <c r="C211" s="30"/>
-      <c r="D211" s="47"/>
-      <c r="E211" s="50"/>
-      <c r="F211" s="51" t="s">
+      <c r="A211" s="48"/>
+      <c r="B211" s="31"/>
+      <c r="C211" s="31"/>
+      <c r="D211" s="31"/>
+      <c r="E211" s="45"/>
+      <c r="F211" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="G211" s="51" t="s">
+      <c r="G211" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="H211" s="53" t="s">
+      <c r="H211" s="12" t="s">
         <v>123</v>
       </c>
       <c r="I211" s="11"/>
       <c r="J211" s="11"/>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A212" s="55"/>
-      <c r="B212" s="29">
+      <c r="A212" s="48"/>
+      <c r="B212" s="32">
         <v>2</v>
       </c>
-      <c r="C212" s="29">
+      <c r="C212" s="32">
         <v>20</v>
       </c>
-      <c r="D212" s="42" t="s">
+      <c r="D212" s="32" t="s">
         <v>205</v>
       </c>
-      <c r="E212" s="43" t="s">
+      <c r="E212" s="62" t="s">
         <v>206</v>
       </c>
-      <c r="F212" s="44" t="s">
+      <c r="F212" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G212" s="44" t="s">
+      <c r="G212" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="H212" s="44" t="s">
+      <c r="H212" s="13" t="s">
         <v>154</v>
       </c>
       <c r="I212" s="13"/>
       <c r="J212" s="13"/>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A213" s="55"/>
-      <c r="B213" s="29"/>
-      <c r="C213" s="29"/>
-      <c r="D213" s="42"/>
-      <c r="E213" s="41"/>
-      <c r="F213" s="45" t="s">
+      <c r="A213" s="48"/>
+      <c r="B213" s="32"/>
+      <c r="C213" s="32"/>
+      <c r="D213" s="32"/>
+      <c r="E213" s="49"/>
+      <c r="F213" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G213" s="45" t="s">
+      <c r="G213" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="H213" s="45" t="s">
+      <c r="H213" s="9" t="s">
         <v>113</v>
       </c>
       <c r="I213" s="9"/>
       <c r="J213" s="9"/>
     </row>
     <row r="214" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A214" s="55"/>
-      <c r="B214" s="29"/>
-      <c r="C214" s="29"/>
-      <c r="D214" s="42"/>
-      <c r="E214" s="41"/>
-      <c r="F214" s="45" t="s">
+      <c r="A214" s="48"/>
+      <c r="B214" s="32"/>
+      <c r="C214" s="32"/>
+      <c r="D214" s="32"/>
+      <c r="E214" s="49"/>
+      <c r="F214" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G214" s="45" t="s">
+      <c r="G214" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="H214" s="45" t="s">
+      <c r="H214" s="9" t="s">
         <v>189</v>
       </c>
       <c r="I214" s="9"/>
       <c r="J214" s="9"/>
     </row>
     <row r="215" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A215" s="55"/>
-      <c r="B215" s="29"/>
-      <c r="C215" s="29"/>
-      <c r="D215" s="42"/>
-      <c r="E215" s="41"/>
-      <c r="F215" s="45" t="s">
+      <c r="A215" s="48"/>
+      <c r="B215" s="32"/>
+      <c r="C215" s="32"/>
+      <c r="D215" s="32"/>
+      <c r="E215" s="49"/>
+      <c r="F215" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G215" s="45" t="s">
+      <c r="G215" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="H215" s="45" t="s">
+      <c r="H215" s="9" t="s">
         <v>204</v>
       </c>
       <c r="I215" s="9"/>
       <c r="J215" s="9"/>
     </row>
     <row r="216" spans="1:10" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="55"/>
-      <c r="B216" s="29"/>
-      <c r="C216" s="29"/>
-      <c r="D216" s="42"/>
-      <c r="E216" s="41"/>
-      <c r="F216" s="45" t="s">
+      <c r="A216" s="48"/>
+      <c r="B216" s="32"/>
+      <c r="C216" s="32"/>
+      <c r="D216" s="32"/>
+      <c r="E216" s="49"/>
+      <c r="F216" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G216" s="45" t="s">
+      <c r="G216" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="H216" s="46" t="s">
+      <c r="H216" s="10" t="s">
         <v>46</v>
       </c>
       <c r="I216" s="9"/>
       <c r="J216" s="9"/>
     </row>
     <row r="217" spans="1:10" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="55"/>
-      <c r="B217" s="29"/>
-      <c r="C217" s="29"/>
-      <c r="D217" s="42"/>
-      <c r="E217" s="41"/>
-      <c r="F217" s="45" t="s">
+      <c r="A217" s="48"/>
+      <c r="B217" s="32"/>
+      <c r="C217" s="32"/>
+      <c r="D217" s="32"/>
+      <c r="E217" s="49"/>
+      <c r="F217" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G217" s="45" t="s">
+      <c r="G217" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="H217" s="46" t="s">
+      <c r="H217" s="10" t="s">
         <v>46</v>
       </c>
       <c r="I217" s="9"/>
       <c r="J217" s="9"/>
     </row>
     <row r="218" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A218" s="55"/>
-      <c r="B218" s="29"/>
-      <c r="C218" s="29"/>
-      <c r="D218" s="42"/>
-      <c r="E218" s="41"/>
-      <c r="F218" s="45" t="s">
+      <c r="A218" s="48"/>
+      <c r="B218" s="32"/>
+      <c r="C218" s="32"/>
+      <c r="D218" s="32"/>
+      <c r="E218" s="49"/>
+      <c r="F218" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G218" s="45" t="s">
+      <c r="G218" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="H218" s="45" t="s">
+      <c r="H218" s="9" t="s">
         <v>135</v>
       </c>
       <c r="I218" s="9"/>
       <c r="J218" s="9"/>
     </row>
     <row r="219" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A219" s="55"/>
-      <c r="B219" s="29"/>
-      <c r="C219" s="29"/>
-      <c r="D219" s="42"/>
-      <c r="E219" s="41"/>
-      <c r="F219" s="45" t="s">
+      <c r="A219" s="48"/>
+      <c r="B219" s="32"/>
+      <c r="C219" s="32"/>
+      <c r="D219" s="32"/>
+      <c r="E219" s="49"/>
+      <c r="F219" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G219" s="45" t="s">
+      <c r="G219" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="H219" s="46" t="s">
+      <c r="H219" s="10" t="s">
         <v>123</v>
       </c>
       <c r="I219" s="9"/>
       <c r="J219" s="9"/>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A220" s="55"/>
-      <c r="B220" s="30">
+      <c r="A220" s="48"/>
+      <c r="B220" s="31">
         <v>2</v>
       </c>
-      <c r="C220" s="30">
+      <c r="C220" s="31">
         <v>21</v>
       </c>
-      <c r="D220" s="47" t="s">
+      <c r="D220" s="31" t="s">
         <v>207</v>
       </c>
-      <c r="E220" s="48" t="s">
+      <c r="E220" s="44" t="s">
         <v>210</v>
       </c>
-      <c r="F220" s="49" t="s">
+      <c r="F220" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="G220" s="49" t="s">
+      <c r="G220" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="H220" s="49" t="s">
+      <c r="H220" s="20" t="s">
         <v>154</v>
       </c>
       <c r="I220" s="20"/>
       <c r="J220" s="20"/>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A221" s="55"/>
-      <c r="B221" s="30"/>
-      <c r="C221" s="30"/>
-      <c r="D221" s="47"/>
-      <c r="E221" s="50"/>
-      <c r="F221" s="51" t="s">
+      <c r="A221" s="48"/>
+      <c r="B221" s="31"/>
+      <c r="C221" s="31"/>
+      <c r="D221" s="31"/>
+      <c r="E221" s="45"/>
+      <c r="F221" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G221" s="51" t="s">
+      <c r="G221" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="H221" s="51" t="s">
+      <c r="H221" s="11" t="s">
         <v>113</v>
       </c>
       <c r="I221" s="11"/>
       <c r="J221" s="11"/>
     </row>
     <row r="222" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A222" s="55"/>
-      <c r="B222" s="30"/>
-      <c r="C222" s="30"/>
-      <c r="D222" s="47"/>
-      <c r="E222" s="50"/>
-      <c r="F222" s="51" t="s">
+      <c r="A222" s="48"/>
+      <c r="B222" s="31"/>
+      <c r="C222" s="31"/>
+      <c r="D222" s="31"/>
+      <c r="E222" s="45"/>
+      <c r="F222" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G222" s="51" t="s">
+      <c r="G222" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="H222" s="51" t="s">
+      <c r="H222" s="11" t="s">
         <v>189</v>
       </c>
       <c r="I222" s="11"/>
       <c r="J222" s="11"/>
     </row>
     <row r="223" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A223" s="55"/>
-      <c r="B223" s="30"/>
-      <c r="C223" s="30"/>
-      <c r="D223" s="47"/>
-      <c r="E223" s="50"/>
-      <c r="F223" s="51" t="s">
+      <c r="A223" s="48"/>
+      <c r="B223" s="31"/>
+      <c r="C223" s="31"/>
+      <c r="D223" s="31"/>
+      <c r="E223" s="45"/>
+      <c r="F223" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G223" s="51" t="s">
+      <c r="G223" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="H223" s="51" t="s">
+      <c r="H223" s="11" t="s">
         <v>209</v>
       </c>
       <c r="I223" s="11"/>
       <c r="J223" s="11"/>
     </row>
     <row r="224" spans="1:10" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="55"/>
-      <c r="B224" s="30"/>
-      <c r="C224" s="30"/>
-      <c r="D224" s="47"/>
-      <c r="E224" s="50"/>
-      <c r="F224" s="51" t="s">
+      <c r="A224" s="48"/>
+      <c r="B224" s="31"/>
+      <c r="C224" s="31"/>
+      <c r="D224" s="31"/>
+      <c r="E224" s="45"/>
+      <c r="F224" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G224" s="51" t="s">
+      <c r="G224" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="H224" s="53" t="s">
+      <c r="H224" s="12" t="s">
         <v>46</v>
       </c>
       <c r="I224" s="11"/>
       <c r="J224" s="11"/>
     </row>
     <row r="225" spans="1:10" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="55"/>
-      <c r="B225" s="30"/>
-      <c r="C225" s="30"/>
-      <c r="D225" s="47"/>
-      <c r="E225" s="50"/>
-      <c r="F225" s="51" t="s">
+      <c r="A225" s="48"/>
+      <c r="B225" s="31"/>
+      <c r="C225" s="31"/>
+      <c r="D225" s="31"/>
+      <c r="E225" s="45"/>
+      <c r="F225" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="G225" s="51" t="s">
+      <c r="G225" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="H225" s="53" t="s">
+      <c r="H225" s="12" t="s">
         <v>46</v>
       </c>
       <c r="I225" s="11"/>
       <c r="J225" s="11"/>
     </row>
     <row r="226" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A226" s="55"/>
-      <c r="B226" s="30"/>
-      <c r="C226" s="30"/>
-      <c r="D226" s="47"/>
-      <c r="E226" s="50"/>
-      <c r="F226" s="51" t="s">
+      <c r="A226" s="48"/>
+      <c r="B226" s="31"/>
+      <c r="C226" s="31"/>
+      <c r="D226" s="31"/>
+      <c r="E226" s="45"/>
+      <c r="F226" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="G226" s="51" t="s">
+      <c r="G226" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="H226" s="51" t="s">
+      <c r="H226" s="11" t="s">
         <v>135</v>
       </c>
       <c r="I226" s="11"/>
       <c r="J226" s="11"/>
     </row>
-    <row r="227" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A227" s="56"/>
-      <c r="B227" s="30"/>
-      <c r="C227" s="30"/>
-      <c r="D227" s="47"/>
-      <c r="E227" s="50"/>
-      <c r="F227" s="51" t="s">
+    <row r="227" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A227" s="52"/>
+      <c r="B227" s="53"/>
+      <c r="C227" s="53"/>
+      <c r="D227" s="53"/>
+      <c r="E227" s="54"/>
+      <c r="F227" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="G227" s="51" t="s">
+      <c r="G227" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="H227" s="53" t="s">
+      <c r="H227" s="56" t="s">
         <v>123</v>
       </c>
-      <c r="I227" s="11"/>
-      <c r="J227" s="11"/>
-    </row>
-    <row r="228" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="I227" s="55"/>
+      <c r="J227" s="55"/>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A228" s="33"/>
+      <c r="B228" s="34">
+        <v>3</v>
+      </c>
+      <c r="C228" s="34">
+        <v>1</v>
+      </c>
+      <c r="D228" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="E228" s="51" t="s">
+        <v>221</v>
+      </c>
+      <c r="F228" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G228" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="H228" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="I228" s="13"/>
+      <c r="J228" s="13"/>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A229" s="33"/>
+      <c r="B229" s="34"/>
+      <c r="C229" s="34"/>
+      <c r="D229" s="34"/>
+      <c r="E229" s="36"/>
+      <c r="F229" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G229" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="H229" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="I229" s="9"/>
+      <c r="J229" s="9"/>
+    </row>
+    <row r="230" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A230" s="33"/>
+      <c r="B230" s="34"/>
+      <c r="C230" s="34"/>
+      <c r="D230" s="34"/>
+      <c r="E230" s="36"/>
+      <c r="F230" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G230" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="H230" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="I230" s="9"/>
+      <c r="J230" s="9"/>
+    </row>
+    <row r="231" spans="1:10" ht="154.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="33"/>
+      <c r="B231" s="34"/>
+      <c r="C231" s="34"/>
+      <c r="D231" s="34"/>
+      <c r="E231" s="36"/>
+      <c r="F231" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G231" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H231" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="I231" s="9"/>
+      <c r="J231" s="9"/>
+    </row>
+    <row r="232" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A232" s="33"/>
+      <c r="B232" s="35"/>
+      <c r="C232" s="35"/>
+      <c r="D232" s="35"/>
+      <c r="E232" s="37"/>
+      <c r="F232" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G232" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="H232" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="I232" s="9"/>
+      <c r="J232" s="9"/>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A233" s="33"/>
+      <c r="B233" s="57">
+        <v>3</v>
+      </c>
+      <c r="C233" s="57">
+        <v>2</v>
+      </c>
+      <c r="D233" s="57" t="s">
+        <v>224</v>
+      </c>
+      <c r="E233" s="58" t="s">
+        <v>225</v>
+      </c>
+      <c r="F233" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G233" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="H233" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="I233" s="20"/>
+      <c r="J233" s="20"/>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A234" s="33"/>
+      <c r="B234" s="57"/>
+      <c r="C234" s="57"/>
+      <c r="D234" s="57"/>
+      <c r="E234" s="59"/>
+      <c r="F234" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G234" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="H234" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="I234" s="11"/>
+      <c r="J234" s="11"/>
+    </row>
+    <row r="235" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A235" s="33"/>
+      <c r="B235" s="57"/>
+      <c r="C235" s="57"/>
+      <c r="D235" s="57"/>
+      <c r="E235" s="59"/>
+      <c r="F235" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G235" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="H235" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="I235" s="11"/>
+      <c r="J235" s="11"/>
+    </row>
+    <row r="236" spans="1:10" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="33"/>
+      <c r="B236" s="57"/>
+      <c r="C236" s="57"/>
+      <c r="D236" s="57"/>
+      <c r="E236" s="59"/>
+      <c r="F236" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G236" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="H236" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="I236" s="11"/>
+      <c r="J236" s="11"/>
+    </row>
+    <row r="237" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A237" s="33"/>
+      <c r="B237" s="60"/>
+      <c r="C237" s="60"/>
+      <c r="D237" s="60"/>
+      <c r="E237" s="61"/>
+      <c r="F237" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G237" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="H237" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="I237" s="11"/>
+      <c r="J237" s="11"/>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A238" s="33"/>
+      <c r="B238" s="34">
+        <v>3</v>
+      </c>
+      <c r="C238" s="34">
+        <v>3</v>
+      </c>
+      <c r="D238" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="E238" s="51" t="s">
+        <v>232</v>
+      </c>
+      <c r="F238" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G238" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="H238" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="I238" s="13"/>
+      <c r="J238" s="13"/>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A239" s="33"/>
+      <c r="B239" s="34"/>
+      <c r="C239" s="34"/>
+      <c r="D239" s="34"/>
+      <c r="E239" s="36"/>
+      <c r="F239" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G239" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="H239" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="I239" s="9"/>
+      <c r="J239" s="9"/>
+    </row>
+    <row r="240" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A240" s="33"/>
+      <c r="B240" s="34"/>
+      <c r="C240" s="34"/>
+      <c r="D240" s="34"/>
+      <c r="E240" s="36"/>
+      <c r="F240" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G240" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="H240" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="I240" s="9"/>
+      <c r="J240" s="9"/>
+    </row>
+    <row r="241" spans="1:10" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="33"/>
+      <c r="B241" s="34"/>
+      <c r="C241" s="34"/>
+      <c r="D241" s="34"/>
+      <c r="E241" s="36"/>
+      <c r="F241" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G241" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H241" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="I241" s="9"/>
+      <c r="J241" s="9"/>
+    </row>
+    <row r="242" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A242" s="33"/>
+      <c r="B242" s="35"/>
+      <c r="C242" s="35"/>
+      <c r="D242" s="35"/>
+      <c r="E242" s="37"/>
+      <c r="F242" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G242" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H242" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="I242" s="9"/>
+      <c r="J242" s="9"/>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A243" s="63"/>
+      <c r="B243" s="31">
+        <v>3</v>
+      </c>
+      <c r="C243" s="57">
+        <v>4</v>
+      </c>
+      <c r="D243" s="57" t="s">
+        <v>236</v>
+      </c>
+      <c r="E243" s="58" t="s">
+        <v>237</v>
+      </c>
+      <c r="F243" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G243" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="H243" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="I243" s="20"/>
+      <c r="J243" s="20"/>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A244" s="63"/>
+      <c r="B244" s="31"/>
+      <c r="C244" s="57"/>
+      <c r="D244" s="57"/>
+      <c r="E244" s="59"/>
+      <c r="F244" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G244" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="H244" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="I244" s="11"/>
+      <c r="J244" s="11"/>
+    </row>
+    <row r="245" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A245" s="63"/>
+      <c r="B245" s="31"/>
+      <c r="C245" s="57"/>
+      <c r="D245" s="57"/>
+      <c r="E245" s="59"/>
+      <c r="F245" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G245" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="H245" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="I245" s="11"/>
+      <c r="J245" s="11"/>
+    </row>
+    <row r="246" spans="1:10" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A246" s="63"/>
+      <c r="B246" s="31"/>
+      <c r="C246" s="57"/>
+      <c r="D246" s="57"/>
+      <c r="E246" s="59"/>
+      <c r="F246" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G246" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="H246" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="I246" s="11"/>
+      <c r="J246" s="11"/>
+    </row>
+    <row r="247" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A247" s="63"/>
+      <c r="B247" s="31"/>
+      <c r="C247" s="60"/>
+      <c r="D247" s="60"/>
+      <c r="E247" s="61"/>
+      <c r="F247" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G247" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="H247" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="I247" s="11"/>
+      <c r="J247" s="11"/>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A248" s="33"/>
+      <c r="B248" s="32">
+        <v>3</v>
+      </c>
+      <c r="C248" s="32">
+        <v>5</v>
+      </c>
+      <c r="D248" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="E248" s="64" t="s">
+        <v>215</v>
+      </c>
+      <c r="F248" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G248" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="H248" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="I248" s="13"/>
+      <c r="J248" s="13"/>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A249" s="33"/>
+      <c r="B249" s="32"/>
+      <c r="C249" s="32"/>
+      <c r="D249" s="32"/>
+      <c r="E249" s="49"/>
+      <c r="F249" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G249" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="H249" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="I249" s="9"/>
+      <c r="J249" s="9"/>
+    </row>
+    <row r="250" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A250" s="33"/>
+      <c r="B250" s="32"/>
+      <c r="C250" s="32"/>
+      <c r="D250" s="32"/>
+      <c r="E250" s="49"/>
+      <c r="F250" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G250" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="H250" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="I250" s="9"/>
+      <c r="J250" s="9"/>
+    </row>
+    <row r="251" spans="1:10" ht="154.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A251" s="33"/>
+      <c r="B251" s="32"/>
+      <c r="C251" s="32"/>
+      <c r="D251" s="32"/>
+      <c r="E251" s="49"/>
+      <c r="F251" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G251" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H251" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="I251" s="9"/>
+      <c r="J251" s="9"/>
+    </row>
+    <row r="252" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A252" s="33"/>
+      <c r="B252" s="32"/>
+      <c r="C252" s="32"/>
+      <c r="D252" s="32"/>
+      <c r="E252" s="49"/>
+      <c r="F252" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G252" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="H252" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="I252" s="9"/>
+      <c r="J252" s="9"/>
+    </row>
+    <row r="253" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A253" s="33"/>
+      <c r="B253" s="32"/>
+      <c r="C253" s="32"/>
+      <c r="D253" s="32"/>
+      <c r="E253" s="49"/>
+      <c r="F253" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G253" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="H253" s="24" t="s">
+        <v>257</v>
+      </c>
+      <c r="I253" s="9"/>
+      <c r="J253" s="9"/>
+    </row>
+    <row r="254" spans="1:10" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A254" s="33"/>
+      <c r="B254" s="32"/>
+      <c r="C254" s="32"/>
+      <c r="D254" s="32"/>
+      <c r="E254" s="49"/>
+      <c r="F254" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G254" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="H254" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="I254" s="9"/>
+      <c r="J254" s="9"/>
+    </row>
+    <row r="255" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A255" s="33"/>
+      <c r="B255" s="32"/>
+      <c r="C255" s="32"/>
+      <c r="D255" s="32"/>
+      <c r="E255" s="49"/>
+      <c r="F255" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G255" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H255" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="I255" s="9"/>
+      <c r="J255" s="9"/>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A256" s="33"/>
+      <c r="B256" s="32"/>
+      <c r="C256" s="32"/>
+      <c r="D256" s="32"/>
+      <c r="E256" s="49"/>
+      <c r="F256" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G256" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="H256" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="I256" s="9"/>
+      <c r="J256" s="9"/>
+    </row>
+    <row r="257" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A257" s="33"/>
+      <c r="B257" s="32"/>
+      <c r="C257" s="32"/>
+      <c r="D257" s="32"/>
+      <c r="E257" s="49"/>
+      <c r="F257" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="G257" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="H257" s="25" t="s">
+        <v>245</v>
+      </c>
+      <c r="I257" s="9"/>
+      <c r="J257" s="9"/>
+    </row>
+    <row r="258" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A258" s="33"/>
+      <c r="B258" s="32"/>
+      <c r="C258" s="32"/>
+      <c r="D258" s="32"/>
+      <c r="E258" s="49"/>
+      <c r="F258" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="G258" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="H258" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="I258" s="9"/>
+      <c r="J258" s="9"/>
+    </row>
+    <row r="259" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A259" s="33"/>
+      <c r="B259" s="32"/>
+      <c r="C259" s="32"/>
+      <c r="D259" s="32"/>
+      <c r="E259" s="49"/>
+      <c r="F259" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="G259" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="H259" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="I259" s="9"/>
+      <c r="J259" s="9"/>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A260" s="33"/>
+      <c r="B260" s="69">
+        <v>3</v>
+      </c>
+      <c r="C260" s="69">
+        <v>6</v>
+      </c>
+      <c r="D260" s="69" t="s">
+        <v>251</v>
+      </c>
+      <c r="E260" s="69" t="s">
+        <v>252</v>
+      </c>
+      <c r="F260" s="66" t="s">
+        <v>20</v>
+      </c>
+      <c r="G260" s="66" t="s">
+        <v>155</v>
+      </c>
+      <c r="H260" s="66" t="s">
+        <v>154</v>
+      </c>
+      <c r="I260" s="20"/>
+      <c r="J260" s="20"/>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A261" s="33"/>
+      <c r="B261" s="69"/>
+      <c r="C261" s="69"/>
+      <c r="D261" s="69"/>
+      <c r="E261" s="69"/>
+      <c r="F261" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="G261" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="H261" s="67" t="s">
+        <v>214</v>
+      </c>
+      <c r="I261" s="11"/>
+      <c r="J261" s="11"/>
+    </row>
+    <row r="262" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A262" s="33"/>
+      <c r="B262" s="69"/>
+      <c r="C262" s="69"/>
+      <c r="D262" s="69"/>
+      <c r="E262" s="69"/>
+      <c r="F262" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="G262" s="67" t="s">
+        <v>216</v>
+      </c>
+      <c r="H262" s="67" t="s">
+        <v>217</v>
+      </c>
+      <c r="I262" s="11"/>
+      <c r="J262" s="11"/>
+    </row>
+    <row r="263" spans="1:10" ht="154.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A263" s="33"/>
+      <c r="B263" s="69"/>
+      <c r="C263" s="69"/>
+      <c r="D263" s="69"/>
+      <c r="E263" s="69"/>
+      <c r="F263" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="G263" s="67" t="s">
+        <v>218</v>
+      </c>
+      <c r="H263" s="68" t="s">
+        <v>219</v>
+      </c>
+      <c r="I263" s="11"/>
+      <c r="J263" s="11"/>
+    </row>
+    <row r="264" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A264" s="33"/>
+      <c r="B264" s="69"/>
+      <c r="C264" s="69"/>
+      <c r="D264" s="69"/>
+      <c r="E264" s="69"/>
+      <c r="F264" s="67" t="s">
+        <v>29</v>
+      </c>
+      <c r="G264" s="67" t="s">
+        <v>253</v>
+      </c>
+      <c r="H264" s="67" t="s">
+        <v>255</v>
+      </c>
+      <c r="I264" s="11"/>
+      <c r="J264" s="11"/>
+    </row>
+    <row r="265" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A265" s="33"/>
+      <c r="B265" s="69"/>
+      <c r="C265" s="69"/>
+      <c r="D265" s="69"/>
+      <c r="E265" s="69"/>
+      <c r="F265" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="G265" s="67" t="s">
+        <v>259</v>
+      </c>
+      <c r="H265" s="67" t="s">
+        <v>260</v>
+      </c>
+      <c r="I265" s="11"/>
+      <c r="J265" s="11"/>
+    </row>
+    <row r="266" spans="1:10" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A266" s="33"/>
+      <c r="B266" s="69"/>
+      <c r="C266" s="69"/>
+      <c r="D266" s="69"/>
+      <c r="E266" s="69"/>
+      <c r="F266" s="67" t="s">
+        <v>35</v>
+      </c>
+      <c r="G266" s="67" t="s">
+        <v>241</v>
+      </c>
+      <c r="H266" s="68" t="s">
+        <v>242</v>
+      </c>
+      <c r="I266" s="11"/>
+      <c r="J266" s="11"/>
+    </row>
+    <row r="267" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A267" s="33"/>
+      <c r="B267" s="69"/>
+      <c r="C267" s="69"/>
+      <c r="D267" s="69"/>
+      <c r="E267" s="69"/>
+      <c r="F267" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="G267" s="67" t="s">
+        <v>262</v>
+      </c>
+      <c r="H267" s="67" t="s">
+        <v>263</v>
+      </c>
+      <c r="I267" s="11"/>
+      <c r="J267" s="11"/>
+    </row>
+    <row r="268" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A268" s="33"/>
+      <c r="B268" s="69"/>
+      <c r="C268" s="69"/>
+      <c r="D268" s="69"/>
+      <c r="E268" s="69"/>
+      <c r="F268" s="67" t="s">
+        <v>47</v>
+      </c>
+      <c r="G268" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="H268" s="67" t="s">
+        <v>243</v>
+      </c>
+      <c r="I268" s="11"/>
+      <c r="J268" s="11"/>
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A269" s="33"/>
+      <c r="B269" s="69"/>
+      <c r="C269" s="69"/>
+      <c r="D269" s="69"/>
+      <c r="E269" s="69"/>
+      <c r="F269" s="67" t="s">
+        <v>244</v>
+      </c>
+      <c r="G269" s="67" t="s">
+        <v>112</v>
+      </c>
+      <c r="H269" s="67" t="s">
+        <v>113</v>
+      </c>
+      <c r="I269" s="11"/>
+      <c r="J269" s="11"/>
+    </row>
+    <row r="270" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A270" s="33"/>
+      <c r="B270" s="69"/>
+      <c r="C270" s="69"/>
+      <c r="D270" s="69"/>
+      <c r="E270" s="69"/>
+      <c r="F270" s="67" t="s">
+        <v>246</v>
+      </c>
+      <c r="G270" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="H270" s="68" t="s">
+        <v>245</v>
+      </c>
+      <c r="I270" s="11"/>
+      <c r="J270" s="11"/>
+    </row>
+    <row r="271" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A271" s="33"/>
+      <c r="B271" s="69"/>
+      <c r="C271" s="69"/>
+      <c r="D271" s="69"/>
+      <c r="E271" s="69"/>
+      <c r="F271" s="67" t="s">
+        <v>249</v>
+      </c>
+      <c r="G271" s="67" t="s">
+        <v>264</v>
+      </c>
+      <c r="H271" s="67" t="s">
+        <v>248</v>
+      </c>
+      <c r="I271" s="11"/>
+      <c r="J271" s="11"/>
+    </row>
+    <row r="272" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A272" s="33"/>
+      <c r="B272" s="69"/>
+      <c r="C272" s="69"/>
+      <c r="D272" s="69"/>
+      <c r="E272" s="69"/>
+      <c r="F272" s="67" t="s">
+        <v>261</v>
+      </c>
+      <c r="G272" s="67" t="s">
+        <v>223</v>
+      </c>
+      <c r="H272" s="68" t="s">
+        <v>250</v>
+      </c>
+      <c r="I272" s="11"/>
+      <c r="J272" s="11"/>
+    </row>
+    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A273" s="33"/>
+      <c r="B273" s="69">
+        <v>3</v>
+      </c>
+      <c r="C273" s="69">
+        <v>7</v>
+      </c>
+      <c r="D273" s="69" t="s">
+        <v>265</v>
+      </c>
+      <c r="E273" s="69" t="s">
+        <v>266</v>
+      </c>
+      <c r="F273" s="66" t="s">
+        <v>20</v>
+      </c>
+      <c r="G273" s="66" t="s">
+        <v>155</v>
+      </c>
+      <c r="H273" s="66" t="s">
+        <v>154</v>
+      </c>
+      <c r="I273" s="20"/>
+      <c r="J273" s="20"/>
+    </row>
+    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A274" s="33"/>
+      <c r="B274" s="69"/>
+      <c r="C274" s="69"/>
+      <c r="D274" s="69"/>
+      <c r="E274" s="69"/>
+      <c r="F274" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="G274" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="H274" s="67" t="s">
+        <v>214</v>
+      </c>
+      <c r="I274" s="11"/>
+      <c r="J274" s="11"/>
+    </row>
+    <row r="275" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A275" s="33"/>
+      <c r="B275" s="69"/>
+      <c r="C275" s="69"/>
+      <c r="D275" s="69"/>
+      <c r="E275" s="69"/>
+      <c r="F275" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="G275" s="67" t="s">
+        <v>216</v>
+      </c>
+      <c r="H275" s="67" t="s">
+        <v>217</v>
+      </c>
+      <c r="I275" s="11"/>
+      <c r="J275" s="11"/>
+    </row>
+    <row r="276" spans="1:10" ht="154.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A276" s="33"/>
+      <c r="B276" s="69"/>
+      <c r="C276" s="69"/>
+      <c r="D276" s="69"/>
+      <c r="E276" s="69"/>
+      <c r="F276" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="G276" s="67" t="s">
+        <v>218</v>
+      </c>
+      <c r="H276" s="68" t="s">
+        <v>219</v>
+      </c>
+      <c r="I276" s="11"/>
+      <c r="J276" s="11"/>
+    </row>
+    <row r="277" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A277" s="33"/>
+      <c r="B277" s="69"/>
+      <c r="C277" s="69"/>
+      <c r="D277" s="69"/>
+      <c r="E277" s="69"/>
+      <c r="F277" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="G277" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="H277" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="I277" s="11"/>
+      <c r="J277" s="11"/>
+    </row>
+    <row r="278" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A278" s="33"/>
+      <c r="B278" s="69"/>
+      <c r="C278" s="69"/>
+      <c r="D278" s="69"/>
+      <c r="E278" s="69"/>
+      <c r="F278" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="G278" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="H278" s="29" t="s">
+        <v>260</v>
+      </c>
+      <c r="I278" s="11"/>
+      <c r="J278" s="11"/>
+    </row>
+    <row r="279" spans="1:10" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A279" s="33"/>
+      <c r="B279" s="69"/>
+      <c r="C279" s="69"/>
+      <c r="D279" s="69"/>
+      <c r="E279" s="69"/>
+      <c r="F279" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="G279" s="29" t="s">
+        <v>241</v>
+      </c>
+      <c r="H279" s="65" t="s">
+        <v>242</v>
+      </c>
+      <c r="I279" s="11"/>
+      <c r="J279" s="11"/>
+    </row>
+    <row r="280" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A280" s="33"/>
+      <c r="B280" s="69"/>
+      <c r="C280" s="69"/>
+      <c r="D280" s="69"/>
+      <c r="E280" s="69"/>
+      <c r="F280" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="G280" s="29" t="s">
+        <v>262</v>
+      </c>
+      <c r="H280" s="29" t="s">
+        <v>263</v>
+      </c>
+      <c r="I280" s="11"/>
+      <c r="J280" s="11"/>
+    </row>
+    <row r="281" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A281" s="33"/>
+      <c r="B281" s="69"/>
+      <c r="C281" s="69"/>
+      <c r="D281" s="69"/>
+      <c r="E281" s="69"/>
+      <c r="F281" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="G281" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="H281" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="I281" s="11"/>
+      <c r="J281" s="11"/>
+    </row>
+    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A282" s="33"/>
+      <c r="B282" s="69"/>
+      <c r="C282" s="69"/>
+      <c r="D282" s="69"/>
+      <c r="E282" s="69"/>
+      <c r="F282" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="G282" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="H282" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="I282" s="11"/>
+      <c r="J282" s="11"/>
+    </row>
+    <row r="283" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A283" s="33"/>
+      <c r="B283" s="69"/>
+      <c r="C283" s="69"/>
+      <c r="D283" s="69"/>
+      <c r="E283" s="69"/>
+      <c r="F283" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="G283" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="H283" s="65" t="s">
+        <v>245</v>
+      </c>
+      <c r="I283" s="11"/>
+      <c r="J283" s="11"/>
+    </row>
+    <row r="284" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A284" s="33"/>
+      <c r="B284" s="69"/>
+      <c r="C284" s="69"/>
+      <c r="D284" s="69"/>
+      <c r="E284" s="69"/>
+      <c r="F284" s="67" t="s">
+        <v>249</v>
+      </c>
+      <c r="G284" s="67" t="s">
+        <v>264</v>
+      </c>
+      <c r="H284" s="67" t="s">
+        <v>248</v>
+      </c>
+      <c r="I284" s="11"/>
+      <c r="J284" s="11"/>
+    </row>
+    <row r="285" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A285" s="33"/>
+      <c r="B285" s="69"/>
+      <c r="C285" s="69"/>
+      <c r="D285" s="69"/>
+      <c r="E285" s="69"/>
+      <c r="F285" s="67" t="s">
+        <v>261</v>
+      </c>
+      <c r="G285" s="67" t="s">
+        <v>223</v>
+      </c>
+      <c r="H285" s="68" t="s">
+        <v>250</v>
+      </c>
+      <c r="I285" s="11"/>
+      <c r="J285" s="11"/>
+    </row>
+    <row r="286" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="289" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="290" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="291" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8938,15 +10773,71 @@
     <row r="502" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="503" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="504" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A1:J1" xr:uid="{B0953F3B-78FC-43F3-9402-DE0C5199EBA3}"/>
-  <mergeCells count="122">
-    <mergeCell ref="A81:A227"/>
-    <mergeCell ref="B212:B219"/>
-    <mergeCell ref="C212:C219"/>
-    <mergeCell ref="D212:D219"/>
-    <mergeCell ref="E212:E219"/>
-    <mergeCell ref="B220:B227"/>
+  <mergeCells count="157">
+    <mergeCell ref="A273:A285"/>
+    <mergeCell ref="B273:B285"/>
+    <mergeCell ref="C273:C285"/>
+    <mergeCell ref="D273:D285"/>
+    <mergeCell ref="E273:E285"/>
+    <mergeCell ref="A243:A247"/>
+    <mergeCell ref="B243:B247"/>
+    <mergeCell ref="C243:C247"/>
+    <mergeCell ref="D243:D247"/>
+    <mergeCell ref="E243:E247"/>
+    <mergeCell ref="A260:A272"/>
+    <mergeCell ref="B260:B272"/>
+    <mergeCell ref="C260:C272"/>
+    <mergeCell ref="D260:D272"/>
+    <mergeCell ref="E260:E272"/>
+    <mergeCell ref="A233:A237"/>
+    <mergeCell ref="B233:B237"/>
+    <mergeCell ref="C233:C237"/>
+    <mergeCell ref="D233:D237"/>
+    <mergeCell ref="E233:E237"/>
+    <mergeCell ref="A238:A242"/>
+    <mergeCell ref="B238:B242"/>
+    <mergeCell ref="C238:C242"/>
+    <mergeCell ref="D238:D242"/>
+    <mergeCell ref="E238:E242"/>
+    <mergeCell ref="B180:B187"/>
+    <mergeCell ref="C180:C187"/>
+    <mergeCell ref="D180:D187"/>
+    <mergeCell ref="E180:E187"/>
+    <mergeCell ref="B188:B195"/>
+    <mergeCell ref="C188:C195"/>
+    <mergeCell ref="D188:D195"/>
+    <mergeCell ref="A228:A232"/>
+    <mergeCell ref="B228:B232"/>
+    <mergeCell ref="C228:C232"/>
+    <mergeCell ref="D228:D232"/>
+    <mergeCell ref="E228:E232"/>
     <mergeCell ref="C220:C227"/>
     <mergeCell ref="D220:D227"/>
     <mergeCell ref="E220:E227"/>
@@ -8958,26 +10849,18 @@
     <mergeCell ref="C204:C211"/>
     <mergeCell ref="D204:D211"/>
     <mergeCell ref="E204:E211"/>
-    <mergeCell ref="B180:B187"/>
-    <mergeCell ref="C180:C187"/>
-    <mergeCell ref="D180:D187"/>
-    <mergeCell ref="E180:E187"/>
-    <mergeCell ref="B188:B195"/>
-    <mergeCell ref="C188:C195"/>
-    <mergeCell ref="D188:D195"/>
-    <mergeCell ref="E188:E195"/>
-    <mergeCell ref="B118:B124"/>
-    <mergeCell ref="C118:C124"/>
-    <mergeCell ref="D118:D124"/>
-    <mergeCell ref="E118:E124"/>
-    <mergeCell ref="B173:B179"/>
-    <mergeCell ref="C173:C179"/>
-    <mergeCell ref="D173:D179"/>
-    <mergeCell ref="E173:E179"/>
     <mergeCell ref="B145:B151"/>
     <mergeCell ref="C145:C151"/>
     <mergeCell ref="D145:D151"/>
     <mergeCell ref="E145:E151"/>
+    <mergeCell ref="B131:B137"/>
+    <mergeCell ref="C131:C137"/>
+    <mergeCell ref="D131:D137"/>
+    <mergeCell ref="E131:E137"/>
+    <mergeCell ref="B152:B158"/>
+    <mergeCell ref="C152:C158"/>
+    <mergeCell ref="D152:D158"/>
+    <mergeCell ref="E152:E158"/>
     <mergeCell ref="A2:A80"/>
     <mergeCell ref="B104:B110"/>
     <mergeCell ref="C104:C110"/>
@@ -9002,19 +10885,6 @@
     <mergeCell ref="C97:C103"/>
     <mergeCell ref="D97:D103"/>
     <mergeCell ref="E97:E103"/>
-    <mergeCell ref="B85:B90"/>
-    <mergeCell ref="C85:C90"/>
-    <mergeCell ref="D85:D90"/>
-    <mergeCell ref="E85:E90"/>
-    <mergeCell ref="B10:B18"/>
-    <mergeCell ref="E28:E36"/>
-    <mergeCell ref="B37:B45"/>
-    <mergeCell ref="C37:C45"/>
-    <mergeCell ref="D37:D45"/>
-    <mergeCell ref="E37:E45"/>
-    <mergeCell ref="B28:B36"/>
-    <mergeCell ref="C28:C36"/>
-    <mergeCell ref="D28:D36"/>
     <mergeCell ref="B46:B54"/>
     <mergeCell ref="C46:C54"/>
     <mergeCell ref="D46:D54"/>
@@ -9026,6 +10896,15 @@
     <mergeCell ref="B63:B71"/>
     <mergeCell ref="C63:C71"/>
     <mergeCell ref="D63:D71"/>
+    <mergeCell ref="B10:B18"/>
+    <mergeCell ref="E28:E36"/>
+    <mergeCell ref="B37:B45"/>
+    <mergeCell ref="C37:C45"/>
+    <mergeCell ref="D37:D45"/>
+    <mergeCell ref="E37:E45"/>
+    <mergeCell ref="B28:B36"/>
+    <mergeCell ref="C28:C36"/>
+    <mergeCell ref="D28:D36"/>
     <mergeCell ref="E63:E71"/>
     <mergeCell ref="B72:B80"/>
     <mergeCell ref="C72:C80"/>
@@ -9035,10 +10914,10 @@
     <mergeCell ref="C91:C96"/>
     <mergeCell ref="D91:D96"/>
     <mergeCell ref="E91:E96"/>
-    <mergeCell ref="B131:B137"/>
-    <mergeCell ref="C131:C137"/>
-    <mergeCell ref="D131:D137"/>
-    <mergeCell ref="E131:E137"/>
+    <mergeCell ref="B85:B90"/>
+    <mergeCell ref="C85:C90"/>
+    <mergeCell ref="D85:D90"/>
+    <mergeCell ref="E85:E90"/>
     <mergeCell ref="B111:B117"/>
     <mergeCell ref="C111:C117"/>
     <mergeCell ref="D111:D117"/>
@@ -9051,18 +10930,34 @@
     <mergeCell ref="C138:C144"/>
     <mergeCell ref="D138:D144"/>
     <mergeCell ref="E138:E144"/>
-    <mergeCell ref="B152:B158"/>
-    <mergeCell ref="C152:C158"/>
-    <mergeCell ref="D152:D158"/>
-    <mergeCell ref="E152:E158"/>
-    <mergeCell ref="B159:B165"/>
-    <mergeCell ref="C159:C165"/>
-    <mergeCell ref="D159:D165"/>
+    <mergeCell ref="B118:B124"/>
+    <mergeCell ref="C118:C124"/>
+    <mergeCell ref="D118:D124"/>
+    <mergeCell ref="E118:E124"/>
     <mergeCell ref="E159:E165"/>
     <mergeCell ref="B166:B172"/>
     <mergeCell ref="C166:C172"/>
     <mergeCell ref="D166:D172"/>
     <mergeCell ref="E166:E172"/>
+    <mergeCell ref="A248:A259"/>
+    <mergeCell ref="B248:B259"/>
+    <mergeCell ref="C248:C259"/>
+    <mergeCell ref="D248:D259"/>
+    <mergeCell ref="E248:E259"/>
+    <mergeCell ref="E188:E195"/>
+    <mergeCell ref="B173:B179"/>
+    <mergeCell ref="C173:C179"/>
+    <mergeCell ref="D173:D179"/>
+    <mergeCell ref="E173:E179"/>
+    <mergeCell ref="B159:B165"/>
+    <mergeCell ref="C159:C165"/>
+    <mergeCell ref="D159:D165"/>
+    <mergeCell ref="A81:A227"/>
+    <mergeCell ref="B212:B219"/>
+    <mergeCell ref="C212:C219"/>
+    <mergeCell ref="D212:D219"/>
+    <mergeCell ref="E212:E219"/>
+    <mergeCell ref="B220:B227"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9088,13 +10983,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
@@ -9250,13 +11145,13 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
@@ -9344,13 +11239,13 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="50" t="s">
         <v>127</v>
       </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
@@ -9438,13 +11333,13 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="40" t="s">
+      <c r="A23" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="B23" s="40"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">

--- a/testy/scenariusze_testowe.xlsx
+++ b/testy/scenariusze_testowe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Studia WSB - Tester oprogramowania\App_zaliczenie\App_zaliczenie\testy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6148657E-CA3A-4250-93FB-6E26874081AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC93B557-4E5F-4551-AB36-83B08DE05185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="295">
   <si>
     <t>Scenariusze testowe:</t>
   </si>
@@ -827,10 +827,94 @@
     <t>Porównanie kwoty podanej w kroku nr 5 z nazwą wyświetlaną w tabeli przy użyciu funkcjonalności "Pokaż wydatki" --&gt; "Pokaż wszystkie"</t>
   </si>
   <si>
-    <t>Test edycji paragonu z poprawnie wybraną nową datą</t>
-  </si>
-  <si>
     <t>Użytkownik powinien mieć możliwość zmiany daty dokonania wydatku poprzez wybranie nowej z widgetu wyboru daty</t>
+  </si>
+  <si>
+    <t>Test edycji paragonu z poprawnie wybraną nową datą - data wcześniejsza niż dziś</t>
+  </si>
+  <si>
+    <t>W polu o nazwie "Zmień datę:" wyświetla się nowa wartość "2024-02-01"</t>
+  </si>
+  <si>
+    <t>Porównanie daty podanej w kroku nr 4 z datą zakupu wyświetlaną w tabeli przy użyciu funkcjonalności "Pokaż wydatki" --&gt; "Pokaż wszystkie"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dane wpisane w kroku nr 4 czyli "2024-02-01" pokrywają się z danymi wyświetlonymi z bazy danych </t>
+  </si>
+  <si>
+    <t>Test edycji paragonu z poprawnie wybraną nową datą - data dzisiejsza</t>
+  </si>
+  <si>
+    <t>Wybranie nowej daty wcześniejszej niż dziś w polu "Zmień datę:" z widgetu wybierania daty  - "2024-02-01"</t>
+  </si>
+  <si>
+    <t>Skasowanie daty w polu "Zmień datę:" i kliknięcie przycisku TAB</t>
+  </si>
+  <si>
+    <t>W polu o nazwie "Zmień datę:" po skasowaniu aktualnej daty i kliknięciu TAB automatycznie uzupełnia się nowa - dzisiejsza data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pojawienie się okienka o nazwie "Zaktualizowano dane" z informacją jak na poniższym screenie (zamiast czerwonego napisu powinna wyświetlić się dzisiejsza data w formacie YYYY-MM-DD)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">W dolnej sekcji okna o nazwie "Wydatki" pojawia się tabela z danymi z bazy danych(patrz wydatek z ID nr 1)(zamiast czerwonego napisu powinna wyświetlić się dzisiejsza data w formacie YYYY-MM-DD)  </t>
+  </si>
+  <si>
+    <t>Porównanie daty automatycznie uzupełnionej w kroku nr 4 z datą zakupu wyświetlaną w tabeli przy użyciu funkcjonalności "Pokaż wydatki" --&gt; "Pokaż wszystkie"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dane wpisane w kroku nr 4 czyli pokrywają się z danymi wyświetlonymi z bazy danych </t>
+  </si>
+  <si>
+    <t>Test edycji paragonu z poprawnie wybraną nową kategorią</t>
+  </si>
+  <si>
+    <t>Użytkownik powinien mieć możliwość zmiany kategorii wydatku na dowolną z listy rozwijanej pola "Nowa kategoria:"</t>
+  </si>
+  <si>
+    <t>Wybranie z listy rozwijanej w polu o nazwie "Nowa kiategoria:" kategorii o nazwie "pozostałe"</t>
+  </si>
+  <si>
+    <t>W polu o nazwie "Nowa kategoria:" wyświetla się wartość "pozostałe"</t>
+  </si>
+  <si>
+    <t>Porównanie kategorii wybranej w kroku nr 4 z kategorią wyświetlaną w tabeli przy użyciu funkcjonalności "Pokaż wydatki" --&gt; "Pokaż wszystkie"</t>
+  </si>
+  <si>
+    <t>Dane wpisane w kroku nr 4 pokrywają się z danymi wyświetlonymi z bazy danych</t>
+  </si>
+  <si>
+    <t>Test edycji paragonu z niepoprawnie wpisaną nową nazwą wydatku (brak nazwy w polu "Zmień nazwe:")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Użytkownikowi po wykasowaniu nazwy wydatku powinien zostać wyświetlony messagebox o treści "Brak nazwy!" </t>
+  </si>
+  <si>
+    <t>Zamknięcie okienka dialogowego. Okno aplikacji o nazwie "Edytuj wydatki"  pozostaje otwarte umożliwiając poprawienie danych lub cofnięcie się przyciskiem "Powrót"</t>
+  </si>
+  <si>
+    <t>Okno aplikacji o nazwie "Edytuj wydatki"  zostaje zamknięte, następuje powrót do menu głównego. Paragon nie zostaje edytowany.</t>
+  </si>
+  <si>
+    <t>Test edycji paragonu z niepoprawnie wpisaną nową kwotą wydatku (brak kwoty w polu "Zmień kwotę:")</t>
+  </si>
+  <si>
+    <t>Użytkownikowi po wykasowaniu kwoty wydatku powinien zostać wyświetlony messagebox o treści "Niepoprawne dane!"</t>
+  </si>
+  <si>
+    <t>Skasowanie wyświetlanej kwoty "35.5" w polu o nazwie "Zmień kwotę:"</t>
+  </si>
+  <si>
+    <t>Test edycji paragonu z niepoprawnie wpisaną nową kwotą wydatku (kwota wydatku jest równa 0)</t>
+  </si>
+  <si>
+    <t>Użytkownikowi po wpisaniu kwoty wydatku równej 0(zero) powinien zostać wyświetlony messagebox o treści "Kwota paragonu nie może być zerem!"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wpisanie nowej kwoty - "0" w polu o nazwie "Zmień kwotę:" </t>
+  </si>
+  <si>
+    <t>W polu entry o nazwie "Zmień kwotę:" wyświetla się nowa wartość "0"</t>
   </si>
 </sst>
 </file>
@@ -840,12 +924,20 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1072,7 +1164,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1086,16 +1178,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1114,7 +1206,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1132,43 +1224,67 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1177,16 +1293,31 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1201,13 +1332,16 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1216,58 +1350,31 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1275,9 +1382,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3301,20 +3405,25 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2019300</xdr:colOff>
-      <xdr:row>278</xdr:row>
-      <xdr:rowOff>238124</xdr:rowOff>
+      <xdr:colOff>1962150</xdr:colOff>
+      <xdr:row>277</xdr:row>
+      <xdr:rowOff>253776</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1819479" cy="1514693"/>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3733800</xdr:colOff>
+      <xdr:row>277</xdr:row>
+      <xdr:rowOff>1724246</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="55" name="Obraz 54">
+        <xdr:cNvPr id="28" name="Obraz 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21B8E0B8-ADD0-4F65-B89B-8282B9B61655}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7936C201-86A6-AA26-486A-03AFAC624D6D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3323,15 +3432,98 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10906125" y="163172774"/>
-          <a:ext cx="1819479" cy="1514693"/>
+          <a:off x="10848975" y="171760926"/>
+          <a:ext cx="1771650" cy="1470470"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>123826</xdr:colOff>
+      <xdr:row>280</xdr:row>
+      <xdr:rowOff>466724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>5601104</xdr:colOff>
+      <xdr:row>280</xdr:row>
+      <xdr:rowOff>1038329</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Obraz 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3F0C08A-2493-C52B-7DC5-B8DF6DC5D94D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9010651" y="174374174"/>
+          <a:ext cx="5477278" cy="571605"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1038226</xdr:colOff>
+      <xdr:row>286</xdr:row>
+      <xdr:rowOff>450531</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3695700" cy="1426141"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Obraz 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42101E28-C721-4D5B-AA0B-37D77153020E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9925051" y="169424031"/>
+          <a:ext cx="3695700" cy="1426141"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3343,17 +3535,17 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>282</xdr:row>
-      <xdr:rowOff>447674</xdr:rowOff>
+      <xdr:colOff>1990725</xdr:colOff>
+      <xdr:row>288</xdr:row>
+      <xdr:rowOff>444276</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="5506219" cy="581131"/>
+    <xdr:ext cx="1771650" cy="1470470"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="56" name="Obraz 55">
+        <xdr:cNvPr id="44" name="Obraz 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3608EFC3-2EDD-4706-B96F-9D3B9FD287F8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A53E6A0-13FA-4153-8ABA-B71DD3BC4847}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3362,15 +3554,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9001125" y="166182674"/>
-          <a:ext cx="5506219" cy="581131"/>
+          <a:off x="10877550" y="180123876"/>
+          <a:ext cx="1771650" cy="1470470"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3379,6 +3571,626 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2428874</xdr:colOff>
+      <xdr:row>288</xdr:row>
+      <xdr:rowOff>1123950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3543299</xdr:colOff>
+      <xdr:row>288</xdr:row>
+      <xdr:rowOff>1238250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="pole tekstowe 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C019240-E2A5-247E-CAFC-5EB8A6358533}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11315699" y="180803550"/>
+          <a:ext cx="1114425" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pl-PL" sz="1000">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>dzisiejsza data</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>291</xdr:row>
+      <xdr:rowOff>609600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>5600700</xdr:colOff>
+      <xdr:row>291</xdr:row>
+      <xdr:rowOff>1170111</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="Obraz 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C8ECB7F-136B-B68C-33E4-4EE81115DB30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8991600" y="182899050"/>
+          <a:ext cx="5495925" cy="560511"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2733674</xdr:colOff>
+      <xdr:row>291</xdr:row>
+      <xdr:rowOff>1009650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3848099</xdr:colOff>
+      <xdr:row>291</xdr:row>
+      <xdr:rowOff>1123950</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="pole tekstowe 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0528F3B2-E0E5-4202-A909-5888969153B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11620499" y="183299100"/>
+          <a:ext cx="1114425" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pl-PL" sz="1000">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>dzisiejsza data</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1038226</xdr:colOff>
+      <xdr:row>297</xdr:row>
+      <xdr:rowOff>450531</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3695700" cy="1426141"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="Obraz 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75B1846A-1527-464A-ACDA-014786309226}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9925051" y="160470531"/>
+          <a:ext cx="3695700" cy="1426141"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2019300</xdr:colOff>
+      <xdr:row>265</xdr:row>
+      <xdr:rowOff>238124</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3467302</xdr:colOff>
+      <xdr:row>266</xdr:row>
+      <xdr:rowOff>221</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="63" name="Obraz 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCB3C8CA-1D1F-A5E0-3352-FEFC316E659D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10906125" y="163172774"/>
+          <a:ext cx="1448002" cy="1590897"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2209800</xdr:colOff>
+      <xdr:row>299</xdr:row>
+      <xdr:rowOff>279142</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3590925</xdr:colOff>
+      <xdr:row>299</xdr:row>
+      <xdr:rowOff>1796562</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="Obraz 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B28B36DB-0443-08A4-8775-F6F349C72DF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11096625" y="188645542"/>
+          <a:ext cx="1381125" cy="1517420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>302</xdr:row>
+      <xdr:rowOff>409575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>5606146</xdr:colOff>
+      <xdr:row>302</xdr:row>
+      <xdr:rowOff>971550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="65" name="Obraz 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C808DF3-7824-4F28-21BD-92A7BB9D27B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8953500" y="191176275"/>
+          <a:ext cx="5539471" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1038226</xdr:colOff>
+      <xdr:row>308</xdr:row>
+      <xdr:rowOff>450531</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3695700" cy="1426141"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="66" name="Obraz 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAE00634-190B-494D-8A8A-DBC9B80A2632}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9925051" y="151726581"/>
+          <a:ext cx="3695700" cy="1426141"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2143125</xdr:colOff>
+      <xdr:row>310</xdr:row>
+      <xdr:rowOff>314325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3553022</xdr:colOff>
+      <xdr:row>310</xdr:row>
+      <xdr:rowOff>1686116</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="69" name="Obraz 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C17A41D1-E7DE-9EC5-BD10-B6BC38077735}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11029950" y="197519925"/>
+          <a:ext cx="1409897" cy="1371791"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1038226</xdr:colOff>
+      <xdr:row>316</xdr:row>
+      <xdr:rowOff>450531</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3695700" cy="1426141"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="72" name="Obraz 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A51557D-8C1C-4586-A6C4-90C13D2F9E4E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9925051" y="193274631"/>
+          <a:ext cx="3695700" cy="1426141"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1819275</xdr:colOff>
+      <xdr:row>318</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3648330</xdr:colOff>
+      <xdr:row>318</xdr:row>
+      <xdr:rowOff>1695645</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="74" name="Obraz 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2459120E-A9D6-BC46-8986-CCDD34ED2DBF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10706100" y="201729975"/>
+          <a:ext cx="1829055" cy="1400370"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1038226</xdr:colOff>
+      <xdr:row>324</xdr:row>
+      <xdr:rowOff>450531</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3695700" cy="1426141"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="75" name="Obraz 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4DB591B-966F-4293-BF71-CF8061C9213F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9925051" y="199351581"/>
+          <a:ext cx="3695700" cy="1426141"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1647825</xdr:colOff>
+      <xdr:row>327</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4315197</xdr:colOff>
+      <xdr:row>327</xdr:row>
+      <xdr:rowOff>1657543</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="77" name="Obraz 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{546BF366-0593-75C5-7EFC-E5FF13C78AE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10534650" y="207730725"/>
+          <a:ext cx="2667372" cy="1381318"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3668,10 +4480,10 @@
       <c r="C1" s="3"/>
     </row>
     <row r="2" spans="2:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="30"/>
+      <c r="C2" s="33"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -5092,11 +5904,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0953F3B-78FC-43F3-9402-DE0C5199EBA3}">
-  <dimension ref="A1:J529"/>
+  <dimension ref="A1:J522"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A274" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G278" sqref="G278"/>
+      <pane ySplit="1" topLeftCell="A323" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H328" sqref="H328"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5147,17 +5959,17 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="34">
+      <c r="A2" s="53"/>
+      <c r="B2" s="42">
         <v>1</v>
       </c>
-      <c r="C2" s="34">
+      <c r="C2" s="42">
         <v>1</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="42" t="s">
         <v>40</v>
       </c>
       <c r="F2" s="13" t="s">
@@ -5173,11 +5985,11 @@
       <c r="J2" s="13"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="41"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
+      <c r="A3" s="54"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
       <c r="F3" s="9" t="s">
         <v>19</v>
       </c>
@@ -5191,11 +6003,11 @@
       <c r="J3" s="9"/>
     </row>
     <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="41"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
       <c r="F4" s="9" t="s">
         <v>23</v>
       </c>
@@ -5209,11 +6021,11 @@
       <c r="J4" s="9"/>
     </row>
     <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="41"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
+      <c r="A5" s="54"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
       <c r="F5" s="9" t="s">
         <v>26</v>
       </c>
@@ -5227,11 +6039,11 @@
       <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="41"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
+      <c r="A6" s="54"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
       <c r="F6" s="9" t="s">
         <v>29</v>
       </c>
@@ -5245,11 +6057,11 @@
       <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
+      <c r="A7" s="54"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
       <c r="F7" s="9" t="s">
         <v>32</v>
       </c>
@@ -5263,11 +6075,11 @@
       <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:10" ht="144" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="41"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
+      <c r="A8" s="54"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
       <c r="F8" s="9" t="s">
         <v>35</v>
       </c>
@@ -5281,11 +6093,11 @@
       <c r="J8" s="9"/>
     </row>
     <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="41"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
+      <c r="A9" s="54"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
       <c r="F9" s="9" t="s">
         <v>37</v>
       </c>
@@ -5299,17 +6111,17 @@
       <c r="J9" s="9"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="41"/>
-      <c r="B10" s="31">
+      <c r="A10" s="54"/>
+      <c r="B10" s="35">
         <v>1</v>
       </c>
-      <c r="C10" s="31">
+      <c r="C10" s="35">
         <v>2</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="31" t="s">
+      <c r="E10" s="35" t="s">
         <v>68</v>
       </c>
       <c r="F10" s="11" t="s">
@@ -5325,11 +6137,11 @@
       <c r="J10" s="11"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="41"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
+      <c r="A11" s="54"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
       <c r="F11" s="11" t="s">
         <v>19</v>
       </c>
@@ -5343,11 +6155,11 @@
       <c r="J11" s="11"/>
     </row>
     <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="41"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
+      <c r="A12" s="54"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
       <c r="F12" s="11" t="s">
         <v>23</v>
       </c>
@@ -5361,11 +6173,11 @@
       <c r="J12" s="11"/>
     </row>
     <row r="13" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="41"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
+      <c r="A13" s="54"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
       <c r="F13" s="11" t="s">
         <v>26</v>
       </c>
@@ -5379,11 +6191,11 @@
       <c r="J13" s="11"/>
     </row>
     <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="41"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
+      <c r="A14" s="54"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
       <c r="F14" s="11" t="s">
         <v>29</v>
       </c>
@@ -5397,11 +6209,11 @@
       <c r="J14" s="11"/>
     </row>
     <row r="15" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="41"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
+      <c r="A15" s="54"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
       <c r="F15" s="11" t="s">
         <v>32</v>
       </c>
@@ -5415,11 +6227,11 @@
       <c r="J15" s="11"/>
     </row>
     <row r="16" spans="1:10" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="41"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
+      <c r="A16" s="54"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
       <c r="F16" s="11" t="s">
         <v>35</v>
       </c>
@@ -5432,12 +6244,12 @@
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
     </row>
-    <row r="17" spans="1:10" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="41"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
+    <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="54"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
       <c r="F17" s="11" t="s">
         <v>37</v>
       </c>
@@ -5450,12 +6262,12 @@
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
     </row>
-    <row r="18" spans="1:10" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="41"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
+    <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="54"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
       <c r="F18" s="11" t="s">
         <v>47</v>
       </c>
@@ -5469,17 +6281,17 @@
       <c r="J18" s="11"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="41"/>
-      <c r="B19" s="32">
+      <c r="A19" s="54"/>
+      <c r="B19" s="47">
         <v>1</v>
       </c>
-      <c r="C19" s="32">
+      <c r="C19" s="47">
         <v>3</v>
       </c>
-      <c r="D19" s="32" t="s">
+      <c r="D19" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="E19" s="32" t="s">
+      <c r="E19" s="47" t="s">
         <v>69</v>
       </c>
       <c r="F19" s="9" t="s">
@@ -5495,11 +6307,11 @@
       <c r="J19" s="9"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="41"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
+      <c r="A20" s="54"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
       <c r="F20" s="9" t="s">
         <v>19</v>
       </c>
@@ -5513,11 +6325,11 @@
       <c r="J20" s="9"/>
     </row>
     <row r="21" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="41"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
+      <c r="A21" s="54"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
       <c r="F21" s="9" t="s">
         <v>23</v>
       </c>
@@ -5531,11 +6343,11 @@
       <c r="J21" s="9"/>
     </row>
     <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="41"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
+      <c r="A22" s="54"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
       <c r="F22" s="9" t="s">
         <v>26</v>
       </c>
@@ -5549,11 +6361,11 @@
       <c r="J22" s="9"/>
     </row>
     <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="41"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
+      <c r="A23" s="54"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
       <c r="F23" s="9" t="s">
         <v>29</v>
       </c>
@@ -5567,11 +6379,11 @@
       <c r="J23" s="9"/>
     </row>
     <row r="24" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="41"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
+      <c r="A24" s="54"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
       <c r="F24" s="9" t="s">
         <v>32</v>
       </c>
@@ -5585,11 +6397,11 @@
       <c r="J24" s="9"/>
     </row>
     <row r="25" spans="1:10" ht="129" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="41"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
+      <c r="A25" s="54"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
       <c r="F25" s="9" t="s">
         <v>35</v>
       </c>
@@ -5603,11 +6415,11 @@
       <c r="J25" s="9"/>
     </row>
     <row r="26" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="41"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
+      <c r="A26" s="54"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
       <c r="F26" s="9" t="s">
         <v>37</v>
       </c>
@@ -5621,11 +6433,11 @@
       <c r="J26" s="9"/>
     </row>
     <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="41"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
+      <c r="A27" s="54"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
       <c r="F27" s="9" t="s">
         <v>47</v>
       </c>
@@ -5639,17 +6451,17 @@
       <c r="J27" s="9"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="41"/>
-      <c r="B28" s="31">
+      <c r="A28" s="54"/>
+      <c r="B28" s="35">
         <v>1</v>
       </c>
-      <c r="C28" s="31">
+      <c r="C28" s="35">
         <v>4</v>
       </c>
-      <c r="D28" s="31" t="s">
+      <c r="D28" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="E28" s="31" t="s">
+      <c r="E28" s="35" t="s">
         <v>69</v>
       </c>
       <c r="F28" s="11" t="s">
@@ -5665,11 +6477,11 @@
       <c r="J28" s="11"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="41"/>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
+      <c r="A29" s="54"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
       <c r="F29" s="11" t="s">
         <v>19</v>
       </c>
@@ -5683,11 +6495,11 @@
       <c r="J29" s="11"/>
     </row>
     <row r="30" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="41"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
+      <c r="A30" s="54"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
       <c r="F30" s="11" t="s">
         <v>23</v>
       </c>
@@ -5701,11 +6513,11 @@
       <c r="J30" s="11"/>
     </row>
     <row r="31" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="41"/>
-      <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
+      <c r="A31" s="54"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
       <c r="F31" s="11" t="s">
         <v>26</v>
       </c>
@@ -5719,11 +6531,11 @@
       <c r="J31" s="11"/>
     </row>
     <row r="32" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="41"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
+      <c r="A32" s="54"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
       <c r="F32" s="11" t="s">
         <v>29</v>
       </c>
@@ -5737,11 +6549,11 @@
       <c r="J32" s="11"/>
     </row>
     <row r="33" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A33" s="41"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
+      <c r="A33" s="54"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
       <c r="F33" s="11" t="s">
         <v>32</v>
       </c>
@@ -5755,11 +6567,11 @@
       <c r="J33" s="11"/>
     </row>
     <row r="34" spans="1:10" ht="131.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="41"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
+      <c r="A34" s="54"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="35"/>
       <c r="F34" s="11" t="s">
         <v>35</v>
       </c>
@@ -5773,11 +6585,11 @@
       <c r="J34" s="11"/>
     </row>
     <row r="35" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="41"/>
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
+      <c r="A35" s="54"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
       <c r="F35" s="11" t="s">
         <v>37</v>
       </c>
@@ -5791,11 +6603,11 @@
       <c r="J35" s="11"/>
     </row>
     <row r="36" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="41"/>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
+      <c r="A36" s="54"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="35"/>
       <c r="F36" s="11" t="s">
         <v>47</v>
       </c>
@@ -5809,17 +6621,17 @@
       <c r="J36" s="11"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="41"/>
-      <c r="B37" s="32">
+      <c r="A37" s="54"/>
+      <c r="B37" s="47">
         <v>1</v>
       </c>
-      <c r="C37" s="32">
+      <c r="C37" s="47">
         <v>5</v>
       </c>
-      <c r="D37" s="32" t="s">
+      <c r="D37" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="E37" s="32" t="s">
+      <c r="E37" s="47" t="s">
         <v>66</v>
       </c>
       <c r="F37" s="9" t="s">
@@ -5835,11 +6647,11 @@
       <c r="J37" s="9"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="41"/>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
+      <c r="A38" s="54"/>
+      <c r="B38" s="47"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="47"/>
+      <c r="E38" s="47"/>
       <c r="F38" s="9" t="s">
         <v>19</v>
       </c>
@@ -5853,11 +6665,11 @@
       <c r="J38" s="9"/>
     </row>
     <row r="39" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="41"/>
-      <c r="B39" s="32"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
+      <c r="A39" s="54"/>
+      <c r="B39" s="47"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="47"/>
       <c r="F39" s="9" t="s">
         <v>23</v>
       </c>
@@ -5871,11 +6683,11 @@
       <c r="J39" s="9"/>
     </row>
     <row r="40" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="41"/>
-      <c r="B40" s="32"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
+      <c r="A40" s="54"/>
+      <c r="B40" s="47"/>
+      <c r="C40" s="47"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="47"/>
       <c r="F40" s="9" t="s">
         <v>26</v>
       </c>
@@ -5889,11 +6701,11 @@
       <c r="J40" s="9"/>
     </row>
     <row r="41" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="41"/>
-      <c r="B41" s="32"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
+      <c r="A41" s="54"/>
+      <c r="B41" s="47"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="47"/>
+      <c r="E41" s="47"/>
       <c r="F41" s="9" t="s">
         <v>29</v>
       </c>
@@ -5907,11 +6719,11 @@
       <c r="J41" s="9"/>
     </row>
     <row r="42" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A42" s="41"/>
-      <c r="B42" s="32"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
+      <c r="A42" s="54"/>
+      <c r="B42" s="47"/>
+      <c r="C42" s="47"/>
+      <c r="D42" s="47"/>
+      <c r="E42" s="47"/>
       <c r="F42" s="9" t="s">
         <v>32</v>
       </c>
@@ -5925,11 +6737,11 @@
       <c r="J42" s="9"/>
     </row>
     <row r="43" spans="1:10" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="41"/>
-      <c r="B43" s="32"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="32"/>
+      <c r="A43" s="54"/>
+      <c r="B43" s="47"/>
+      <c r="C43" s="47"/>
+      <c r="D43" s="47"/>
+      <c r="E43" s="47"/>
       <c r="F43" s="9" t="s">
         <v>35</v>
       </c>
@@ -5943,11 +6755,11 @@
       <c r="J43" s="9"/>
     </row>
     <row r="44" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="41"/>
-      <c r="B44" s="32"/>
-      <c r="C44" s="32"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="32"/>
+      <c r="A44" s="54"/>
+      <c r="B44" s="47"/>
+      <c r="C44" s="47"/>
+      <c r="D44" s="47"/>
+      <c r="E44" s="47"/>
       <c r="F44" s="9" t="s">
         <v>37</v>
       </c>
@@ -5961,11 +6773,11 @@
       <c r="J44" s="9"/>
     </row>
     <row r="45" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="41"/>
-      <c r="B45" s="32"/>
-      <c r="C45" s="32"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="32"/>
+      <c r="A45" s="54"/>
+      <c r="B45" s="47"/>
+      <c r="C45" s="47"/>
+      <c r="D45" s="47"/>
+      <c r="E45" s="47"/>
       <c r="F45" s="9" t="s">
         <v>47</v>
       </c>
@@ -5979,17 +6791,17 @@
       <c r="J45" s="9"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="41"/>
-      <c r="B46" s="31">
+      <c r="A46" s="54"/>
+      <c r="B46" s="35">
         <v>1</v>
       </c>
-      <c r="C46" s="31">
+      <c r="C46" s="35">
         <v>6</v>
       </c>
-      <c r="D46" s="31" t="s">
+      <c r="D46" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="E46" s="31" t="s">
+      <c r="E46" s="35" t="s">
         <v>79</v>
       </c>
       <c r="F46" s="11" t="s">
@@ -6005,11 +6817,11 @@
       <c r="J46" s="11"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="41"/>
-      <c r="B47" s="31"/>
-      <c r="C47" s="31"/>
-      <c r="D47" s="31"/>
-      <c r="E47" s="31"/>
+      <c r="A47" s="54"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="35"/>
       <c r="F47" s="11" t="s">
         <v>19</v>
       </c>
@@ -6023,11 +6835,11 @@
       <c r="J47" s="11"/>
     </row>
     <row r="48" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A48" s="41"/>
-      <c r="B48" s="31"/>
-      <c r="C48" s="31"/>
-      <c r="D48" s="31"/>
-      <c r="E48" s="31"/>
+      <c r="A48" s="54"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="35"/>
+      <c r="D48" s="35"/>
+      <c r="E48" s="35"/>
       <c r="F48" s="11" t="s">
         <v>23</v>
       </c>
@@ -6041,11 +6853,11 @@
       <c r="J48" s="11"/>
     </row>
     <row r="49" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A49" s="41"/>
-      <c r="B49" s="31"/>
-      <c r="C49" s="31"/>
-      <c r="D49" s="31"/>
-      <c r="E49" s="31"/>
+      <c r="A49" s="54"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="35"/>
+      <c r="D49" s="35"/>
+      <c r="E49" s="35"/>
       <c r="F49" s="11" t="s">
         <v>26</v>
       </c>
@@ -6059,11 +6871,11 @@
       <c r="J49" s="11"/>
     </row>
     <row r="50" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="41"/>
-      <c r="B50" s="31"/>
-      <c r="C50" s="31"/>
-      <c r="D50" s="31"/>
-      <c r="E50" s="31"/>
+      <c r="A50" s="54"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="35"/>
+      <c r="E50" s="35"/>
       <c r="F50" s="11" t="s">
         <v>29</v>
       </c>
@@ -6077,11 +6889,11 @@
       <c r="J50" s="11"/>
     </row>
     <row r="51" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A51" s="41"/>
-      <c r="B51" s="31"/>
-      <c r="C51" s="31"/>
-      <c r="D51" s="31"/>
-      <c r="E51" s="31"/>
+      <c r="A51" s="54"/>
+      <c r="B51" s="35"/>
+      <c r="C51" s="35"/>
+      <c r="D51" s="35"/>
+      <c r="E51" s="35"/>
       <c r="F51" s="11" t="s">
         <v>32</v>
       </c>
@@ -6095,11 +6907,11 @@
       <c r="J51" s="11"/>
     </row>
     <row r="52" spans="1:10" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="41"/>
-      <c r="B52" s="31"/>
-      <c r="C52" s="31"/>
-      <c r="D52" s="31"/>
-      <c r="E52" s="31"/>
+      <c r="A52" s="54"/>
+      <c r="B52" s="35"/>
+      <c r="C52" s="35"/>
+      <c r="D52" s="35"/>
+      <c r="E52" s="35"/>
       <c r="F52" s="11" t="s">
         <v>35</v>
       </c>
@@ -6113,11 +6925,11 @@
       <c r="J52" s="11"/>
     </row>
     <row r="53" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="41"/>
-      <c r="B53" s="31"/>
-      <c r="C53" s="31"/>
-      <c r="D53" s="31"/>
-      <c r="E53" s="31"/>
+      <c r="A53" s="54"/>
+      <c r="B53" s="35"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="35"/>
+      <c r="E53" s="35"/>
       <c r="F53" s="11" t="s">
         <v>37</v>
       </c>
@@ -6131,11 +6943,11 @@
       <c r="J53" s="11"/>
     </row>
     <row r="54" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="41"/>
-      <c r="B54" s="31"/>
-      <c r="C54" s="31"/>
-      <c r="D54" s="31"/>
-      <c r="E54" s="31"/>
+      <c r="A54" s="54"/>
+      <c r="B54" s="35"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="35"/>
+      <c r="E54" s="35"/>
       <c r="F54" s="11" t="s">
         <v>47</v>
       </c>
@@ -6149,17 +6961,17 @@
       <c r="J54" s="11"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="41"/>
-      <c r="B55" s="32">
+      <c r="A55" s="54"/>
+      <c r="B55" s="47">
         <v>1</v>
       </c>
-      <c r="C55" s="32">
+      <c r="C55" s="47">
         <v>7</v>
       </c>
-      <c r="D55" s="32" t="s">
+      <c r="D55" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="E55" s="32" t="s">
+      <c r="E55" s="47" t="s">
         <v>76</v>
       </c>
       <c r="F55" s="9" t="s">
@@ -6175,11 +6987,11 @@
       <c r="J55" s="9"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="41"/>
-      <c r="B56" s="32"/>
-      <c r="C56" s="32"/>
-      <c r="D56" s="32"/>
-      <c r="E56" s="32"/>
+      <c r="A56" s="54"/>
+      <c r="B56" s="47"/>
+      <c r="C56" s="47"/>
+      <c r="D56" s="47"/>
+      <c r="E56" s="47"/>
       <c r="F56" s="9" t="s">
         <v>19</v>
       </c>
@@ -6193,11 +7005,11 @@
       <c r="J56" s="9"/>
     </row>
     <row r="57" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A57" s="41"/>
-      <c r="B57" s="32"/>
-      <c r="C57" s="32"/>
-      <c r="D57" s="32"/>
-      <c r="E57" s="32"/>
+      <c r="A57" s="54"/>
+      <c r="B57" s="47"/>
+      <c r="C57" s="47"/>
+      <c r="D57" s="47"/>
+      <c r="E57" s="47"/>
       <c r="F57" s="9" t="s">
         <v>23</v>
       </c>
@@ -6211,11 +7023,11 @@
       <c r="J57" s="9"/>
     </row>
     <row r="58" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A58" s="41"/>
-      <c r="B58" s="32"/>
-      <c r="C58" s="32"/>
-      <c r="D58" s="32"/>
-      <c r="E58" s="32"/>
+      <c r="A58" s="54"/>
+      <c r="B58" s="47"/>
+      <c r="C58" s="47"/>
+      <c r="D58" s="47"/>
+      <c r="E58" s="47"/>
       <c r="F58" s="9" t="s">
         <v>26</v>
       </c>
@@ -6229,11 +7041,11 @@
       <c r="J58" s="9"/>
     </row>
     <row r="59" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A59" s="41"/>
-      <c r="B59" s="32"/>
-      <c r="C59" s="32"/>
-      <c r="D59" s="32"/>
-      <c r="E59" s="32"/>
+      <c r="A59" s="54"/>
+      <c r="B59" s="47"/>
+      <c r="C59" s="47"/>
+      <c r="D59" s="47"/>
+      <c r="E59" s="47"/>
       <c r="F59" s="9" t="s">
         <v>29</v>
       </c>
@@ -6247,11 +7059,11 @@
       <c r="J59" s="9"/>
     </row>
     <row r="60" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A60" s="41"/>
-      <c r="B60" s="32"/>
-      <c r="C60" s="32"/>
-      <c r="D60" s="32"/>
-      <c r="E60" s="32"/>
+      <c r="A60" s="54"/>
+      <c r="B60" s="47"/>
+      <c r="C60" s="47"/>
+      <c r="D60" s="47"/>
+      <c r="E60" s="47"/>
       <c r="F60" s="9" t="s">
         <v>32</v>
       </c>
@@ -6265,11 +7077,11 @@
       <c r="J60" s="9"/>
     </row>
     <row r="61" spans="1:10" ht="132" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="41"/>
-      <c r="B61" s="32"/>
-      <c r="C61" s="32"/>
-      <c r="D61" s="32"/>
-      <c r="E61" s="32"/>
+      <c r="A61" s="54"/>
+      <c r="B61" s="47"/>
+      <c r="C61" s="47"/>
+      <c r="D61" s="47"/>
+      <c r="E61" s="47"/>
       <c r="F61" s="9" t="s">
         <v>35</v>
       </c>
@@ -6283,11 +7095,11 @@
       <c r="J61" s="9"/>
     </row>
     <row r="62" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="41"/>
-      <c r="B62" s="32"/>
-      <c r="C62" s="32"/>
-      <c r="D62" s="32"/>
-      <c r="E62" s="32"/>
+      <c r="A62" s="54"/>
+      <c r="B62" s="47"/>
+      <c r="C62" s="47"/>
+      <c r="D62" s="47"/>
+      <c r="E62" s="47"/>
       <c r="F62" s="9" t="s">
         <v>37</v>
       </c>
@@ -6301,17 +7113,17 @@
       <c r="J62" s="9"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="41"/>
-      <c r="B63" s="31">
+      <c r="A63" s="54"/>
+      <c r="B63" s="35">
         <v>1</v>
       </c>
-      <c r="C63" s="31">
+      <c r="C63" s="35">
         <v>8</v>
       </c>
-      <c r="D63" s="31" t="s">
+      <c r="D63" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="E63" s="31" t="s">
+      <c r="E63" s="35" t="s">
         <v>81</v>
       </c>
       <c r="F63" s="11" t="s">
@@ -6327,11 +7139,11 @@
       <c r="J63" s="11"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="41"/>
-      <c r="B64" s="31"/>
-      <c r="C64" s="31"/>
-      <c r="D64" s="31"/>
-      <c r="E64" s="31"/>
+      <c r="A64" s="54"/>
+      <c r="B64" s="35"/>
+      <c r="C64" s="35"/>
+      <c r="D64" s="35"/>
+      <c r="E64" s="35"/>
       <c r="F64" s="11" t="s">
         <v>19</v>
       </c>
@@ -6345,11 +7157,11 @@
       <c r="J64" s="11"/>
     </row>
     <row r="65" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A65" s="41"/>
-      <c r="B65" s="31"/>
-      <c r="C65" s="31"/>
-      <c r="D65" s="31"/>
-      <c r="E65" s="31"/>
+      <c r="A65" s="54"/>
+      <c r="B65" s="35"/>
+      <c r="C65" s="35"/>
+      <c r="D65" s="35"/>
+      <c r="E65" s="35"/>
       <c r="F65" s="11" t="s">
         <v>23</v>
       </c>
@@ -6363,11 +7175,11 @@
       <c r="J65" s="11"/>
     </row>
     <row r="66" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A66" s="41"/>
-      <c r="B66" s="31"/>
-      <c r="C66" s="31"/>
-      <c r="D66" s="31"/>
-      <c r="E66" s="31"/>
+      <c r="A66" s="54"/>
+      <c r="B66" s="35"/>
+      <c r="C66" s="35"/>
+      <c r="D66" s="35"/>
+      <c r="E66" s="35"/>
       <c r="F66" s="11" t="s">
         <v>26</v>
       </c>
@@ -6381,11 +7193,11 @@
       <c r="J66" s="11"/>
     </row>
     <row r="67" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="41"/>
-      <c r="B67" s="31"/>
-      <c r="C67" s="31"/>
-      <c r="D67" s="31"/>
-      <c r="E67" s="31"/>
+      <c r="A67" s="54"/>
+      <c r="B67" s="35"/>
+      <c r="C67" s="35"/>
+      <c r="D67" s="35"/>
+      <c r="E67" s="35"/>
       <c r="F67" s="11" t="s">
         <v>29</v>
       </c>
@@ -6399,11 +7211,11 @@
       <c r="J67" s="11"/>
     </row>
     <row r="68" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="41"/>
-      <c r="B68" s="31"/>
-      <c r="C68" s="31"/>
-      <c r="D68" s="31"/>
-      <c r="E68" s="31"/>
+      <c r="A68" s="54"/>
+      <c r="B68" s="35"/>
+      <c r="C68" s="35"/>
+      <c r="D68" s="35"/>
+      <c r="E68" s="35"/>
       <c r="F68" s="11" t="s">
         <v>32</v>
       </c>
@@ -6417,11 +7229,11 @@
       <c r="J68" s="11"/>
     </row>
     <row r="69" spans="1:10" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="41"/>
-      <c r="B69" s="31"/>
-      <c r="C69" s="31"/>
-      <c r="D69" s="31"/>
-      <c r="E69" s="31"/>
+      <c r="A69" s="54"/>
+      <c r="B69" s="35"/>
+      <c r="C69" s="35"/>
+      <c r="D69" s="35"/>
+      <c r="E69" s="35"/>
       <c r="F69" s="11" t="s">
         <v>35</v>
       </c>
@@ -6435,11 +7247,11 @@
       <c r="J69" s="11"/>
     </row>
     <row r="70" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="41"/>
-      <c r="B70" s="31"/>
-      <c r="C70" s="31"/>
-      <c r="D70" s="31"/>
-      <c r="E70" s="31"/>
+      <c r="A70" s="54"/>
+      <c r="B70" s="35"/>
+      <c r="C70" s="35"/>
+      <c r="D70" s="35"/>
+      <c r="E70" s="35"/>
       <c r="F70" s="11" t="s">
         <v>37</v>
       </c>
@@ -6453,11 +7265,11 @@
       <c r="J70" s="11"/>
     </row>
     <row r="71" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="41"/>
-      <c r="B71" s="31"/>
-      <c r="C71" s="31"/>
-      <c r="D71" s="31"/>
-      <c r="E71" s="31"/>
+      <c r="A71" s="54"/>
+      <c r="B71" s="35"/>
+      <c r="C71" s="35"/>
+      <c r="D71" s="35"/>
+      <c r="E71" s="35"/>
       <c r="F71" s="11" t="s">
         <v>47</v>
       </c>
@@ -6471,17 +7283,17 @@
       <c r="J71" s="11"/>
     </row>
     <row r="72" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="41"/>
-      <c r="B72" s="32">
+      <c r="A72" s="54"/>
+      <c r="B72" s="47">
         <v>1</v>
       </c>
-      <c r="C72" s="32">
+      <c r="C72" s="47">
         <v>9</v>
       </c>
-      <c r="D72" s="32" t="s">
+      <c r="D72" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="E72" s="32" t="s">
+      <c r="E72" s="47" t="s">
         <v>87</v>
       </c>
       <c r="F72" s="9" t="s">
@@ -6497,11 +7309,11 @@
       <c r="J72" s="9"/>
     </row>
     <row r="73" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="41"/>
-      <c r="B73" s="32"/>
-      <c r="C73" s="32"/>
-      <c r="D73" s="32"/>
-      <c r="E73" s="32"/>
+      <c r="A73" s="54"/>
+      <c r="B73" s="47"/>
+      <c r="C73" s="47"/>
+      <c r="D73" s="47"/>
+      <c r="E73" s="47"/>
       <c r="F73" s="9" t="s">
         <v>19</v>
       </c>
@@ -6515,11 +7327,11 @@
       <c r="J73" s="9"/>
     </row>
     <row r="74" spans="1:10" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A74" s="41"/>
-      <c r="B74" s="32"/>
-      <c r="C74" s="32"/>
-      <c r="D74" s="32"/>
-      <c r="E74" s="32"/>
+      <c r="A74" s="54"/>
+      <c r="B74" s="47"/>
+      <c r="C74" s="47"/>
+      <c r="D74" s="47"/>
+      <c r="E74" s="47"/>
       <c r="F74" s="9" t="s">
         <v>23</v>
       </c>
@@ -6533,11 +7345,11 @@
       <c r="J74" s="9"/>
     </row>
     <row r="75" spans="1:10" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A75" s="41"/>
-      <c r="B75" s="32"/>
-      <c r="C75" s="32"/>
-      <c r="D75" s="32"/>
-      <c r="E75" s="32"/>
+      <c r="A75" s="54"/>
+      <c r="B75" s="47"/>
+      <c r="C75" s="47"/>
+      <c r="D75" s="47"/>
+      <c r="E75" s="47"/>
       <c r="F75" s="9" t="s">
         <v>26</v>
       </c>
@@ -6551,11 +7363,11 @@
       <c r="J75" s="9"/>
     </row>
     <row r="76" spans="1:10" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="41"/>
-      <c r="B76" s="32"/>
-      <c r="C76" s="32"/>
-      <c r="D76" s="32"/>
-      <c r="E76" s="32"/>
+      <c r="A76" s="54"/>
+      <c r="B76" s="47"/>
+      <c r="C76" s="47"/>
+      <c r="D76" s="47"/>
+      <c r="E76" s="47"/>
       <c r="F76" s="9" t="s">
         <v>29</v>
       </c>
@@ -6569,11 +7381,11 @@
       <c r="J76" s="9"/>
     </row>
     <row r="77" spans="1:10" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A77" s="41"/>
-      <c r="B77" s="32"/>
-      <c r="C77" s="32"/>
-      <c r="D77" s="32"/>
-      <c r="E77" s="32"/>
+      <c r="A77" s="54"/>
+      <c r="B77" s="47"/>
+      <c r="C77" s="47"/>
+      <c r="D77" s="47"/>
+      <c r="E77" s="47"/>
       <c r="F77" s="9" t="s">
         <v>32</v>
       </c>
@@ -6587,11 +7399,11 @@
       <c r="J77" s="9"/>
     </row>
     <row r="78" spans="1:10" s="15" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="41"/>
-      <c r="B78" s="32"/>
-      <c r="C78" s="32"/>
-      <c r="D78" s="32"/>
-      <c r="E78" s="32"/>
+      <c r="A78" s="54"/>
+      <c r="B78" s="47"/>
+      <c r="C78" s="47"/>
+      <c r="D78" s="47"/>
+      <c r="E78" s="47"/>
       <c r="F78" s="9" t="s">
         <v>35</v>
       </c>
@@ -6605,11 +7417,11 @@
       <c r="J78" s="9"/>
     </row>
     <row r="79" spans="1:10" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="41"/>
-      <c r="B79" s="32"/>
-      <c r="C79" s="32"/>
-      <c r="D79" s="32"/>
-      <c r="E79" s="32"/>
+      <c r="A79" s="54"/>
+      <c r="B79" s="47"/>
+      <c r="C79" s="47"/>
+      <c r="D79" s="47"/>
+      <c r="E79" s="47"/>
       <c r="F79" s="9" t="s">
         <v>37</v>
       </c>
@@ -6623,11 +7435,11 @@
       <c r="J79" s="9"/>
     </row>
     <row r="80" spans="1:10" s="21" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="41"/>
-      <c r="B80" s="39"/>
-      <c r="C80" s="39"/>
-      <c r="D80" s="39"/>
-      <c r="E80" s="39"/>
+      <c r="A80" s="54"/>
+      <c r="B80" s="57"/>
+      <c r="C80" s="57"/>
+      <c r="D80" s="57"/>
+      <c r="E80" s="57"/>
       <c r="F80" s="16" t="s">
         <v>47</v>
       </c>
@@ -6641,17 +7453,17 @@
       <c r="J80" s="16"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="47"/>
-      <c r="B81" s="42">
+      <c r="A81" s="61"/>
+      <c r="B81" s="55">
         <v>2</v>
       </c>
-      <c r="C81" s="42">
+      <c r="C81" s="55">
         <v>1</v>
       </c>
-      <c r="D81" s="42" t="s">
+      <c r="D81" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="E81" s="42" t="s">
+      <c r="E81" s="55" t="s">
         <v>111</v>
       </c>
       <c r="F81" s="20" t="s">
@@ -6667,11 +7479,11 @@
       <c r="J81" s="20"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="48"/>
-      <c r="B82" s="31"/>
-      <c r="C82" s="31"/>
-      <c r="D82" s="31"/>
-      <c r="E82" s="31"/>
+      <c r="A82" s="62"/>
+      <c r="B82" s="35"/>
+      <c r="C82" s="35"/>
+      <c r="D82" s="35"/>
+      <c r="E82" s="35"/>
       <c r="F82" s="11" t="s">
         <v>19</v>
       </c>
@@ -6685,11 +7497,11 @@
       <c r="J82" s="11"/>
     </row>
     <row r="83" spans="1:10" ht="236.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="48"/>
-      <c r="B83" s="31"/>
-      <c r="C83" s="31"/>
-      <c r="D83" s="31"/>
-      <c r="E83" s="31"/>
+      <c r="A83" s="62"/>
+      <c r="B83" s="35"/>
+      <c r="C83" s="35"/>
+      <c r="D83" s="35"/>
+      <c r="E83" s="35"/>
       <c r="F83" s="11" t="s">
         <v>23</v>
       </c>
@@ -6703,11 +7515,11 @@
       <c r="J83" s="11"/>
     </row>
     <row r="84" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A84" s="48"/>
-      <c r="B84" s="43"/>
-      <c r="C84" s="43"/>
-      <c r="D84" s="43"/>
-      <c r="E84" s="43"/>
+      <c r="A84" s="62"/>
+      <c r="B84" s="56"/>
+      <c r="C84" s="56"/>
+      <c r="D84" s="56"/>
+      <c r="E84" s="56"/>
       <c r="F84" s="11" t="s">
         <v>26</v>
       </c>
@@ -6721,17 +7533,17 @@
       <c r="J84" s="11"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="48"/>
-      <c r="B85" s="32">
+      <c r="A85" s="62"/>
+      <c r="B85" s="47">
         <v>2</v>
       </c>
-      <c r="C85" s="32">
+      <c r="C85" s="47">
         <v>2</v>
       </c>
-      <c r="D85" s="32" t="s">
+      <c r="D85" s="47" t="s">
         <v>124</v>
       </c>
-      <c r="E85" s="32" t="s">
+      <c r="E85" s="47" t="s">
         <v>125</v>
       </c>
       <c r="F85" s="13" t="s">
@@ -6747,11 +7559,11 @@
       <c r="J85" s="13"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="48"/>
-      <c r="B86" s="32"/>
-      <c r="C86" s="32"/>
-      <c r="D86" s="32"/>
-      <c r="E86" s="32"/>
+      <c r="A86" s="62"/>
+      <c r="B86" s="47"/>
+      <c r="C86" s="47"/>
+      <c r="D86" s="47"/>
+      <c r="E86" s="47"/>
       <c r="F86" s="9" t="s">
         <v>19</v>
       </c>
@@ -6765,11 +7577,11 @@
       <c r="J86" s="9"/>
     </row>
     <row r="87" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A87" s="48"/>
-      <c r="B87" s="32"/>
-      <c r="C87" s="32"/>
-      <c r="D87" s="32"/>
-      <c r="E87" s="32"/>
+      <c r="A87" s="62"/>
+      <c r="B87" s="47"/>
+      <c r="C87" s="47"/>
+      <c r="D87" s="47"/>
+      <c r="E87" s="47"/>
       <c r="F87" s="9" t="s">
         <v>23</v>
       </c>
@@ -6783,11 +7595,11 @@
       <c r="J87" s="9"/>
     </row>
     <row r="88" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A88" s="48"/>
-      <c r="B88" s="32"/>
-      <c r="C88" s="32"/>
-      <c r="D88" s="32"/>
-      <c r="E88" s="32"/>
+      <c r="A88" s="62"/>
+      <c r="B88" s="47"/>
+      <c r="C88" s="47"/>
+      <c r="D88" s="47"/>
+      <c r="E88" s="47"/>
       <c r="F88" s="9" t="s">
         <v>26</v>
       </c>
@@ -6801,11 +7613,11 @@
       <c r="J88" s="9"/>
     </row>
     <row r="89" spans="1:10" ht="236.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="48"/>
-      <c r="B89" s="32"/>
-      <c r="C89" s="32"/>
-      <c r="D89" s="32"/>
-      <c r="E89" s="32"/>
+      <c r="A89" s="62"/>
+      <c r="B89" s="47"/>
+      <c r="C89" s="47"/>
+      <c r="D89" s="47"/>
+      <c r="E89" s="47"/>
       <c r="F89" s="9" t="s">
         <v>29</v>
       </c>
@@ -6819,11 +7631,11 @@
       <c r="J89" s="9"/>
     </row>
     <row r="90" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A90" s="48"/>
-      <c r="B90" s="32"/>
-      <c r="C90" s="32"/>
-      <c r="D90" s="32"/>
-      <c r="E90" s="32"/>
+      <c r="A90" s="62"/>
+      <c r="B90" s="47"/>
+      <c r="C90" s="47"/>
+      <c r="D90" s="47"/>
+      <c r="E90" s="47"/>
       <c r="F90" s="9" t="s">
         <v>32</v>
       </c>
@@ -6837,17 +7649,17 @@
       <c r="J90" s="9"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="48"/>
-      <c r="B91" s="31">
+      <c r="A91" s="62"/>
+      <c r="B91" s="35">
         <v>2</v>
       </c>
-      <c r="C91" s="31">
+      <c r="C91" s="35">
         <v>3</v>
       </c>
-      <c r="D91" s="31" t="s">
+      <c r="D91" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="E91" s="31" t="s">
+      <c r="E91" s="35" t="s">
         <v>130</v>
       </c>
       <c r="F91" s="20" t="s">
@@ -6863,11 +7675,11 @@
       <c r="J91" s="20"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="48"/>
-      <c r="B92" s="31"/>
-      <c r="C92" s="31"/>
-      <c r="D92" s="31"/>
-      <c r="E92" s="31"/>
+      <c r="A92" s="62"/>
+      <c r="B92" s="35"/>
+      <c r="C92" s="35"/>
+      <c r="D92" s="35"/>
+      <c r="E92" s="35"/>
       <c r="F92" s="11" t="s">
         <v>19</v>
       </c>
@@ -6881,11 +7693,11 @@
       <c r="J92" s="11"/>
     </row>
     <row r="93" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A93" s="48"/>
-      <c r="B93" s="31"/>
-      <c r="C93" s="31"/>
-      <c r="D93" s="31"/>
-      <c r="E93" s="31"/>
+      <c r="A93" s="62"/>
+      <c r="B93" s="35"/>
+      <c r="C93" s="35"/>
+      <c r="D93" s="35"/>
+      <c r="E93" s="35"/>
       <c r="F93" s="11" t="s">
         <v>23</v>
       </c>
@@ -6899,11 +7711,11 @@
       <c r="J93" s="11"/>
     </row>
     <row r="94" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A94" s="48"/>
-      <c r="B94" s="31"/>
-      <c r="C94" s="31"/>
-      <c r="D94" s="31"/>
-      <c r="E94" s="31"/>
+      <c r="A94" s="62"/>
+      <c r="B94" s="35"/>
+      <c r="C94" s="35"/>
+      <c r="D94" s="35"/>
+      <c r="E94" s="35"/>
       <c r="F94" s="11" t="s">
         <v>26</v>
       </c>
@@ -6917,11 +7729,11 @@
       <c r="J94" s="11"/>
     </row>
     <row r="95" spans="1:10" ht="236.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="48"/>
-      <c r="B95" s="31"/>
-      <c r="C95" s="31"/>
-      <c r="D95" s="31"/>
-      <c r="E95" s="31"/>
+      <c r="A95" s="62"/>
+      <c r="B95" s="35"/>
+      <c r="C95" s="35"/>
+      <c r="D95" s="35"/>
+      <c r="E95" s="35"/>
       <c r="F95" s="11" t="s">
         <v>29</v>
       </c>
@@ -6935,11 +7747,11 @@
       <c r="J95" s="11"/>
     </row>
     <row r="96" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A96" s="48"/>
-      <c r="B96" s="31"/>
-      <c r="C96" s="31"/>
-      <c r="D96" s="31"/>
-      <c r="E96" s="31"/>
+      <c r="A96" s="62"/>
+      <c r="B96" s="35"/>
+      <c r="C96" s="35"/>
+      <c r="D96" s="35"/>
+      <c r="E96" s="35"/>
       <c r="F96" s="11" t="s">
         <v>32</v>
       </c>
@@ -6953,17 +7765,17 @@
       <c r="J96" s="11"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="48"/>
-      <c r="B97" s="32">
+      <c r="A97" s="62"/>
+      <c r="B97" s="47">
         <v>2</v>
       </c>
-      <c r="C97" s="32">
+      <c r="C97" s="47">
         <v>4</v>
       </c>
-      <c r="D97" s="32" t="s">
+      <c r="D97" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="E97" s="32" t="s">
+      <c r="E97" s="47" t="s">
         <v>134</v>
       </c>
       <c r="F97" s="13" t="s">
@@ -6979,11 +7791,11 @@
       <c r="J97" s="13"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="48"/>
-      <c r="B98" s="32"/>
-      <c r="C98" s="32"/>
-      <c r="D98" s="32"/>
-      <c r="E98" s="32"/>
+      <c r="A98" s="62"/>
+      <c r="B98" s="47"/>
+      <c r="C98" s="47"/>
+      <c r="D98" s="47"/>
+      <c r="E98" s="47"/>
       <c r="F98" s="9" t="s">
         <v>19</v>
       </c>
@@ -6997,11 +7809,11 @@
       <c r="J98" s="9"/>
     </row>
     <row r="99" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A99" s="48"/>
-      <c r="B99" s="32"/>
-      <c r="C99" s="32"/>
-      <c r="D99" s="32"/>
-      <c r="E99" s="32"/>
+      <c r="A99" s="62"/>
+      <c r="B99" s="47"/>
+      <c r="C99" s="47"/>
+      <c r="D99" s="47"/>
+      <c r="E99" s="47"/>
       <c r="F99" s="24" t="s">
         <v>23</v>
       </c>
@@ -7015,11 +7827,11 @@
       <c r="J99" s="9"/>
     </row>
     <row r="100" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A100" s="48"/>
-      <c r="B100" s="32"/>
-      <c r="C100" s="32"/>
-      <c r="D100" s="32"/>
-      <c r="E100" s="32"/>
+      <c r="A100" s="62"/>
+      <c r="B100" s="47"/>
+      <c r="C100" s="47"/>
+      <c r="D100" s="47"/>
+      <c r="E100" s="47"/>
       <c r="F100" s="24" t="s">
         <v>26</v>
       </c>
@@ -7033,11 +7845,11 @@
       <c r="J100" s="9"/>
     </row>
     <row r="101" spans="1:10" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="48"/>
-      <c r="B101" s="32"/>
-      <c r="C101" s="32"/>
-      <c r="D101" s="32"/>
-      <c r="E101" s="32"/>
+      <c r="A101" s="62"/>
+      <c r="B101" s="47"/>
+      <c r="C101" s="47"/>
+      <c r="D101" s="47"/>
+      <c r="E101" s="47"/>
       <c r="F101" s="24" t="s">
         <v>29</v>
       </c>
@@ -7051,11 +7863,11 @@
       <c r="J101" s="9"/>
     </row>
     <row r="102" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A102" s="48"/>
-      <c r="B102" s="32"/>
-      <c r="C102" s="32"/>
-      <c r="D102" s="32"/>
-      <c r="E102" s="32"/>
+      <c r="A102" s="62"/>
+      <c r="B102" s="47"/>
+      <c r="C102" s="47"/>
+      <c r="D102" s="47"/>
+      <c r="E102" s="47"/>
       <c r="F102" s="24" t="s">
         <v>32</v>
       </c>
@@ -7069,11 +7881,11 @@
       <c r="J102" s="9"/>
     </row>
     <row r="103" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A103" s="48"/>
-      <c r="B103" s="32"/>
-      <c r="C103" s="32"/>
-      <c r="D103" s="32"/>
-      <c r="E103" s="32"/>
+      <c r="A103" s="62"/>
+      <c r="B103" s="47"/>
+      <c r="C103" s="47"/>
+      <c r="D103" s="47"/>
+      <c r="E103" s="47"/>
       <c r="F103" s="24" t="s">
         <v>35</v>
       </c>
@@ -7087,17 +7899,17 @@
       <c r="J103" s="9"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="48"/>
-      <c r="B104" s="31">
+      <c r="A104" s="62"/>
+      <c r="B104" s="35">
         <v>2</v>
       </c>
-      <c r="C104" s="31">
+      <c r="C104" s="35">
         <v>5</v>
       </c>
-      <c r="D104" s="31" t="s">
+      <c r="D104" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="E104" s="31" t="s">
+      <c r="E104" s="35" t="s">
         <v>137</v>
       </c>
       <c r="F104" s="20" t="s">
@@ -7113,11 +7925,11 @@
       <c r="J104" s="20"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="48"/>
-      <c r="B105" s="31"/>
-      <c r="C105" s="31"/>
-      <c r="D105" s="31"/>
-      <c r="E105" s="31"/>
+      <c r="A105" s="62"/>
+      <c r="B105" s="35"/>
+      <c r="C105" s="35"/>
+      <c r="D105" s="35"/>
+      <c r="E105" s="35"/>
       <c r="F105" s="11" t="s">
         <v>19</v>
       </c>
@@ -7131,11 +7943,11 @@
       <c r="J105" s="11"/>
     </row>
     <row r="106" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A106" s="48"/>
-      <c r="B106" s="31"/>
-      <c r="C106" s="31"/>
-      <c r="D106" s="31"/>
-      <c r="E106" s="31"/>
+      <c r="A106" s="62"/>
+      <c r="B106" s="35"/>
+      <c r="C106" s="35"/>
+      <c r="D106" s="35"/>
+      <c r="E106" s="35"/>
       <c r="F106" s="22" t="s">
         <v>23</v>
       </c>
@@ -7149,11 +7961,11 @@
       <c r="J106" s="11"/>
     </row>
     <row r="107" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A107" s="48"/>
-      <c r="B107" s="31"/>
-      <c r="C107" s="31"/>
-      <c r="D107" s="31"/>
-      <c r="E107" s="31"/>
+      <c r="A107" s="62"/>
+      <c r="B107" s="35"/>
+      <c r="C107" s="35"/>
+      <c r="D107" s="35"/>
+      <c r="E107" s="35"/>
       <c r="F107" s="22" t="s">
         <v>26</v>
       </c>
@@ -7167,11 +7979,11 @@
       <c r="J107" s="11"/>
     </row>
     <row r="108" spans="1:10" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="48"/>
-      <c r="B108" s="31"/>
-      <c r="C108" s="31"/>
-      <c r="D108" s="31"/>
-      <c r="E108" s="31"/>
+      <c r="A108" s="62"/>
+      <c r="B108" s="35"/>
+      <c r="C108" s="35"/>
+      <c r="D108" s="35"/>
+      <c r="E108" s="35"/>
       <c r="F108" s="22" t="s">
         <v>29</v>
       </c>
@@ -7185,11 +7997,11 @@
       <c r="J108" s="11"/>
     </row>
     <row r="109" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A109" s="48"/>
-      <c r="B109" s="31"/>
-      <c r="C109" s="31"/>
-      <c r="D109" s="31"/>
-      <c r="E109" s="31"/>
+      <c r="A109" s="62"/>
+      <c r="B109" s="35"/>
+      <c r="C109" s="35"/>
+      <c r="D109" s="35"/>
+      <c r="E109" s="35"/>
       <c r="F109" s="22" t="s">
         <v>32</v>
       </c>
@@ -7203,11 +8015,11 @@
       <c r="J109" s="11"/>
     </row>
     <row r="110" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A110" s="48"/>
-      <c r="B110" s="31"/>
-      <c r="C110" s="31"/>
-      <c r="D110" s="31"/>
-      <c r="E110" s="31"/>
+      <c r="A110" s="62"/>
+      <c r="B110" s="35"/>
+      <c r="C110" s="35"/>
+      <c r="D110" s="35"/>
+      <c r="E110" s="35"/>
       <c r="F110" s="22" t="s">
         <v>35</v>
       </c>
@@ -7221,17 +8033,17 @@
       <c r="J110" s="11"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="48"/>
-      <c r="B111" s="32">
+      <c r="A111" s="62"/>
+      <c r="B111" s="47">
         <v>2</v>
       </c>
-      <c r="C111" s="32">
+      <c r="C111" s="47">
         <v>6</v>
       </c>
-      <c r="D111" s="32" t="s">
+      <c r="D111" s="47" t="s">
         <v>142</v>
       </c>
-      <c r="E111" s="32" t="s">
+      <c r="E111" s="47" t="s">
         <v>143</v>
       </c>
       <c r="F111" s="13" t="s">
@@ -7247,11 +8059,11 @@
       <c r="J111" s="13"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="48"/>
-      <c r="B112" s="32"/>
-      <c r="C112" s="32"/>
-      <c r="D112" s="32"/>
-      <c r="E112" s="32"/>
+      <c r="A112" s="62"/>
+      <c r="B112" s="47"/>
+      <c r="C112" s="47"/>
+      <c r="D112" s="47"/>
+      <c r="E112" s="47"/>
       <c r="F112" s="9" t="s">
         <v>19</v>
       </c>
@@ -7265,11 +8077,11 @@
       <c r="J112" s="9"/>
     </row>
     <row r="113" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A113" s="48"/>
-      <c r="B113" s="32"/>
-      <c r="C113" s="32"/>
-      <c r="D113" s="32"/>
-      <c r="E113" s="32"/>
+      <c r="A113" s="62"/>
+      <c r="B113" s="47"/>
+      <c r="C113" s="47"/>
+      <c r="D113" s="47"/>
+      <c r="E113" s="47"/>
       <c r="F113" s="24" t="s">
         <v>23</v>
       </c>
@@ -7283,11 +8095,11 @@
       <c r="J113" s="9"/>
     </row>
     <row r="114" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A114" s="48"/>
-      <c r="B114" s="32"/>
-      <c r="C114" s="32"/>
-      <c r="D114" s="32"/>
-      <c r="E114" s="32"/>
+      <c r="A114" s="62"/>
+      <c r="B114" s="47"/>
+      <c r="C114" s="47"/>
+      <c r="D114" s="47"/>
+      <c r="E114" s="47"/>
       <c r="F114" s="24" t="s">
         <v>26</v>
       </c>
@@ -7301,11 +8113,11 @@
       <c r="J114" s="9"/>
     </row>
     <row r="115" spans="1:10" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="48"/>
-      <c r="B115" s="32"/>
-      <c r="C115" s="32"/>
-      <c r="D115" s="32"/>
-      <c r="E115" s="32"/>
+      <c r="A115" s="62"/>
+      <c r="B115" s="47"/>
+      <c r="C115" s="47"/>
+      <c r="D115" s="47"/>
+      <c r="E115" s="47"/>
       <c r="F115" s="24" t="s">
         <v>29</v>
       </c>
@@ -7319,11 +8131,11 @@
       <c r="J115" s="9"/>
     </row>
     <row r="116" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A116" s="48"/>
-      <c r="B116" s="32"/>
-      <c r="C116" s="32"/>
-      <c r="D116" s="32"/>
-      <c r="E116" s="32"/>
+      <c r="A116" s="62"/>
+      <c r="B116" s="47"/>
+      <c r="C116" s="47"/>
+      <c r="D116" s="47"/>
+      <c r="E116" s="47"/>
       <c r="F116" s="24" t="s">
         <v>32</v>
       </c>
@@ -7337,11 +8149,11 @@
       <c r="J116" s="9"/>
     </row>
     <row r="117" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A117" s="48"/>
-      <c r="B117" s="32"/>
-      <c r="C117" s="32"/>
-      <c r="D117" s="32"/>
-      <c r="E117" s="32"/>
+      <c r="A117" s="62"/>
+      <c r="B117" s="47"/>
+      <c r="C117" s="47"/>
+      <c r="D117" s="47"/>
+      <c r="E117" s="47"/>
       <c r="F117" s="24" t="s">
         <v>35</v>
       </c>
@@ -7355,17 +8167,17 @@
       <c r="J117" s="9"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="48"/>
-      <c r="B118" s="31">
+      <c r="A118" s="62"/>
+      <c r="B118" s="35">
         <v>2</v>
       </c>
-      <c r="C118" s="31">
+      <c r="C118" s="35">
         <v>7</v>
       </c>
-      <c r="D118" s="31" t="s">
+      <c r="D118" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="E118" s="31" t="s">
+      <c r="E118" s="35" t="s">
         <v>149</v>
       </c>
       <c r="F118" s="20" t="s">
@@ -7381,11 +8193,11 @@
       <c r="J118" s="20"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="48"/>
-      <c r="B119" s="31"/>
-      <c r="C119" s="31"/>
-      <c r="D119" s="31"/>
-      <c r="E119" s="31"/>
+      <c r="A119" s="62"/>
+      <c r="B119" s="35"/>
+      <c r="C119" s="35"/>
+      <c r="D119" s="35"/>
+      <c r="E119" s="35"/>
       <c r="F119" s="11" t="s">
         <v>19</v>
       </c>
@@ -7399,11 +8211,11 @@
       <c r="J119" s="11"/>
     </row>
     <row r="120" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A120" s="48"/>
-      <c r="B120" s="31"/>
-      <c r="C120" s="31"/>
-      <c r="D120" s="31"/>
-      <c r="E120" s="31"/>
+      <c r="A120" s="62"/>
+      <c r="B120" s="35"/>
+      <c r="C120" s="35"/>
+      <c r="D120" s="35"/>
+      <c r="E120" s="35"/>
       <c r="F120" s="22" t="s">
         <v>23</v>
       </c>
@@ -7417,11 +8229,11 @@
       <c r="J120" s="11"/>
     </row>
     <row r="121" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A121" s="48"/>
-      <c r="B121" s="31"/>
-      <c r="C121" s="31"/>
-      <c r="D121" s="31"/>
-      <c r="E121" s="31"/>
+      <c r="A121" s="62"/>
+      <c r="B121" s="35"/>
+      <c r="C121" s="35"/>
+      <c r="D121" s="35"/>
+      <c r="E121" s="35"/>
       <c r="F121" s="22" t="s">
         <v>26</v>
       </c>
@@ -7435,11 +8247,11 @@
       <c r="J121" s="11"/>
     </row>
     <row r="122" spans="1:10" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="48"/>
-      <c r="B122" s="31"/>
-      <c r="C122" s="31"/>
-      <c r="D122" s="31"/>
-      <c r="E122" s="31"/>
+      <c r="A122" s="62"/>
+      <c r="B122" s="35"/>
+      <c r="C122" s="35"/>
+      <c r="D122" s="35"/>
+      <c r="E122" s="35"/>
       <c r="F122" s="22" t="s">
         <v>29</v>
       </c>
@@ -7453,11 +8265,11 @@
       <c r="J122" s="11"/>
     </row>
     <row r="123" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A123" s="48"/>
-      <c r="B123" s="31"/>
-      <c r="C123" s="31"/>
-      <c r="D123" s="31"/>
-      <c r="E123" s="31"/>
+      <c r="A123" s="62"/>
+      <c r="B123" s="35"/>
+      <c r="C123" s="35"/>
+      <c r="D123" s="35"/>
+      <c r="E123" s="35"/>
       <c r="F123" s="22" t="s">
         <v>32</v>
       </c>
@@ -7471,11 +8283,11 @@
       <c r="J123" s="11"/>
     </row>
     <row r="124" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A124" s="48"/>
-      <c r="B124" s="31"/>
-      <c r="C124" s="31"/>
-      <c r="D124" s="31"/>
-      <c r="E124" s="31"/>
+      <c r="A124" s="62"/>
+      <c r="B124" s="35"/>
+      <c r="C124" s="35"/>
+      <c r="D124" s="35"/>
+      <c r="E124" s="35"/>
       <c r="F124" s="22" t="s">
         <v>35</v>
       </c>
@@ -7489,17 +8301,17 @@
       <c r="J124" s="11"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="48"/>
-      <c r="B125" s="32">
+      <c r="A125" s="62"/>
+      <c r="B125" s="47">
         <v>2</v>
       </c>
-      <c r="C125" s="32">
+      <c r="C125" s="47">
         <v>8</v>
       </c>
-      <c r="D125" s="32" t="s">
+      <c r="D125" s="47" t="s">
         <v>150</v>
       </c>
-      <c r="E125" s="32" t="s">
+      <c r="E125" s="47" t="s">
         <v>151</v>
       </c>
       <c r="F125" s="13" t="s">
@@ -7515,11 +8327,11 @@
       <c r="J125" s="13"/>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="48"/>
-      <c r="B126" s="32"/>
-      <c r="C126" s="32"/>
-      <c r="D126" s="32"/>
-      <c r="E126" s="32"/>
+      <c r="A126" s="62"/>
+      <c r="B126" s="47"/>
+      <c r="C126" s="47"/>
+      <c r="D126" s="47"/>
+      <c r="E126" s="47"/>
       <c r="F126" s="9" t="s">
         <v>19</v>
       </c>
@@ -7533,11 +8345,11 @@
       <c r="J126" s="9"/>
     </row>
     <row r="127" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A127" s="48"/>
-      <c r="B127" s="32"/>
-      <c r="C127" s="32"/>
-      <c r="D127" s="32"/>
-      <c r="E127" s="32"/>
+      <c r="A127" s="62"/>
+      <c r="B127" s="47"/>
+      <c r="C127" s="47"/>
+      <c r="D127" s="47"/>
+      <c r="E127" s="47"/>
       <c r="F127" s="9" t="s">
         <v>23</v>
       </c>
@@ -7551,11 +8363,11 @@
       <c r="J127" s="9"/>
     </row>
     <row r="128" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A128" s="48"/>
-      <c r="B128" s="32"/>
-      <c r="C128" s="32"/>
-      <c r="D128" s="32"/>
-      <c r="E128" s="32"/>
+      <c r="A128" s="62"/>
+      <c r="B128" s="47"/>
+      <c r="C128" s="47"/>
+      <c r="D128" s="47"/>
+      <c r="E128" s="47"/>
       <c r="F128" s="9" t="s">
         <v>26</v>
       </c>
@@ -7569,11 +8381,11 @@
       <c r="J128" s="9"/>
     </row>
     <row r="129" spans="1:10" ht="229.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="48"/>
-      <c r="B129" s="32"/>
-      <c r="C129" s="32"/>
-      <c r="D129" s="32"/>
-      <c r="E129" s="32"/>
+      <c r="A129" s="62"/>
+      <c r="B129" s="47"/>
+      <c r="C129" s="47"/>
+      <c r="D129" s="47"/>
+      <c r="E129" s="47"/>
       <c r="F129" s="9" t="s">
         <v>29</v>
       </c>
@@ -7587,11 +8399,11 @@
       <c r="J129" s="9"/>
     </row>
     <row r="130" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A130" s="48"/>
-      <c r="B130" s="32"/>
-      <c r="C130" s="32"/>
-      <c r="D130" s="32"/>
-      <c r="E130" s="32"/>
+      <c r="A130" s="62"/>
+      <c r="B130" s="47"/>
+      <c r="C130" s="47"/>
+      <c r="D130" s="47"/>
+      <c r="E130" s="47"/>
       <c r="F130" s="9" t="s">
         <v>32</v>
       </c>
@@ -7605,17 +8417,17 @@
       <c r="J130" s="9"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="48"/>
-      <c r="B131" s="31">
+      <c r="A131" s="62"/>
+      <c r="B131" s="35">
         <v>2</v>
       </c>
-      <c r="C131" s="31">
+      <c r="C131" s="35">
         <v>9</v>
       </c>
-      <c r="D131" s="31" t="s">
+      <c r="D131" s="35" t="s">
         <v>167</v>
       </c>
-      <c r="E131" s="46" t="s">
+      <c r="E131" s="52" t="s">
         <v>160</v>
       </c>
       <c r="F131" s="26" t="s">
@@ -7631,11 +8443,11 @@
       <c r="J131" s="20"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="48"/>
-      <c r="B132" s="31"/>
-      <c r="C132" s="31"/>
-      <c r="D132" s="31"/>
-      <c r="E132" s="46"/>
+      <c r="A132" s="62"/>
+      <c r="B132" s="35"/>
+      <c r="C132" s="35"/>
+      <c r="D132" s="35"/>
+      <c r="E132" s="52"/>
       <c r="F132" s="22" t="s">
         <v>19</v>
       </c>
@@ -7649,11 +8461,11 @@
       <c r="J132" s="11"/>
     </row>
     <row r="133" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A133" s="48"/>
-      <c r="B133" s="31"/>
-      <c r="C133" s="31"/>
-      <c r="D133" s="31"/>
-      <c r="E133" s="46"/>
+      <c r="A133" s="62"/>
+      <c r="B133" s="35"/>
+      <c r="C133" s="35"/>
+      <c r="D133" s="35"/>
+      <c r="E133" s="52"/>
       <c r="F133" s="22" t="s">
         <v>23</v>
       </c>
@@ -7667,11 +8479,11 @@
       <c r="J133" s="11"/>
     </row>
     <row r="134" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A134" s="48"/>
-      <c r="B134" s="31"/>
-      <c r="C134" s="31"/>
-      <c r="D134" s="31"/>
-      <c r="E134" s="46"/>
+      <c r="A134" s="62"/>
+      <c r="B134" s="35"/>
+      <c r="C134" s="35"/>
+      <c r="D134" s="35"/>
+      <c r="E134" s="52"/>
       <c r="F134" s="22" t="s">
         <v>26</v>
       </c>
@@ -7685,11 +8497,11 @@
       <c r="J134" s="11"/>
     </row>
     <row r="135" spans="1:10" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="48"/>
-      <c r="B135" s="31"/>
-      <c r="C135" s="31"/>
-      <c r="D135" s="31"/>
-      <c r="E135" s="46"/>
+      <c r="A135" s="62"/>
+      <c r="B135" s="35"/>
+      <c r="C135" s="35"/>
+      <c r="D135" s="35"/>
+      <c r="E135" s="52"/>
       <c r="F135" s="22" t="s">
         <v>29</v>
       </c>
@@ -7703,11 +8515,11 @@
       <c r="J135" s="11"/>
     </row>
     <row r="136" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A136" s="48"/>
-      <c r="B136" s="31"/>
-      <c r="C136" s="31"/>
-      <c r="D136" s="31"/>
-      <c r="E136" s="46"/>
+      <c r="A136" s="62"/>
+      <c r="B136" s="35"/>
+      <c r="C136" s="35"/>
+      <c r="D136" s="35"/>
+      <c r="E136" s="52"/>
       <c r="F136" s="22" t="s">
         <v>32</v>
       </c>
@@ -7721,11 +8533,11 @@
       <c r="J136" s="11"/>
     </row>
     <row r="137" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A137" s="48"/>
-      <c r="B137" s="31"/>
-      <c r="C137" s="31"/>
-      <c r="D137" s="31"/>
-      <c r="E137" s="46"/>
+      <c r="A137" s="62"/>
+      <c r="B137" s="35"/>
+      <c r="C137" s="35"/>
+      <c r="D137" s="35"/>
+      <c r="E137" s="52"/>
       <c r="F137" s="22" t="s">
         <v>35</v>
       </c>
@@ -7739,17 +8551,17 @@
       <c r="J137" s="11"/>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A138" s="48"/>
-      <c r="B138" s="32">
+      <c r="A138" s="62"/>
+      <c r="B138" s="47">
         <v>2</v>
       </c>
-      <c r="C138" s="32">
+      <c r="C138" s="47">
         <v>10</v>
       </c>
-      <c r="D138" s="32" t="s">
+      <c r="D138" s="47" t="s">
         <v>166</v>
       </c>
-      <c r="E138" s="38" t="s">
+      <c r="E138" s="58" t="s">
         <v>163</v>
       </c>
       <c r="F138" s="27" t="s">
@@ -7765,11 +8577,11 @@
       <c r="J138" s="13"/>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139" s="48"/>
-      <c r="B139" s="32"/>
-      <c r="C139" s="32"/>
-      <c r="D139" s="32"/>
-      <c r="E139" s="38"/>
+      <c r="A139" s="62"/>
+      <c r="B139" s="47"/>
+      <c r="C139" s="47"/>
+      <c r="D139" s="47"/>
+      <c r="E139" s="58"/>
       <c r="F139" s="24" t="s">
         <v>19</v>
       </c>
@@ -7783,11 +8595,11 @@
       <c r="J139" s="9"/>
     </row>
     <row r="140" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A140" s="48"/>
-      <c r="B140" s="32"/>
-      <c r="C140" s="32"/>
-      <c r="D140" s="32"/>
-      <c r="E140" s="38"/>
+      <c r="A140" s="62"/>
+      <c r="B140" s="47"/>
+      <c r="C140" s="47"/>
+      <c r="D140" s="47"/>
+      <c r="E140" s="58"/>
       <c r="F140" s="24" t="s">
         <v>23</v>
       </c>
@@ -7801,11 +8613,11 @@
       <c r="J140" s="9"/>
     </row>
     <row r="141" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A141" s="48"/>
-      <c r="B141" s="32"/>
-      <c r="C141" s="32"/>
-      <c r="D141" s="32"/>
-      <c r="E141" s="38"/>
+      <c r="A141" s="62"/>
+      <c r="B141" s="47"/>
+      <c r="C141" s="47"/>
+      <c r="D141" s="47"/>
+      <c r="E141" s="58"/>
       <c r="F141" s="24" t="s">
         <v>26</v>
       </c>
@@ -7819,11 +8631,11 @@
       <c r="J141" s="9"/>
     </row>
     <row r="142" spans="1:10" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="48"/>
-      <c r="B142" s="32"/>
-      <c r="C142" s="32"/>
-      <c r="D142" s="32"/>
-      <c r="E142" s="38"/>
+      <c r="A142" s="62"/>
+      <c r="B142" s="47"/>
+      <c r="C142" s="47"/>
+      <c r="D142" s="47"/>
+      <c r="E142" s="58"/>
       <c r="F142" s="24" t="s">
         <v>29</v>
       </c>
@@ -7837,11 +8649,11 @@
       <c r="J142" s="9"/>
     </row>
     <row r="143" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A143" s="48"/>
-      <c r="B143" s="32"/>
-      <c r="C143" s="32"/>
-      <c r="D143" s="32"/>
-      <c r="E143" s="38"/>
+      <c r="A143" s="62"/>
+      <c r="B143" s="47"/>
+      <c r="C143" s="47"/>
+      <c r="D143" s="47"/>
+      <c r="E143" s="58"/>
       <c r="F143" s="24" t="s">
         <v>32</v>
       </c>
@@ -7855,11 +8667,11 @@
       <c r="J143" s="9"/>
     </row>
     <row r="144" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A144" s="48"/>
-      <c r="B144" s="32"/>
-      <c r="C144" s="32"/>
-      <c r="D144" s="32"/>
-      <c r="E144" s="38"/>
+      <c r="A144" s="62"/>
+      <c r="B144" s="47"/>
+      <c r="C144" s="47"/>
+      <c r="D144" s="47"/>
+      <c r="E144" s="58"/>
       <c r="F144" s="24" t="s">
         <v>35</v>
       </c>
@@ -7873,17 +8685,17 @@
       <c r="J144" s="9"/>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A145" s="48"/>
-      <c r="B145" s="31">
+      <c r="A145" s="62"/>
+      <c r="B145" s="35">
         <v>2</v>
       </c>
-      <c r="C145" s="31">
+      <c r="C145" s="35">
         <v>11</v>
       </c>
-      <c r="D145" s="31" t="s">
+      <c r="D145" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="E145" s="44" t="s">
+      <c r="E145" s="49" t="s">
         <v>186</v>
       </c>
       <c r="F145" s="20" t="s">
@@ -7899,11 +8711,11 @@
       <c r="J145" s="20"/>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A146" s="48"/>
-      <c r="B146" s="31"/>
-      <c r="C146" s="31"/>
-      <c r="D146" s="31"/>
-      <c r="E146" s="45"/>
+      <c r="A146" s="62"/>
+      <c r="B146" s="35"/>
+      <c r="C146" s="35"/>
+      <c r="D146" s="35"/>
+      <c r="E146" s="50"/>
       <c r="F146" s="11" t="s">
         <v>19</v>
       </c>
@@ -7917,11 +8729,11 @@
       <c r="J146" s="11"/>
     </row>
     <row r="147" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A147" s="48"/>
-      <c r="B147" s="31"/>
-      <c r="C147" s="31"/>
-      <c r="D147" s="31"/>
-      <c r="E147" s="45"/>
+      <c r="A147" s="62"/>
+      <c r="B147" s="35"/>
+      <c r="C147" s="35"/>
+      <c r="D147" s="35"/>
+      <c r="E147" s="50"/>
       <c r="F147" s="11" t="s">
         <v>23</v>
       </c>
@@ -7935,11 +8747,11 @@
       <c r="J147" s="11"/>
     </row>
     <row r="148" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A148" s="48"/>
-      <c r="B148" s="31"/>
-      <c r="C148" s="31"/>
-      <c r="D148" s="31"/>
-      <c r="E148" s="45"/>
+      <c r="A148" s="62"/>
+      <c r="B148" s="35"/>
+      <c r="C148" s="35"/>
+      <c r="D148" s="35"/>
+      <c r="E148" s="50"/>
       <c r="F148" s="11" t="s">
         <v>26</v>
       </c>
@@ -7953,11 +8765,11 @@
       <c r="J148" s="11"/>
     </row>
     <row r="149" spans="1:10" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="48"/>
-      <c r="B149" s="31"/>
-      <c r="C149" s="31"/>
-      <c r="D149" s="31"/>
-      <c r="E149" s="45"/>
+      <c r="A149" s="62"/>
+      <c r="B149" s="35"/>
+      <c r="C149" s="35"/>
+      <c r="D149" s="35"/>
+      <c r="E149" s="50"/>
       <c r="F149" s="11" t="s">
         <v>29</v>
       </c>
@@ -7971,11 +8783,11 @@
       <c r="J149" s="11"/>
     </row>
     <row r="150" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A150" s="48"/>
-      <c r="B150" s="31"/>
-      <c r="C150" s="31"/>
-      <c r="D150" s="31"/>
-      <c r="E150" s="45"/>
+      <c r="A150" s="62"/>
+      <c r="B150" s="35"/>
+      <c r="C150" s="35"/>
+      <c r="D150" s="35"/>
+      <c r="E150" s="50"/>
       <c r="F150" s="11" t="s">
         <v>32</v>
       </c>
@@ -7989,11 +8801,11 @@
       <c r="J150" s="11"/>
     </row>
     <row r="151" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A151" s="48"/>
-      <c r="B151" s="31"/>
-      <c r="C151" s="31"/>
-      <c r="D151" s="31"/>
-      <c r="E151" s="45"/>
+      <c r="A151" s="62"/>
+      <c r="B151" s="35"/>
+      <c r="C151" s="35"/>
+      <c r="D151" s="35"/>
+      <c r="E151" s="50"/>
       <c r="F151" s="11" t="s">
         <v>35</v>
       </c>
@@ -8007,17 +8819,17 @@
       <c r="J151" s="11"/>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A152" s="48"/>
-      <c r="B152" s="32">
+      <c r="A152" s="62"/>
+      <c r="B152" s="47">
         <v>2</v>
       </c>
-      <c r="C152" s="32">
+      <c r="C152" s="47">
         <v>12</v>
       </c>
-      <c r="D152" s="32" t="s">
+      <c r="D152" s="47" t="s">
         <v>168</v>
       </c>
-      <c r="E152" s="32" t="s">
+      <c r="E152" s="47" t="s">
         <v>171</v>
       </c>
       <c r="F152" s="13" t="s">
@@ -8033,11 +8845,11 @@
       <c r="J152" s="13"/>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A153" s="48"/>
-      <c r="B153" s="32"/>
-      <c r="C153" s="32"/>
-      <c r="D153" s="32"/>
-      <c r="E153" s="32"/>
+      <c r="A153" s="62"/>
+      <c r="B153" s="47"/>
+      <c r="C153" s="47"/>
+      <c r="D153" s="47"/>
+      <c r="E153" s="47"/>
       <c r="F153" s="9" t="s">
         <v>19</v>
       </c>
@@ -8051,11 +8863,11 @@
       <c r="J153" s="9"/>
     </row>
     <row r="154" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A154" s="48"/>
-      <c r="B154" s="32"/>
-      <c r="C154" s="32"/>
-      <c r="D154" s="32"/>
-      <c r="E154" s="32"/>
+      <c r="A154" s="62"/>
+      <c r="B154" s="47"/>
+      <c r="C154" s="47"/>
+      <c r="D154" s="47"/>
+      <c r="E154" s="47"/>
       <c r="F154" s="9" t="s">
         <v>23</v>
       </c>
@@ -8069,11 +8881,11 @@
       <c r="J154" s="9"/>
     </row>
     <row r="155" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A155" s="48"/>
-      <c r="B155" s="32"/>
-      <c r="C155" s="32"/>
-      <c r="D155" s="32"/>
-      <c r="E155" s="32"/>
+      <c r="A155" s="62"/>
+      <c r="B155" s="47"/>
+      <c r="C155" s="47"/>
+      <c r="D155" s="47"/>
+      <c r="E155" s="47"/>
       <c r="F155" s="9" t="s">
         <v>26</v>
       </c>
@@ -8087,11 +8899,11 @@
       <c r="J155" s="9"/>
     </row>
     <row r="156" spans="1:10" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="48"/>
-      <c r="B156" s="32"/>
-      <c r="C156" s="32"/>
-      <c r="D156" s="32"/>
-      <c r="E156" s="32"/>
+      <c r="A156" s="62"/>
+      <c r="B156" s="47"/>
+      <c r="C156" s="47"/>
+      <c r="D156" s="47"/>
+      <c r="E156" s="47"/>
       <c r="F156" s="9" t="s">
         <v>29</v>
       </c>
@@ -8105,11 +8917,11 @@
       <c r="J156" s="9"/>
     </row>
     <row r="157" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A157" s="48"/>
-      <c r="B157" s="32"/>
-      <c r="C157" s="32"/>
-      <c r="D157" s="32"/>
-      <c r="E157" s="32"/>
+      <c r="A157" s="62"/>
+      <c r="B157" s="47"/>
+      <c r="C157" s="47"/>
+      <c r="D157" s="47"/>
+      <c r="E157" s="47"/>
       <c r="F157" s="9" t="s">
         <v>32</v>
       </c>
@@ -8123,11 +8935,11 @@
       <c r="J157" s="9"/>
     </row>
     <row r="158" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A158" s="48"/>
-      <c r="B158" s="32"/>
-      <c r="C158" s="32"/>
-      <c r="D158" s="32"/>
-      <c r="E158" s="32"/>
+      <c r="A158" s="62"/>
+      <c r="B158" s="47"/>
+      <c r="C158" s="47"/>
+      <c r="D158" s="47"/>
+      <c r="E158" s="47"/>
       <c r="F158" s="9" t="s">
         <v>35</v>
       </c>
@@ -8141,17 +8953,17 @@
       <c r="J158" s="9"/>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A159" s="48"/>
-      <c r="B159" s="31">
+      <c r="A159" s="62"/>
+      <c r="B159" s="35">
         <v>2</v>
       </c>
-      <c r="C159" s="31">
+      <c r="C159" s="35">
         <v>13</v>
       </c>
-      <c r="D159" s="31" t="s">
+      <c r="D159" s="35" t="s">
         <v>172</v>
       </c>
-      <c r="E159" s="31" t="s">
+      <c r="E159" s="35" t="s">
         <v>173</v>
       </c>
       <c r="F159" s="20" t="s">
@@ -8167,11 +8979,11 @@
       <c r="J159" s="20"/>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A160" s="48"/>
-      <c r="B160" s="31"/>
-      <c r="C160" s="31"/>
-      <c r="D160" s="31"/>
-      <c r="E160" s="31"/>
+      <c r="A160" s="62"/>
+      <c r="B160" s="35"/>
+      <c r="C160" s="35"/>
+      <c r="D160" s="35"/>
+      <c r="E160" s="35"/>
       <c r="F160" s="11" t="s">
         <v>19</v>
       </c>
@@ -8185,11 +8997,11 @@
       <c r="J160" s="11"/>
     </row>
     <row r="161" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A161" s="48"/>
-      <c r="B161" s="31"/>
-      <c r="C161" s="31"/>
-      <c r="D161" s="31"/>
-      <c r="E161" s="31"/>
+      <c r="A161" s="62"/>
+      <c r="B161" s="35"/>
+      <c r="C161" s="35"/>
+      <c r="D161" s="35"/>
+      <c r="E161" s="35"/>
       <c r="F161" s="11" t="s">
         <v>23</v>
       </c>
@@ -8203,11 +9015,11 @@
       <c r="J161" s="11"/>
     </row>
     <row r="162" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A162" s="48"/>
-      <c r="B162" s="31"/>
-      <c r="C162" s="31"/>
-      <c r="D162" s="31"/>
-      <c r="E162" s="31"/>
+      <c r="A162" s="62"/>
+      <c r="B162" s="35"/>
+      <c r="C162" s="35"/>
+      <c r="D162" s="35"/>
+      <c r="E162" s="35"/>
       <c r="F162" s="11" t="s">
         <v>26</v>
       </c>
@@ -8221,11 +9033,11 @@
       <c r="J162" s="11"/>
     </row>
     <row r="163" spans="1:10" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="48"/>
-      <c r="B163" s="31"/>
-      <c r="C163" s="31"/>
-      <c r="D163" s="31"/>
-      <c r="E163" s="31"/>
+      <c r="A163" s="62"/>
+      <c r="B163" s="35"/>
+      <c r="C163" s="35"/>
+      <c r="D163" s="35"/>
+      <c r="E163" s="35"/>
       <c r="F163" s="11" t="s">
         <v>29</v>
       </c>
@@ -8239,11 +9051,11 @@
       <c r="J163" s="11"/>
     </row>
     <row r="164" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A164" s="48"/>
-      <c r="B164" s="31"/>
-      <c r="C164" s="31"/>
-      <c r="D164" s="31"/>
-      <c r="E164" s="31"/>
+      <c r="A164" s="62"/>
+      <c r="B164" s="35"/>
+      <c r="C164" s="35"/>
+      <c r="D164" s="35"/>
+      <c r="E164" s="35"/>
       <c r="F164" s="11" t="s">
         <v>32</v>
       </c>
@@ -8257,11 +9069,11 @@
       <c r="J164" s="11"/>
     </row>
     <row r="165" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A165" s="48"/>
-      <c r="B165" s="31"/>
-      <c r="C165" s="31"/>
-      <c r="D165" s="31"/>
-      <c r="E165" s="31"/>
+      <c r="A165" s="62"/>
+      <c r="B165" s="35"/>
+      <c r="C165" s="35"/>
+      <c r="D165" s="35"/>
+      <c r="E165" s="35"/>
       <c r="F165" s="11" t="s">
         <v>35</v>
       </c>
@@ -8275,17 +9087,17 @@
       <c r="J165" s="11"/>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A166" s="48"/>
-      <c r="B166" s="32">
+      <c r="A166" s="62"/>
+      <c r="B166" s="47">
         <v>2</v>
       </c>
-      <c r="C166" s="32">
+      <c r="C166" s="47">
         <v>14</v>
       </c>
-      <c r="D166" s="32" t="s">
+      <c r="D166" s="47" t="s">
         <v>175</v>
       </c>
-      <c r="E166" s="32" t="s">
+      <c r="E166" s="47" t="s">
         <v>176</v>
       </c>
       <c r="F166" s="13" t="s">
@@ -8301,11 +9113,11 @@
       <c r="J166" s="13"/>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A167" s="48"/>
-      <c r="B167" s="32"/>
-      <c r="C167" s="32"/>
-      <c r="D167" s="32"/>
-      <c r="E167" s="32"/>
+      <c r="A167" s="62"/>
+      <c r="B167" s="47"/>
+      <c r="C167" s="47"/>
+      <c r="D167" s="47"/>
+      <c r="E167" s="47"/>
       <c r="F167" s="9" t="s">
         <v>19</v>
       </c>
@@ -8319,11 +9131,11 @@
       <c r="J167" s="9"/>
     </row>
     <row r="168" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A168" s="48"/>
-      <c r="B168" s="32"/>
-      <c r="C168" s="32"/>
-      <c r="D168" s="32"/>
-      <c r="E168" s="32"/>
+      <c r="A168" s="62"/>
+      <c r="B168" s="47"/>
+      <c r="C168" s="47"/>
+      <c r="D168" s="47"/>
+      <c r="E168" s="47"/>
       <c r="F168" s="9" t="s">
         <v>23</v>
       </c>
@@ -8337,11 +9149,11 @@
       <c r="J168" s="9"/>
     </row>
     <row r="169" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A169" s="48"/>
-      <c r="B169" s="32"/>
-      <c r="C169" s="32"/>
-      <c r="D169" s="32"/>
-      <c r="E169" s="32"/>
+      <c r="A169" s="62"/>
+      <c r="B169" s="47"/>
+      <c r="C169" s="47"/>
+      <c r="D169" s="47"/>
+      <c r="E169" s="47"/>
       <c r="F169" s="9" t="s">
         <v>26</v>
       </c>
@@ -8355,11 +9167,11 @@
       <c r="J169" s="9"/>
     </row>
     <row r="170" spans="1:10" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="48"/>
-      <c r="B170" s="32"/>
-      <c r="C170" s="32"/>
-      <c r="D170" s="32"/>
-      <c r="E170" s="32"/>
+      <c r="A170" s="62"/>
+      <c r="B170" s="47"/>
+      <c r="C170" s="47"/>
+      <c r="D170" s="47"/>
+      <c r="E170" s="47"/>
       <c r="F170" s="9" t="s">
         <v>29</v>
       </c>
@@ -8373,11 +9185,11 @@
       <c r="J170" s="9"/>
     </row>
     <row r="171" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A171" s="48"/>
-      <c r="B171" s="32"/>
-      <c r="C171" s="32"/>
-      <c r="D171" s="32"/>
-      <c r="E171" s="32"/>
+      <c r="A171" s="62"/>
+      <c r="B171" s="47"/>
+      <c r="C171" s="47"/>
+      <c r="D171" s="47"/>
+      <c r="E171" s="47"/>
       <c r="F171" s="9" t="s">
         <v>32</v>
       </c>
@@ -8391,11 +9203,11 @@
       <c r="J171" s="9"/>
     </row>
     <row r="172" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A172" s="48"/>
-      <c r="B172" s="32"/>
-      <c r="C172" s="32"/>
-      <c r="D172" s="32"/>
-      <c r="E172" s="32"/>
+      <c r="A172" s="62"/>
+      <c r="B172" s="47"/>
+      <c r="C172" s="47"/>
+      <c r="D172" s="47"/>
+      <c r="E172" s="47"/>
       <c r="F172" s="9" t="s">
         <v>35</v>
       </c>
@@ -8409,17 +9221,17 @@
       <c r="J172" s="9"/>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A173" s="48"/>
-      <c r="B173" s="31">
+      <c r="A173" s="62"/>
+      <c r="B173" s="35">
         <v>2</v>
       </c>
-      <c r="C173" s="31">
+      <c r="C173" s="35">
         <v>15</v>
       </c>
-      <c r="D173" s="31" t="s">
+      <c r="D173" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="E173" s="31" t="s">
+      <c r="E173" s="35" t="s">
         <v>181</v>
       </c>
       <c r="F173" s="20" t="s">
@@ -8435,11 +9247,11 @@
       <c r="J173" s="20"/>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A174" s="48"/>
-      <c r="B174" s="31"/>
-      <c r="C174" s="31"/>
-      <c r="D174" s="31"/>
-      <c r="E174" s="31"/>
+      <c r="A174" s="62"/>
+      <c r="B174" s="35"/>
+      <c r="C174" s="35"/>
+      <c r="D174" s="35"/>
+      <c r="E174" s="35"/>
       <c r="F174" s="11" t="s">
         <v>19</v>
       </c>
@@ -8453,11 +9265,11 @@
       <c r="J174" s="11"/>
     </row>
     <row r="175" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A175" s="48"/>
-      <c r="B175" s="31"/>
-      <c r="C175" s="31"/>
-      <c r="D175" s="31"/>
-      <c r="E175" s="31"/>
+      <c r="A175" s="62"/>
+      <c r="B175" s="35"/>
+      <c r="C175" s="35"/>
+      <c r="D175" s="35"/>
+      <c r="E175" s="35"/>
       <c r="F175" s="11" t="s">
         <v>23</v>
       </c>
@@ -8471,11 +9283,11 @@
       <c r="J175" s="11"/>
     </row>
     <row r="176" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A176" s="48"/>
-      <c r="B176" s="31"/>
-      <c r="C176" s="31"/>
-      <c r="D176" s="31"/>
-      <c r="E176" s="31"/>
+      <c r="A176" s="62"/>
+      <c r="B176" s="35"/>
+      <c r="C176" s="35"/>
+      <c r="D176" s="35"/>
+      <c r="E176" s="35"/>
       <c r="F176" s="11" t="s">
         <v>26</v>
       </c>
@@ -8489,11 +9301,11 @@
       <c r="J176" s="11"/>
     </row>
     <row r="177" spans="1:10" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="48"/>
-      <c r="B177" s="31"/>
-      <c r="C177" s="31"/>
-      <c r="D177" s="31"/>
-      <c r="E177" s="31"/>
+      <c r="A177" s="62"/>
+      <c r="B177" s="35"/>
+      <c r="C177" s="35"/>
+      <c r="D177" s="35"/>
+      <c r="E177" s="35"/>
       <c r="F177" s="11" t="s">
         <v>29</v>
       </c>
@@ -8507,11 +9319,11 @@
       <c r="J177" s="11"/>
     </row>
     <row r="178" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A178" s="48"/>
-      <c r="B178" s="31"/>
-      <c r="C178" s="31"/>
-      <c r="D178" s="31"/>
-      <c r="E178" s="31"/>
+      <c r="A178" s="62"/>
+      <c r="B178" s="35"/>
+      <c r="C178" s="35"/>
+      <c r="D178" s="35"/>
+      <c r="E178" s="35"/>
       <c r="F178" s="11" t="s">
         <v>32</v>
       </c>
@@ -8525,11 +9337,11 @@
       <c r="J178" s="11"/>
     </row>
     <row r="179" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A179" s="48"/>
-      <c r="B179" s="31"/>
-      <c r="C179" s="31"/>
-      <c r="D179" s="31"/>
-      <c r="E179" s="31"/>
+      <c r="A179" s="62"/>
+      <c r="B179" s="35"/>
+      <c r="C179" s="35"/>
+      <c r="D179" s="35"/>
+      <c r="E179" s="35"/>
       <c r="F179" s="11" t="s">
         <v>35</v>
       </c>
@@ -8543,17 +9355,17 @@
       <c r="J179" s="11"/>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A180" s="48"/>
-      <c r="B180" s="32">
+      <c r="A180" s="62"/>
+      <c r="B180" s="47">
         <v>2</v>
       </c>
-      <c r="C180" s="32">
+      <c r="C180" s="47">
         <v>16</v>
       </c>
-      <c r="D180" s="32" t="s">
+      <c r="D180" s="47" t="s">
         <v>190</v>
       </c>
-      <c r="E180" s="32" t="s">
+      <c r="E180" s="47" t="s">
         <v>191</v>
       </c>
       <c r="F180" s="13" t="s">
@@ -8569,11 +9381,11 @@
       <c r="J180" s="13"/>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A181" s="48"/>
-      <c r="B181" s="32"/>
-      <c r="C181" s="32"/>
-      <c r="D181" s="32"/>
-      <c r="E181" s="32"/>
+      <c r="A181" s="62"/>
+      <c r="B181" s="47"/>
+      <c r="C181" s="47"/>
+      <c r="D181" s="47"/>
+      <c r="E181" s="47"/>
       <c r="F181" s="9" t="s">
         <v>19</v>
       </c>
@@ -8587,11 +9399,11 @@
       <c r="J181" s="9"/>
     </row>
     <row r="182" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A182" s="48"/>
-      <c r="B182" s="32"/>
-      <c r="C182" s="32"/>
-      <c r="D182" s="32"/>
-      <c r="E182" s="32"/>
+      <c r="A182" s="62"/>
+      <c r="B182" s="47"/>
+      <c r="C182" s="47"/>
+      <c r="D182" s="47"/>
+      <c r="E182" s="47"/>
       <c r="F182" s="9" t="s">
         <v>23</v>
       </c>
@@ -8605,11 +9417,11 @@
       <c r="J182" s="9"/>
     </row>
     <row r="183" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A183" s="48"/>
-      <c r="B183" s="32"/>
-      <c r="C183" s="32"/>
-      <c r="D183" s="32"/>
-      <c r="E183" s="32"/>
+      <c r="A183" s="62"/>
+      <c r="B183" s="47"/>
+      <c r="C183" s="47"/>
+      <c r="D183" s="47"/>
+      <c r="E183" s="47"/>
       <c r="F183" s="9" t="s">
         <v>26</v>
       </c>
@@ -8623,11 +9435,11 @@
       <c r="J183" s="9"/>
     </row>
     <row r="184" spans="1:10" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="48"/>
-      <c r="B184" s="32"/>
-      <c r="C184" s="32"/>
-      <c r="D184" s="32"/>
-      <c r="E184" s="32"/>
+      <c r="A184" s="62"/>
+      <c r="B184" s="47"/>
+      <c r="C184" s="47"/>
+      <c r="D184" s="47"/>
+      <c r="E184" s="47"/>
       <c r="F184" s="9" t="s">
         <v>29</v>
       </c>
@@ -8641,11 +9453,11 @@
       <c r="J184" s="9"/>
     </row>
     <row r="185" spans="1:10" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="48"/>
-      <c r="B185" s="32"/>
-      <c r="C185" s="32"/>
-      <c r="D185" s="32"/>
-      <c r="E185" s="32"/>
+      <c r="A185" s="62"/>
+      <c r="B185" s="47"/>
+      <c r="C185" s="47"/>
+      <c r="D185" s="47"/>
+      <c r="E185" s="47"/>
       <c r="F185" s="9" t="s">
         <v>32</v>
       </c>
@@ -8659,11 +9471,11 @@
       <c r="J185" s="9"/>
     </row>
     <row r="186" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A186" s="48"/>
-      <c r="B186" s="32"/>
-      <c r="C186" s="32"/>
-      <c r="D186" s="32"/>
-      <c r="E186" s="32"/>
+      <c r="A186" s="62"/>
+      <c r="B186" s="47"/>
+      <c r="C186" s="47"/>
+      <c r="D186" s="47"/>
+      <c r="E186" s="47"/>
       <c r="F186" s="9" t="s">
         <v>35</v>
       </c>
@@ -8677,11 +9489,11 @@
       <c r="J186" s="9"/>
     </row>
     <row r="187" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A187" s="48"/>
-      <c r="B187" s="32"/>
-      <c r="C187" s="32"/>
-      <c r="D187" s="32"/>
-      <c r="E187" s="32"/>
+      <c r="A187" s="62"/>
+      <c r="B187" s="47"/>
+      <c r="C187" s="47"/>
+      <c r="D187" s="47"/>
+      <c r="E187" s="47"/>
       <c r="F187" s="9" t="s">
         <v>37</v>
       </c>
@@ -8695,17 +9507,17 @@
       <c r="J187" s="9"/>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A188" s="48"/>
-      <c r="B188" s="31">
+      <c r="A188" s="62"/>
+      <c r="B188" s="35">
         <v>2</v>
       </c>
-      <c r="C188" s="31">
+      <c r="C188" s="35">
         <v>17</v>
       </c>
-      <c r="D188" s="31" t="s">
+      <c r="D188" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="E188" s="31" t="s">
+      <c r="E188" s="35" t="s">
         <v>193</v>
       </c>
       <c r="F188" s="20" t="s">
@@ -8721,11 +9533,11 @@
       <c r="J188" s="20"/>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A189" s="48"/>
-      <c r="B189" s="31"/>
-      <c r="C189" s="31"/>
-      <c r="D189" s="31"/>
-      <c r="E189" s="31"/>
+      <c r="A189" s="62"/>
+      <c r="B189" s="35"/>
+      <c r="C189" s="35"/>
+      <c r="D189" s="35"/>
+      <c r="E189" s="35"/>
       <c r="F189" s="11" t="s">
         <v>19</v>
       </c>
@@ -8739,11 +9551,11 @@
       <c r="J189" s="11"/>
     </row>
     <row r="190" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A190" s="48"/>
-      <c r="B190" s="31"/>
-      <c r="C190" s="31"/>
-      <c r="D190" s="31"/>
-      <c r="E190" s="31"/>
+      <c r="A190" s="62"/>
+      <c r="B190" s="35"/>
+      <c r="C190" s="35"/>
+      <c r="D190" s="35"/>
+      <c r="E190" s="35"/>
       <c r="F190" s="11" t="s">
         <v>23</v>
       </c>
@@ -8757,11 +9569,11 @@
       <c r="J190" s="11"/>
     </row>
     <row r="191" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A191" s="48"/>
-      <c r="B191" s="31"/>
-      <c r="C191" s="31"/>
-      <c r="D191" s="31"/>
-      <c r="E191" s="31"/>
+      <c r="A191" s="62"/>
+      <c r="B191" s="35"/>
+      <c r="C191" s="35"/>
+      <c r="D191" s="35"/>
+      <c r="E191" s="35"/>
       <c r="F191" s="11" t="s">
         <v>26</v>
       </c>
@@ -8775,11 +9587,11 @@
       <c r="J191" s="11"/>
     </row>
     <row r="192" spans="1:10" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="48"/>
-      <c r="B192" s="31"/>
-      <c r="C192" s="31"/>
-      <c r="D192" s="31"/>
-      <c r="E192" s="31"/>
+      <c r="A192" s="62"/>
+      <c r="B192" s="35"/>
+      <c r="C192" s="35"/>
+      <c r="D192" s="35"/>
+      <c r="E192" s="35"/>
       <c r="F192" s="11" t="s">
         <v>29</v>
       </c>
@@ -8793,11 +9605,11 @@
       <c r="J192" s="11"/>
     </row>
     <row r="193" spans="1:10" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="48"/>
-      <c r="B193" s="31"/>
-      <c r="C193" s="31"/>
-      <c r="D193" s="31"/>
-      <c r="E193" s="31"/>
+      <c r="A193" s="62"/>
+      <c r="B193" s="35"/>
+      <c r="C193" s="35"/>
+      <c r="D193" s="35"/>
+      <c r="E193" s="35"/>
       <c r="F193" s="11" t="s">
         <v>32</v>
       </c>
@@ -8811,11 +9623,11 @@
       <c r="J193" s="11"/>
     </row>
     <row r="194" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A194" s="48"/>
-      <c r="B194" s="31"/>
-      <c r="C194" s="31"/>
-      <c r="D194" s="31"/>
-      <c r="E194" s="31"/>
+      <c r="A194" s="62"/>
+      <c r="B194" s="35"/>
+      <c r="C194" s="35"/>
+      <c r="D194" s="35"/>
+      <c r="E194" s="35"/>
       <c r="F194" s="11" t="s">
         <v>35</v>
       </c>
@@ -8829,11 +9641,11 @@
       <c r="J194" s="11"/>
     </row>
     <row r="195" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A195" s="48"/>
-      <c r="B195" s="31"/>
-      <c r="C195" s="31"/>
-      <c r="D195" s="31"/>
-      <c r="E195" s="31"/>
+      <c r="A195" s="62"/>
+      <c r="B195" s="35"/>
+      <c r="C195" s="35"/>
+      <c r="D195" s="35"/>
+      <c r="E195" s="35"/>
       <c r="F195" s="11" t="s">
         <v>37</v>
       </c>
@@ -8847,17 +9659,17 @@
       <c r="J195" s="11"/>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A196" s="48"/>
-      <c r="B196" s="32">
+      <c r="A196" s="62"/>
+      <c r="B196" s="47">
         <v>2</v>
       </c>
-      <c r="C196" s="32">
+      <c r="C196" s="47">
         <v>18</v>
       </c>
-      <c r="D196" s="32" t="s">
+      <c r="D196" s="47" t="s">
         <v>195</v>
       </c>
-      <c r="E196" s="32" t="s">
+      <c r="E196" s="47" t="s">
         <v>196</v>
       </c>
       <c r="F196" s="13" t="s">
@@ -8873,11 +9685,11 @@
       <c r="J196" s="13"/>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A197" s="48"/>
-      <c r="B197" s="32"/>
-      <c r="C197" s="32"/>
-      <c r="D197" s="32"/>
-      <c r="E197" s="32"/>
+      <c r="A197" s="62"/>
+      <c r="B197" s="47"/>
+      <c r="C197" s="47"/>
+      <c r="D197" s="47"/>
+      <c r="E197" s="47"/>
       <c r="F197" s="9" t="s">
         <v>19</v>
       </c>
@@ -8891,11 +9703,11 @@
       <c r="J197" s="9"/>
     </row>
     <row r="198" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A198" s="48"/>
-      <c r="B198" s="32"/>
-      <c r="C198" s="32"/>
-      <c r="D198" s="32"/>
-      <c r="E198" s="32"/>
+      <c r="A198" s="62"/>
+      <c r="B198" s="47"/>
+      <c r="C198" s="47"/>
+      <c r="D198" s="47"/>
+      <c r="E198" s="47"/>
       <c r="F198" s="9" t="s">
         <v>23</v>
       </c>
@@ -8909,11 +9721,11 @@
       <c r="J198" s="9"/>
     </row>
     <row r="199" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A199" s="48"/>
-      <c r="B199" s="32"/>
-      <c r="C199" s="32"/>
-      <c r="D199" s="32"/>
-      <c r="E199" s="32"/>
+      <c r="A199" s="62"/>
+      <c r="B199" s="47"/>
+      <c r="C199" s="47"/>
+      <c r="D199" s="47"/>
+      <c r="E199" s="47"/>
       <c r="F199" s="9" t="s">
         <v>26</v>
       </c>
@@ -8927,11 +9739,11 @@
       <c r="J199" s="9"/>
     </row>
     <row r="200" spans="1:10" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="48"/>
-      <c r="B200" s="32"/>
-      <c r="C200" s="32"/>
-      <c r="D200" s="32"/>
-      <c r="E200" s="32"/>
+      <c r="A200" s="62"/>
+      <c r="B200" s="47"/>
+      <c r="C200" s="47"/>
+      <c r="D200" s="47"/>
+      <c r="E200" s="47"/>
       <c r="F200" s="9" t="s">
         <v>29</v>
       </c>
@@ -8945,11 +9757,11 @@
       <c r="J200" s="9"/>
     </row>
     <row r="201" spans="1:10" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="48"/>
-      <c r="B201" s="32"/>
-      <c r="C201" s="32"/>
-      <c r="D201" s="32"/>
-      <c r="E201" s="32"/>
+      <c r="A201" s="62"/>
+      <c r="B201" s="47"/>
+      <c r="C201" s="47"/>
+      <c r="D201" s="47"/>
+      <c r="E201" s="47"/>
       <c r="F201" s="9" t="s">
         <v>32</v>
       </c>
@@ -8963,11 +9775,11 @@
       <c r="J201" s="9"/>
     </row>
     <row r="202" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A202" s="48"/>
-      <c r="B202" s="32"/>
-      <c r="C202" s="32"/>
-      <c r="D202" s="32"/>
-      <c r="E202" s="32"/>
+      <c r="A202" s="62"/>
+      <c r="B202" s="47"/>
+      <c r="C202" s="47"/>
+      <c r="D202" s="47"/>
+      <c r="E202" s="47"/>
       <c r="F202" s="9" t="s">
         <v>35</v>
       </c>
@@ -8981,11 +9793,11 @@
       <c r="J202" s="9"/>
     </row>
     <row r="203" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A203" s="48"/>
-      <c r="B203" s="32"/>
-      <c r="C203" s="32"/>
-      <c r="D203" s="32"/>
-      <c r="E203" s="32"/>
+      <c r="A203" s="62"/>
+      <c r="B203" s="47"/>
+      <c r="C203" s="47"/>
+      <c r="D203" s="47"/>
+      <c r="E203" s="47"/>
       <c r="F203" s="9" t="s">
         <v>37</v>
       </c>
@@ -8999,17 +9811,17 @@
       <c r="J203" s="9"/>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A204" s="48"/>
-      <c r="B204" s="31">
+      <c r="A204" s="62"/>
+      <c r="B204" s="35">
         <v>2</v>
       </c>
-      <c r="C204" s="31">
+      <c r="C204" s="35">
         <v>19</v>
       </c>
-      <c r="D204" s="31" t="s">
+      <c r="D204" s="35" t="s">
         <v>201</v>
       </c>
-      <c r="E204" s="44" t="s">
+      <c r="E204" s="49" t="s">
         <v>202</v>
       </c>
       <c r="F204" s="20" t="s">
@@ -9025,11 +9837,11 @@
       <c r="J204" s="20"/>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A205" s="48"/>
-      <c r="B205" s="31"/>
-      <c r="C205" s="31"/>
-      <c r="D205" s="31"/>
-      <c r="E205" s="45"/>
+      <c r="A205" s="62"/>
+      <c r="B205" s="35"/>
+      <c r="C205" s="35"/>
+      <c r="D205" s="35"/>
+      <c r="E205" s="50"/>
       <c r="F205" s="11" t="s">
         <v>19</v>
       </c>
@@ -9043,11 +9855,11 @@
       <c r="J205" s="11"/>
     </row>
     <row r="206" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A206" s="48"/>
-      <c r="B206" s="31"/>
-      <c r="C206" s="31"/>
-      <c r="D206" s="31"/>
-      <c r="E206" s="45"/>
+      <c r="A206" s="62"/>
+      <c r="B206" s="35"/>
+      <c r="C206" s="35"/>
+      <c r="D206" s="35"/>
+      <c r="E206" s="50"/>
       <c r="F206" s="11" t="s">
         <v>23</v>
       </c>
@@ -9061,11 +9873,11 @@
       <c r="J206" s="11"/>
     </row>
     <row r="207" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A207" s="48"/>
-      <c r="B207" s="31"/>
-      <c r="C207" s="31"/>
-      <c r="D207" s="31"/>
-      <c r="E207" s="45"/>
+      <c r="A207" s="62"/>
+      <c r="B207" s="35"/>
+      <c r="C207" s="35"/>
+      <c r="D207" s="35"/>
+      <c r="E207" s="50"/>
       <c r="F207" s="11" t="s">
         <v>26</v>
       </c>
@@ -9079,11 +9891,11 @@
       <c r="J207" s="11"/>
     </row>
     <row r="208" spans="1:10" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="48"/>
-      <c r="B208" s="31"/>
-      <c r="C208" s="31"/>
-      <c r="D208" s="31"/>
-      <c r="E208" s="45"/>
+      <c r="A208" s="62"/>
+      <c r="B208" s="35"/>
+      <c r="C208" s="35"/>
+      <c r="D208" s="35"/>
+      <c r="E208" s="50"/>
       <c r="F208" s="11" t="s">
         <v>29</v>
       </c>
@@ -9097,11 +9909,11 @@
       <c r="J208" s="11"/>
     </row>
     <row r="209" spans="1:10" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="48"/>
-      <c r="B209" s="31"/>
-      <c r="C209" s="31"/>
-      <c r="D209" s="31"/>
-      <c r="E209" s="45"/>
+      <c r="A209" s="62"/>
+      <c r="B209" s="35"/>
+      <c r="C209" s="35"/>
+      <c r="D209" s="35"/>
+      <c r="E209" s="50"/>
       <c r="F209" s="11" t="s">
         <v>32</v>
       </c>
@@ -9115,11 +9927,11 @@
       <c r="J209" s="11"/>
     </row>
     <row r="210" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A210" s="48"/>
-      <c r="B210" s="31"/>
-      <c r="C210" s="31"/>
-      <c r="D210" s="31"/>
-      <c r="E210" s="45"/>
+      <c r="A210" s="62"/>
+      <c r="B210" s="35"/>
+      <c r="C210" s="35"/>
+      <c r="D210" s="35"/>
+      <c r="E210" s="50"/>
       <c r="F210" s="11" t="s">
         <v>35</v>
       </c>
@@ -9133,11 +9945,11 @@
       <c r="J210" s="11"/>
     </row>
     <row r="211" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A211" s="48"/>
-      <c r="B211" s="31"/>
-      <c r="C211" s="31"/>
-      <c r="D211" s="31"/>
-      <c r="E211" s="45"/>
+      <c r="A211" s="62"/>
+      <c r="B211" s="35"/>
+      <c r="C211" s="35"/>
+      <c r="D211" s="35"/>
+      <c r="E211" s="50"/>
       <c r="F211" s="11" t="s">
         <v>37</v>
       </c>
@@ -9151,17 +9963,17 @@
       <c r="J211" s="11"/>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A212" s="48"/>
-      <c r="B212" s="32">
+      <c r="A212" s="62"/>
+      <c r="B212" s="47">
         <v>2</v>
       </c>
-      <c r="C212" s="32">
+      <c r="C212" s="47">
         <v>20</v>
       </c>
-      <c r="D212" s="32" t="s">
+      <c r="D212" s="47" t="s">
         <v>205</v>
       </c>
-      <c r="E212" s="62" t="s">
+      <c r="E212" s="64" t="s">
         <v>206</v>
       </c>
       <c r="F212" s="13" t="s">
@@ -9177,11 +9989,11 @@
       <c r="J212" s="13"/>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A213" s="48"/>
-      <c r="B213" s="32"/>
-      <c r="C213" s="32"/>
-      <c r="D213" s="32"/>
-      <c r="E213" s="49"/>
+      <c r="A213" s="62"/>
+      <c r="B213" s="47"/>
+      <c r="C213" s="47"/>
+      <c r="D213" s="47"/>
+      <c r="E213" s="60"/>
       <c r="F213" s="9" t="s">
         <v>19</v>
       </c>
@@ -9195,11 +10007,11 @@
       <c r="J213" s="9"/>
     </row>
     <row r="214" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A214" s="48"/>
-      <c r="B214" s="32"/>
-      <c r="C214" s="32"/>
-      <c r="D214" s="32"/>
-      <c r="E214" s="49"/>
+      <c r="A214" s="62"/>
+      <c r="B214" s="47"/>
+      <c r="C214" s="47"/>
+      <c r="D214" s="47"/>
+      <c r="E214" s="60"/>
       <c r="F214" s="9" t="s">
         <v>23</v>
       </c>
@@ -9213,11 +10025,11 @@
       <c r="J214" s="9"/>
     </row>
     <row r="215" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A215" s="48"/>
-      <c r="B215" s="32"/>
-      <c r="C215" s="32"/>
-      <c r="D215" s="32"/>
-      <c r="E215" s="49"/>
+      <c r="A215" s="62"/>
+      <c r="B215" s="47"/>
+      <c r="C215" s="47"/>
+      <c r="D215" s="47"/>
+      <c r="E215" s="60"/>
       <c r="F215" s="9" t="s">
         <v>26</v>
       </c>
@@ -9231,11 +10043,11 @@
       <c r="J215" s="9"/>
     </row>
     <row r="216" spans="1:10" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="48"/>
-      <c r="B216" s="32"/>
-      <c r="C216" s="32"/>
-      <c r="D216" s="32"/>
-      <c r="E216" s="49"/>
+      <c r="A216" s="62"/>
+      <c r="B216" s="47"/>
+      <c r="C216" s="47"/>
+      <c r="D216" s="47"/>
+      <c r="E216" s="60"/>
       <c r="F216" s="9" t="s">
         <v>29</v>
       </c>
@@ -9249,11 +10061,11 @@
       <c r="J216" s="9"/>
     </row>
     <row r="217" spans="1:10" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="48"/>
-      <c r="B217" s="32"/>
-      <c r="C217" s="32"/>
-      <c r="D217" s="32"/>
-      <c r="E217" s="49"/>
+      <c r="A217" s="62"/>
+      <c r="B217" s="47"/>
+      <c r="C217" s="47"/>
+      <c r="D217" s="47"/>
+      <c r="E217" s="60"/>
       <c r="F217" s="9" t="s">
         <v>32</v>
       </c>
@@ -9267,11 +10079,11 @@
       <c r="J217" s="9"/>
     </row>
     <row r="218" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A218" s="48"/>
-      <c r="B218" s="32"/>
-      <c r="C218" s="32"/>
-      <c r="D218" s="32"/>
-      <c r="E218" s="49"/>
+      <c r="A218" s="62"/>
+      <c r="B218" s="47"/>
+      <c r="C218" s="47"/>
+      <c r="D218" s="47"/>
+      <c r="E218" s="60"/>
       <c r="F218" s="9" t="s">
         <v>35</v>
       </c>
@@ -9285,11 +10097,11 @@
       <c r="J218" s="9"/>
     </row>
     <row r="219" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A219" s="48"/>
-      <c r="B219" s="32"/>
-      <c r="C219" s="32"/>
-      <c r="D219" s="32"/>
-      <c r="E219" s="49"/>
+      <c r="A219" s="62"/>
+      <c r="B219" s="47"/>
+      <c r="C219" s="47"/>
+      <c r="D219" s="47"/>
+      <c r="E219" s="60"/>
       <c r="F219" s="9" t="s">
         <v>37</v>
       </c>
@@ -9303,17 +10115,17 @@
       <c r="J219" s="9"/>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A220" s="48"/>
-      <c r="B220" s="31">
+      <c r="A220" s="62"/>
+      <c r="B220" s="35">
         <v>2</v>
       </c>
-      <c r="C220" s="31">
+      <c r="C220" s="35">
         <v>21</v>
       </c>
-      <c r="D220" s="31" t="s">
+      <c r="D220" s="35" t="s">
         <v>207</v>
       </c>
-      <c r="E220" s="44" t="s">
+      <c r="E220" s="49" t="s">
         <v>210</v>
       </c>
       <c r="F220" s="20" t="s">
@@ -9329,11 +10141,11 @@
       <c r="J220" s="20"/>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A221" s="48"/>
-      <c r="B221" s="31"/>
-      <c r="C221" s="31"/>
-      <c r="D221" s="31"/>
-      <c r="E221" s="45"/>
+      <c r="A221" s="62"/>
+      <c r="B221" s="35"/>
+      <c r="C221" s="35"/>
+      <c r="D221" s="35"/>
+      <c r="E221" s="50"/>
       <c r="F221" s="11" t="s">
         <v>19</v>
       </c>
@@ -9347,11 +10159,11 @@
       <c r="J221" s="11"/>
     </row>
     <row r="222" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A222" s="48"/>
-      <c r="B222" s="31"/>
-      <c r="C222" s="31"/>
-      <c r="D222" s="31"/>
-      <c r="E222" s="45"/>
+      <c r="A222" s="62"/>
+      <c r="B222" s="35"/>
+      <c r="C222" s="35"/>
+      <c r="D222" s="35"/>
+      <c r="E222" s="50"/>
       <c r="F222" s="11" t="s">
         <v>23</v>
       </c>
@@ -9365,11 +10177,11 @@
       <c r="J222" s="11"/>
     </row>
     <row r="223" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A223" s="48"/>
-      <c r="B223" s="31"/>
-      <c r="C223" s="31"/>
-      <c r="D223" s="31"/>
-      <c r="E223" s="45"/>
+      <c r="A223" s="62"/>
+      <c r="B223" s="35"/>
+      <c r="C223" s="35"/>
+      <c r="D223" s="35"/>
+      <c r="E223" s="50"/>
       <c r="F223" s="11" t="s">
         <v>26</v>
       </c>
@@ -9383,11 +10195,11 @@
       <c r="J223" s="11"/>
     </row>
     <row r="224" spans="1:10" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="48"/>
-      <c r="B224" s="31"/>
-      <c r="C224" s="31"/>
-      <c r="D224" s="31"/>
-      <c r="E224" s="45"/>
+      <c r="A224" s="62"/>
+      <c r="B224" s="35"/>
+      <c r="C224" s="35"/>
+      <c r="D224" s="35"/>
+      <c r="E224" s="50"/>
       <c r="F224" s="11" t="s">
         <v>29</v>
       </c>
@@ -9401,11 +10213,11 @@
       <c r="J224" s="11"/>
     </row>
     <row r="225" spans="1:10" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="48"/>
-      <c r="B225" s="31"/>
-      <c r="C225" s="31"/>
-      <c r="D225" s="31"/>
-      <c r="E225" s="45"/>
+      <c r="A225" s="62"/>
+      <c r="B225" s="35"/>
+      <c r="C225" s="35"/>
+      <c r="D225" s="35"/>
+      <c r="E225" s="50"/>
       <c r="F225" s="11" t="s">
         <v>32</v>
       </c>
@@ -9419,11 +10231,11 @@
       <c r="J225" s="11"/>
     </row>
     <row r="226" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A226" s="48"/>
-      <c r="B226" s="31"/>
-      <c r="C226" s="31"/>
-      <c r="D226" s="31"/>
-      <c r="E226" s="45"/>
+      <c r="A226" s="62"/>
+      <c r="B226" s="35"/>
+      <c r="C226" s="35"/>
+      <c r="D226" s="35"/>
+      <c r="E226" s="50"/>
       <c r="F226" s="11" t="s">
         <v>35</v>
       </c>
@@ -9437,35 +10249,35 @@
       <c r="J226" s="11"/>
     </row>
     <row r="227" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A227" s="52"/>
-      <c r="B227" s="53"/>
-      <c r="C227" s="53"/>
-      <c r="D227" s="53"/>
-      <c r="E227" s="54"/>
-      <c r="F227" s="55" t="s">
+      <c r="A227" s="63"/>
+      <c r="B227" s="48"/>
+      <c r="C227" s="48"/>
+      <c r="D227" s="48"/>
+      <c r="E227" s="51"/>
+      <c r="F227" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="G227" s="55" t="s">
+      <c r="G227" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="H227" s="56" t="s">
+      <c r="H227" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="I227" s="55"/>
-      <c r="J227" s="55"/>
+      <c r="I227" s="31"/>
+      <c r="J227" s="31"/>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A228" s="33"/>
-      <c r="B228" s="34">
+      <c r="A228" s="34"/>
+      <c r="B228" s="42">
         <v>3</v>
       </c>
-      <c r="C228" s="34">
+      <c r="C228" s="42">
         <v>1</v>
       </c>
-      <c r="D228" s="34" t="s">
+      <c r="D228" s="42" t="s">
         <v>220</v>
       </c>
-      <c r="E228" s="51" t="s">
+      <c r="E228" s="44" t="s">
         <v>221</v>
       </c>
       <c r="F228" s="13" t="s">
@@ -9481,11 +10293,11 @@
       <c r="J228" s="13"/>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A229" s="33"/>
-      <c r="B229" s="34"/>
-      <c r="C229" s="34"/>
-      <c r="D229" s="34"/>
-      <c r="E229" s="36"/>
+      <c r="A229" s="34"/>
+      <c r="B229" s="42"/>
+      <c r="C229" s="42"/>
+      <c r="D229" s="42"/>
+      <c r="E229" s="45"/>
       <c r="F229" s="9" t="s">
         <v>19</v>
       </c>
@@ -9499,11 +10311,11 @@
       <c r="J229" s="9"/>
     </row>
     <row r="230" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A230" s="33"/>
-      <c r="B230" s="34"/>
-      <c r="C230" s="34"/>
-      <c r="D230" s="34"/>
-      <c r="E230" s="36"/>
+      <c r="A230" s="34"/>
+      <c r="B230" s="42"/>
+      <c r="C230" s="42"/>
+      <c r="D230" s="42"/>
+      <c r="E230" s="45"/>
       <c r="F230" s="9" t="s">
         <v>23</v>
       </c>
@@ -9517,11 +10329,11 @@
       <c r="J230" s="9"/>
     </row>
     <row r="231" spans="1:10" ht="154.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="33"/>
-      <c r="B231" s="34"/>
-      <c r="C231" s="34"/>
-      <c r="D231" s="34"/>
-      <c r="E231" s="36"/>
+      <c r="A231" s="34"/>
+      <c r="B231" s="42"/>
+      <c r="C231" s="42"/>
+      <c r="D231" s="42"/>
+      <c r="E231" s="45"/>
       <c r="F231" s="9" t="s">
         <v>26</v>
       </c>
@@ -9535,11 +10347,11 @@
       <c r="J231" s="9"/>
     </row>
     <row r="232" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A232" s="33"/>
-      <c r="B232" s="35"/>
-      <c r="C232" s="35"/>
-      <c r="D232" s="35"/>
-      <c r="E232" s="37"/>
+      <c r="A232" s="34"/>
+      <c r="B232" s="43"/>
+      <c r="C232" s="43"/>
+      <c r="D232" s="43"/>
+      <c r="E232" s="46"/>
       <c r="F232" s="9" t="s">
         <v>29</v>
       </c>
@@ -9553,17 +10365,17 @@
       <c r="J232" s="9"/>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A233" s="33"/>
-      <c r="B233" s="57">
+      <c r="A233" s="34"/>
+      <c r="B233" s="37">
         <v>3</v>
       </c>
-      <c r="C233" s="57">
+      <c r="C233" s="37">
         <v>2</v>
       </c>
-      <c r="D233" s="57" t="s">
+      <c r="D233" s="37" t="s">
         <v>224</v>
       </c>
-      <c r="E233" s="58" t="s">
+      <c r="E233" s="39" t="s">
         <v>225</v>
       </c>
       <c r="F233" s="20" t="s">
@@ -9579,11 +10391,11 @@
       <c r="J233" s="20"/>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A234" s="33"/>
-      <c r="B234" s="57"/>
-      <c r="C234" s="57"/>
-      <c r="D234" s="57"/>
-      <c r="E234" s="59"/>
+      <c r="A234" s="34"/>
+      <c r="B234" s="37"/>
+      <c r="C234" s="37"/>
+      <c r="D234" s="37"/>
+      <c r="E234" s="40"/>
       <c r="F234" s="11" t="s">
         <v>19</v>
       </c>
@@ -9597,11 +10409,11 @@
       <c r="J234" s="11"/>
     </row>
     <row r="235" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A235" s="33"/>
-      <c r="B235" s="57"/>
-      <c r="C235" s="57"/>
-      <c r="D235" s="57"/>
-      <c r="E235" s="59"/>
+      <c r="A235" s="34"/>
+      <c r="B235" s="37"/>
+      <c r="C235" s="37"/>
+      <c r="D235" s="37"/>
+      <c r="E235" s="40"/>
       <c r="F235" s="11" t="s">
         <v>23</v>
       </c>
@@ -9615,11 +10427,11 @@
       <c r="J235" s="11"/>
     </row>
     <row r="236" spans="1:10" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="33"/>
-      <c r="B236" s="57"/>
-      <c r="C236" s="57"/>
-      <c r="D236" s="57"/>
-      <c r="E236" s="59"/>
+      <c r="A236" s="34"/>
+      <c r="B236" s="37"/>
+      <c r="C236" s="37"/>
+      <c r="D236" s="37"/>
+      <c r="E236" s="40"/>
       <c r="F236" s="11" t="s">
         <v>26</v>
       </c>
@@ -9633,11 +10445,11 @@
       <c r="J236" s="11"/>
     </row>
     <row r="237" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A237" s="33"/>
-      <c r="B237" s="60"/>
-      <c r="C237" s="60"/>
-      <c r="D237" s="60"/>
-      <c r="E237" s="61"/>
+      <c r="A237" s="34"/>
+      <c r="B237" s="38"/>
+      <c r="C237" s="38"/>
+      <c r="D237" s="38"/>
+      <c r="E237" s="41"/>
       <c r="F237" s="11" t="s">
         <v>29</v>
       </c>
@@ -9651,17 +10463,17 @@
       <c r="J237" s="11"/>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A238" s="33"/>
-      <c r="B238" s="34">
+      <c r="A238" s="34"/>
+      <c r="B238" s="42">
         <v>3</v>
       </c>
-      <c r="C238" s="34">
+      <c r="C238" s="42">
         <v>3</v>
       </c>
-      <c r="D238" s="34" t="s">
+      <c r="D238" s="42" t="s">
         <v>231</v>
       </c>
-      <c r="E238" s="51" t="s">
+      <c r="E238" s="44" t="s">
         <v>232</v>
       </c>
       <c r="F238" s="13" t="s">
@@ -9677,11 +10489,11 @@
       <c r="J238" s="13"/>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A239" s="33"/>
-      <c r="B239" s="34"/>
-      <c r="C239" s="34"/>
-      <c r="D239" s="34"/>
-      <c r="E239" s="36"/>
+      <c r="A239" s="34"/>
+      <c r="B239" s="42"/>
+      <c r="C239" s="42"/>
+      <c r="D239" s="42"/>
+      <c r="E239" s="45"/>
       <c r="F239" s="9" t="s">
         <v>19</v>
       </c>
@@ -9695,11 +10507,11 @@
       <c r="J239" s="9"/>
     </row>
     <row r="240" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A240" s="33"/>
-      <c r="B240" s="34"/>
-      <c r="C240" s="34"/>
-      <c r="D240" s="34"/>
-      <c r="E240" s="36"/>
+      <c r="A240" s="34"/>
+      <c r="B240" s="42"/>
+      <c r="C240" s="42"/>
+      <c r="D240" s="42"/>
+      <c r="E240" s="45"/>
       <c r="F240" s="9" t="s">
         <v>23</v>
       </c>
@@ -9713,11 +10525,11 @@
       <c r="J240" s="9"/>
     </row>
     <row r="241" spans="1:10" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="33"/>
-      <c r="B241" s="34"/>
-      <c r="C241" s="34"/>
-      <c r="D241" s="34"/>
-      <c r="E241" s="36"/>
+      <c r="A241" s="34"/>
+      <c r="B241" s="42"/>
+      <c r="C241" s="42"/>
+      <c r="D241" s="42"/>
+      <c r="E241" s="45"/>
       <c r="F241" s="9" t="s">
         <v>26</v>
       </c>
@@ -9731,11 +10543,11 @@
       <c r="J241" s="9"/>
     </row>
     <row r="242" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A242" s="33"/>
-      <c r="B242" s="35"/>
-      <c r="C242" s="35"/>
-      <c r="D242" s="35"/>
-      <c r="E242" s="37"/>
+      <c r="A242" s="34"/>
+      <c r="B242" s="43"/>
+      <c r="C242" s="43"/>
+      <c r="D242" s="43"/>
+      <c r="E242" s="46"/>
       <c r="F242" s="9" t="s">
         <v>29</v>
       </c>
@@ -9749,17 +10561,17 @@
       <c r="J242" s="9"/>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A243" s="63"/>
-      <c r="B243" s="31">
+      <c r="A243" s="36"/>
+      <c r="B243" s="35">
         <v>3</v>
       </c>
-      <c r="C243" s="57">
+      <c r="C243" s="37">
         <v>4</v>
       </c>
-      <c r="D243" s="57" t="s">
+      <c r="D243" s="37" t="s">
         <v>236</v>
       </c>
-      <c r="E243" s="58" t="s">
+      <c r="E243" s="39" t="s">
         <v>237</v>
       </c>
       <c r="F243" s="20" t="s">
@@ -9775,11 +10587,11 @@
       <c r="J243" s="20"/>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A244" s="63"/>
-      <c r="B244" s="31"/>
-      <c r="C244" s="57"/>
-      <c r="D244" s="57"/>
-      <c r="E244" s="59"/>
+      <c r="A244" s="36"/>
+      <c r="B244" s="35"/>
+      <c r="C244" s="37"/>
+      <c r="D244" s="37"/>
+      <c r="E244" s="40"/>
       <c r="F244" s="11" t="s">
         <v>19</v>
       </c>
@@ -9793,11 +10605,11 @@
       <c r="J244" s="11"/>
     </row>
     <row r="245" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A245" s="63"/>
-      <c r="B245" s="31"/>
-      <c r="C245" s="57"/>
-      <c r="D245" s="57"/>
-      <c r="E245" s="59"/>
+      <c r="A245" s="36"/>
+      <c r="B245" s="35"/>
+      <c r="C245" s="37"/>
+      <c r="D245" s="37"/>
+      <c r="E245" s="40"/>
       <c r="F245" s="11" t="s">
         <v>23</v>
       </c>
@@ -9811,11 +10623,11 @@
       <c r="J245" s="11"/>
     </row>
     <row r="246" spans="1:10" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="63"/>
-      <c r="B246" s="31"/>
-      <c r="C246" s="57"/>
-      <c r="D246" s="57"/>
-      <c r="E246" s="59"/>
+      <c r="A246" s="36"/>
+      <c r="B246" s="35"/>
+      <c r="C246" s="37"/>
+      <c r="D246" s="37"/>
+      <c r="E246" s="40"/>
       <c r="F246" s="11" t="s">
         <v>26</v>
       </c>
@@ -9829,11 +10641,11 @@
       <c r="J246" s="11"/>
     </row>
     <row r="247" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A247" s="63"/>
-      <c r="B247" s="31"/>
-      <c r="C247" s="60"/>
-      <c r="D247" s="60"/>
-      <c r="E247" s="61"/>
+      <c r="A247" s="36"/>
+      <c r="B247" s="35"/>
+      <c r="C247" s="38"/>
+      <c r="D247" s="38"/>
+      <c r="E247" s="41"/>
       <c r="F247" s="11" t="s">
         <v>29</v>
       </c>
@@ -9847,17 +10659,17 @@
       <c r="J247" s="11"/>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A248" s="33"/>
-      <c r="B248" s="32">
+      <c r="A248" s="34"/>
+      <c r="B248" s="47">
         <v>3</v>
       </c>
-      <c r="C248" s="32">
+      <c r="C248" s="47">
         <v>5</v>
       </c>
-      <c r="D248" s="32" t="s">
+      <c r="D248" s="47" t="s">
         <v>240</v>
       </c>
-      <c r="E248" s="64" t="s">
+      <c r="E248" s="59" t="s">
         <v>215</v>
       </c>
       <c r="F248" s="13" t="s">
@@ -9873,11 +10685,11 @@
       <c r="J248" s="13"/>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A249" s="33"/>
-      <c r="B249" s="32"/>
-      <c r="C249" s="32"/>
-      <c r="D249" s="32"/>
-      <c r="E249" s="49"/>
+      <c r="A249" s="34"/>
+      <c r="B249" s="47"/>
+      <c r="C249" s="47"/>
+      <c r="D249" s="47"/>
+      <c r="E249" s="60"/>
       <c r="F249" s="9" t="s">
         <v>19</v>
       </c>
@@ -9891,11 +10703,11 @@
       <c r="J249" s="9"/>
     </row>
     <row r="250" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A250" s="33"/>
-      <c r="B250" s="32"/>
-      <c r="C250" s="32"/>
-      <c r="D250" s="32"/>
-      <c r="E250" s="49"/>
+      <c r="A250" s="34"/>
+      <c r="B250" s="47"/>
+      <c r="C250" s="47"/>
+      <c r="D250" s="47"/>
+      <c r="E250" s="60"/>
       <c r="F250" s="9" t="s">
         <v>23</v>
       </c>
@@ -9909,11 +10721,11 @@
       <c r="J250" s="9"/>
     </row>
     <row r="251" spans="1:10" ht="154.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A251" s="33"/>
-      <c r="B251" s="32"/>
-      <c r="C251" s="32"/>
-      <c r="D251" s="32"/>
-      <c r="E251" s="49"/>
+      <c r="A251" s="34"/>
+      <c r="B251" s="47"/>
+      <c r="C251" s="47"/>
+      <c r="D251" s="47"/>
+      <c r="E251" s="60"/>
       <c r="F251" s="9" t="s">
         <v>26</v>
       </c>
@@ -9927,11 +10739,11 @@
       <c r="J251" s="9"/>
     </row>
     <row r="252" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A252" s="33"/>
-      <c r="B252" s="32"/>
-      <c r="C252" s="32"/>
-      <c r="D252" s="32"/>
-      <c r="E252" s="49"/>
+      <c r="A252" s="34"/>
+      <c r="B252" s="47"/>
+      <c r="C252" s="47"/>
+      <c r="D252" s="47"/>
+      <c r="E252" s="60"/>
       <c r="F252" s="9" t="s">
         <v>29</v>
       </c>
@@ -9945,11 +10757,11 @@
       <c r="J252" s="9"/>
     </row>
     <row r="253" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A253" s="33"/>
-      <c r="B253" s="32"/>
-      <c r="C253" s="32"/>
-      <c r="D253" s="32"/>
-      <c r="E253" s="49"/>
+      <c r="A253" s="34"/>
+      <c r="B253" s="47"/>
+      <c r="C253" s="47"/>
+      <c r="D253" s="47"/>
+      <c r="E253" s="60"/>
       <c r="F253" s="9" t="s">
         <v>32</v>
       </c>
@@ -9963,11 +10775,11 @@
       <c r="J253" s="9"/>
     </row>
     <row r="254" spans="1:10" ht="144" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A254" s="33"/>
-      <c r="B254" s="32"/>
-      <c r="C254" s="32"/>
-      <c r="D254" s="32"/>
-      <c r="E254" s="49"/>
+      <c r="A254" s="34"/>
+      <c r="B254" s="47"/>
+      <c r="C254" s="47"/>
+      <c r="D254" s="47"/>
+      <c r="E254" s="60"/>
       <c r="F254" s="9" t="s">
         <v>35</v>
       </c>
@@ -9981,11 +10793,11 @@
       <c r="J254" s="9"/>
     </row>
     <row r="255" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A255" s="33"/>
-      <c r="B255" s="32"/>
-      <c r="C255" s="32"/>
-      <c r="D255" s="32"/>
-      <c r="E255" s="49"/>
+      <c r="A255" s="34"/>
+      <c r="B255" s="47"/>
+      <c r="C255" s="47"/>
+      <c r="D255" s="47"/>
+      <c r="E255" s="60"/>
       <c r="F255" s="9" t="s">
         <v>37</v>
       </c>
@@ -9999,11 +10811,11 @@
       <c r="J255" s="9"/>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A256" s="33"/>
-      <c r="B256" s="32"/>
-      <c r="C256" s="32"/>
-      <c r="D256" s="32"/>
-      <c r="E256" s="49"/>
+      <c r="A256" s="34"/>
+      <c r="B256" s="47"/>
+      <c r="C256" s="47"/>
+      <c r="D256" s="47"/>
+      <c r="E256" s="60"/>
       <c r="F256" s="9" t="s">
         <v>47</v>
       </c>
@@ -10017,11 +10829,11 @@
       <c r="J256" s="9"/>
     </row>
     <row r="257" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A257" s="33"/>
-      <c r="B257" s="32"/>
-      <c r="C257" s="32"/>
-      <c r="D257" s="32"/>
-      <c r="E257" s="49"/>
+      <c r="A257" s="34"/>
+      <c r="B257" s="47"/>
+      <c r="C257" s="47"/>
+      <c r="D257" s="47"/>
+      <c r="E257" s="60"/>
       <c r="F257" s="9" t="s">
         <v>244</v>
       </c>
@@ -10035,11 +10847,11 @@
       <c r="J257" s="9"/>
     </row>
     <row r="258" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A258" s="33"/>
-      <c r="B258" s="32"/>
-      <c r="C258" s="32"/>
-      <c r="D258" s="32"/>
-      <c r="E258" s="49"/>
+      <c r="A258" s="34"/>
+      <c r="B258" s="47"/>
+      <c r="C258" s="47"/>
+      <c r="D258" s="47"/>
+      <c r="E258" s="60"/>
       <c r="F258" s="9" t="s">
         <v>246</v>
       </c>
@@ -10053,11 +10865,11 @@
       <c r="J258" s="9"/>
     </row>
     <row r="259" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A259" s="33"/>
-      <c r="B259" s="32"/>
-      <c r="C259" s="32"/>
-      <c r="D259" s="32"/>
-      <c r="E259" s="49"/>
+      <c r="A259" s="34"/>
+      <c r="B259" s="47"/>
+      <c r="C259" s="47"/>
+      <c r="D259" s="47"/>
+      <c r="E259" s="60"/>
       <c r="F259" s="9" t="s">
         <v>249</v>
       </c>
@@ -10071,540 +10883,1345 @@
       <c r="J259" s="9"/>
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A260" s="33"/>
-      <c r="B260" s="69">
+      <c r="A260" s="34"/>
+      <c r="B260" s="35">
         <v>3</v>
       </c>
-      <c r="C260" s="69">
+      <c r="C260" s="35">
         <v>6</v>
       </c>
-      <c r="D260" s="69" t="s">
+      <c r="D260" s="35" t="s">
         <v>251</v>
       </c>
-      <c r="E260" s="69" t="s">
+      <c r="E260" s="35" t="s">
         <v>252</v>
       </c>
-      <c r="F260" s="66" t="s">
+      <c r="F260" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="G260" s="66" t="s">
+      <c r="G260" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="H260" s="66" t="s">
+      <c r="H260" s="20" t="s">
         <v>154</v>
       </c>
       <c r="I260" s="20"/>
       <c r="J260" s="20"/>
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A261" s="33"/>
-      <c r="B261" s="69"/>
-      <c r="C261" s="69"/>
-      <c r="D261" s="69"/>
-      <c r="E261" s="69"/>
-      <c r="F261" s="67" t="s">
+      <c r="A261" s="34"/>
+      <c r="B261" s="35"/>
+      <c r="C261" s="35"/>
+      <c r="D261" s="35"/>
+      <c r="E261" s="35"/>
+      <c r="F261" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G261" s="67" t="s">
+      <c r="G261" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="H261" s="67" t="s">
+      <c r="H261" s="11" t="s">
         <v>214</v>
       </c>
       <c r="I261" s="11"/>
       <c r="J261" s="11"/>
     </row>
     <row r="262" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A262" s="33"/>
-      <c r="B262" s="69"/>
-      <c r="C262" s="69"/>
-      <c r="D262" s="69"/>
-      <c r="E262" s="69"/>
-      <c r="F262" s="67" t="s">
+      <c r="A262" s="34"/>
+      <c r="B262" s="35"/>
+      <c r="C262" s="35"/>
+      <c r="D262" s="35"/>
+      <c r="E262" s="35"/>
+      <c r="F262" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G262" s="67" t="s">
+      <c r="G262" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="H262" s="67" t="s">
+      <c r="H262" s="11" t="s">
         <v>217</v>
       </c>
       <c r="I262" s="11"/>
       <c r="J262" s="11"/>
     </row>
     <row r="263" spans="1:10" ht="154.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A263" s="33"/>
-      <c r="B263" s="69"/>
-      <c r="C263" s="69"/>
-      <c r="D263" s="69"/>
-      <c r="E263" s="69"/>
-      <c r="F263" s="67" t="s">
+      <c r="A263" s="34"/>
+      <c r="B263" s="35"/>
+      <c r="C263" s="35"/>
+      <c r="D263" s="35"/>
+      <c r="E263" s="35"/>
+      <c r="F263" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G263" s="67" t="s">
+      <c r="G263" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="H263" s="68" t="s">
+      <c r="H263" s="12" t="s">
         <v>219</v>
       </c>
       <c r="I263" s="11"/>
       <c r="J263" s="11"/>
     </row>
     <row r="264" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A264" s="33"/>
-      <c r="B264" s="69"/>
-      <c r="C264" s="69"/>
-      <c r="D264" s="69"/>
-      <c r="E264" s="69"/>
-      <c r="F264" s="67" t="s">
+      <c r="A264" s="34"/>
+      <c r="B264" s="35"/>
+      <c r="C264" s="35"/>
+      <c r="D264" s="35"/>
+      <c r="E264" s="35"/>
+      <c r="F264" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G264" s="67" t="s">
+      <c r="G264" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="H264" s="67" t="s">
+      <c r="H264" s="11" t="s">
         <v>255</v>
       </c>
       <c r="I264" s="11"/>
       <c r="J264" s="11"/>
     </row>
     <row r="265" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A265" s="33"/>
-      <c r="B265" s="69"/>
-      <c r="C265" s="69"/>
-      <c r="D265" s="69"/>
-      <c r="E265" s="69"/>
-      <c r="F265" s="67" t="s">
+      <c r="A265" s="34"/>
+      <c r="B265" s="35"/>
+      <c r="C265" s="35"/>
+      <c r="D265" s="35"/>
+      <c r="E265" s="35"/>
+      <c r="F265" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="G265" s="67" t="s">
+      <c r="G265" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="H265" s="67" t="s">
+      <c r="H265" s="11" t="s">
         <v>260</v>
       </c>
       <c r="I265" s="11"/>
       <c r="J265" s="11"/>
     </row>
     <row r="266" spans="1:10" ht="144" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A266" s="33"/>
-      <c r="B266" s="69"/>
-      <c r="C266" s="69"/>
-      <c r="D266" s="69"/>
-      <c r="E266" s="69"/>
-      <c r="F266" s="67" t="s">
+      <c r="A266" s="34"/>
+      <c r="B266" s="35"/>
+      <c r="C266" s="35"/>
+      <c r="D266" s="35"/>
+      <c r="E266" s="35"/>
+      <c r="F266" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="G266" s="67" t="s">
+      <c r="G266" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="H266" s="68" t="s">
+      <c r="H266" s="12" t="s">
         <v>242</v>
       </c>
       <c r="I266" s="11"/>
       <c r="J266" s="11"/>
     </row>
     <row r="267" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="33"/>
-      <c r="B267" s="69"/>
-      <c r="C267" s="69"/>
-      <c r="D267" s="69"/>
-      <c r="E267" s="69"/>
-      <c r="F267" s="67" t="s">
+      <c r="A267" s="34"/>
+      <c r="B267" s="35"/>
+      <c r="C267" s="35"/>
+      <c r="D267" s="35"/>
+      <c r="E267" s="35"/>
+      <c r="F267" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="G267" s="67" t="s">
+      <c r="G267" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="H267" s="67" t="s">
+      <c r="H267" s="11" t="s">
         <v>263</v>
       </c>
       <c r="I267" s="11"/>
       <c r="J267" s="11"/>
     </row>
     <row r="268" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A268" s="33"/>
-      <c r="B268" s="69"/>
-      <c r="C268" s="69"/>
-      <c r="D268" s="69"/>
-      <c r="E268" s="69"/>
-      <c r="F268" s="67" t="s">
+      <c r="A268" s="34"/>
+      <c r="B268" s="35"/>
+      <c r="C268" s="35"/>
+      <c r="D268" s="35"/>
+      <c r="E268" s="35"/>
+      <c r="F268" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="G268" s="67" t="s">
+      <c r="G268" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="H268" s="67" t="s">
+      <c r="H268" s="11" t="s">
         <v>243</v>
       </c>
       <c r="I268" s="11"/>
       <c r="J268" s="11"/>
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A269" s="33"/>
-      <c r="B269" s="69"/>
-      <c r="C269" s="69"/>
-      <c r="D269" s="69"/>
-      <c r="E269" s="69"/>
-      <c r="F269" s="67" t="s">
+      <c r="A269" s="34"/>
+      <c r="B269" s="35"/>
+      <c r="C269" s="35"/>
+      <c r="D269" s="35"/>
+      <c r="E269" s="35"/>
+      <c r="F269" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="G269" s="67" t="s">
+      <c r="G269" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="H269" s="67" t="s">
+      <c r="H269" s="11" t="s">
         <v>113</v>
       </c>
       <c r="I269" s="11"/>
       <c r="J269" s="11"/>
     </row>
     <row r="270" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A270" s="33"/>
-      <c r="B270" s="69"/>
-      <c r="C270" s="69"/>
-      <c r="D270" s="69"/>
-      <c r="E270" s="69"/>
-      <c r="F270" s="67" t="s">
+      <c r="A270" s="34"/>
+      <c r="B270" s="35"/>
+      <c r="C270" s="35"/>
+      <c r="D270" s="35"/>
+      <c r="E270" s="35"/>
+      <c r="F270" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="G270" s="67" t="s">
+      <c r="G270" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="H270" s="68" t="s">
+      <c r="H270" s="12" t="s">
         <v>245</v>
       </c>
       <c r="I270" s="11"/>
       <c r="J270" s="11"/>
     </row>
     <row r="271" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A271" s="33"/>
-      <c r="B271" s="69"/>
-      <c r="C271" s="69"/>
-      <c r="D271" s="69"/>
-      <c r="E271" s="69"/>
-      <c r="F271" s="67" t="s">
+      <c r="A271" s="34"/>
+      <c r="B271" s="35"/>
+      <c r="C271" s="35"/>
+      <c r="D271" s="35"/>
+      <c r="E271" s="35"/>
+      <c r="F271" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="G271" s="67" t="s">
+      <c r="G271" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="H271" s="67" t="s">
+      <c r="H271" s="11" t="s">
         <v>248</v>
       </c>
       <c r="I271" s="11"/>
       <c r="J271" s="11"/>
     </row>
     <row r="272" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A272" s="33"/>
-      <c r="B272" s="69"/>
-      <c r="C272" s="69"/>
-      <c r="D272" s="69"/>
-      <c r="E272" s="69"/>
-      <c r="F272" s="67" t="s">
+      <c r="A272" s="34"/>
+      <c r="B272" s="35"/>
+      <c r="C272" s="35"/>
+      <c r="D272" s="35"/>
+      <c r="E272" s="35"/>
+      <c r="F272" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="G272" s="67" t="s">
+      <c r="G272" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="H272" s="68" t="s">
+      <c r="H272" s="12" t="s">
         <v>250</v>
       </c>
       <c r="I272" s="11"/>
       <c r="J272" s="11"/>
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A273" s="33"/>
-      <c r="B273" s="69">
+      <c r="A273" s="34"/>
+      <c r="B273" s="47">
         <v>3</v>
       </c>
-      <c r="C273" s="69">
+      <c r="C273" s="47">
         <v>7</v>
       </c>
-      <c r="D273" s="69" t="s">
+      <c r="D273" s="47" t="s">
+        <v>266</v>
+      </c>
+      <c r="E273" s="47" t="s">
         <v>265</v>
       </c>
-      <c r="E273" s="69" t="s">
-        <v>266</v>
-      </c>
-      <c r="F273" s="66" t="s">
+      <c r="F273" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G273" s="66" t="s">
+      <c r="G273" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="H273" s="66" t="s">
+      <c r="H273" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="I273" s="20"/>
-      <c r="J273" s="20"/>
+      <c r="I273" s="13"/>
+      <c r="J273" s="13"/>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A274" s="33"/>
-      <c r="B274" s="69"/>
-      <c r="C274" s="69"/>
-      <c r="D274" s="69"/>
-      <c r="E274" s="69"/>
-      <c r="F274" s="67" t="s">
+      <c r="A274" s="34"/>
+      <c r="B274" s="47"/>
+      <c r="C274" s="47"/>
+      <c r="D274" s="47"/>
+      <c r="E274" s="47"/>
+      <c r="F274" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G274" s="67" t="s">
+      <c r="G274" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="H274" s="67" t="s">
+      <c r="H274" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="I274" s="11"/>
-      <c r="J274" s="11"/>
+      <c r="I274" s="9"/>
+      <c r="J274" s="9"/>
     </row>
     <row r="275" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A275" s="33"/>
-      <c r="B275" s="69"/>
-      <c r="C275" s="69"/>
-      <c r="D275" s="69"/>
-      <c r="E275" s="69"/>
-      <c r="F275" s="67" t="s">
+      <c r="A275" s="34"/>
+      <c r="B275" s="47"/>
+      <c r="C275" s="47"/>
+      <c r="D275" s="47"/>
+      <c r="E275" s="47"/>
+      <c r="F275" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G275" s="67" t="s">
+      <c r="G275" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="H275" s="67" t="s">
+      <c r="H275" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="I275" s="11"/>
-      <c r="J275" s="11"/>
+      <c r="I275" s="9"/>
+      <c r="J275" s="9"/>
     </row>
     <row r="276" spans="1:10" ht="154.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A276" s="33"/>
-      <c r="B276" s="69"/>
-      <c r="C276" s="69"/>
-      <c r="D276" s="69"/>
-      <c r="E276" s="69"/>
-      <c r="F276" s="67" t="s">
+      <c r="A276" s="34"/>
+      <c r="B276" s="47"/>
+      <c r="C276" s="47"/>
+      <c r="D276" s="47"/>
+      <c r="E276" s="47"/>
+      <c r="F276" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G276" s="67" t="s">
+      <c r="G276" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="H276" s="68" t="s">
+      <c r="H276" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="I276" s="11"/>
-      <c r="J276" s="11"/>
-    </row>
-    <row r="277" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A277" s="33"/>
-      <c r="B277" s="69"/>
-      <c r="C277" s="69"/>
-      <c r="D277" s="69"/>
-      <c r="E277" s="69"/>
-      <c r="F277" s="29" t="s">
+      <c r="I276" s="9"/>
+      <c r="J276" s="9"/>
+    </row>
+    <row r="277" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A277" s="34"/>
+      <c r="B277" s="47"/>
+      <c r="C277" s="47"/>
+      <c r="D277" s="47"/>
+      <c r="E277" s="47"/>
+      <c r="F277" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="G277" s="29" t="s">
-        <v>253</v>
-      </c>
-      <c r="H277" s="29" t="s">
-        <v>255</v>
-      </c>
-      <c r="I277" s="11"/>
-      <c r="J277" s="11"/>
-    </row>
-    <row r="278" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A278" s="33"/>
-      <c r="B278" s="69"/>
-      <c r="C278" s="69"/>
-      <c r="D278" s="69"/>
-      <c r="E278" s="69"/>
-      <c r="F278" s="29" t="s">
+      <c r="G277" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="H277" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="I277" s="9"/>
+      <c r="J277" s="9"/>
+    </row>
+    <row r="278" spans="1:10" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A278" s="34"/>
+      <c r="B278" s="47"/>
+      <c r="C278" s="47"/>
+      <c r="D278" s="47"/>
+      <c r="E278" s="47"/>
+      <c r="F278" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="G278" s="29" t="s">
-        <v>259</v>
-      </c>
-      <c r="H278" s="29" t="s">
-        <v>260</v>
-      </c>
-      <c r="I278" s="11"/>
-      <c r="J278" s="11"/>
-    </row>
-    <row r="279" spans="1:10" ht="144" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A279" s="33"/>
-      <c r="B279" s="69"/>
-      <c r="C279" s="69"/>
-      <c r="D279" s="69"/>
-      <c r="E279" s="69"/>
-      <c r="F279" s="29" t="s">
+      <c r="G278" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="H278" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="I278" s="9"/>
+      <c r="J278" s="9"/>
+    </row>
+    <row r="279" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A279" s="34"/>
+      <c r="B279" s="47"/>
+      <c r="C279" s="47"/>
+      <c r="D279" s="47"/>
+      <c r="E279" s="47"/>
+      <c r="F279" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="G279" s="29" t="s">
-        <v>241</v>
-      </c>
-      <c r="H279" s="65" t="s">
-        <v>242</v>
-      </c>
-      <c r="I279" s="11"/>
-      <c r="J279" s="11"/>
-    </row>
-    <row r="280" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A280" s="33"/>
-      <c r="B280" s="69"/>
-      <c r="C280" s="69"/>
-      <c r="D280" s="69"/>
-      <c r="E280" s="69"/>
-      <c r="F280" s="29" t="s">
+      <c r="G279" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H279" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="I279" s="9"/>
+      <c r="J279" s="9"/>
+    </row>
+    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A280" s="34"/>
+      <c r="B280" s="47"/>
+      <c r="C280" s="47"/>
+      <c r="D280" s="47"/>
+      <c r="E280" s="47"/>
+      <c r="F280" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="G280" s="29" t="s">
-        <v>262</v>
-      </c>
-      <c r="H280" s="29" t="s">
-        <v>263</v>
-      </c>
-      <c r="I280" s="11"/>
-      <c r="J280" s="11"/>
-    </row>
-    <row r="281" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A281" s="33"/>
-      <c r="B281" s="69"/>
-      <c r="C281" s="69"/>
-      <c r="D281" s="69"/>
-      <c r="E281" s="69"/>
-      <c r="F281" s="29" t="s">
+      <c r="G280" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="H280" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="I280" s="9"/>
+      <c r="J280" s="9"/>
+    </row>
+    <row r="281" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A281" s="34"/>
+      <c r="B281" s="47"/>
+      <c r="C281" s="47"/>
+      <c r="D281" s="47"/>
+      <c r="E281" s="47"/>
+      <c r="F281" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="G281" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="H281" s="29" t="s">
-        <v>243</v>
-      </c>
-      <c r="I281" s="11"/>
-      <c r="J281" s="11"/>
-    </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A282" s="33"/>
-      <c r="B282" s="69"/>
-      <c r="C282" s="69"/>
-      <c r="D282" s="69"/>
-      <c r="E282" s="69"/>
-      <c r="F282" s="29" t="s">
+      <c r="G281" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="H281" s="25" t="s">
+        <v>245</v>
+      </c>
+      <c r="I281" s="9"/>
+      <c r="J281" s="9"/>
+    </row>
+    <row r="282" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A282" s="34"/>
+      <c r="B282" s="47"/>
+      <c r="C282" s="47"/>
+      <c r="D282" s="47"/>
+      <c r="E282" s="47"/>
+      <c r="F282" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="G282" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="H282" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="I282" s="11"/>
-      <c r="J282" s="11"/>
-    </row>
-    <row r="283" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A283" s="33"/>
-      <c r="B283" s="69"/>
-      <c r="C283" s="69"/>
-      <c r="D283" s="69"/>
-      <c r="E283" s="69"/>
-      <c r="F283" s="29" t="s">
+      <c r="G282" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="H282" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="I282" s="9"/>
+      <c r="J282" s="9"/>
+    </row>
+    <row r="283" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A283" s="34"/>
+      <c r="B283" s="47"/>
+      <c r="C283" s="47"/>
+      <c r="D283" s="47"/>
+      <c r="E283" s="47"/>
+      <c r="F283" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="G283" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="H283" s="65" t="s">
-        <v>245</v>
-      </c>
-      <c r="I283" s="11"/>
-      <c r="J283" s="11"/>
-    </row>
-    <row r="284" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A284" s="33"/>
-      <c r="B284" s="69"/>
-      <c r="C284" s="69"/>
-      <c r="D284" s="69"/>
-      <c r="E284" s="69"/>
-      <c r="F284" s="67" t="s">
-        <v>249</v>
-      </c>
-      <c r="G284" s="67" t="s">
-        <v>264</v>
-      </c>
-      <c r="H284" s="67" t="s">
-        <v>248</v>
-      </c>
-      <c r="I284" s="11"/>
-      <c r="J284" s="11"/>
-    </row>
-    <row r="285" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A285" s="33"/>
-      <c r="B285" s="69"/>
-      <c r="C285" s="69"/>
-      <c r="D285" s="69"/>
-      <c r="E285" s="69"/>
-      <c r="F285" s="67" t="s">
-        <v>261</v>
-      </c>
-      <c r="G285" s="67" t="s">
+      <c r="G283" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="H285" s="68" t="s">
+      <c r="H283" s="10" t="s">
         <v>250</v>
+      </c>
+      <c r="I283" s="9"/>
+      <c r="J283" s="9"/>
+    </row>
+    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A284" s="34"/>
+      <c r="B284" s="35">
+        <v>3</v>
+      </c>
+      <c r="C284" s="35">
+        <v>8</v>
+      </c>
+      <c r="D284" s="35" t="s">
+        <v>270</v>
+      </c>
+      <c r="E284" s="35" t="s">
+        <v>265</v>
+      </c>
+      <c r="F284" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G284" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="H284" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="I284" s="20"/>
+      <c r="J284" s="20"/>
+    </row>
+    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A285" s="34"/>
+      <c r="B285" s="35"/>
+      <c r="C285" s="35"/>
+      <c r="D285" s="35"/>
+      <c r="E285" s="35"/>
+      <c r="F285" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G285" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="H285" s="11" t="s">
+        <v>214</v>
       </c>
       <c r="I285" s="11"/>
       <c r="J285" s="11"/>
     </row>
-    <row r="286" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A286" s="34"/>
+      <c r="B286" s="35"/>
+      <c r="C286" s="35"/>
+      <c r="D286" s="35"/>
+      <c r="E286" s="35"/>
+      <c r="F286" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G286" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="H286" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="I286" s="11"/>
+      <c r="J286" s="11"/>
+    </row>
+    <row r="287" spans="1:10" ht="154.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A287" s="34"/>
+      <c r="B287" s="35"/>
+      <c r="C287" s="35"/>
+      <c r="D287" s="35"/>
+      <c r="E287" s="35"/>
+      <c r="F287" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G287" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="H287" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="I287" s="11"/>
+      <c r="J287" s="11"/>
+    </row>
+    <row r="288" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A288" s="34"/>
+      <c r="B288" s="35"/>
+      <c r="C288" s="35"/>
+      <c r="D288" s="35"/>
+      <c r="E288" s="35"/>
+      <c r="F288" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="G288" s="22" t="s">
+        <v>272</v>
+      </c>
+      <c r="H288" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="I288" s="11"/>
+      <c r="J288" s="11"/>
+    </row>
+    <row r="289" spans="1:10" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A289" s="34"/>
+      <c r="B289" s="35"/>
+      <c r="C289" s="35"/>
+      <c r="D289" s="35"/>
+      <c r="E289" s="35"/>
+      <c r="F289" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="G289" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="H289" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="I289" s="11"/>
+      <c r="J289" s="11"/>
+    </row>
+    <row r="290" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A290" s="34"/>
+      <c r="B290" s="35"/>
+      <c r="C290" s="35"/>
+      <c r="D290" s="35"/>
+      <c r="E290" s="35"/>
+      <c r="F290" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="G290" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="H290" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="I290" s="11"/>
+      <c r="J290" s="11"/>
+    </row>
+    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A291" s="34"/>
+      <c r="B291" s="35"/>
+      <c r="C291" s="35"/>
+      <c r="D291" s="35"/>
+      <c r="E291" s="35"/>
+      <c r="F291" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="G291" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="H291" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="I291" s="11"/>
+      <c r="J291" s="11"/>
+    </row>
+    <row r="292" spans="1:10" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A292" s="34"/>
+      <c r="B292" s="35"/>
+      <c r="C292" s="35"/>
+      <c r="D292" s="35"/>
+      <c r="E292" s="35"/>
+      <c r="F292" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="G292" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="H292" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="I292" s="11"/>
+      <c r="J292" s="11"/>
+    </row>
+    <row r="293" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A293" s="34"/>
+      <c r="B293" s="35"/>
+      <c r="C293" s="35"/>
+      <c r="D293" s="35"/>
+      <c r="E293" s="35"/>
+      <c r="F293" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="G293" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="H293" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="I293" s="11"/>
+      <c r="J293" s="11"/>
+    </row>
+    <row r="294" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A294" s="34"/>
+      <c r="B294" s="35"/>
+      <c r="C294" s="35"/>
+      <c r="D294" s="35"/>
+      <c r="E294" s="35"/>
+      <c r="F294" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="G294" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="H294" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="I294" s="11"/>
+      <c r="J294" s="11"/>
+    </row>
+    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A295" s="34"/>
+      <c r="B295" s="66">
+        <v>3</v>
+      </c>
+      <c r="C295" s="66">
+        <v>9</v>
+      </c>
+      <c r="D295" s="67" t="s">
+        <v>278</v>
+      </c>
+      <c r="E295" s="66" t="s">
+        <v>279</v>
+      </c>
+      <c r="F295" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="G295" s="68" t="s">
+        <v>155</v>
+      </c>
+      <c r="H295" s="68" t="s">
+        <v>154</v>
+      </c>
+      <c r="I295" s="29"/>
+      <c r="J295" s="29"/>
+    </row>
+    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A296" s="34"/>
+      <c r="B296" s="66"/>
+      <c r="C296" s="66"/>
+      <c r="D296" s="60"/>
+      <c r="E296" s="66"/>
+      <c r="F296" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="G296" s="69" t="s">
+        <v>213</v>
+      </c>
+      <c r="H296" s="69" t="s">
+        <v>214</v>
+      </c>
+      <c r="I296" s="30"/>
+      <c r="J296" s="30"/>
+    </row>
+    <row r="297" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A297" s="34"/>
+      <c r="B297" s="66"/>
+      <c r="C297" s="66"/>
+      <c r="D297" s="60"/>
+      <c r="E297" s="66"/>
+      <c r="F297" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="G297" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="H297" s="69" t="s">
+        <v>217</v>
+      </c>
+      <c r="I297" s="30"/>
+      <c r="J297" s="30"/>
+    </row>
+    <row r="298" spans="1:10" ht="154.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A298" s="34"/>
+      <c r="B298" s="66"/>
+      <c r="C298" s="66"/>
+      <c r="D298" s="60"/>
+      <c r="E298" s="66"/>
+      <c r="F298" s="69" t="s">
+        <v>26</v>
+      </c>
+      <c r="G298" s="69" t="s">
+        <v>218</v>
+      </c>
+      <c r="H298" s="70" t="s">
+        <v>219</v>
+      </c>
+      <c r="I298" s="30"/>
+      <c r="J298" s="30"/>
+    </row>
+    <row r="299" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A299" s="34"/>
+      <c r="B299" s="66"/>
+      <c r="C299" s="66"/>
+      <c r="D299" s="60"/>
+      <c r="E299" s="66"/>
+      <c r="F299" s="69" t="s">
+        <v>29</v>
+      </c>
+      <c r="G299" s="69" t="s">
+        <v>280</v>
+      </c>
+      <c r="H299" s="69" t="s">
+        <v>281</v>
+      </c>
+      <c r="I299" s="30"/>
+      <c r="J299" s="30"/>
+    </row>
+    <row r="300" spans="1:10" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A300" s="34"/>
+      <c r="B300" s="66"/>
+      <c r="C300" s="66"/>
+      <c r="D300" s="60"/>
+      <c r="E300" s="66"/>
+      <c r="F300" s="69" t="s">
+        <v>32</v>
+      </c>
+      <c r="G300" s="69" t="s">
+        <v>241</v>
+      </c>
+      <c r="H300" s="70" t="s">
+        <v>242</v>
+      </c>
+      <c r="I300" s="30"/>
+      <c r="J300" s="30"/>
+    </row>
+    <row r="301" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A301" s="34"/>
+      <c r="B301" s="66"/>
+      <c r="C301" s="66"/>
+      <c r="D301" s="60"/>
+      <c r="E301" s="66"/>
+      <c r="F301" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="G301" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="H301" s="69" t="s">
+        <v>243</v>
+      </c>
+      <c r="I301" s="30"/>
+      <c r="J301" s="30"/>
+    </row>
+    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A302" s="34"/>
+      <c r="B302" s="66"/>
+      <c r="C302" s="66"/>
+      <c r="D302" s="60"/>
+      <c r="E302" s="66"/>
+      <c r="F302" s="69" t="s">
+        <v>37</v>
+      </c>
+      <c r="G302" s="69" t="s">
+        <v>112</v>
+      </c>
+      <c r="H302" s="69" t="s">
+        <v>113</v>
+      </c>
+      <c r="I302" s="30"/>
+      <c r="J302" s="30"/>
+    </row>
+    <row r="303" spans="1:10" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A303" s="34"/>
+      <c r="B303" s="66"/>
+      <c r="C303" s="66"/>
+      <c r="D303" s="60"/>
+      <c r="E303" s="66"/>
+      <c r="F303" s="69" t="s">
+        <v>47</v>
+      </c>
+      <c r="G303" s="69" t="s">
+        <v>114</v>
+      </c>
+      <c r="H303" s="70" t="s">
+        <v>245</v>
+      </c>
+      <c r="I303" s="30"/>
+      <c r="J303" s="30"/>
+    </row>
+    <row r="304" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A304" s="34"/>
+      <c r="B304" s="66"/>
+      <c r="C304" s="66"/>
+      <c r="D304" s="60"/>
+      <c r="E304" s="66"/>
+      <c r="F304" s="69" t="s">
+        <v>244</v>
+      </c>
+      <c r="G304" s="69" t="s">
+        <v>282</v>
+      </c>
+      <c r="H304" s="69" t="s">
+        <v>283</v>
+      </c>
+      <c r="I304" s="30"/>
+      <c r="J304" s="30"/>
+    </row>
+    <row r="305" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A305" s="34"/>
+      <c r="B305" s="66"/>
+      <c r="C305" s="66"/>
+      <c r="D305" s="60"/>
+      <c r="E305" s="66"/>
+      <c r="F305" s="69" t="s">
+        <v>246</v>
+      </c>
+      <c r="G305" s="69" t="s">
+        <v>223</v>
+      </c>
+      <c r="H305" s="70" t="s">
+        <v>250</v>
+      </c>
+      <c r="I305" s="30"/>
+      <c r="J305" s="30"/>
+    </row>
+    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A306" s="34"/>
+      <c r="B306" s="35">
+        <v>3</v>
+      </c>
+      <c r="C306" s="35">
+        <v>10</v>
+      </c>
+      <c r="D306" s="35" t="s">
+        <v>284</v>
+      </c>
+      <c r="E306" s="71" t="s">
+        <v>285</v>
+      </c>
+      <c r="F306" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G306" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="H306" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="I306" s="20"/>
+      <c r="J306" s="20"/>
+    </row>
+    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A307" s="34"/>
+      <c r="B307" s="35"/>
+      <c r="C307" s="35"/>
+      <c r="D307" s="35"/>
+      <c r="E307" s="50"/>
+      <c r="F307" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G307" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="H307" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="I307" s="11"/>
+      <c r="J307" s="11"/>
+    </row>
+    <row r="308" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A308" s="34"/>
+      <c r="B308" s="35"/>
+      <c r="C308" s="35"/>
+      <c r="D308" s="35"/>
+      <c r="E308" s="50"/>
+      <c r="F308" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G308" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="H308" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="I308" s="11"/>
+      <c r="J308" s="11"/>
+    </row>
+    <row r="309" spans="1:10" ht="154.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A309" s="34"/>
+      <c r="B309" s="35"/>
+      <c r="C309" s="35"/>
+      <c r="D309" s="35"/>
+      <c r="E309" s="50"/>
+      <c r="F309" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G309" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="H309" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="I309" s="11"/>
+      <c r="J309" s="11"/>
+    </row>
+    <row r="310" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A310" s="34"/>
+      <c r="B310" s="35"/>
+      <c r="C310" s="35"/>
+      <c r="D310" s="35"/>
+      <c r="E310" s="50"/>
+      <c r="F310" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="G310" s="72" t="s">
+        <v>254</v>
+      </c>
+      <c r="H310" s="72" t="s">
+        <v>256</v>
+      </c>
+      <c r="I310" s="11"/>
+      <c r="J310" s="11"/>
+    </row>
+    <row r="311" spans="1:10" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A311" s="34"/>
+      <c r="B311" s="35"/>
+      <c r="C311" s="35"/>
+      <c r="D311" s="35"/>
+      <c r="E311" s="50"/>
+      <c r="F311" s="72" t="s">
+        <v>32</v>
+      </c>
+      <c r="G311" s="72" t="s">
+        <v>241</v>
+      </c>
+      <c r="H311" s="73" t="s">
+        <v>46</v>
+      </c>
+      <c r="I311" s="11"/>
+      <c r="J311" s="11"/>
+    </row>
+    <row r="312" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A312" s="34"/>
+      <c r="B312" s="35"/>
+      <c r="C312" s="35"/>
+      <c r="D312" s="35"/>
+      <c r="E312" s="50"/>
+      <c r="F312" s="72" t="s">
+        <v>35</v>
+      </c>
+      <c r="G312" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="H312" s="72" t="s">
+        <v>286</v>
+      </c>
+      <c r="I312" s="11"/>
+      <c r="J312" s="11"/>
+    </row>
+    <row r="313" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A313" s="34"/>
+      <c r="B313" s="35"/>
+      <c r="C313" s="35"/>
+      <c r="D313" s="35"/>
+      <c r="E313" s="50"/>
+      <c r="F313" s="72" t="s">
+        <v>37</v>
+      </c>
+      <c r="G313" s="72" t="s">
+        <v>49</v>
+      </c>
+      <c r="H313" s="72" t="s">
+        <v>287</v>
+      </c>
+      <c r="I313" s="11"/>
+      <c r="J313" s="11"/>
+    </row>
+    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A314" s="34"/>
+      <c r="B314" s="47">
+        <v>3</v>
+      </c>
+      <c r="C314" s="47">
+        <v>11</v>
+      </c>
+      <c r="D314" s="47" t="s">
+        <v>288</v>
+      </c>
+      <c r="E314" s="59" t="s">
+        <v>289</v>
+      </c>
+      <c r="F314" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G314" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="H314" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="I314" s="13"/>
+      <c r="J314" s="13"/>
+    </row>
+    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A315" s="34"/>
+      <c r="B315" s="47"/>
+      <c r="C315" s="47"/>
+      <c r="D315" s="47"/>
+      <c r="E315" s="60"/>
+      <c r="F315" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G315" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="H315" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="I315" s="9"/>
+      <c r="J315" s="9"/>
+    </row>
+    <row r="316" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A316" s="34"/>
+      <c r="B316" s="47"/>
+      <c r="C316" s="47"/>
+      <c r="D316" s="47"/>
+      <c r="E316" s="60"/>
+      <c r="F316" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G316" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="H316" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="I316" s="9"/>
+      <c r="J316" s="9"/>
+    </row>
+    <row r="317" spans="1:10" ht="154.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A317" s="34"/>
+      <c r="B317" s="47"/>
+      <c r="C317" s="47"/>
+      <c r="D317" s="47"/>
+      <c r="E317" s="60"/>
+      <c r="F317" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G317" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H317" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="I317" s="9"/>
+      <c r="J317" s="9"/>
+    </row>
+    <row r="318" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A318" s="34"/>
+      <c r="B318" s="47"/>
+      <c r="C318" s="47"/>
+      <c r="D318" s="47"/>
+      <c r="E318" s="60"/>
+      <c r="F318" s="69" t="s">
+        <v>29</v>
+      </c>
+      <c r="G318" s="69" t="s">
+        <v>290</v>
+      </c>
+      <c r="H318" s="69" t="s">
+        <v>255</v>
+      </c>
+      <c r="I318" s="9"/>
+      <c r="J318" s="9"/>
+    </row>
+    <row r="319" spans="1:10" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A319" s="34"/>
+      <c r="B319" s="47"/>
+      <c r="C319" s="47"/>
+      <c r="D319" s="47"/>
+      <c r="E319" s="60"/>
+      <c r="F319" s="69" t="s">
+        <v>32</v>
+      </c>
+      <c r="G319" s="69" t="s">
+        <v>241</v>
+      </c>
+      <c r="H319" s="70" t="s">
+        <v>46</v>
+      </c>
+      <c r="I319" s="9"/>
+      <c r="J319" s="9"/>
+    </row>
+    <row r="320" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A320" s="34"/>
+      <c r="B320" s="47"/>
+      <c r="C320" s="47"/>
+      <c r="D320" s="47"/>
+      <c r="E320" s="60"/>
+      <c r="F320" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="G320" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="H320" s="69" t="s">
+        <v>286</v>
+      </c>
+      <c r="I320" s="9"/>
+      <c r="J320" s="9"/>
+    </row>
+    <row r="321" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A321" s="34"/>
+      <c r="B321" s="47"/>
+      <c r="C321" s="47"/>
+      <c r="D321" s="47"/>
+      <c r="E321" s="60"/>
+      <c r="F321" s="69" t="s">
+        <v>37</v>
+      </c>
+      <c r="G321" s="69" t="s">
+        <v>49</v>
+      </c>
+      <c r="H321" s="69" t="s">
+        <v>287</v>
+      </c>
+      <c r="I321" s="9"/>
+      <c r="J321" s="9"/>
+    </row>
+    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A322" s="34"/>
+      <c r="B322" s="35">
+        <v>3</v>
+      </c>
+      <c r="C322" s="35">
+        <v>12</v>
+      </c>
+      <c r="D322" s="35" t="s">
+        <v>291</v>
+      </c>
+      <c r="E322" s="71" t="s">
+        <v>292</v>
+      </c>
+      <c r="F322" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G322" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="H322" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="I322" s="20"/>
+      <c r="J322" s="20"/>
+    </row>
+    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A323" s="34"/>
+      <c r="B323" s="35"/>
+      <c r="C323" s="35"/>
+      <c r="D323" s="35"/>
+      <c r="E323" s="50"/>
+      <c r="F323" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G323" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="H323" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="I323" s="11"/>
+      <c r="J323" s="11"/>
+    </row>
+    <row r="324" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A324" s="34"/>
+      <c r="B324" s="35"/>
+      <c r="C324" s="35"/>
+      <c r="D324" s="35"/>
+      <c r="E324" s="50"/>
+      <c r="F324" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G324" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="H324" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="I324" s="11"/>
+      <c r="J324" s="11"/>
+    </row>
+    <row r="325" spans="1:10" ht="154.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A325" s="34"/>
+      <c r="B325" s="35"/>
+      <c r="C325" s="35"/>
+      <c r="D325" s="35"/>
+      <c r="E325" s="50"/>
+      <c r="F325" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G325" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="H325" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="I325" s="11"/>
+      <c r="J325" s="11"/>
+    </row>
+    <row r="326" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A326" s="34"/>
+      <c r="B326" s="35"/>
+      <c r="C326" s="35"/>
+      <c r="D326" s="35"/>
+      <c r="E326" s="50"/>
+      <c r="F326" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="G326" s="72" t="s">
+        <v>290</v>
+      </c>
+      <c r="H326" s="72" t="s">
+        <v>255</v>
+      </c>
+      <c r="I326" s="11"/>
+      <c r="J326" s="11"/>
+    </row>
+    <row r="327" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A327" s="34"/>
+      <c r="B327" s="35"/>
+      <c r="C327" s="35"/>
+      <c r="D327" s="35"/>
+      <c r="E327" s="50"/>
+      <c r="F327" s="72" t="s">
+        <v>32</v>
+      </c>
+      <c r="G327" s="72" t="s">
+        <v>293</v>
+      </c>
+      <c r="H327" s="72" t="s">
+        <v>294</v>
+      </c>
+      <c r="I327" s="11"/>
+      <c r="J327" s="11"/>
+    </row>
+    <row r="328" spans="1:10" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A328" s="34"/>
+      <c r="B328" s="35"/>
+      <c r="C328" s="35"/>
+      <c r="D328" s="35"/>
+      <c r="E328" s="50"/>
+      <c r="F328" s="72" t="s">
+        <v>35</v>
+      </c>
+      <c r="G328" s="72" t="s">
+        <v>241</v>
+      </c>
+      <c r="H328" s="73" t="s">
+        <v>46</v>
+      </c>
+      <c r="I328" s="11"/>
+      <c r="J328" s="11"/>
+    </row>
+    <row r="329" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A329" s="34"/>
+      <c r="B329" s="35"/>
+      <c r="C329" s="35"/>
+      <c r="D329" s="35"/>
+      <c r="E329" s="50"/>
+      <c r="F329" s="72" t="s">
+        <v>37</v>
+      </c>
+      <c r="G329" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="H329" s="72" t="s">
+        <v>286</v>
+      </c>
+      <c r="I329" s="11"/>
+      <c r="J329" s="11"/>
+    </row>
+    <row r="330" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A330" s="34"/>
+      <c r="B330" s="35"/>
+      <c r="C330" s="35"/>
+      <c r="D330" s="35"/>
+      <c r="E330" s="50"/>
+      <c r="F330" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="G330" s="72" t="s">
+        <v>49</v>
+      </c>
+      <c r="H330" s="72" t="s">
+        <v>287</v>
+      </c>
+      <c r="I330" s="11"/>
+      <c r="J330" s="11"/>
+    </row>
+    <row r="331" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="337" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="338" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="339" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10791,76 +12408,107 @@
     <row r="520" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="521" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="522" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A1:J1" xr:uid="{B0953F3B-78FC-43F3-9402-DE0C5199EBA3}"/>
-  <mergeCells count="157">
-    <mergeCell ref="A273:A285"/>
-    <mergeCell ref="B273:B285"/>
-    <mergeCell ref="C273:C285"/>
-    <mergeCell ref="D273:D285"/>
-    <mergeCell ref="E273:E285"/>
-    <mergeCell ref="A243:A247"/>
-    <mergeCell ref="B243:B247"/>
-    <mergeCell ref="C243:C247"/>
-    <mergeCell ref="D243:D247"/>
-    <mergeCell ref="E243:E247"/>
-    <mergeCell ref="A260:A272"/>
-    <mergeCell ref="B260:B272"/>
-    <mergeCell ref="C260:C272"/>
-    <mergeCell ref="D260:D272"/>
-    <mergeCell ref="E260:E272"/>
-    <mergeCell ref="A233:A237"/>
-    <mergeCell ref="B233:B237"/>
-    <mergeCell ref="C233:C237"/>
-    <mergeCell ref="D233:D237"/>
-    <mergeCell ref="E233:E237"/>
-    <mergeCell ref="A238:A242"/>
-    <mergeCell ref="B238:B242"/>
-    <mergeCell ref="C238:C242"/>
-    <mergeCell ref="D238:D242"/>
-    <mergeCell ref="E238:E242"/>
-    <mergeCell ref="B180:B187"/>
-    <mergeCell ref="C180:C187"/>
-    <mergeCell ref="D180:D187"/>
-    <mergeCell ref="E180:E187"/>
-    <mergeCell ref="B188:B195"/>
-    <mergeCell ref="C188:C195"/>
-    <mergeCell ref="D188:D195"/>
-    <mergeCell ref="A228:A232"/>
-    <mergeCell ref="B228:B232"/>
-    <mergeCell ref="C228:C232"/>
-    <mergeCell ref="D228:D232"/>
-    <mergeCell ref="E228:E232"/>
-    <mergeCell ref="C220:C227"/>
-    <mergeCell ref="D220:D227"/>
-    <mergeCell ref="E220:E227"/>
-    <mergeCell ref="B196:B203"/>
-    <mergeCell ref="C196:C203"/>
-    <mergeCell ref="D196:D203"/>
-    <mergeCell ref="E196:E203"/>
-    <mergeCell ref="B204:B211"/>
-    <mergeCell ref="C204:C211"/>
-    <mergeCell ref="D204:D211"/>
-    <mergeCell ref="E204:E211"/>
-    <mergeCell ref="B145:B151"/>
-    <mergeCell ref="C145:C151"/>
-    <mergeCell ref="D145:D151"/>
-    <mergeCell ref="E145:E151"/>
-    <mergeCell ref="B131:B137"/>
-    <mergeCell ref="C131:C137"/>
-    <mergeCell ref="D131:D137"/>
-    <mergeCell ref="E131:E137"/>
-    <mergeCell ref="B152:B158"/>
-    <mergeCell ref="C152:C158"/>
-    <mergeCell ref="D152:D158"/>
-    <mergeCell ref="E152:E158"/>
+  <mergeCells count="182">
+    <mergeCell ref="A322:A330"/>
+    <mergeCell ref="B322:B330"/>
+    <mergeCell ref="C322:C330"/>
+    <mergeCell ref="D322:D330"/>
+    <mergeCell ref="E322:E330"/>
+    <mergeCell ref="A306:A313"/>
+    <mergeCell ref="B306:B313"/>
+    <mergeCell ref="C306:C313"/>
+    <mergeCell ref="D306:D313"/>
+    <mergeCell ref="E306:E313"/>
+    <mergeCell ref="A314:A321"/>
+    <mergeCell ref="B314:B321"/>
+    <mergeCell ref="C314:C321"/>
+    <mergeCell ref="D314:D321"/>
+    <mergeCell ref="E314:E321"/>
+    <mergeCell ref="A284:A294"/>
+    <mergeCell ref="B284:B294"/>
+    <mergeCell ref="C284:C294"/>
+    <mergeCell ref="D284:D294"/>
+    <mergeCell ref="E284:E294"/>
+    <mergeCell ref="A295:A305"/>
+    <mergeCell ref="B295:B305"/>
+    <mergeCell ref="C295:C305"/>
+    <mergeCell ref="D295:D305"/>
+    <mergeCell ref="E295:E305"/>
+    <mergeCell ref="E159:E165"/>
+    <mergeCell ref="B166:B172"/>
+    <mergeCell ref="C166:C172"/>
+    <mergeCell ref="D166:D172"/>
+    <mergeCell ref="E166:E172"/>
+    <mergeCell ref="A248:A259"/>
+    <mergeCell ref="B248:B259"/>
+    <mergeCell ref="C248:C259"/>
+    <mergeCell ref="D248:D259"/>
+    <mergeCell ref="E248:E259"/>
+    <mergeCell ref="E188:E195"/>
+    <mergeCell ref="B173:B179"/>
+    <mergeCell ref="C173:C179"/>
+    <mergeCell ref="D173:D179"/>
+    <mergeCell ref="E173:E179"/>
+    <mergeCell ref="B159:B165"/>
+    <mergeCell ref="C159:C165"/>
+    <mergeCell ref="D159:D165"/>
+    <mergeCell ref="A81:A227"/>
+    <mergeCell ref="B212:B219"/>
+    <mergeCell ref="C212:C219"/>
+    <mergeCell ref="D212:D219"/>
+    <mergeCell ref="E212:E219"/>
+    <mergeCell ref="B220:B227"/>
+    <mergeCell ref="B111:B117"/>
+    <mergeCell ref="C111:C117"/>
+    <mergeCell ref="D111:D117"/>
+    <mergeCell ref="E111:E117"/>
+    <mergeCell ref="B125:B130"/>
+    <mergeCell ref="C125:C130"/>
+    <mergeCell ref="D125:D130"/>
+    <mergeCell ref="E125:E130"/>
+    <mergeCell ref="B138:B144"/>
+    <mergeCell ref="C138:C144"/>
+    <mergeCell ref="D138:D144"/>
+    <mergeCell ref="E138:E144"/>
+    <mergeCell ref="B118:B124"/>
+    <mergeCell ref="C118:C124"/>
+    <mergeCell ref="D118:D124"/>
+    <mergeCell ref="E118:E124"/>
+    <mergeCell ref="B72:B80"/>
+    <mergeCell ref="C72:C80"/>
+    <mergeCell ref="D72:D80"/>
+    <mergeCell ref="E72:E80"/>
+    <mergeCell ref="B91:B96"/>
+    <mergeCell ref="C91:C96"/>
+    <mergeCell ref="D91:D96"/>
+    <mergeCell ref="E91:E96"/>
+    <mergeCell ref="B85:B90"/>
+    <mergeCell ref="C85:C90"/>
+    <mergeCell ref="D85:D90"/>
+    <mergeCell ref="E85:E90"/>
+    <mergeCell ref="B10:B18"/>
+    <mergeCell ref="E28:E36"/>
+    <mergeCell ref="B37:B45"/>
+    <mergeCell ref="C37:C45"/>
+    <mergeCell ref="D37:D45"/>
+    <mergeCell ref="E37:E45"/>
+    <mergeCell ref="B28:B36"/>
+    <mergeCell ref="C28:C36"/>
+    <mergeCell ref="D28:D36"/>
+    <mergeCell ref="B46:B54"/>
+    <mergeCell ref="C46:C54"/>
+    <mergeCell ref="D46:D54"/>
+    <mergeCell ref="E46:E54"/>
+    <mergeCell ref="B55:B62"/>
+    <mergeCell ref="C55:C62"/>
+    <mergeCell ref="D55:D62"/>
+    <mergeCell ref="E55:E62"/>
+    <mergeCell ref="B63:B71"/>
+    <mergeCell ref="C63:C71"/>
+    <mergeCell ref="D63:D71"/>
+    <mergeCell ref="E63:E71"/>
     <mergeCell ref="A2:A80"/>
     <mergeCell ref="B104:B110"/>
     <mergeCell ref="C104:C110"/>
@@ -10885,79 +12533,66 @@
     <mergeCell ref="C97:C103"/>
     <mergeCell ref="D97:D103"/>
     <mergeCell ref="E97:E103"/>
-    <mergeCell ref="B46:B54"/>
-    <mergeCell ref="C46:C54"/>
-    <mergeCell ref="D46:D54"/>
-    <mergeCell ref="E46:E54"/>
-    <mergeCell ref="B55:B62"/>
-    <mergeCell ref="C55:C62"/>
-    <mergeCell ref="D55:D62"/>
-    <mergeCell ref="E55:E62"/>
-    <mergeCell ref="B63:B71"/>
-    <mergeCell ref="C63:C71"/>
-    <mergeCell ref="D63:D71"/>
-    <mergeCell ref="B10:B18"/>
-    <mergeCell ref="E28:E36"/>
-    <mergeCell ref="B37:B45"/>
-    <mergeCell ref="C37:C45"/>
-    <mergeCell ref="D37:D45"/>
-    <mergeCell ref="E37:E45"/>
-    <mergeCell ref="B28:B36"/>
-    <mergeCell ref="C28:C36"/>
-    <mergeCell ref="D28:D36"/>
-    <mergeCell ref="E63:E71"/>
-    <mergeCell ref="B72:B80"/>
-    <mergeCell ref="C72:C80"/>
-    <mergeCell ref="D72:D80"/>
-    <mergeCell ref="E72:E80"/>
-    <mergeCell ref="B91:B96"/>
-    <mergeCell ref="C91:C96"/>
-    <mergeCell ref="D91:D96"/>
-    <mergeCell ref="E91:E96"/>
-    <mergeCell ref="B85:B90"/>
-    <mergeCell ref="C85:C90"/>
-    <mergeCell ref="D85:D90"/>
-    <mergeCell ref="E85:E90"/>
-    <mergeCell ref="B111:B117"/>
-    <mergeCell ref="C111:C117"/>
-    <mergeCell ref="D111:D117"/>
-    <mergeCell ref="E111:E117"/>
-    <mergeCell ref="B125:B130"/>
-    <mergeCell ref="C125:C130"/>
-    <mergeCell ref="D125:D130"/>
-    <mergeCell ref="E125:E130"/>
-    <mergeCell ref="B138:B144"/>
-    <mergeCell ref="C138:C144"/>
-    <mergeCell ref="D138:D144"/>
-    <mergeCell ref="E138:E144"/>
-    <mergeCell ref="B118:B124"/>
-    <mergeCell ref="C118:C124"/>
-    <mergeCell ref="D118:D124"/>
-    <mergeCell ref="E118:E124"/>
-    <mergeCell ref="E159:E165"/>
-    <mergeCell ref="B166:B172"/>
-    <mergeCell ref="C166:C172"/>
-    <mergeCell ref="D166:D172"/>
-    <mergeCell ref="E166:E172"/>
-    <mergeCell ref="A248:A259"/>
-    <mergeCell ref="B248:B259"/>
-    <mergeCell ref="C248:C259"/>
-    <mergeCell ref="D248:D259"/>
-    <mergeCell ref="E248:E259"/>
-    <mergeCell ref="E188:E195"/>
-    <mergeCell ref="B173:B179"/>
-    <mergeCell ref="C173:C179"/>
-    <mergeCell ref="D173:D179"/>
-    <mergeCell ref="E173:E179"/>
-    <mergeCell ref="B159:B165"/>
-    <mergeCell ref="C159:C165"/>
-    <mergeCell ref="D159:D165"/>
-    <mergeCell ref="A81:A227"/>
-    <mergeCell ref="B212:B219"/>
-    <mergeCell ref="C212:C219"/>
-    <mergeCell ref="D212:D219"/>
-    <mergeCell ref="E212:E219"/>
-    <mergeCell ref="B220:B227"/>
+    <mergeCell ref="B145:B151"/>
+    <mergeCell ref="C145:C151"/>
+    <mergeCell ref="D145:D151"/>
+    <mergeCell ref="E145:E151"/>
+    <mergeCell ref="B131:B137"/>
+    <mergeCell ref="C131:C137"/>
+    <mergeCell ref="D131:D137"/>
+    <mergeCell ref="E131:E137"/>
+    <mergeCell ref="B152:B158"/>
+    <mergeCell ref="C152:C158"/>
+    <mergeCell ref="D152:D158"/>
+    <mergeCell ref="E152:E158"/>
+    <mergeCell ref="B180:B187"/>
+    <mergeCell ref="C180:C187"/>
+    <mergeCell ref="D180:D187"/>
+    <mergeCell ref="E180:E187"/>
+    <mergeCell ref="B188:B195"/>
+    <mergeCell ref="C188:C195"/>
+    <mergeCell ref="D188:D195"/>
+    <mergeCell ref="A228:A232"/>
+    <mergeCell ref="B228:B232"/>
+    <mergeCell ref="C228:C232"/>
+    <mergeCell ref="D228:D232"/>
+    <mergeCell ref="E228:E232"/>
+    <mergeCell ref="C220:C227"/>
+    <mergeCell ref="D220:D227"/>
+    <mergeCell ref="E220:E227"/>
+    <mergeCell ref="B196:B203"/>
+    <mergeCell ref="C196:C203"/>
+    <mergeCell ref="D196:D203"/>
+    <mergeCell ref="E196:E203"/>
+    <mergeCell ref="B204:B211"/>
+    <mergeCell ref="C204:C211"/>
+    <mergeCell ref="D204:D211"/>
+    <mergeCell ref="E204:E211"/>
+    <mergeCell ref="A233:A237"/>
+    <mergeCell ref="B233:B237"/>
+    <mergeCell ref="C233:C237"/>
+    <mergeCell ref="D233:D237"/>
+    <mergeCell ref="E233:E237"/>
+    <mergeCell ref="A238:A242"/>
+    <mergeCell ref="B238:B242"/>
+    <mergeCell ref="C238:C242"/>
+    <mergeCell ref="D238:D242"/>
+    <mergeCell ref="E238:E242"/>
+    <mergeCell ref="A273:A283"/>
+    <mergeCell ref="B273:B283"/>
+    <mergeCell ref="C273:C283"/>
+    <mergeCell ref="D273:D283"/>
+    <mergeCell ref="E273:E283"/>
+    <mergeCell ref="A243:A247"/>
+    <mergeCell ref="B243:B247"/>
+    <mergeCell ref="C243:C247"/>
+    <mergeCell ref="D243:D247"/>
+    <mergeCell ref="E243:E247"/>
+    <mergeCell ref="A260:A272"/>
+    <mergeCell ref="B260:B272"/>
+    <mergeCell ref="C260:C272"/>
+    <mergeCell ref="D260:D272"/>
+    <mergeCell ref="E260:E272"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10983,13 +12618,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="65" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
@@ -11145,13 +12780,13 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="50" t="s">
+      <c r="A11" s="65" t="s">
         <v>122</v>
       </c>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
@@ -11239,13 +12874,13 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="50" t="s">
+      <c r="A17" s="65" t="s">
         <v>127</v>
       </c>
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
@@ -11333,13 +12968,13 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="50" t="s">
+      <c r="A23" s="65" t="s">
         <v>159</v>
       </c>
-      <c r="B23" s="50"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
